--- a/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHOD.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHOD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2FF128-5BB2-4F9A-AF7B-963BDE30E7E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEC2637-F46E-4159-BD13-178C3501427F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="870" windowWidth="25725" windowHeight="15630" activeTab="6" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="18405" yWindow="1950" windowWidth="25725" windowHeight="15630" firstSheet="4" activeTab="6" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="&lt;zalldev&gt;TEMPLATEKZ" sheetId="17" r:id="rId6"/>
     <sheet name="&lt;zalldev&gt;EXPORT" sheetId="11" r:id="rId7"/>
     <sheet name="&lt;zall&gt;CABEXPORT" sheetId="14" r:id="rId8"/>
+    <sheet name="&lt;zlight&gt;SET" sheetId="18" r:id="rId9"/>
+    <sheet name="&lt;zlight&gt;TEMP" sheetId="21" r:id="rId10"/>
+    <sheet name="&lt;zlight&gt;" sheetId="20" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +40,525 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>BobrovV</author>
+    <author>SNARK</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B002D708-261A-46F1-855E-CD858E43F7A9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Передаваемые данные, имя данного щита</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{0343C2E9-4DA9-4C1E-BCEB-24B3A4C7323F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Расчетная мощность данного щита, кВт</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{72BDE010-372B-41C6-838A-E3B8AE6E0940}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Коэффициент мощности, cosf</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{C027A75B-F683-47BA-89DC-FCA38E490013}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Напряжение питания данного щита</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{2F1CD3CE-AEC0-4812-8F1C-24B6358B535E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Количества фаз питания щита</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{B401FA04-A795-46D4-8763-84CF0A906686}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>1-я полка защиты. Коды:
+ВН-выключатель нагрузки
+АВ-автоматический выключатель
+АВДТ-автоматический вык. дифф тока
+УЗО - устройство защитного отключения
+УЗДП - устройство защиты дугового пробоя</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{4074DB5B-64A7-4F5B-882D-5A34B6DB8EDE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Объеденение фидеров идет цифарками. Одинаковвые цифры объеденятся под одну полку.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>ВНИМАНИЕ! Одинаковые должны быть расположены рядом!!!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{03FFD99F-C905-42BA-87A4-2CA1634FC2FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>2-я полка схемы. Коды:
+ВН-выключатель нагрузки
+АВ-автоматический выключатель
+АВДТ-автоматический вык. дифф тока
+УЗО - устройство защитного отключения
+УЗДП - устройство защиты дугового пробоя
+ТТ - трансофрматор тока
+УЧЕТ - счетчик
+ЩУ - щит управления</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{11CFE061-86EE-4701-8F3A-743D05CA9B46}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Что будет установлено на 1-ом уровне схемы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{D99C9A81-29E1-495F-91F0-AC38AC34A854}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Что будет установлено на 2-ом уровне схемы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{19C71313-9868-4587-BC88-C9A1BC4ADDEC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Имя или позиция устройства</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O23" authorId="0" shapeId="0" xr:uid="{1292265B-DE71-48A5-86CE-AA13798E1C7A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Имя или позиция устройства</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R23" authorId="0" shapeId="0" xr:uid="{918E955D-57D1-4F96-B04B-3F4534753A5B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Мощность одного устройства * количество устройств * коэффициент спроса</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V23" authorId="0" shapeId="0" xr:uid="{F3BE14A9-D47F-4466-AE34-7B36617DA817}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Мощность единичного устройства(позиции)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W23" authorId="0" shapeId="0" xr:uid="{457C414C-2F0C-43F1-B51D-B08C6B507AA6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Количество устройств с одинаковой позицией</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X23" authorId="0" shapeId="0" xr:uid="{1620A121-CF3A-429A-8549-362904C031BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Коэффициент спроса
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y23" authorId="0" shapeId="0" xr:uid="{420CECB1-4FEA-4A95-B35B-C8B4A7F91C8E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Пункт таблицы из СП256.
+Пример записи:
+табл.7.1п.1 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z23" authorId="1" shapeId="0" xr:uid="{F374FA2A-E6E1-488F-97B5-2608581BB697}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Номинальное 
+напряжение</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA23" authorId="0" shapeId="0" xr:uid="{D2A0D3CC-286C-42C4-A68B-F066A863CB8A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Коэффициент спроса на группу</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH23" authorId="0" shapeId="0" xr:uid="{825A68CB-9CE5-4EF4-90F6-5701746346BC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Коэффициент запаса по току для подбора электротехнического оборудования</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM23" authorId="0" shapeId="0" xr:uid="{2090420F-571C-4D0F-8669-44233AE0EB9D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Материал кабеля:
+М - Медь,
+А - Алюминий</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN23" authorId="0" shapeId="0" xr:uid="{59364D46-FEAD-4FBA-A7CC-D0D1DAAEAA70}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Жильность кабеля:
+О-одножильный;
+М-многожильный</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO23" authorId="0" shapeId="0" xr:uid="{03E1B027-710B-4D77-93C1-A92BB534A913}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Место монтажа кабеля:
+В - воздух
+З - земле</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ23" authorId="0" shapeId="0" xr:uid="{F39BFA58-8E74-40A7-B3FE-A15C54A41208}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>В сечение учитывается так, что бы сечение было обязательно больше минимального сечения, и выбирается самое большое из сечение ΔUmax и Iддт</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX23" authorId="0" shapeId="0" xr:uid="{42617EC5-9B5A-426C-B5EC-04AC02124BEF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>1-я полка защиты. Коды:
+ВН-выключатель нагрузки
+АВ-автоматический выключатель
+АВДТ-автоматический вык. дифф тока
+УЗО - устройство защитного отключения
+УЗДП - устройство защиты дугового пробоя</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY23" authorId="0" shapeId="0" xr:uid="{4D5D5AC1-F4E1-46CC-A860-4D58A7B3B0D8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Объеденение фидеров идет цифарками. Одинаковвые цифры объеденятся под одну полку.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>ВНИМАНИЕ! Одинаковые должны быть расположены рядом!!!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA23" authorId="0" shapeId="0" xr:uid="{83C47805-63A7-4CEF-AAD5-9EABC0E7440B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Когда группируются токи</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC23" authorId="0" shapeId="0" xr:uid="{56D7776F-1E9D-4BF7-9264-B560352B344A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Коэффициент запаса по току для подбора 1 ур схемы,
+если не задано тогда 1,3</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="343">
   <si>
     <t>&lt;zlight&gt;</t>
   </si>
@@ -568,9 +1088,6 @@
     <t>&lt;zdevsettings name=[NMO_Name] type=[string]&gt;</t>
   </si>
   <si>
-    <t>&lt;zdevsettings name=[GC_HeadDevice] type=[string]&gt;</t>
-  </si>
-  <si>
     <t>&lt;zdevsettings name=[Power] type=[float]&gt;</t>
   </si>
   <si>
@@ -601,9 +1118,6 @@
     <t>Группа в ГУ</t>
   </si>
   <si>
-    <t>&lt;zdevsettings name=[GC_HDGroup] type=[string]&gt;</t>
-  </si>
-  <si>
     <t>Базовое имя (позиция)</t>
   </si>
   <si>
@@ -641,6 +1155,447 @@
   </si>
   <si>
     <t>Системная ячейка, которая говорит о копировании</t>
+  </si>
+  <si>
+    <t>&lt;/zcopyrow&gt;</t>
+  </si>
+  <si>
+    <t>VSCHEMAUGOtext</t>
+  </si>
+  <si>
+    <t>&lt;/zinsertblock&gt;</t>
+  </si>
+  <si>
+    <t>VSCHEMACable21</t>
+  </si>
+  <si>
+    <t>VSCHEMACable12</t>
+  </si>
+  <si>
+    <t>VSCHEMACable11</t>
+  </si>
+  <si>
+    <t>VSCHEMAFeedernamemain</t>
+  </si>
+  <si>
+    <t>VSCHEMADevname</t>
+  </si>
+  <si>
+    <t>VSCHEMADevamperage</t>
+  </si>
+  <si>
+    <t>VSCHEMADevpower</t>
+  </si>
+  <si>
+    <t>VSCHEMADevpos</t>
+  </si>
+  <si>
+    <t>VSCHEMALevel2finish</t>
+  </si>
+  <si>
+    <t>VSCHEMALevel2continue</t>
+  </si>
+  <si>
+    <t>VSCHEMALevel2start</t>
+  </si>
+  <si>
+    <t>VSCHEMALevel1finish</t>
+  </si>
+  <si>
+    <t>VSCHEMALevel1continue</t>
+  </si>
+  <si>
+    <t>VSCHEMALevel1start</t>
+  </si>
+  <si>
+    <t>VSCHEMALevel0start</t>
+  </si>
+  <si>
+    <t>VSCHEMAPhase3</t>
+  </si>
+  <si>
+    <t>DEVICE_VSCHEMA_PANEL_OUT</t>
+  </si>
+  <si>
+    <t>&lt;zinsertblock&gt;</t>
+  </si>
+  <si>
+    <t>АВТОМАТ 2-й</t>
+  </si>
+  <si>
+    <t>АВТОМАТ 1-й</t>
+  </si>
+  <si>
+    <t>Параметры</t>
+  </si>
+  <si>
+    <t>Марка</t>
+  </si>
+  <si>
+    <t>Обозначение</t>
+  </si>
+  <si>
+    <t>Ток утечки, мА</t>
+  </si>
+  <si>
+    <t>Кол-во полюсов</t>
+  </si>
+  <si>
+    <t>Характеристика</t>
+  </si>
+  <si>
+    <t>Ток, А</t>
+  </si>
+  <si>
+    <t>Выбран. уставка, А</t>
+  </si>
+  <si>
+    <t>Принуд. уставка, А</t>
+  </si>
+  <si>
+    <t>Руч уставка мин, А</t>
+  </si>
+  <si>
+    <t>Расчет уставки по току, А</t>
+  </si>
+  <si>
+    <t>Расч ток на групп с уч коэфф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коэф. запаса по току </t>
+  </si>
+  <si>
+    <t>Фаза (1,3)</t>
+  </si>
+  <si>
+    <t>Сумм групп ток ,А</t>
+  </si>
+  <si>
+    <t>Ток данной группы</t>
+  </si>
+  <si>
+    <t>Объеденены в одну группу</t>
+  </si>
+  <si>
+    <t>1-й уровень схемы</t>
+  </si>
+  <si>
+    <t>Сечение провод Iддт</t>
+  </si>
+  <si>
+    <t>Сечение провод ΔUmax</t>
+  </si>
+  <si>
+    <t>Сечение провод макс</t>
+  </si>
+  <si>
+    <t>Сечение провод мин</t>
+  </si>
+  <si>
+    <t>Zmax, Ом/км</t>
+  </si>
+  <si>
+    <t>Марка кабеля</t>
+  </si>
+  <si>
+    <t>Кол-во жил</t>
+  </si>
+  <si>
+    <t>Место</t>
+  </si>
+  <si>
+    <t>Жильность</t>
+  </si>
+  <si>
+    <t>Мате- риал</t>
+  </si>
+  <si>
+    <t>Длина, м</t>
+  </si>
+  <si>
+    <t>Полное имя кабеля</t>
+  </si>
+  <si>
+    <t>Полное имя фидера</t>
+  </si>
+  <si>
+    <t>ΔU max, %</t>
+  </si>
+  <si>
+    <t>Sp, 
+kVA</t>
+  </si>
+  <si>
+    <t>Qp, 
+kvar</t>
+  </si>
+  <si>
+    <t>Ip, 
+A</t>
+  </si>
+  <si>
+    <t>ΔU, %</t>
+  </si>
+  <si>
+    <t>Pр, 
+kW</t>
+  </si>
+  <si>
+    <t>Cosφ гр.</t>
+  </si>
+  <si>
+    <t>Кс гр.</t>
+  </si>
+  <si>
+    <t>Имя группы устройства</t>
+  </si>
+  <si>
+    <t>Пункт СП256 Кс</t>
+  </si>
+  <si>
+    <t>Кс</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>Pi,
+kW</t>
+  </si>
+  <si>
+    <t>Qm, 
+kvar</t>
+  </si>
+  <si>
+    <t>Ini, 
+A</t>
+  </si>
+  <si>
+    <t>Cos φ</t>
+  </si>
+  <si>
+    <t>Pni, 
+kW</t>
+  </si>
+  <si>
+    <t>Un, 
+V</t>
+  </si>
+  <si>
+    <t>Имя/поз. устр.</t>
+  </si>
+  <si>
+    <t>2 ур</t>
+  </si>
+  <si>
+    <t>1 ур</t>
+  </si>
+  <si>
+    <t>0 ур</t>
+  </si>
+  <si>
+    <t>VSCHEMAIp</t>
+  </si>
+  <si>
+    <t>VSCHEMACosf</t>
+  </si>
+  <si>
+    <t>VSCHEMAPp</t>
+  </si>
+  <si>
+    <t>VSCHEMAKc</t>
+  </si>
+  <si>
+    <t>VSCHEMAPy</t>
+  </si>
+  <si>
+    <t>VSCHEMAShieldname</t>
+  </si>
+  <si>
+    <t>VSCHEMAShieldpos</t>
+  </si>
+  <si>
+    <t>DEVICE_VSCHEMA_PANEL_IN</t>
+  </si>
+  <si>
+    <t>СИСТЕМНЫЕ ЯЧЕЙКИ</t>
+  </si>
+  <si>
+    <t>2-й уровню схемы данные</t>
+  </si>
+  <si>
+    <t>1-й уровню схемы данные</t>
+  </si>
+  <si>
+    <t>Данные по кабелю</t>
+  </si>
+  <si>
+    <t>Нагрузка на группу</t>
+  </si>
+  <si>
+    <t>Нагрузка на одну позицию устройств</t>
+  </si>
+  <si>
+    <t>Имя прокладываемого кабеля</t>
+  </si>
+  <si>
+    <t>Ур подключения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛУЧЕНО.2-й уровень схемы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОЛУЧЕНО.1-й уровень схемы </t>
+  </si>
+  <si>
+    <t>2-й уровень схемы</t>
+  </si>
+  <si>
+    <t>Имя фидера</t>
+  </si>
+  <si>
+    <t>Расчетный ток,А</t>
+  </si>
+  <si>
+    <t>Кол-во модулей по 18мм</t>
+  </si>
+  <si>
+    <t>Ток от установл. мощности фазы С, А</t>
+  </si>
+  <si>
+    <t>Электропитание осуществ. от</t>
+  </si>
+  <si>
+    <t>Ток от установл. мощности фазы B, А</t>
+  </si>
+  <si>
+    <t>TN-C-S (~220/380B, 3L,N,PE)</t>
+  </si>
+  <si>
+    <t>Тип питающей сити</t>
+  </si>
+  <si>
+    <t>Ток от установл. мощности фазы A, А</t>
+  </si>
+  <si>
+    <t>QF1</t>
+  </si>
+  <si>
+    <t>АВС</t>
+  </si>
+  <si>
+    <t>Количество фаз питания</t>
+  </si>
+  <si>
+    <t>Коэффициент спроса</t>
+  </si>
+  <si>
+    <t>100мА</t>
+  </si>
+  <si>
+    <t>Уставка дифференц. тока, мА</t>
+  </si>
+  <si>
+    <t>Напряжение питания щита, В</t>
+  </si>
+  <si>
+    <t>Кол. откл полюсов</t>
+  </si>
+  <si>
+    <t>Место установки щита</t>
+  </si>
+  <si>
+    <t>Расчетный ток от эквивалент. группы      3-х фаз с суммарной мощностью однофазных, А</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
+  <si>
+    <t>Тип защитной характеристики</t>
+  </si>
+  <si>
+    <t>IP54</t>
+  </si>
+  <si>
+    <t>Степень защиты оболочки</t>
+  </si>
+  <si>
+    <t>Коэффициент мощности, cosf</t>
+  </si>
+  <si>
+    <t>Предел коммутац. стойкость,кА</t>
+  </si>
+  <si>
+    <t>Навесное</t>
+  </si>
+  <si>
+    <t>Способ монтажа</t>
+  </si>
+  <si>
+    <t>Ток от установленной мощности, А</t>
+  </si>
+  <si>
+    <t>Уставка расцепителя,А</t>
+  </si>
+  <si>
+    <t>Артикул/код щита</t>
+  </si>
+  <si>
+    <t>Расчетная полная мощность, кВт</t>
+  </si>
+  <si>
+    <t>Номинальный ток, А</t>
+  </si>
+  <si>
+    <t>ЩРН-12</t>
+  </si>
+  <si>
+    <t>Марка оболочки щита</t>
+  </si>
+  <si>
+    <t>Установленная полная мощность, кВА</t>
+  </si>
+  <si>
+    <t>ВМ63-4С</t>
+  </si>
+  <si>
+    <t>Тип аппарата</t>
+  </si>
+  <si>
+    <t>Распред. устройство</t>
+  </si>
+  <si>
+    <t>Данные об итоговых значения нагрузок распред.</t>
+  </si>
+  <si>
+    <t>Аппарат на вводе распределительного</t>
+  </si>
+  <si>
+    <t>Данные распределительного устройства</t>
+  </si>
+  <si>
+    <t>&lt;zlight&gt;TEMP</t>
+  </si>
+  <si>
+    <t>&lt;zdevsettings name=[SLCABAGEN1_HeadDeviceName] type=[string]&gt;</t>
+  </si>
+  <si>
+    <t>&lt;zdevsettings name=[SLCABAGEN1_NGHeadDevice] type=[string]&gt;</t>
+  </si>
+  <si>
+    <t>пусто</t>
+  </si>
+  <si>
+    <t>Системные настройки</t>
+  </si>
+  <si>
+    <t>Заполняемый щит</t>
+  </si>
+  <si>
+    <t>ЩР</t>
+  </si>
+  <si>
+    <t>&lt;zcopyrow targetsheet=[&lt;zalldev&gt;EXPORT] targetcodename=[zalldevimport] keynumcol=[33]&gt;</t>
   </si>
 </sst>
 </file>
@@ -651,7 +1606,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,8 +1668,87 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="60"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="12"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -769,8 +1803,98 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4DBE5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0F0D7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1277,13 +2401,212 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1459,52 +2782,330 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1513,7 +3114,552 @@
     <cellStyle name="Обычный 4" xfId="2" xr:uid="{48E5EE6E-1ABC-45BC-BBF9-DFA8FA4F7CCC}"/>
     <cellStyle name="Обычный_расчет нагрузки" xfId="1" xr:uid="{2A78680A-EF87-4AAC-8D9D-BEC6B0A95A74}"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="102">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2091,84 +4237,84 @@
   <sheetData>
     <row r="2" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:76" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
-      <c r="F3" s="66" t="s">
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="F3" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="68"/>
-      <c r="K3" s="60" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="109"/>
+      <c r="K3" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="61"/>
-      <c r="AQ3" s="61"/>
-      <c r="AR3" s="61"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
-      <c r="BB3" s="61"/>
-      <c r="BC3" s="61"/>
-      <c r="BD3" s="61"/>
-      <c r="BE3" s="61"/>
-      <c r="BF3" s="61"/>
-      <c r="BG3" s="61"/>
-      <c r="BH3" s="61"/>
-      <c r="BI3" s="61"/>
-      <c r="BJ3" s="61"/>
-      <c r="BK3" s="61"/>
-      <c r="BL3" s="61"/>
-      <c r="BM3" s="61"/>
-      <c r="BN3" s="61"/>
-      <c r="BO3" s="61"/>
-      <c r="BP3" s="61"/>
-      <c r="BQ3" s="61"/>
-      <c r="BR3" s="61"/>
-      <c r="BS3" s="61"/>
-      <c r="BT3" s="61"/>
-      <c r="BU3" s="61"/>
-      <c r="BV3" s="61"/>
-      <c r="BW3" s="61"/>
-      <c r="BX3" s="61"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="113"/>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="113"/>
+      <c r="AH3" s="113"/>
+      <c r="AI3" s="113"/>
+      <c r="AJ3" s="113"/>
+      <c r="AK3" s="113"/>
+      <c r="AL3" s="113"/>
+      <c r="AM3" s="113"/>
+      <c r="AN3" s="113"/>
+      <c r="AO3" s="113"/>
+      <c r="AP3" s="113"/>
+      <c r="AQ3" s="113"/>
+      <c r="AR3" s="113"/>
+      <c r="AS3" s="113"/>
+      <c r="AT3" s="113"/>
+      <c r="AU3" s="113"/>
+      <c r="AV3" s="113"/>
+      <c r="AW3" s="113"/>
+      <c r="AX3" s="113"/>
+      <c r="AY3" s="113"/>
+      <c r="AZ3" s="113"/>
+      <c r="BA3" s="113"/>
+      <c r="BB3" s="113"/>
+      <c r="BC3" s="113"/>
+      <c r="BD3" s="113"/>
+      <c r="BE3" s="113"/>
+      <c r="BF3" s="113"/>
+      <c r="BG3" s="113"/>
+      <c r="BH3" s="113"/>
+      <c r="BI3" s="113"/>
+      <c r="BJ3" s="113"/>
+      <c r="BK3" s="113"/>
+      <c r="BL3" s="113"/>
+      <c r="BM3" s="113"/>
+      <c r="BN3" s="113"/>
+      <c r="BO3" s="113"/>
+      <c r="BP3" s="113"/>
+      <c r="BQ3" s="113"/>
+      <c r="BR3" s="113"/>
+      <c r="BS3" s="113"/>
+      <c r="BT3" s="113"/>
+      <c r="BU3" s="113"/>
+      <c r="BV3" s="113"/>
+      <c r="BW3" s="113"/>
+      <c r="BX3" s="113"/>
     </row>
     <row r="4" spans="1:76" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -3239,10 +5385,10 @@
       <c r="BX8" s="3"/>
     </row>
     <row r="9" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="111"/>
       <c r="F9" s="28">
         <v>2500</v>
       </c>
@@ -8257,11 +10403,11 @@
     </row>
     <row r="41" spans="6:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="6:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="66" t="s">
+      <c r="F42" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="G42" s="67"/>
-      <c r="H42" s="68"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="109"/>
     </row>
     <row r="43" spans="6:76" ht="31.5" x14ac:dyDescent="0.25">
       <c r="F43" s="37" t="s">
@@ -8360,132 +10506,1861 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="K6:M37 U13:Z37 U6:W12 Y6:AA6 Y7:Z12 AA7:AA37 BJ6:BR37 BU6:BX37 AW6:BG6 AO13:BH37 AO6:AU12 AV8:AV12 AW7:BH12 AE6:AG37">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:M38 U38:AG38 AO38:AP38">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ38:AW38">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX38:BR38 BU38:BX38">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:T37">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:T38">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH6:AI15">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ38:AN38">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH16:AH37">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH38">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI16:AI37">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI38">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ6:AK6 AJ7 AK7:AK15">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:AJ11">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ12:AJ14">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ16:AK36 AJ15">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ37:AK37">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS6:BS37">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS38">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT6:BT37">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT38">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X6:X12">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV6:AV7">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL6:AN37">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6:AD37">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E733FA54-8601-4F98-A939-D35DC81D32C1}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="str">
+        <f>"&lt;zsetformulatocell toSheet=[BD]  toCell=[A2] formula=[SUM(B4:B5)]"</f>
+        <v>&lt;zsetformulatocell toSheet=[BD]  toCell=[A2] formula=[SUM(B4:B5)]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="str">
+        <f>"&lt;zsetformulatocell toSheet=[BD]  toCell=[A2] formula=[SUM(B4:B5)]"</f>
+        <v>&lt;zsetformulatocell toSheet=[BD]  toCell=[A2] formula=[SUM(B4:B5)]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B9844E-F661-46DB-A8DF-606C0C725DFB}">
+  <dimension ref="C1:ET24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" customWidth="1"/>
+    <col min="16" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D1" s="1">
+        <f>'&lt;zlight&gt;'!F18</f>
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <f ca="1">T6</f>
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <f>T8</f>
+        <v>0.92</v>
+      </c>
+      <c r="G1" s="1">
+        <f>H11</f>
+        <v>380</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <f>H12</f>
+        <v>АВС</v>
+      </c>
+    </row>
+    <row r="4" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D4" s="121" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="102" t="s">
+        <v>333</v>
+      </c>
+      <c r="O4" s="102"/>
+      <c r="P4" s="121" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="121"/>
+      <c r="U4" s="121"/>
+    </row>
+    <row r="5" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D5" s="119" t="s">
+        <v>331</v>
+      </c>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="101">
+        <f>'&lt;zlight&gt;'!F18</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="100" t="s">
+        <v>330</v>
+      </c>
+      <c r="O5" s="100" t="s">
+        <v>329</v>
+      </c>
+      <c r="P5" s="120" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120">
+        <f ca="1">SUM($AC$22:$AC$11997)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="120"/>
+    </row>
+    <row r="6" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D6" s="119" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="97" t="s">
+        <v>326</v>
+      </c>
+      <c r="I6" s="100" t="s">
+        <v>325</v>
+      </c>
+      <c r="O6" s="100">
+        <v>63</v>
+      </c>
+      <c r="P6" s="120" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="120">
+        <f ca="1">T5*T11</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="120"/>
+    </row>
+    <row r="7" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D7" s="119" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="97">
+        <v>45399</v>
+      </c>
+      <c r="I7" s="100" t="s">
+        <v>322</v>
+      </c>
+      <c r="O7" s="100">
+        <v>32</v>
+      </c>
+      <c r="P7" s="120" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="120">
+        <f ca="1">ROUNDUP((T6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*T8),2)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="120"/>
+    </row>
+    <row r="8" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D8" s="119" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="97" t="s">
+        <v>319</v>
+      </c>
+      <c r="I8" s="100" t="s">
+        <v>318</v>
+      </c>
+      <c r="O8" s="100">
+        <v>6</v>
+      </c>
+      <c r="P8" s="122" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="124"/>
+      <c r="T8" s="125">
+        <v>0.92</v>
+      </c>
+      <c r="U8" s="125"/>
+    </row>
+    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D9" s="119" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="97" t="s">
+        <v>315</v>
+      </c>
+      <c r="I9" s="100" t="s">
+        <v>314</v>
+      </c>
+      <c r="O9" s="100" t="s">
+        <v>313</v>
+      </c>
+      <c r="P9" s="126" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="125"/>
+    </row>
+    <row r="10" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D10" s="119" t="s">
+        <v>311</v>
+      </c>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="I10" s="100" t="s">
+        <v>310</v>
+      </c>
+      <c r="O10" s="100">
+        <v>4</v>
+      </c>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="126"/>
+      <c r="S10" s="126"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
+    </row>
+    <row r="11" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D11" s="119" t="s">
+        <v>309</v>
+      </c>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="97">
+        <v>380</v>
+      </c>
+      <c r="I11" s="100" t="s">
+        <v>308</v>
+      </c>
+      <c r="O11" s="100" t="s">
+        <v>307</v>
+      </c>
+      <c r="P11" s="127" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q11" s="128"/>
+      <c r="R11" s="128"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="127">
+        <v>0.65</v>
+      </c>
+      <c r="U11" s="129"/>
+    </row>
+    <row r="12" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D12" s="119" t="s">
+        <v>305</v>
+      </c>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="97" t="s">
+        <v>304</v>
+      </c>
+      <c r="I12" s="100" t="s">
+        <v>224</v>
+      </c>
+      <c r="O12" s="100" t="s">
+        <v>303</v>
+      </c>
+      <c r="P12" s="130" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="130"/>
+      <c r="S12" s="130"/>
+      <c r="T12" s="130">
+        <v>44.5</v>
+      </c>
+      <c r="U12" s="130"/>
+    </row>
+    <row r="13" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D13" s="119" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="97" t="s">
+        <v>300</v>
+      </c>
+      <c r="I13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="130" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="130"/>
+      <c r="S13" s="130"/>
+      <c r="T13" s="130">
+        <v>44.5</v>
+      </c>
+      <c r="U13" s="130"/>
+    </row>
+    <row r="14" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D14" s="119" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="99" t="str">
+        <f>'&lt;zlight&gt;'!G18&amp;"."&amp;'&lt;zlight&gt;'!H18</f>
+        <v>.</v>
+      </c>
+      <c r="I14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="130" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="130"/>
+      <c r="S14" s="130"/>
+      <c r="T14" s="130">
+        <v>44.5</v>
+      </c>
+      <c r="U14" s="130"/>
+    </row>
+    <row r="15" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D15" s="119" t="s">
+        <v>296</v>
+      </c>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="97">
+        <v>77</v>
+      </c>
+      <c r="O15" s="98"/>
+      <c r="P15" s="133" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q15" s="133"/>
+      <c r="R15" s="133"/>
+      <c r="S15" s="133"/>
+      <c r="T15" s="133">
+        <f ca="1">ROUNDUP((T6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*T8),2)</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="133"/>
+    </row>
+    <row r="21" spans="3:150" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:150" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="E22" s="136" t="s">
+        <v>239</v>
+      </c>
+      <c r="F22" s="131" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="136" t="s">
+        <v>293</v>
+      </c>
+      <c r="H22" s="131" t="s">
+        <v>292</v>
+      </c>
+      <c r="I22" s="131" t="s">
+        <v>291</v>
+      </c>
+      <c r="J22" s="144" t="s">
+        <v>290</v>
+      </c>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="145" t="s">
+        <v>289</v>
+      </c>
+      <c r="O22" s="147" t="s">
+        <v>288</v>
+      </c>
+      <c r="P22" s="148"/>
+      <c r="Q22" s="148"/>
+      <c r="R22" s="148"/>
+      <c r="S22" s="148"/>
+      <c r="T22" s="148"/>
+      <c r="U22" s="148"/>
+      <c r="V22" s="148"/>
+      <c r="W22" s="148"/>
+      <c r="X22" s="148"/>
+      <c r="Y22" s="148"/>
+      <c r="Z22" s="148"/>
+      <c r="AA22" s="149" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB22" s="150"/>
+      <c r="AC22" s="150"/>
+      <c r="AD22" s="150"/>
+      <c r="AE22" s="150"/>
+      <c r="AF22" s="150"/>
+      <c r="AG22" s="150"/>
+      <c r="AH22" s="150"/>
+      <c r="AI22" s="151"/>
+      <c r="AJ22" s="149" t="s">
+        <v>286</v>
+      </c>
+      <c r="AK22" s="150"/>
+      <c r="AL22" s="150"/>
+      <c r="AM22" s="150"/>
+      <c r="AN22" s="150"/>
+      <c r="AO22" s="150"/>
+      <c r="AP22" s="150"/>
+      <c r="AQ22" s="150"/>
+      <c r="AR22" s="150"/>
+      <c r="AS22" s="150"/>
+      <c r="AT22" s="150"/>
+      <c r="AU22" s="150"/>
+      <c r="AV22" s="150"/>
+      <c r="AW22" s="151"/>
+      <c r="AX22" s="149" t="s">
+        <v>285</v>
+      </c>
+      <c r="AY22" s="150"/>
+      <c r="AZ22" s="150"/>
+      <c r="BA22" s="150"/>
+      <c r="BB22" s="150"/>
+      <c r="BC22" s="150"/>
+      <c r="BD22" s="150"/>
+      <c r="BE22" s="150"/>
+      <c r="BF22" s="150"/>
+      <c r="BG22" s="150"/>
+      <c r="BH22" s="150"/>
+      <c r="BI22" s="150"/>
+      <c r="BJ22" s="150"/>
+      <c r="BK22" s="150"/>
+      <c r="BL22" s="150"/>
+      <c r="BM22" s="150"/>
+      <c r="BN22" s="151"/>
+      <c r="BO22" s="138" t="s">
+        <v>284</v>
+      </c>
+      <c r="BP22" s="139"/>
+      <c r="BQ22" s="139"/>
+      <c r="BR22" s="139"/>
+      <c r="BS22" s="139"/>
+      <c r="BT22" s="139"/>
+      <c r="BU22" s="140"/>
+      <c r="BV22" s="141" t="s">
+        <v>283</v>
+      </c>
+      <c r="BW22" s="142"/>
+      <c r="BX22" s="142"/>
+      <c r="BY22" s="142"/>
+      <c r="BZ22" s="142"/>
+      <c r="CA22" s="142"/>
+      <c r="CB22" s="142"/>
+      <c r="CC22" s="142"/>
+      <c r="CD22" s="142"/>
+      <c r="CE22" s="142"/>
+      <c r="CF22" s="142"/>
+      <c r="CG22" s="142"/>
+      <c r="CH22" s="80"/>
+      <c r="CI22" s="80"/>
+      <c r="CJ22" s="80"/>
+      <c r="CK22" s="80"/>
+      <c r="CL22" s="80"/>
+      <c r="CM22" t="s">
+        <v>219</v>
+      </c>
+      <c r="CN22" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="CO22" s="1">
+        <v>60</v>
+      </c>
+      <c r="CP22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ22" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR22" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS22" t="s">
+        <v>281</v>
+      </c>
+      <c r="CT22">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="CU22" t="s">
+        <v>280</v>
+      </c>
+      <c r="CV22" t="str">
+        <f>H6</f>
+        <v>ЩРН-12</v>
+      </c>
+      <c r="CW22" t="s">
+        <v>279</v>
+      </c>
+      <c r="CX22" t="str">
+        <f ca="1">"Установленная полная мощность, Ру = "&amp;T5&amp;"кВт"</f>
+        <v>Установленная полная мощность, Ру = 0кВт</v>
+      </c>
+      <c r="CY22" t="s">
+        <v>278</v>
+      </c>
+      <c r="CZ22" t="str">
+        <f>"Коэффициент спроса, Кс = "&amp;T11</f>
+        <v>Коэффициент спроса, Кс = 0,65</v>
+      </c>
+      <c r="DA22" t="s">
+        <v>277</v>
+      </c>
+      <c r="DB22" t="str">
+        <f ca="1">"Расчетная мощность, Рр = "&amp;T6</f>
+        <v>Расчетная мощность, Рр = 0</v>
+      </c>
+      <c r="DC22" t="s">
+        <v>276</v>
+      </c>
+      <c r="DD22" t="str">
+        <f>"Коэффициент мощности, cosf = "&amp;T8</f>
+        <v>Коэффициент мощности, cosf = 0,92</v>
+      </c>
+      <c r="DE22" t="s">
+        <v>275</v>
+      </c>
+      <c r="DF22" t="str">
+        <f ca="1">"Расчетный ток, Iр = "&amp;T15&amp;"А"</f>
+        <v>Расчетный ток, Iр = 0А</v>
+      </c>
+      <c r="EA22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="3:150" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="135"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="96" t="s">
+        <v>274</v>
+      </c>
+      <c r="K23" s="96" t="s">
+        <v>273</v>
+      </c>
+      <c r="L23" s="96" t="s">
+        <v>272</v>
+      </c>
+      <c r="M23" s="146"/>
+      <c r="O23" s="95" t="s">
+        <v>271</v>
+      </c>
+      <c r="P23" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q23" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="94" t="s">
+        <v>269</v>
+      </c>
+      <c r="S23" s="92" t="s">
+        <v>268</v>
+      </c>
+      <c r="T23" s="94" t="s">
+        <v>267</v>
+      </c>
+      <c r="U23" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="V23" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="W23" s="92" t="s">
+        <v>264</v>
+      </c>
+      <c r="X23" s="91" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y23" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z23" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA23" s="84" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB23" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC23" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD23" s="84" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE23" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF23" s="84" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG23" s="84" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH23" s="83" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI23" s="82" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ23" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="AK23" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL23" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM23" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="AN23" s="84" t="s">
+        <v>248</v>
+      </c>
+      <c r="AO23" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP23" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="AQ23" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR23" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="AS23" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="AT23" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU23" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="AV23" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="AW23" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="AX23" s="87" t="s">
+        <v>239</v>
+      </c>
+      <c r="AY23" s="87" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ23" s="86" t="s">
+        <v>237</v>
+      </c>
+      <c r="BA23" s="84" t="s">
+        <v>236</v>
+      </c>
+      <c r="BB23" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="BC23" s="85" t="s">
+        <v>234</v>
+      </c>
+      <c r="BD23" s="83" t="s">
+        <v>233</v>
+      </c>
+      <c r="BE23" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="BF23" s="83" t="s">
+        <v>231</v>
+      </c>
+      <c r="BG23" s="83" t="s">
+        <v>230</v>
+      </c>
+      <c r="BH23" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="BI23" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="BJ23" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="BK23" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="BL23" s="84" t="s">
+        <v>224</v>
+      </c>
+      <c r="BM23" s="83" t="s">
+        <v>223</v>
+      </c>
+      <c r="BN23" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="BO23" s="81" t="s">
+        <v>228</v>
+      </c>
+      <c r="BP23" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="BQ23" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="BR23" s="81" t="s">
+        <v>225</v>
+      </c>
+      <c r="BS23" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="BT23" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="BU23" s="81" t="s">
+        <v>222</v>
+      </c>
+      <c r="BV23" s="141"/>
+      <c r="BW23" s="142"/>
+      <c r="BX23" s="142"/>
+      <c r="BY23" s="142"/>
+      <c r="BZ23" s="142"/>
+      <c r="CA23" s="142"/>
+      <c r="CB23" s="142"/>
+      <c r="CC23" s="142"/>
+      <c r="CD23" s="142"/>
+      <c r="CE23" s="142"/>
+      <c r="CF23" s="142"/>
+      <c r="CG23" s="142"/>
+      <c r="CH23" s="80"/>
+      <c r="CI23" s="80"/>
+      <c r="CJ23" s="80"/>
+      <c r="CK23" s="80"/>
+      <c r="CL23" s="80"/>
+      <c r="CO23" s="1">
+        <v>35</v>
+      </c>
+      <c r="EB23" s="143" t="s">
+        <v>221</v>
+      </c>
+      <c r="EC23" s="143"/>
+      <c r="ED23" s="143"/>
+      <c r="EE23" s="143"/>
+      <c r="EF23" s="143"/>
+      <c r="EG23" s="143"/>
+      <c r="EH23" s="143"/>
+      <c r="EI23" s="143"/>
+      <c r="EJ23" s="143"/>
+      <c r="EK23" s="143" t="s">
+        <v>220</v>
+      </c>
+      <c r="EL23" s="143"/>
+      <c r="EM23" s="143"/>
+      <c r="EN23" s="143"/>
+      <c r="EO23" s="143"/>
+      <c r="EP23" s="143"/>
+      <c r="EQ23" s="143"/>
+      <c r="ER23" s="143"/>
+      <c r="ES23" s="143"/>
+    </row>
+    <row r="24" spans="3:150" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>342</v>
+      </c>
+      <c r="D24" s="79">
+        <f>'&lt;zalldev&gt;EXPORT'!J11</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="74" t="str">
+        <f>IF(D24="","","АВ")</f>
+        <v>АВ</v>
+      </c>
+      <c r="F24" s="74">
+        <f>IF(D24="","",1)</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="74" t="str">
+        <f>IF(D24="","","АВ")</f>
+        <v>АВ</v>
+      </c>
+      <c r="H24" s="79" t="e">
+        <f ca="1">IF(E24="","",IF(F24="",BL24&amp;", "&amp;BM24&amp;", "&amp;BN24,IF(MATCH(F24,$F$24:F24,0)=MATCH(F24,$F$24:F24,1),BL24&amp;", "&amp;BM24&amp;", "&amp;BN24,"")))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I24" s="79" t="e">
+        <f ca="1">IF(G24="","",BS24&amp;", "&amp;BT24&amp;", "&amp;BU24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J24" s="1">
+        <f>IF(BZ24=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="e">
+        <f>IF(BZ24=0,0,IF(L24=0,IF(MATCH(BZ24,$O$24:O24,0)=0,0,1),0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L24" s="1" t="e">
+        <f>IF(BZ24=0,0,IF(INDEX($BZ$24:BZ24,MATCH(BZ24,$O$24:O24,0))=0,0,1))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M24" s="78" t="e">
+        <f ca="1">IF(AJ24="","",AJ24&amp;"; "&amp;AK24&amp;" L="&amp;AL24&amp;"м")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N24" t="s">
+        <v>338</v>
+      </c>
+      <c r="O24" s="54">
+        <f>'&lt;zalldev&gt;EXPORT'!D11</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="77" t="e">
+        <f ca="1">IF(IFERROR(BW24,1)=1,INDEX(BD!$B$4:$B$5,MATCH('&lt;zalldev&gt;EXPORT'!Y11,BD!$A$4:$A$5,0)),INDIRECT("'"&amp;O24&amp;"'!"&amp;"G1"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Q24" s="77" t="e">
+        <f ca="1">IF(IFERROR(BW24,1)=1,INDEX(BD!$B$10:$B$13,MATCH('&lt;zalldev&gt;EXPORT'!AB11,BD!$A$10:$A$13,0)),INDIRECT("'"&amp;O24&amp;"'!"&amp;"H1"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R24" s="77">
+        <f ca="1">IF(IFERROR(BW24,1)=1,W24*V24,INDIRECT("'"&amp;O24&amp;"'!"&amp;"E1"))</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="77">
+        <f ca="1">IF(IFERROR(BW24,1)=1,'&lt;zalldev&gt;EXPORT'!K11,INDIRECT("'"&amp;O24&amp;"'!"&amp;"F1"))</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="53" t="e">
+        <f ca="1">ROUNDUP((R24*1000)/(INDEX(BD!$C$4:$C$5,MATCH(P24,BD!$B$4:$B$5,0))*S24),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U24" s="54">
+        <f ca="1">ROUNDUP(R24*ROUNDUP(TAN(ACOS(S24)),2),2)</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="54">
+        <f>'&lt;zalldev&gt;EXPORT'!J11</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="54">
+        <f>'&lt;zalldev&gt;EXPORT'!Q11</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="54">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z24" s="54" t="str">
+        <f>'&lt;zalldev&gt;EXPORT'!C11</f>
+        <v>&lt;zdevsettings name=[NMO_Name] type=[string]&gt;</v>
+      </c>
+      <c r="AA24" s="71">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="71" t="e">
+        <f ca="1">IF(D24="","",ROUNDUP(COS(ATAN(ROUNDUP(AF24/AC24,2))),2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC24" s="71">
+        <f ca="1">IF(D24="","",AA24*SUMIFS($R$24:$R$12000,$BV$24:$BV$12000,BV24))</f>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="71" t="e">
+        <f ca="1">IF(D24="","",ROUNDUP((1/1000)*(100/P24)*IF(P24&lt;380,2,SQRT(3))*AE24*AL24*(INDEX(INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$C$4:$AH$4,1,MATCH(AM24&amp;AN24&amp;AO24&amp;"R",BDКаб!$C$3:$AH$3,0))),MATCH(AQ24,BDКаб!$B$5:$B$12,0))*AB24 + INDEX(INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$C$4:$AH$4,1,MATCH(AM24&amp;AN24&amp;AO24&amp;"X",BDКаб!$C$3:$AH$3,0))),MATCH(AQ24,BDКаб!$B$5:$B$12,0))*SQRT(1-AB24*AB24)),2))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE24" s="71" t="e">
+        <f ca="1">IF(D24="","",ROUNDUP((AC24*1000)/(INDEX(BD!$C$4:$C$5,MATCH(P24,BD!$B$4:$B$5,0))*AB24),2))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF24" s="71">
+        <f ca="1">IF(D24="","",AA24*SUMIFS($U$24:$U$12000,$BV$24:$BV$12000,BV24))</f>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="71">
+        <f ca="1">IF(D24="","",ROUNDUP(SQRT(AC24*AC24+AF24*AF24),2))</f>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="70">
+        <f>IF(D24="","",1.3)</f>
+        <v>1.3</v>
+      </c>
+      <c r="AI24" s="70">
+        <f>IF(AJ24="","",3)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ24" s="71" t="str">
+        <f>IF(D24="",IF(BZ24=0,"",IF(BZ24=O24,"",BZ24&amp;"."&amp;CA24)),'&lt;zalldev&gt;EXPORT'!E11&amp;"."&amp;'&lt;zalldev&gt;EXPORT'!F11)</f>
+        <v>.&lt;zdevsettings name=[SLCABAGEN1_HeadDeviceName] type=[string]&gt;</v>
+      </c>
+      <c r="AK24" s="71" t="e">
+        <f ca="1">IF(AJ24="","",AR24&amp;"-"&amp;AP24&amp;"х"&amp;AQ24&amp;"мм²")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>338</v>
+      </c>
+      <c r="AM24" s="70" t="str">
+        <f>IF(AJ24="","","М")</f>
+        <v>М</v>
+      </c>
+      <c r="AN24" s="70" t="str">
+        <f>IF(AJ24="","","М")</f>
+        <v>М</v>
+      </c>
+      <c r="AO24" s="70" t="str">
+        <f>IF(AJ24="","","В")</f>
+        <v>В</v>
+      </c>
+      <c r="AP24" s="76" t="e">
+        <f ca="1">IF(AJ24="","",IF(P24=380,5,3))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ24" s="76" t="str">
+        <f>IF(AJ24="","",IF(AT24&gt;IF(AV24&gt;AW24,AV24,AW24),AT24,IF(AV24&gt;AW24,AV24,AW24)))</f>
+        <v>пусто</v>
+      </c>
+      <c r="AR24" s="76" t="str">
+        <f>IF(AJ24="","","ВВГнг(А)-LS")</f>
+        <v>ВВГнг(А)-LS</v>
+      </c>
+      <c r="AS24" s="76" t="e">
+        <f ca="1">IF(AJ24="","",(AI24*380*1000)/(SQRT(3)*IF(AJ24="","",IF(D24="",T24,AE24))*AL24*100))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>338</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>338</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>338</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>338</v>
+      </c>
+      <c r="AX24" s="75" t="str">
+        <f>IF(E24="","",E24)</f>
+        <v>АВ</v>
+      </c>
+      <c r="AY24" s="75">
+        <f>IF(F24="","",F24)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="75" t="e">
+        <f ca="1">IF(AE24="","",AE24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BA24" s="72" t="e">
+        <f ca="1">IF(AX24="","",IF(AY24="",AZ24,SUMIFS($AZ$24:$AZ$500000,$AY$24:$AY$500000,AY24)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BB24" s="75" t="e">
+        <f ca="1">IF(AX24="","",IF(P24&lt;380,1,3))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC24" s="73">
+        <f>IF(AX24="","",1.3)</f>
+        <v>1.3</v>
+      </c>
+      <c r="BD24" s="72" t="e">
+        <f ca="1">IF(AX24="","",IF(BC24="",BA24*1.3,BC24*BA24))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BE24" s="72" t="e">
+        <f ca="1">IF(AX24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(AX24&amp;"I",BD!$K$4:$BY$4,0))),MATCH(BD24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(AX24&amp;"I",BD!$K$4:$BY$4,0))),-1)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BF24" s="74">
+        <f>IF(AX24="","",10)</f>
+        <v>10</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>338</v>
+      </c>
+      <c r="BH24" s="72" t="str">
+        <f>IF(AX24="","",IF(BG24="",IF(BE24&gt;=BF24,BE24,BF24),BG24))</f>
+        <v>пусто</v>
+      </c>
+      <c r="BI24" s="70" t="str">
+        <f>IF(E24="","","C")</f>
+        <v>C</v>
+      </c>
+      <c r="BJ24" s="69" t="e">
+        <f ca="1">IF(E24="","",IF(P24=380,3,1))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BK24" s="69" t="str">
+        <f>IF(E24="","","30")</f>
+        <v>30</v>
+      </c>
+      <c r="BL24" s="69" t="e">
+        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"О",BD!$K$4:$BY$4,0))),MATCH(BE24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0))&amp;D24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BM24" s="68" t="e">
+        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"М",BD!$K$4:$BY$4,0))),MATCH(BE24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BN24" t="e">
+        <f ca="1">IF(E24="","",BJ24&amp;"P,"&amp;BE24&amp;"А,"&amp;BI24&amp;IF(BK24="","",","&amp;BK24&amp;"мА"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BO24" s="71" t="e">
+        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),MATCH(AH24*AE24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),-1)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BP24" s="70" t="str">
+        <f>IF(G24="","","C")</f>
+        <v>C</v>
+      </c>
+      <c r="BQ24" s="69" t="str">
+        <f>IF(G24="","","3")</f>
+        <v>3</v>
+      </c>
+      <c r="BR24" s="69" t="str">
+        <f>IF(G24="","","30")</f>
+        <v>30</v>
+      </c>
+      <c r="BS24" s="69" t="e">
+        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"О",BD!$K$4:$CB$4,0))),MATCH(BO24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0))&amp;D24)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BT24" s="68" t="e">
+        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"М",BD!$K$4:$CB$4,0))),MATCH(BO24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BU24" t="e">
+        <f ca="1">IF(G24="","",BQ24&amp;"P,"&amp;BO24&amp;"А,"&amp;BP24&amp;IF(BR24="","",","&amp;BR24&amp;"мА"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BV24" s="66">
+        <f>'&lt;zalldev&gt;EXPORT'!V11</f>
+        <v>0</v>
+      </c>
+      <c r="BW24" s="66" t="e">
+        <f ca="1">INDIRECT("'"&amp;O24&amp;"'!"&amp;"X14")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="BX24" s="67">
+        <f>COUNT($BV$24:BV24)</f>
+        <v>1</v>
+      </c>
+      <c r="BY24" s="67">
+        <f>IF('&lt;zalldev&gt;EXPORT'!T11=0,'&lt;zalldev&gt;EXPORT'!T11,1)</f>
+        <v>0</v>
+      </c>
+      <c r="BZ24" s="67" t="str">
+        <f>IF('&lt;zalldev&gt;EXPORT'!U11=0,0,'&lt;zalldev&gt;EXPORT'!U11)</f>
+        <v>&lt;zdevsettings name=[CosPHI] type=[float]&gt;</v>
+      </c>
+      <c r="CA24" s="67" t="str">
+        <f>IF('&lt;zalldev&gt;EXPORT'!U11=0,0,'&lt;zalldev&gt;EXPORT'!F11)</f>
+        <v>&lt;zdevsettings name=[SLCABAGEN1_HeadDeviceName] type=[string]&gt;</v>
+      </c>
+      <c r="CB24" s="64">
+        <f>IF(MATCH(BV24,$BV$24:BV24,0)=COUNT($BV$24:BV24),COUNTIFS(F24:$F$120000,F24),0)</f>
+        <v>1</v>
+      </c>
+      <c r="CC24" s="66">
+        <f>IF(INDEX($CB$24:CB24,MATCH(BV24,$BV$24:BV24,0))&gt;1,IF(CB24=0,2,1),IF(CB24=1,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="CD24" s="64">
+        <f>INDEX($BY$24:BY24,COUNT($BV$24:BV24)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="CE24" s="64">
+        <f>IF(INDEX($BY$24:$BY$120000,COUNT($BV$24:BV24))=1,IF(INDEX($BY$24:$BY$120000,COUNT($BV$24:BV24)+1)=1,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CF24" s="65">
+        <f>IF(COUNT($BV$24:BV24)=1,1,IF(INDEX($BV$24:BV24,COUNT($BV$24:BV24)-1)=INDEX($BV$24:BV24,COUNT($BV$24:BV24)),0,COUNT($BV$24:BV24)))</f>
+        <v>1</v>
+      </c>
+      <c r="CG24" s="65">
+        <f>IF(CF24&gt;0,ROW(CG24),"-")</f>
+        <v>24</v>
+      </c>
+      <c r="CH24" s="65">
+        <f>IF(BZ24=0,0,SUMIFS(BY24:$BY$120000,BZ24:$BZ$120000,BZ24))</f>
+        <v>0</v>
+      </c>
+      <c r="CI24" s="65">
+        <f ca="1">IF(COUNTIF(INDIRECT(ADDRESS(ROW(CI24),COLUMN(BZ24))&amp;":"&amp;ADDRESS(MIN(CG24:$CG$120000),COLUMN(BZ24))),0)&gt;1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ24" s="64">
+        <f>IF(BX24=1,0,IF(INDEX($BV$24:BV24,BX24-1)=BV24,IF(INDEX($BZ$24:BZ24,BX24-1)=BZ24,IF(INDEX($CA$24:CA24,BX24-1)=CA24,1,0),0),0))</f>
+        <v>0</v>
+      </c>
+      <c r="CK24" s="63" t="e">
+        <f>MATCH(1,J24:L24,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CL24" s="62">
+        <f>IF(BX24&lt;&gt;1,INDEX($CL$24:CL24,BX24-1)+25 - IF(BY24=0,IF(CD24=1,IF(CH24&lt;2,25,0),0),0),60)</f>
+        <v>60</v>
+      </c>
+      <c r="CM24" t="s">
+        <v>219</v>
+      </c>
+      <c r="CN24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="CO24" s="1">
+        <f>CL24</f>
+        <v>60</v>
+      </c>
+      <c r="CP24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ24" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR24" s="1">
+        <v>1</v>
+      </c>
+      <c r="CS24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="CT24" s="1" t="e">
+        <f ca="1">IF(Q24="ABC","BOOLEAN_1","BOOLEAN_0")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CU24" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="CV24" s="1" t="e">
+        <f ca="1">IF(H24&lt;&gt;"","INTEGER_0",IF(CB24=0,IF(CC24=0,"INTEGER_3","INTEGER_"&amp;CC24),"INTEGER_"&amp;CC24))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CW24" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="CX24" t="s">
+        <v>338</v>
+      </c>
+      <c r="CY24" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="CZ24" s="1" t="str">
+        <f t="shared" ref="CZ24" si="0">"INTEGER_0"</f>
+        <v>INTEGER_0</v>
+      </c>
+      <c r="DA24" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="DB24" t="s">
+        <v>338</v>
+      </c>
+      <c r="DC24" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="DD24" t="s">
+        <v>338</v>
+      </c>
+      <c r="DE24" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="DF24" s="1" t="str">
+        <f t="shared" ref="DF24" si="1">IF(CE24=0,"INTEGER_0","INTEGER_0")</f>
+        <v>INTEGER_0</v>
+      </c>
+      <c r="DG24" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="DH24" t="s">
+        <v>338</v>
+      </c>
+      <c r="DI24" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="DJ24" s="1">
+        <f>IF(W24&gt;1,O24&amp;"("&amp;W24&amp;"шт.)",O24)</f>
+        <v>0</v>
+      </c>
+      <c r="DK24" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="DL24" s="1">
+        <f ca="1">R24</f>
+        <v>0</v>
+      </c>
+      <c r="DM24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="DN24" s="1" t="e">
+        <f ca="1">T24</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DO24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="DP24" s="1" t="e">
+        <f ca="1">Z24&amp;"\P~"&amp;P24&amp;"V"</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DQ24" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="DR24" s="60" t="str">
+        <f>AJ24</f>
+        <v>.&lt;zdevsettings name=[SLCABAGEN1_HeadDeviceName] type=[string]&gt;</v>
+      </c>
+      <c r="DS24" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="DT24" t="s">
+        <v>338</v>
+      </c>
+      <c r="DU24" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="DV24" t="s">
+        <v>338</v>
+      </c>
+      <c r="DW24" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="DX24" s="60" t="e">
+        <f ca="1">AK24</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DY24" s="60" t="str">
+        <f>"VSCHEMACable22"</f>
+        <v>VSCHEMACable22</v>
+      </c>
+      <c r="DZ24" s="60" t="str">
+        <f>IF(AL24&lt;&gt;"","L="&amp;AL24&amp;"м"," ")</f>
+        <v>L=пустом</v>
+      </c>
+      <c r="EA24" t="s">
+        <v>201</v>
+      </c>
+      <c r="EB24" t="e">
+        <f ca="1">IF(H24&lt;&gt;"","&lt;zinsertblock&gt;","")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EC24" s="1" t="e">
+        <f ca="1">IF(EB24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"UGO",BD!$K$4:$BY$4,0))),MATCH(BE24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ED24" s="1" t="e">
+        <f ca="1">IF(EB24="","",CO24+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"MOVEX",BD!$K$4:$BY$4,0))),MATCH(BE24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EE24" s="1" t="e">
+        <f ca="1">IF(EB24="","",CP24+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"MOVEY",BD!$K$4:$BY$4,0))),MATCH(BE24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EF24" s="1">
+        <v>1</v>
+      </c>
+      <c r="EG24" s="1">
+        <v>1</v>
+      </c>
+      <c r="EH24" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="EI24" s="1" t="e">
+        <f ca="1">BL24&amp;"\P"&amp;BM24&amp;"\P"&amp;BN24</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EJ24" t="e">
+        <f ca="1">IF(EB24="","","&lt;/zinsertblock&gt;")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EK24" t="e">
+        <f ca="1">IF(I24&lt;&gt;"","&lt;zinsertblock&gt;","")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EL24" s="1" t="e">
+        <f ca="1">IF(EK24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"UGO",BD!$K$4:$CB$4,0))),MATCH(BO24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EM24" s="1" t="e">
+        <f ca="1">IF(EK24="","",CO24+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"MOVEX",BD!$K$4:$CB$4,0))),MATCH(BO24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EN24" s="1" t="e">
+        <f ca="1">IF(EK24="","",CP24-20+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"MOVEY",BD!$K$4:$CB$4,0))),MATCH(BO24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EO24" s="1">
+        <v>1</v>
+      </c>
+      <c r="EP24" s="1">
+        <v>1</v>
+      </c>
+      <c r="EQ24" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="ER24" s="1" t="e">
+        <f ca="1">BS24&amp;"\P"&amp;BT24&amp;"\P"&amp;BU24</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ES24" t="e">
+        <f ca="1">IF(EK24="","","&lt;/zinsertblock&gt;")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ET24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="BO22:BU22"/>
+    <mergeCell ref="BV22:CG23"/>
+    <mergeCell ref="EB23:EJ23"/>
+    <mergeCell ref="EK23:ES23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="O22:Z22"/>
+    <mergeCell ref="AA22:AI22"/>
+    <mergeCell ref="AJ22:AW22"/>
+    <mergeCell ref="AX22:BN22"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="T9:U10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:U5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="P24">
+    <cfRule type="expression" dxfId="76" priority="103">
+      <formula>NOT(_xlfn.ISFORMULA(P24))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q24">
+    <cfRule type="expression" dxfId="75" priority="102">
+      <formula>NOT(_xlfn.ISFORMULA(Q24))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R24">
+    <cfRule type="expression" dxfId="74" priority="101">
+      <formula>NOT(_xlfn.ISFORMULA(R24))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S24">
+    <cfRule type="expression" dxfId="73" priority="100">
+      <formula>NOT(_xlfn.ISFORMULA(S24))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP24">
+    <cfRule type="expression" dxfId="72" priority="98">
+      <formula>NOT(_xlfn.ISFORMULA(AP24))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS24">
+    <cfRule type="expression" dxfId="71" priority="97">
+      <formula>NOT(_xlfn.ISFORMULA(AS24))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ24">
+    <cfRule type="expression" dxfId="70" priority="95">
+      <formula>NOT(_xlfn.ISFORMULA(AQ24))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="cellIs" dxfId="69" priority="93" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="94" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:L24">
+    <cfRule type="cellIs" dxfId="67" priority="91" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="92" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CV24">
+    <cfRule type="cellIs" dxfId="65" priority="90" operator="equal">
+      <formula>"INTEGER_0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CV24">
+    <cfRule type="cellIs" dxfId="64" priority="85" operator="equal">
+      <formula>"INTEGER_5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="86" operator="equal">
+      <formula>"INTEGER_4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="87" operator="equal">
+      <formula>"INTEGER_3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="88" operator="equal">
+      <formula>"INTEGER_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="89" operator="equal">
+      <formula>"INTEGER_1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CW24">
+    <cfRule type="cellIs" dxfId="59" priority="84" operator="equal">
+      <formula>"INTEGER_0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CW24">
+    <cfRule type="cellIs" dxfId="58" priority="79" operator="equal">
+      <formula>"INTEGER_5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="80" operator="equal">
+      <formula>"INTEGER_4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="81" operator="equal">
+      <formula>"INTEGER_3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="82" operator="equal">
+      <formula>"INTEGER_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="83" operator="equal">
+      <formula>"INTEGER_1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CY24">
+    <cfRule type="cellIs" dxfId="53" priority="72" operator="equal">
+      <formula>"INTEGER_0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CY24">
+    <cfRule type="cellIs" dxfId="52" priority="67" operator="equal">
+      <formula>"INTEGER_5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="68" operator="equal">
+      <formula>"INTEGER_4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="69" operator="equal">
+      <formula>"INTEGER_3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="70" operator="equal">
+      <formula>"INTEGER_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="71" operator="equal">
+      <formula>"INTEGER_1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CZ24">
+    <cfRule type="cellIs" dxfId="47" priority="66" operator="equal">
+      <formula>"INTEGER_0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CZ24">
+    <cfRule type="cellIs" dxfId="46" priority="61" operator="equal">
+      <formula>"INTEGER_5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="62" operator="equal">
+      <formula>"INTEGER_4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="63" operator="equal">
+      <formula>"INTEGER_3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="64" operator="equal">
+      <formula>"INTEGER_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="65" operator="equal">
+      <formula>"INTEGER_1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DA24">
+    <cfRule type="cellIs" dxfId="41" priority="60" operator="equal">
+      <formula>"INTEGER_0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DA24">
+    <cfRule type="cellIs" dxfId="40" priority="55" operator="equal">
+      <formula>"INTEGER_5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="56" operator="equal">
+      <formula>"INTEGER_4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="57" operator="equal">
+      <formula>"INTEGER_3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="58" operator="equal">
+      <formula>"INTEGER_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="59" operator="equal">
+      <formula>"INTEGER_1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DC24">
+    <cfRule type="cellIs" dxfId="35" priority="48" operator="equal">
+      <formula>"INTEGER_0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DC24">
+    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
+      <formula>"INTEGER_5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
+      <formula>"INTEGER_4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="45" operator="equal">
+      <formula>"INTEGER_3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="46" operator="equal">
+      <formula>"INTEGER_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="47" operator="equal">
+      <formula>"INTEGER_1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DE24">
+    <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
+      <formula>"INTEGER_0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DE24">
+    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
+      <formula>"INTEGER_5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
+      <formula>"INTEGER_4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+      <formula>"INTEGER_3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="40" operator="equal">
+      <formula>"INTEGER_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="41" operator="equal">
+      <formula>"INTEGER_1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DF24">
+    <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
+      <formula>"INTEGER_0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DF24">
+    <cfRule type="cellIs" dxfId="22" priority="31" operator="equal">
+      <formula>"INTEGER_5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
+      <formula>"INTEGER_4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
+      <formula>"INTEGER_3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="34" operator="equal">
+      <formula>"INTEGER_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="35" operator="equal">
+      <formula>"INTEGER_1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DG24">
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
+      <formula>"INTEGER_0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DG24">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+      <formula>"INTEGER_5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+      <formula>"INTEGER_4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
+      <formula>"INTEGER_3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
+      <formula>"INTEGER_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
+      <formula>"INTEGER_1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DI24">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"INTEGER_0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DI24">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"INTEGER_5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>"INTEGER_4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"INTEGER_3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>"INTEGER_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+      <formula>"INTEGER_1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DJ24:DS24 DU24 DW24:DZ24">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"INTEGER_0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DJ24:DS24 DU24 DW24:DZ24">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"INTEGER_5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"INTEGER_4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"INTEGER_3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"INTEGER_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>"INTEGER_1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8501,41 +12376,41 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="62"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="113"/>
+      <c r="AG2" s="113"/>
+      <c r="AH2" s="114"/>
     </row>
     <row r="3" spans="2:34" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="45" t="s">
@@ -9476,49 +13351,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25"/>
       <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="73"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="117"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -9981,15 +13856,15 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -10000,10 +13875,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s">
         <v>184</v>
-      </c>
-      <c r="B3" t="s">
-        <v>185</v>
       </c>
       <c r="I3" t="s">
         <v>164</v>
@@ -10011,7 +13886,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -10025,7 +13900,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -10039,7 +13914,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -10055,7 +13930,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10065,15 +13940,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" t="str">
         <f>"&lt;zsetformulatocell toSheet=[BD]  toCell=[A2] formula=[SUM(B4:B5)]"</f>
@@ -10082,10 +13957,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -10109,15 +13984,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" t="str">
         <f>"&lt;zsetformulatocell toSheet=[BD]  toCell=[A2] formula=[SUM(B4:B5)]"</f>
@@ -10126,10 +14001,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -10139,10 +14014,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5946069B-84EF-483E-B2A7-62FC8EF81A67}">
-  <dimension ref="B8:AK11"/>
+  <dimension ref="B3:AM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10167,74 +14042,104 @@
     <col min="27" max="27" width="3.7109375" customWidth="1"/>
     <col min="28" max="29" width="12.7109375" customWidth="1"/>
     <col min="30" max="31" width="3.7109375" customWidth="1"/>
-    <col min="32" max="36" width="12.7109375" customWidth="1"/>
+    <col min="32" max="38" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="C8" s="59" t="s">
+    <row r="3" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="D3" s="152" t="s">
+        <v>339</v>
+      </c>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+    </row>
+    <row r="4" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="D4" s="153" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" s="154"/>
+      <c r="F4" s="155" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AH6">
+        <f>COLUMN()</f>
+        <v>34</v>
+      </c>
+      <c r="AK6">
+        <f>COLUMN()</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="C8" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59" t="s">
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59" t="s">
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118" t="s">
+        <v>185</v>
+      </c>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59" t="s">
+      <c r="P8" s="118"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="118" t="s">
         <v>173</v>
       </c>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59" t="s">
+      <c r="S8" s="118"/>
+      <c r="T8" s="118"/>
+      <c r="U8" s="118" t="s">
+        <v>189</v>
+      </c>
+      <c r="V8" s="118"/>
+      <c r="W8" s="118"/>
+      <c r="X8" s="118" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y8" s="118"/>
+      <c r="Z8" s="118"/>
+      <c r="AA8" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
+      <c r="AB8" s="118"/>
+      <c r="AC8" s="118"/>
       <c r="AD8" s="56"/>
       <c r="AE8" s="56"/>
-      <c r="AF8" s="74" t="s">
+      <c r="AF8" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG8" s="156" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH8" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI8" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="AG8" s="74" t="s">
+      <c r="AJ8" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="AH8" s="74" t="s">
+      <c r="AK8" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="AI8" s="74" t="s">
-        <v>199</v>
-      </c>
-      <c r="AJ8" s="74" t="s">
-        <v>200</v>
-      </c>
+      <c r="AL8" s="103"/>
     </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:39" x14ac:dyDescent="0.25">
       <c r="C9" s="52" t="s">
         <v>171</v>
       </c>
@@ -10318,13 +14223,15 @@
       </c>
       <c r="AD9" s="57"/>
       <c r="AE9" s="57"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="74"/>
-      <c r="AI9" s="74"/>
-      <c r="AJ9" s="74"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="156"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="59"/>
+      <c r="AJ9" s="59"/>
+      <c r="AK9" s="59"/>
+      <c r="AL9" s="103"/>
     </row>
-    <row r="10" spans="2:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:39" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
@@ -10357,13 +14264,15 @@
       <c r="AC10" s="54"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="156"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="59"/>
+      <c r="AK10" s="59"/>
+      <c r="AL10" s="103"/>
     </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>167</v>
       </c>
@@ -10373,12 +14282,12 @@
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
       <c r="F11" s="55" t="s">
-        <v>176</v>
+        <v>336</v>
       </c>
       <c r="G11" s="53"/>
       <c r="H11" s="54"/>
       <c r="I11" s="55" t="s">
-        <v>187</v>
+        <v>337</v>
       </c>
       <c r="J11" s="53"/>
       <c r="K11" s="54"/>
@@ -10388,63 +14297,65 @@
       <c r="M11" s="53"/>
       <c r="N11" s="54"/>
       <c r="O11" s="55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P11" s="53"/>
       <c r="Q11" s="54"/>
       <c r="R11" s="55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S11" s="53"/>
       <c r="T11" s="54"/>
       <c r="U11" s="55" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V11" s="53"/>
       <c r="W11" s="54"/>
       <c r="X11" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Y11" s="53"/>
       <c r="Z11" s="54"/>
       <c r="AA11" s="55" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AB11" s="53"/>
       <c r="AC11" s="54"/>
-      <c r="AD11" s="58" t="str">
-        <f>"&lt;zsetformulatocell toSheet=[BD]  toCell=["&amp;ADDRESS(ROW(BD!C17),COLUMN(BD!C17))&amp;"] formula=[SUM(fromSheet!"&amp;ADDRESS(ROW(S11),COLUMN(S11))&amp;":M500)]"</f>
-        <v>&lt;zsetformulatocell toSheet=[BD]  toCell=[$C$17] formula=[SUM(fromSheet!$S$11:M500)]</v>
-      </c>
-      <c r="AE11" s="58" t="str">
-        <f>"&lt;zsetvaluetocell toSheet=[BD]  toCell=["&amp;ADDRESS(ROW(BD!D17),COLUMN(BD!D17))&amp;"] value=["&amp;S11&amp;"]"</f>
-        <v>&lt;zsetvaluetocell toSheet=[BD]  toCell=[$D$17] value=[]</v>
-      </c>
-      <c r="AF11" s="74">
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="58"/>
+      <c r="AF11" s="59">
         <v>1</v>
       </c>
-      <c r="AG11" s="74">
-        <f>IF(J10&lt;&gt;J11,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH11" s="74">
+      <c r="AG11" s="156" t="str">
+        <f>$F$4</f>
+        <v>ЩР</v>
+      </c>
+      <c r="AH11" s="59">
+        <f>IF(AG11=G11,IF(J10&lt;&gt;J11,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="59">
         <f>SUMIFS($AF$11:$AF$700000,$P$11:$P$700000,P11,$J$11:$J$700000,J11)</f>
         <v>0</v>
       </c>
-      <c r="AI11" s="74">
+      <c r="AJ11" s="59">
         <f>IF(SUMIFS($AF$11:AF11,$P$11:P11,P11,$J$11:J11,J11)=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="AJ11" s="74">
-        <f>IF(AI11=1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK11" t="s">
+      <c r="AK11" s="59">
+        <f>IF(AJ11=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="103">
+        <v>1</v>
+      </c>
+      <c r="AM11" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="X8:Z8"/>
     <mergeCell ref="AA8:AC8"/>
     <mergeCell ref="C8:E8"/>
@@ -10500,4 +14411,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5903E6AF-14E2-4CDD-BE66-209E502F0B4C}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="str">
+        <f>"&lt;zsetvaluetocell toSheet=[zalldevEXPORT]  toCell=[F4] value=[&lt;zlight&gt;]"</f>
+        <v>&lt;zsetvaluetocell toSheet=[zalldevEXPORT]  toCell=[F4] value=[&lt;zlight&gt;]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHOD.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHOD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEC2637-F46E-4159-BD13-178C3501427F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A83F39B-5BF7-4DBC-B34C-5D8D7AA676F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18405" yWindow="1950" windowWidth="25725" windowHeight="15630" firstSheet="4" activeTab="6" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="20565" yWindow="2700" windowWidth="25725" windowHeight="15630" firstSheet="5" activeTab="10" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="&lt;zall&gt;CABEXPORT" sheetId="14" r:id="rId8"/>
     <sheet name="&lt;zlight&gt;SET" sheetId="18" r:id="rId9"/>
     <sheet name="&lt;zlight&gt;TEMP" sheetId="21" r:id="rId10"/>
-    <sheet name="&lt;zlight&gt;" sheetId="20" r:id="rId11"/>
+    <sheet name="&lt;zlight&gt;GU" sheetId="22" r:id="rId11"/>
+    <sheet name="&lt;zlight&gt;" sheetId="20" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -558,7 +559,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="349">
   <si>
     <t>&lt;zlight&gt;</t>
   </si>
@@ -1577,12 +1578,6 @@
     <t>&lt;zlight&gt;TEMP</t>
   </si>
   <si>
-    <t>&lt;zdevsettings name=[SLCABAGEN1_HeadDeviceName] type=[string]&gt;</t>
-  </si>
-  <si>
-    <t>&lt;zdevsettings name=[SLCABAGEN1_NGHeadDevice] type=[string]&gt;</t>
-  </si>
-  <si>
     <t>пусто</t>
   </si>
   <si>
@@ -1592,10 +1587,34 @@
     <t>Заполняемый щит</t>
   </si>
   <si>
-    <t>ЩР</t>
-  </si>
-  <si>
-    <t>&lt;zcopyrow targetsheet=[&lt;zalldev&gt;EXPORT] targetcodename=[zalldevimport] keynumcol=[33]&gt;</t>
+    <t>&lt;zlight&gt;GU</t>
+  </si>
+  <si>
+    <t>&lt;zGUGUGUGU&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/zGUGUGUGU&gt;</t>
+  </si>
+  <si>
+    <t>&lt;zcopyrow targetsheet=[&lt;zlight&gt;GU] targetcodename=[zGUGUGUGU] keynumcol=[8]&gt;</t>
+  </si>
+  <si>
+    <t>&lt;zdevsettings name=[vEMGCvelecNumConnectDevice] type=[string] devmodel=[1]&gt;</t>
+  </si>
+  <si>
+    <t>&lt;zdevsettings name=[SLCABAGEN&lt;numconnect&gt;_HeadDeviceName] type=[string]&gt;</t>
+  </si>
+  <si>
+    <t>&lt;zdevsettings name=[SLCABAGEN&lt;numconnect&gt;_NGHeadDevice] type=[string]&gt;</t>
+  </si>
+  <si>
+    <t>Номер подключения</t>
+  </si>
+  <si>
+    <t>&lt;zcopyrow targetsheet=[&lt;zalldev&gt;EXPORT] targetcodename=[zalldevimport] keynumcol=[36]&gt;</t>
+  </si>
+  <si>
+    <t>&lt;zcopyrow targetsheet=[&lt;zalldev&gt;EXPORT] targetcodename=[zalldevimport] keynumcol=[41]&gt;</t>
   </si>
 </sst>
 </file>
@@ -2606,7 +2625,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2934,6 +2953,21 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2976,44 +3010,66 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3023,6 +3079,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3040,73 +3102,38 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3114,7 +3141,7 @@
     <cellStyle name="Обычный 4" xfId="2" xr:uid="{48E5EE6E-1ABC-45BC-BBF9-DFA8FA4F7CCC}"/>
     <cellStyle name="Обычный_расчет нагрузки" xfId="1" xr:uid="{2A78680A-EF87-4AAC-8D9D-BEC6B0A95A74}"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="98">
     <dxf>
       <fill>
         <patternFill>
@@ -3574,40 +3601,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4237,84 +4230,84 @@
   <sheetData>
     <row r="2" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:76" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="F3" s="107" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="111"/>
+      <c r="F3" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
-      <c r="K3" s="112" t="s">
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
+      <c r="K3" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="113"/>
-      <c r="W3" s="113"/>
-      <c r="X3" s="113"/>
-      <c r="Y3" s="113"/>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="113"/>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="113"/>
-      <c r="AG3" s="113"/>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="113"/>
-      <c r="AJ3" s="113"/>
-      <c r="AK3" s="113"/>
-      <c r="AL3" s="113"/>
-      <c r="AM3" s="113"/>
-      <c r="AN3" s="113"/>
-      <c r="AO3" s="113"/>
-      <c r="AP3" s="113"/>
-      <c r="AQ3" s="113"/>
-      <c r="AR3" s="113"/>
-      <c r="AS3" s="113"/>
-      <c r="AT3" s="113"/>
-      <c r="AU3" s="113"/>
-      <c r="AV3" s="113"/>
-      <c r="AW3" s="113"/>
-      <c r="AX3" s="113"/>
-      <c r="AY3" s="113"/>
-      <c r="AZ3" s="113"/>
-      <c r="BA3" s="113"/>
-      <c r="BB3" s="113"/>
-      <c r="BC3" s="113"/>
-      <c r="BD3" s="113"/>
-      <c r="BE3" s="113"/>
-      <c r="BF3" s="113"/>
-      <c r="BG3" s="113"/>
-      <c r="BH3" s="113"/>
-      <c r="BI3" s="113"/>
-      <c r="BJ3" s="113"/>
-      <c r="BK3" s="113"/>
-      <c r="BL3" s="113"/>
-      <c r="BM3" s="113"/>
-      <c r="BN3" s="113"/>
-      <c r="BO3" s="113"/>
-      <c r="BP3" s="113"/>
-      <c r="BQ3" s="113"/>
-      <c r="BR3" s="113"/>
-      <c r="BS3" s="113"/>
-      <c r="BT3" s="113"/>
-      <c r="BU3" s="113"/>
-      <c r="BV3" s="113"/>
-      <c r="BW3" s="113"/>
-      <c r="BX3" s="113"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="118"/>
+      <c r="AD3" s="118"/>
+      <c r="AE3" s="118"/>
+      <c r="AF3" s="118"/>
+      <c r="AG3" s="118"/>
+      <c r="AH3" s="118"/>
+      <c r="AI3" s="118"/>
+      <c r="AJ3" s="118"/>
+      <c r="AK3" s="118"/>
+      <c r="AL3" s="118"/>
+      <c r="AM3" s="118"/>
+      <c r="AN3" s="118"/>
+      <c r="AO3" s="118"/>
+      <c r="AP3" s="118"/>
+      <c r="AQ3" s="118"/>
+      <c r="AR3" s="118"/>
+      <c r="AS3" s="118"/>
+      <c r="AT3" s="118"/>
+      <c r="AU3" s="118"/>
+      <c r="AV3" s="118"/>
+      <c r="AW3" s="118"/>
+      <c r="AX3" s="118"/>
+      <c r="AY3" s="118"/>
+      <c r="AZ3" s="118"/>
+      <c r="BA3" s="118"/>
+      <c r="BB3" s="118"/>
+      <c r="BC3" s="118"/>
+      <c r="BD3" s="118"/>
+      <c r="BE3" s="118"/>
+      <c r="BF3" s="118"/>
+      <c r="BG3" s="118"/>
+      <c r="BH3" s="118"/>
+      <c r="BI3" s="118"/>
+      <c r="BJ3" s="118"/>
+      <c r="BK3" s="118"/>
+      <c r="BL3" s="118"/>
+      <c r="BM3" s="118"/>
+      <c r="BN3" s="118"/>
+      <c r="BO3" s="118"/>
+      <c r="BP3" s="118"/>
+      <c r="BQ3" s="118"/>
+      <c r="BR3" s="118"/>
+      <c r="BS3" s="118"/>
+      <c r="BT3" s="118"/>
+      <c r="BU3" s="118"/>
+      <c r="BV3" s="118"/>
+      <c r="BW3" s="118"/>
+      <c r="BX3" s="118"/>
     </row>
     <row r="4" spans="1:76" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -5385,10 +5378,10 @@
       <c r="BX8" s="3"/>
     </row>
     <row r="9" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="111"/>
+      <c r="B9" s="116"/>
       <c r="F9" s="28">
         <v>2500</v>
       </c>
@@ -10403,11 +10396,11 @@
     </row>
     <row r="41" spans="6:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="6:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="107" t="s">
+      <c r="F42" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="G42" s="108"/>
-      <c r="H42" s="109"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="114"/>
     </row>
     <row r="43" spans="6:76" ht="31.5" x14ac:dyDescent="0.25">
       <c r="F43" s="37" t="s">
@@ -10506,127 +10499,127 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="K6:M37 U13:Z37 U6:W12 Y6:AA6 Y7:Z12 AA7:AA37 BJ6:BR37 BU6:BX37 AW6:BG6 AO13:BH37 AO6:AU12 AV8:AV12 AW7:BH12 AE6:AG37">
-    <cfRule type="cellIs" dxfId="101" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:M38 U38:AG38 AO38:AP38">
-    <cfRule type="cellIs" dxfId="100" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ38:AW38">
-    <cfRule type="cellIs" dxfId="99" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX38:BR38 BU38:BX38">
-    <cfRule type="cellIs" dxfId="98" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:T37">
-    <cfRule type="cellIs" dxfId="97" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:T38">
-    <cfRule type="cellIs" dxfId="96" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH6:AI15">
-    <cfRule type="cellIs" dxfId="95" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ38:AN38">
-    <cfRule type="cellIs" dxfId="94" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH16:AH37">
-    <cfRule type="cellIs" dxfId="93" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH38">
-    <cfRule type="cellIs" dxfId="92" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI16:AI37">
-    <cfRule type="cellIs" dxfId="91" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI38">
-    <cfRule type="cellIs" dxfId="90" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ6:AK6 AJ7 AK7:AK15">
-    <cfRule type="cellIs" dxfId="89" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:AJ11">
-    <cfRule type="cellIs" dxfId="88" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ12:AJ14">
-    <cfRule type="cellIs" dxfId="87" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ16:AK36 AJ15">
-    <cfRule type="cellIs" dxfId="86" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ37:AK37">
-    <cfRule type="cellIs" dxfId="85" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS6:BS37">
-    <cfRule type="cellIs" dxfId="84" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS38">
-    <cfRule type="cellIs" dxfId="83" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT6:BT37">
-    <cfRule type="cellIs" dxfId="82" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT38">
-    <cfRule type="cellIs" dxfId="81" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X6:X12">
-    <cfRule type="cellIs" dxfId="80" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV6:AV7">
-    <cfRule type="cellIs" dxfId="79" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL6:AN37">
-    <cfRule type="cellIs" dxfId="78" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6:AD37">
-    <cfRule type="cellIs" dxfId="77" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10701,11 +10694,65 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD83D9D-2229-4BC6-AB0E-E63357D0D337}">
+  <dimension ref="B1:M1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1">
+        <f>'&lt;zalldev&gt;EXPORT'!D11</f>
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <f>'&lt;zalldev&gt;EXPORT'!G11</f>
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <f>'&lt;zalldev&gt;EXPORT'!M11</f>
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <f>'&lt;zalldev&gt;EXPORT'!P11</f>
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>341</v>
+      </c>
+      <c r="M1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B9844E-F661-46DB-A8DF-606C0C725DFB}">
-  <dimension ref="C1:ET24"/>
+  <dimension ref="A1:FG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10714,6 +10761,8 @@
     <col min="3" max="3" width="4.85546875" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="9" width="29.42578125" customWidth="1"/>
+    <col min="10" max="12" width="4.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
     <col min="16" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -10741,33 +10790,33 @@
       </c>
     </row>
     <row r="4" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="157" t="s">
         <v>334</v>
       </c>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
       <c r="I4" s="102" t="s">
         <v>333</v>
       </c>
       <c r="O4" s="102"/>
-      <c r="P4" s="121" t="s">
+      <c r="P4" s="157" t="s">
         <v>332</v>
       </c>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="121"/>
+      <c r="Q4" s="157"/>
+      <c r="R4" s="157"/>
+      <c r="S4" s="157"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="157"/>
     </row>
     <row r="5" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="141" t="s">
         <v>331</v>
       </c>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
       <c r="H5" s="101">
         <f>'&lt;zlight&gt;'!F18</f>
         <v>0</v>
@@ -10778,25 +10827,25 @@
       <c r="O5" s="100" t="s">
         <v>329</v>
       </c>
-      <c r="P5" s="120" t="s">
+      <c r="P5" s="153" t="s">
         <v>328</v>
       </c>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120">
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153">
         <f ca="1">SUM($AC$22:$AC$11997)</f>
         <v>0</v>
       </c>
-      <c r="U5" s="120"/>
+      <c r="U5" s="153"/>
     </row>
     <row r="6" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="141" t="s">
         <v>327</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
       <c r="H6" s="97" t="s">
         <v>326</v>
       </c>
@@ -10806,25 +10855,25 @@
       <c r="O6" s="100">
         <v>63</v>
       </c>
-      <c r="P6" s="120" t="s">
+      <c r="P6" s="153" t="s">
         <v>324</v>
       </c>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120"/>
-      <c r="S6" s="120"/>
-      <c r="T6" s="120">
+      <c r="Q6" s="153"/>
+      <c r="R6" s="153"/>
+      <c r="S6" s="153"/>
+      <c r="T6" s="153">
         <f ca="1">T5*T11</f>
         <v>0</v>
       </c>
-      <c r="U6" s="120"/>
+      <c r="U6" s="153"/>
     </row>
     <row r="7" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D7" s="119" t="s">
+      <c r="D7" s="141" t="s">
         <v>323</v>
       </c>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
       <c r="H7" s="97">
         <v>45399</v>
       </c>
@@ -10834,25 +10883,25 @@
       <c r="O7" s="100">
         <v>32</v>
       </c>
-      <c r="P7" s="120" t="s">
+      <c r="P7" s="153" t="s">
         <v>321</v>
       </c>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="120"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="120">
+      <c r="Q7" s="153"/>
+      <c r="R7" s="153"/>
+      <c r="S7" s="153"/>
+      <c r="T7" s="153">
         <f ca="1">ROUNDUP((T6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*T8),2)</f>
         <v>0</v>
       </c>
-      <c r="U7" s="120"/>
+      <c r="U7" s="153"/>
     </row>
     <row r="8" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="141" t="s">
         <v>320</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
       <c r="H8" s="97" t="s">
         <v>319</v>
       </c>
@@ -10862,24 +10911,24 @@
       <c r="O8" s="100">
         <v>6</v>
       </c>
-      <c r="P8" s="122" t="s">
+      <c r="P8" s="154" t="s">
         <v>317</v>
       </c>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="125">
+      <c r="Q8" s="155"/>
+      <c r="R8" s="155"/>
+      <c r="S8" s="156"/>
+      <c r="T8" s="149">
         <v>0.92</v>
       </c>
-      <c r="U8" s="125"/>
+      <c r="U8" s="149"/>
     </row>
     <row r="9" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
       <c r="H9" s="97" t="s">
         <v>315</v>
       </c>
@@ -10889,42 +10938,42 @@
       <c r="O9" s="100" t="s">
         <v>313</v>
       </c>
-      <c r="P9" s="126" t="s">
+      <c r="P9" s="148" t="s">
         <v>312</v>
       </c>
-      <c r="Q9" s="126"/>
-      <c r="R9" s="126"/>
-      <c r="S9" s="126"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="125"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="149"/>
+      <c r="U9" s="149"/>
     </row>
     <row r="10" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="141" t="s">
         <v>311</v>
       </c>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
       <c r="I10" s="100" t="s">
         <v>310</v>
       </c>
       <c r="O10" s="100">
         <v>4</v>
       </c>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="125"/>
-      <c r="U10" s="125"/>
+      <c r="P10" s="148"/>
+      <c r="Q10" s="148"/>
+      <c r="R10" s="148"/>
+      <c r="S10" s="148"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="149"/>
     </row>
     <row r="11" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D11" s="119" t="s">
+      <c r="D11" s="141" t="s">
         <v>309</v>
       </c>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
       <c r="H11" s="97">
         <v>380</v>
       </c>
@@ -10934,24 +10983,24 @@
       <c r="O11" s="100" t="s">
         <v>307</v>
       </c>
-      <c r="P11" s="127" t="s">
+      <c r="P11" s="150" t="s">
         <v>306</v>
       </c>
-      <c r="Q11" s="128"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="127">
+      <c r="Q11" s="151"/>
+      <c r="R11" s="151"/>
+      <c r="S11" s="152"/>
+      <c r="T11" s="150">
         <v>0.65</v>
       </c>
-      <c r="U11" s="129"/>
+      <c r="U11" s="152"/>
     </row>
     <row r="12" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D12" s="119" t="s">
+      <c r="D12" s="141" t="s">
         <v>305</v>
       </c>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
       <c r="H12" s="97" t="s">
         <v>304</v>
       </c>
@@ -10961,198 +11010,872 @@
       <c r="O12" s="100" t="s">
         <v>303</v>
       </c>
-      <c r="P12" s="130" t="s">
+      <c r="P12" s="142" t="s">
         <v>302</v>
       </c>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="130"/>
-      <c r="T12" s="130">
+      <c r="Q12" s="142"/>
+      <c r="R12" s="142"/>
+      <c r="S12" s="142"/>
+      <c r="T12" s="142">
         <v>44.5</v>
       </c>
-      <c r="U12" s="130"/>
+      <c r="U12" s="142"/>
     </row>
     <row r="13" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="141" t="s">
         <v>301</v>
       </c>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
       <c r="H13" s="97" t="s">
         <v>300</v>
       </c>
       <c r="I13" s="98"/>
       <c r="O13" s="98"/>
-      <c r="P13" s="130" t="s">
+      <c r="P13" s="142" t="s">
         <v>299</v>
       </c>
-      <c r="Q13" s="130"/>
-      <c r="R13" s="130"/>
-      <c r="S13" s="130"/>
-      <c r="T13" s="130">
+      <c r="Q13" s="142"/>
+      <c r="R13" s="142"/>
+      <c r="S13" s="142"/>
+      <c r="T13" s="142">
         <v>44.5</v>
       </c>
-      <c r="U13" s="130"/>
+      <c r="U13" s="142"/>
     </row>
     <row r="14" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="141" t="s">
         <v>298</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
       <c r="H14" s="99" t="str">
         <f>'&lt;zlight&gt;'!G18&amp;"."&amp;'&lt;zlight&gt;'!H18</f>
         <v>.</v>
       </c>
       <c r="I14" s="98"/>
       <c r="O14" s="98"/>
-      <c r="P14" s="130" t="s">
+      <c r="P14" s="142" t="s">
         <v>297</v>
       </c>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="130"/>
-      <c r="S14" s="130"/>
-      <c r="T14" s="130">
+      <c r="Q14" s="142"/>
+      <c r="R14" s="142"/>
+      <c r="S14" s="142"/>
+      <c r="T14" s="142">
         <v>44.5</v>
       </c>
-      <c r="U14" s="130"/>
+      <c r="U14" s="142"/>
     </row>
     <row r="15" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="141" t="s">
         <v>296</v>
       </c>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
       <c r="H15" s="97">
         <v>77</v>
       </c>
       <c r="O15" s="98"/>
-      <c r="P15" s="133" t="s">
+      <c r="P15" s="143" t="s">
         <v>295</v>
       </c>
-      <c r="Q15" s="133"/>
-      <c r="R15" s="133"/>
-      <c r="S15" s="133"/>
-      <c r="T15" s="133">
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143">
         <f ca="1">ROUNDUP((T6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*T8),2)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="133"/>
+      <c r="U15" s="143"/>
     </row>
-    <row r="21" spans="3:150" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="3:150" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="134" t="s">
+    <row r="17" spans="1:163" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17">
+        <f>'&lt;zlight&gt;GU'!D1</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>'&lt;zlight&gt;GU'!E1</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>'&lt;zlight&gt;GU'!H1</f>
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:163" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>COLUMN(A20)</f>
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:BM20" si="0">COLUMN(B20)</f>
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="AN20">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="AP20">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AQ20">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="AR20">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="AS20">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="AT20">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="AU20">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="AV20">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AW20">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="AX20">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="AY20">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="AZ20">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="BA20">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="BB20">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="BC20">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="BD20">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="BE20">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="BF20">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="BG20">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="BH20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="BI20">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="BJ20">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="BK20">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="BL20">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="BM20">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="BN20">
+        <f t="shared" ref="BN20:DY20" si="1">COLUMN(BN20)</f>
+        <v>66</v>
+      </c>
+      <c r="BO20">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="BP20">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="BQ20">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="BR20">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="BS20">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="BT20">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="BU20">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="BV20">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="BW20">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="BX20">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="BY20">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="BZ20">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="CA20">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="CB20">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="CC20">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="CD20">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="CE20">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="CF20">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="CG20">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="CH20">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="CI20">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="CJ20">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="CK20">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="CL20">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="CM20">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="CN20">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="CO20">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="CP20">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="CQ20">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="CR20">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="CS20">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="CT20">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="CU20">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="CV20">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="CW20">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="CX20">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="CY20">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="CZ20">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="DA20">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="DB20">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="DC20">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="DD20">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="DE20">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="DF20">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="DG20">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="DH20">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="DI20">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="DJ20">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="DK20">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="DL20">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="DM20">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="DN20">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="DO20">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="DP20">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="DQ20">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="DR20">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="DS20">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="DT20">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="DU20">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="DV20">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="DW20">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="DX20">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="DY20">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="DZ20">
+        <f t="shared" ref="DZ20:EJ20" si="2">COLUMN(DZ20)</f>
+        <v>130</v>
+      </c>
+      <c r="EA20">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="EB20">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="EC20">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="ED20">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="EE20">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="EF20">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="EG20">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="EH20">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="EI20">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="EJ20">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="EK20">
+        <f>COLUMN(EK20)</f>
+        <v>141</v>
+      </c>
+      <c r="EL20">
+        <f t="shared" ref="EL20:FG20" si="3">COLUMN(EL20)</f>
+        <v>142</v>
+      </c>
+      <c r="EM20">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+      <c r="EN20">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="EO20">
+        <f t="shared" si="3"/>
+        <v>145</v>
+      </c>
+      <c r="EP20">
+        <f t="shared" si="3"/>
+        <v>146</v>
+      </c>
+      <c r="EQ20">
+        <f t="shared" si="3"/>
+        <v>147</v>
+      </c>
+      <c r="ER20">
+        <f t="shared" si="3"/>
+        <v>148</v>
+      </c>
+      <c r="ES20">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+      <c r="ET20">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="EU20">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
+      <c r="EV20">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+      <c r="EW20">
+        <f t="shared" si="3"/>
+        <v>153</v>
+      </c>
+      <c r="EX20">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+      <c r="EY20">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="EZ20">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
+      <c r="FA20">
+        <f t="shared" si="3"/>
+        <v>157</v>
+      </c>
+      <c r="FB20">
+        <f t="shared" si="3"/>
+        <v>158</v>
+      </c>
+      <c r="FC20">
+        <f t="shared" si="3"/>
+        <v>159</v>
+      </c>
+      <c r="FD20">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="FE20">
+        <f t="shared" si="3"/>
+        <v>161</v>
+      </c>
+      <c r="FF20">
+        <f t="shared" si="3"/>
+        <v>162</v>
+      </c>
+      <c r="FG20">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:163" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:163" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="144" t="s">
         <v>294</v>
       </c>
-      <c r="E22" s="136" t="s">
+      <c r="E22" s="146" t="s">
         <v>239</v>
       </c>
-      <c r="F22" s="131" t="s">
+      <c r="F22" s="139" t="s">
         <v>238</v>
       </c>
-      <c r="G22" s="136" t="s">
+      <c r="G22" s="146" t="s">
         <v>293</v>
       </c>
-      <c r="H22" s="131" t="s">
+      <c r="H22" s="139" t="s">
         <v>292</v>
       </c>
-      <c r="I22" s="131" t="s">
+      <c r="I22" s="139" t="s">
         <v>291</v>
       </c>
-      <c r="J22" s="144" t="s">
+      <c r="J22" s="131" t="s">
         <v>290</v>
       </c>
-      <c r="K22" s="144"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="145" t="s">
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="132" t="s">
         <v>289</v>
       </c>
-      <c r="O22" s="147" t="s">
+      <c r="O22" s="134" t="s">
         <v>288</v>
       </c>
-      <c r="P22" s="148"/>
-      <c r="Q22" s="148"/>
-      <c r="R22" s="148"/>
-      <c r="S22" s="148"/>
-      <c r="T22" s="148"/>
-      <c r="U22" s="148"/>
-      <c r="V22" s="148"/>
-      <c r="W22" s="148"/>
-      <c r="X22" s="148"/>
-      <c r="Y22" s="148"/>
-      <c r="Z22" s="148"/>
-      <c r="AA22" s="149" t="s">
+      <c r="P22" s="135"/>
+      <c r="Q22" s="135"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="135"/>
+      <c r="Y22" s="135"/>
+      <c r="Z22" s="135"/>
+      <c r="AA22" s="136" t="s">
         <v>287</v>
       </c>
-      <c r="AB22" s="150"/>
-      <c r="AC22" s="150"/>
-      <c r="AD22" s="150"/>
-      <c r="AE22" s="150"/>
-      <c r="AF22" s="150"/>
-      <c r="AG22" s="150"/>
-      <c r="AH22" s="150"/>
-      <c r="AI22" s="151"/>
-      <c r="AJ22" s="149" t="s">
+      <c r="AB22" s="137"/>
+      <c r="AC22" s="137"/>
+      <c r="AD22" s="137"/>
+      <c r="AE22" s="137"/>
+      <c r="AF22" s="137"/>
+      <c r="AG22" s="137"/>
+      <c r="AH22" s="137"/>
+      <c r="AI22" s="138"/>
+      <c r="AJ22" s="136" t="s">
         <v>286</v>
       </c>
-      <c r="AK22" s="150"/>
-      <c r="AL22" s="150"/>
-      <c r="AM22" s="150"/>
-      <c r="AN22" s="150"/>
-      <c r="AO22" s="150"/>
-      <c r="AP22" s="150"/>
-      <c r="AQ22" s="150"/>
-      <c r="AR22" s="150"/>
-      <c r="AS22" s="150"/>
-      <c r="AT22" s="150"/>
-      <c r="AU22" s="150"/>
-      <c r="AV22" s="150"/>
-      <c r="AW22" s="151"/>
-      <c r="AX22" s="149" t="s">
+      <c r="AK22" s="137"/>
+      <c r="AL22" s="137"/>
+      <c r="AM22" s="137"/>
+      <c r="AN22" s="137"/>
+      <c r="AO22" s="137"/>
+      <c r="AP22" s="137"/>
+      <c r="AQ22" s="137"/>
+      <c r="AR22" s="137"/>
+      <c r="AS22" s="137"/>
+      <c r="AT22" s="137"/>
+      <c r="AU22" s="137"/>
+      <c r="AV22" s="137"/>
+      <c r="AW22" s="138"/>
+      <c r="AX22" s="136" t="s">
         <v>285</v>
       </c>
-      <c r="AY22" s="150"/>
-      <c r="AZ22" s="150"/>
-      <c r="BA22" s="150"/>
-      <c r="BB22" s="150"/>
-      <c r="BC22" s="150"/>
-      <c r="BD22" s="150"/>
-      <c r="BE22" s="150"/>
-      <c r="BF22" s="150"/>
-      <c r="BG22" s="150"/>
-      <c r="BH22" s="150"/>
-      <c r="BI22" s="150"/>
-      <c r="BJ22" s="150"/>
-      <c r="BK22" s="150"/>
-      <c r="BL22" s="150"/>
-      <c r="BM22" s="150"/>
-      <c r="BN22" s="151"/>
-      <c r="BO22" s="138" t="s">
+      <c r="AY22" s="137"/>
+      <c r="AZ22" s="137"/>
+      <c r="BA22" s="137"/>
+      <c r="BB22" s="137"/>
+      <c r="BC22" s="137"/>
+      <c r="BD22" s="137"/>
+      <c r="BE22" s="137"/>
+      <c r="BF22" s="137"/>
+      <c r="BG22" s="137"/>
+      <c r="BH22" s="137"/>
+      <c r="BI22" s="137"/>
+      <c r="BJ22" s="137"/>
+      <c r="BK22" s="137"/>
+      <c r="BL22" s="137"/>
+      <c r="BM22" s="137"/>
+      <c r="BN22" s="138"/>
+      <c r="BO22" s="125" t="s">
         <v>284</v>
       </c>
-      <c r="BP22" s="139"/>
-      <c r="BQ22" s="139"/>
-      <c r="BR22" s="139"/>
-      <c r="BS22" s="139"/>
-      <c r="BT22" s="139"/>
-      <c r="BU22" s="140"/>
-      <c r="BV22" s="141" t="s">
+      <c r="BP22" s="126"/>
+      <c r="BQ22" s="126"/>
+      <c r="BR22" s="126"/>
+      <c r="BS22" s="126"/>
+      <c r="BT22" s="126"/>
+      <c r="BU22" s="127"/>
+      <c r="BV22" s="128" t="s">
         <v>283</v>
       </c>
-      <c r="BW22" s="142"/>
-      <c r="BX22" s="142"/>
-      <c r="BY22" s="142"/>
-      <c r="BZ22" s="142"/>
-      <c r="CA22" s="142"/>
-      <c r="CB22" s="142"/>
-      <c r="CC22" s="142"/>
-      <c r="CD22" s="142"/>
-      <c r="CE22" s="142"/>
-      <c r="CF22" s="142"/>
-      <c r="CG22" s="142"/>
+      <c r="BW22" s="129"/>
+      <c r="BX22" s="129"/>
+      <c r="BY22" s="129"/>
+      <c r="BZ22" s="129"/>
+      <c r="CA22" s="129"/>
+      <c r="CB22" s="129"/>
+      <c r="CC22" s="129"/>
+      <c r="CD22" s="129"/>
+      <c r="CE22" s="129"/>
+      <c r="CF22" s="129"/>
+      <c r="CG22" s="129"/>
       <c r="CH22" s="80"/>
       <c r="CI22" s="80"/>
       <c r="CJ22" s="80"/>
@@ -11229,13 +11952,13 @@
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="3:150" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="135"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
+    <row r="23" spans="1:163" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="145"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
       <c r="J23" s="96" t="s">
         <v>274</v>
       </c>
@@ -11245,7 +11968,7 @@
       <c r="L23" s="96" t="s">
         <v>272</v>
       </c>
-      <c r="M23" s="146"/>
+      <c r="M23" s="133"/>
       <c r="O23" s="95" t="s">
         <v>271</v>
       </c>
@@ -11423,18 +12146,18 @@
       <c r="BU23" s="81" t="s">
         <v>222</v>
       </c>
-      <c r="BV23" s="141"/>
-      <c r="BW23" s="142"/>
-      <c r="BX23" s="142"/>
-      <c r="BY23" s="142"/>
-      <c r="BZ23" s="142"/>
-      <c r="CA23" s="142"/>
-      <c r="CB23" s="142"/>
-      <c r="CC23" s="142"/>
-      <c r="CD23" s="142"/>
-      <c r="CE23" s="142"/>
-      <c r="CF23" s="142"/>
-      <c r="CG23" s="142"/>
+      <c r="BV23" s="128"/>
+      <c r="BW23" s="129"/>
+      <c r="BX23" s="129"/>
+      <c r="BY23" s="129"/>
+      <c r="BZ23" s="129"/>
+      <c r="CA23" s="129"/>
+      <c r="CB23" s="129"/>
+      <c r="CC23" s="129"/>
+      <c r="CD23" s="129"/>
+      <c r="CE23" s="129"/>
+      <c r="CF23" s="129"/>
+      <c r="CG23" s="129"/>
       <c r="CH23" s="80"/>
       <c r="CI23" s="80"/>
       <c r="CJ23" s="80"/>
@@ -11443,35 +12166,35 @@
       <c r="CO23" s="1">
         <v>35</v>
       </c>
-      <c r="EB23" s="143" t="s">
+      <c r="EB23" s="130" t="s">
         <v>221</v>
       </c>
-      <c r="EC23" s="143"/>
-      <c r="ED23" s="143"/>
-      <c r="EE23" s="143"/>
-      <c r="EF23" s="143"/>
-      <c r="EG23" s="143"/>
-      <c r="EH23" s="143"/>
-      <c r="EI23" s="143"/>
-      <c r="EJ23" s="143"/>
-      <c r="EK23" s="143" t="s">
+      <c r="EC23" s="130"/>
+      <c r="ED23" s="130"/>
+      <c r="EE23" s="130"/>
+      <c r="EF23" s="130"/>
+      <c r="EG23" s="130"/>
+      <c r="EH23" s="130"/>
+      <c r="EI23" s="130"/>
+      <c r="EJ23" s="130"/>
+      <c r="EK23" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="EL23" s="143"/>
-      <c r="EM23" s="143"/>
-      <c r="EN23" s="143"/>
-      <c r="EO23" s="143"/>
-      <c r="EP23" s="143"/>
-      <c r="EQ23" s="143"/>
-      <c r="ER23" s="143"/>
-      <c r="ES23" s="143"/>
+      <c r="EL23" s="130"/>
+      <c r="EM23" s="130"/>
+      <c r="EN23" s="130"/>
+      <c r="EO23" s="130"/>
+      <c r="EP23" s="130"/>
+      <c r="EQ23" s="130"/>
+      <c r="ER23" s="130"/>
+      <c r="ES23" s="130"/>
     </row>
-    <row r="24" spans="3:150" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:163" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D24" s="79">
-        <f>'&lt;zalldev&gt;EXPORT'!J11</f>
+        <f>'&lt;zalldev&gt;EXPORT'!M11</f>
         <v>0</v>
       </c>
       <c r="E24" s="74" t="str">
@@ -11494,35 +12217,33 @@
         <f ca="1">IF(G24="","",BS24&amp;", "&amp;BT24&amp;", "&amp;BU24)</f>
         <v>#N/A</v>
       </c>
-      <c r="J24" s="1">
-        <f>IF(BZ24=0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="1" t="e">
-        <f>IF(BZ24=0,0,IF(L24=0,IF(MATCH(BZ24,$O$24:O24,0)=0,0,1),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L24" s="1" t="e">
-        <f>IF(BZ24=0,0,IF(INDEX($BZ$24:BZ24,MATCH(BZ24,$O$24:O24,0))=0,0,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M24" s="78" t="e">
-        <f ca="1">IF(AJ24="","",AJ24&amp;"; "&amp;AK24&amp;" L="&amp;AL24&amp;"м")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N24" t="s">
-        <v>338</v>
+      <c r="J24" s="107" t="str">
+        <f>IF(BZ24=0,"*","")</f>
+        <v>*</v>
+      </c>
+      <c r="K24" s="107">
+        <f>IF(BZ24=0,0,IF(L24=0,IF(MATCH(BZ24,$O$24:O24,0)=0,0,"*"),0))</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="107">
+        <f>IF(BZ24=0,0,IF(INDEX($BZ$24:BZ24,MATCH(BZ24,$O$24:O24,0))=0,0,"*"))</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="78"/>
+      <c r="N24" t="str">
+        <f>"&lt;zsetformulatocell toSheet=[zalldevEXPORT]  toCell=["&amp;ADDRESS(ROW('&lt;zalldev&gt;EXPORT'!W11),COLUMN('&lt;zalldev&gt;EXPORT'!W11))&amp;"] formula=[fromSheet!"&amp;ADDRESS(ROW(V24),COLUMN(V24))&amp;"]"</f>
+        <v>&lt;zsetformulatocell toSheet=[zalldevEXPORT]  toCell=[$W$11] formula=[fromSheet!$V$24]</v>
       </c>
       <c r="O24" s="54">
         <f>'&lt;zalldev&gt;EXPORT'!D11</f>
         <v>0</v>
       </c>
       <c r="P24" s="77" t="e">
-        <f ca="1">IF(IFERROR(BW24,1)=1,INDEX(BD!$B$4:$B$5,MATCH('&lt;zalldev&gt;EXPORT'!Y11,BD!$A$4:$A$5,0)),INDIRECT("'"&amp;O24&amp;"'!"&amp;"G1"))</f>
+        <f ca="1">IF(IFERROR(BW24,1)=1,INDEX(BD!$B$4:$B$5,MATCH('&lt;zalldev&gt;EXPORT'!AB11,BD!$A$4:$A$5,0)),INDIRECT("'"&amp;O24&amp;"'!"&amp;"G1"))</f>
         <v>#N/A</v>
       </c>
       <c r="Q24" s="77" t="e">
-        <f ca="1">IF(IFERROR(BW24,1)=1,INDEX(BD!$B$10:$B$13,MATCH('&lt;zalldev&gt;EXPORT'!AB11,BD!$A$10:$A$13,0)),INDIRECT("'"&amp;O24&amp;"'!"&amp;"H1"))</f>
+        <f ca="1">IF(IFERROR(BW24,1)=1,INDEX(BD!$B$10:$B$13,MATCH('&lt;zalldev&gt;EXPORT'!AE11,BD!$A$10:$A$13,0)),INDIRECT("'"&amp;O24&amp;"'!"&amp;"H1"))</f>
         <v>#N/A</v>
       </c>
       <c r="R24" s="77">
@@ -11530,7 +12251,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="77">
-        <f ca="1">IF(IFERROR(BW24,1)=1,'&lt;zalldev&gt;EXPORT'!K11,INDIRECT("'"&amp;O24&amp;"'!"&amp;"F1"))</f>
+        <f ca="1">IF(IFERROR(BW24,1)=1,'&lt;zalldev&gt;EXPORT'!N11,INDIRECT("'"&amp;O24&amp;"'!"&amp;"F1"))</f>
         <v>0</v>
       </c>
       <c r="T24" s="53" t="e">
@@ -11542,22 +12263,22 @@
         <v>0</v>
       </c>
       <c r="V24" s="54">
-        <f>'&lt;zalldev&gt;EXPORT'!J11</f>
+        <f>'&lt;zalldev&gt;EXPORT'!M11</f>
         <v>0</v>
       </c>
       <c r="W24" s="54">
-        <f>'&lt;zalldev&gt;EXPORT'!Q11</f>
+        <f>'&lt;zalldev&gt;EXPORT'!T11</f>
         <v>0</v>
       </c>
       <c r="X24" s="54">
         <v>1</v>
       </c>
       <c r="Y24" t="s">
-        <v>338</v>
-      </c>
-      <c r="Z24" s="54" t="str">
-        <f>'&lt;zalldev&gt;EXPORT'!C11</f>
-        <v>&lt;zdevsettings name=[NMO_Name] type=[string]&gt;</v>
+        <v>336</v>
+      </c>
+      <c r="Z24" s="54">
+        <f>'&lt;zalldev&gt;EXPORT'!P11</f>
+        <v>0</v>
       </c>
       <c r="AA24" s="71">
         <v>1</v>
@@ -11595,15 +12316,15 @@
         <v>3</v>
       </c>
       <c r="AJ24" s="71" t="str">
-        <f>IF(D24="",IF(BZ24=0,"",IF(BZ24=O24,"",BZ24&amp;"."&amp;CA24)),'&lt;zalldev&gt;EXPORT'!E11&amp;"."&amp;'&lt;zalldev&gt;EXPORT'!F11)</f>
-        <v>.&lt;zdevsettings name=[SLCABAGEN1_HeadDeviceName] type=[string]&gt;</v>
+        <f>IF(D24="",IF(BZ24=0,"",IF(BZ24=O24,"",BZ24&amp;"."&amp;CA24)),'&lt;zalldev&gt;EXPORT'!G11&amp;"."&amp;'&lt;zalldev&gt;EXPORT'!M11)</f>
+        <v>.</v>
       </c>
       <c r="AK24" s="71" t="e">
         <f ca="1">IF(AJ24="","",AR24&amp;"-"&amp;AP24&amp;"х"&amp;AQ24&amp;"мм²")</f>
         <v>#N/A</v>
       </c>
       <c r="AL24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AM24" s="70" t="str">
         <f>IF(AJ24="","","М")</f>
@@ -11634,16 +12355,16 @@
         <v>#N/A</v>
       </c>
       <c r="AT24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AU24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AV24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AW24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AX24" s="75" t="str">
         <f>IF(E24="","",E24)</f>
@@ -11682,7 +12403,7 @@
         <v>10</v>
       </c>
       <c r="BG24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BH24" s="72" t="str">
         <f>IF(AX24="","",IF(BG24="",IF(BE24&gt;=BF24,BE24,BF24),BG24))</f>
@@ -11741,7 +12462,7 @@
         <v>#N/A</v>
       </c>
       <c r="BV24" s="66">
-        <f>'&lt;zalldev&gt;EXPORT'!V11</f>
+        <f>'&lt;zalldev&gt;EXPORT'!Y11</f>
         <v>0</v>
       </c>
       <c r="BW24" s="66" t="e">
@@ -11753,17 +12474,11 @@
         <v>1</v>
       </c>
       <c r="BY24" s="67">
-        <f>IF('&lt;zalldev&gt;EXPORT'!T11=0,'&lt;zalldev&gt;EXPORT'!T11,1)</f>
-        <v>0</v>
-      </c>
-      <c r="BZ24" s="67" t="str">
-        <f>IF('&lt;zalldev&gt;EXPORT'!U11=0,0,'&lt;zalldev&gt;EXPORT'!U11)</f>
-        <v>&lt;zdevsettings name=[CosPHI] type=[float]&gt;</v>
-      </c>
-      <c r="CA24" s="67" t="str">
-        <f>IF('&lt;zalldev&gt;EXPORT'!U11=0,0,'&lt;zalldev&gt;EXPORT'!F11)</f>
-        <v>&lt;zdevsettings name=[SLCABAGEN1_HeadDeviceName] type=[string]&gt;</v>
-      </c>
+        <f>IF('&lt;zalldev&gt;EXPORT'!W11=0,'&lt;zalldev&gt;EXPORT'!W11,1)</f>
+        <v>0</v>
+      </c>
+      <c r="BZ24" s="67"/>
+      <c r="CA24" s="67"/>
       <c r="CB24" s="64">
         <f>IF(MATCH(BV24,$BV$24:BV24,0)=COUNT($BV$24:BV24),COUNTIFS(F24:$F$120000,F24),0)</f>
         <v>1</v>
@@ -11845,39 +12560,39 @@
         <v>215</v>
       </c>
       <c r="CX24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="CY24" s="61" t="s">
         <v>214</v>
       </c>
       <c r="CZ24" s="1" t="str">
-        <f t="shared" ref="CZ24" si="0">"INTEGER_0"</f>
+        <f t="shared" ref="CZ24" si="4">"INTEGER_0"</f>
         <v>INTEGER_0</v>
       </c>
       <c r="DA24" s="61" t="s">
         <v>213</v>
       </c>
       <c r="DB24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="DC24" s="61" t="s">
         <v>212</v>
       </c>
       <c r="DD24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="DE24" s="61" t="s">
         <v>211</v>
       </c>
       <c r="DF24" s="1" t="str">
-        <f t="shared" ref="DF24" si="1">IF(CE24=0,"INTEGER_0","INTEGER_0")</f>
+        <f t="shared" ref="DF24" si="5">IF(CE24=0,"INTEGER_0","INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
       <c r="DG24" s="61" t="s">
         <v>210</v>
       </c>
       <c r="DH24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="DI24" s="1" t="s">
         <v>209</v>
@@ -11912,19 +12627,19 @@
       </c>
       <c r="DR24" s="60" t="str">
         <f>AJ24</f>
-        <v>.&lt;zdevsettings name=[SLCABAGEN1_HeadDeviceName] type=[string]&gt;</v>
+        <v>.</v>
       </c>
       <c r="DS24" s="60" t="s">
         <v>204</v>
       </c>
       <c r="DT24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="DU24" s="60" t="s">
         <v>203</v>
       </c>
       <c r="DV24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="DW24" s="60" t="s">
         <v>202</v>
@@ -12016,16 +12731,33 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="BO22:BU22"/>
-    <mergeCell ref="BV22:CG23"/>
-    <mergeCell ref="EB23:EJ23"/>
-    <mergeCell ref="EK23:ES23"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="O22:Z22"/>
-    <mergeCell ref="AA22:AI22"/>
-    <mergeCell ref="AJ22:AW22"/>
-    <mergeCell ref="AX22:BN22"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="T9:U10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:U13"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="P14:S14"/>
@@ -12038,83 +12770,50 @@
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="T9:U10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="BO22:BU22"/>
+    <mergeCell ref="BV22:CG23"/>
+    <mergeCell ref="EB23:EJ23"/>
+    <mergeCell ref="EK23:ES23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="O22:Z22"/>
+    <mergeCell ref="AA22:AI22"/>
+    <mergeCell ref="AJ22:AW22"/>
+    <mergeCell ref="AX22:BN22"/>
   </mergeCells>
   <conditionalFormatting sqref="P24">
-    <cfRule type="expression" dxfId="76" priority="103">
+    <cfRule type="expression" dxfId="72" priority="103">
       <formula>NOT(_xlfn.ISFORMULA(P24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q24">
-    <cfRule type="expression" dxfId="75" priority="102">
+    <cfRule type="expression" dxfId="71" priority="102">
       <formula>NOT(_xlfn.ISFORMULA(Q24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R24">
-    <cfRule type="expression" dxfId="74" priority="101">
+    <cfRule type="expression" dxfId="70" priority="101">
       <formula>NOT(_xlfn.ISFORMULA(R24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S24">
-    <cfRule type="expression" dxfId="73" priority="100">
+    <cfRule type="expression" dxfId="69" priority="100">
       <formula>NOT(_xlfn.ISFORMULA(S24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP24">
-    <cfRule type="expression" dxfId="72" priority="98">
+    <cfRule type="expression" dxfId="68" priority="98">
       <formula>NOT(_xlfn.ISFORMULA(AP24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS24">
-    <cfRule type="expression" dxfId="71" priority="97">
+    <cfRule type="expression" dxfId="67" priority="97">
       <formula>NOT(_xlfn.ISFORMULA(AS24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ24">
-    <cfRule type="expression" dxfId="70" priority="95">
+    <cfRule type="expression" dxfId="66" priority="95">
       <formula>NOT(_xlfn.ISFORMULA(AQ24))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="cellIs" dxfId="69" priority="93" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="94" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:L24">
-    <cfRule type="cellIs" dxfId="67" priority="91" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="92" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV24">
@@ -12376,41 +13075,41 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="113"/>
-      <c r="AG2" s="113"/>
-      <c r="AH2" s="114"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="118"/>
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="119"/>
     </row>
     <row r="3" spans="2:34" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="45" t="s">
@@ -13351,49 +14050,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25"/>
       <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="117"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="122"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -14014,10 +14713,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5946069B-84EF-483E-B2A7-62FC8EF81A67}">
-  <dimension ref="B3:AM11"/>
+  <dimension ref="B3:AQ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AE14" sqref="AE14"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14041,105 +14740,129 @@
     <col min="25" max="26" width="12.7109375" customWidth="1"/>
     <col min="27" max="27" width="3.7109375" customWidth="1"/>
     <col min="28" max="29" width="12.7109375" customWidth="1"/>
-    <col min="30" max="31" width="3.7109375" customWidth="1"/>
-    <col min="32" max="38" width="12.7109375" customWidth="1"/>
+    <col min="30" max="30" width="3.7109375" customWidth="1"/>
+    <col min="31" max="32" width="12.7109375" customWidth="1"/>
+    <col min="33" max="34" width="3.7109375" customWidth="1"/>
+    <col min="35" max="42" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="D3" s="152" t="s">
-        <v>339</v>
-      </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
+    <row r="3" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="D3" s="123" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
     </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="D4" s="153" t="s">
-        <v>340</v>
-      </c>
-      <c r="E4" s="154"/>
-      <c r="F4" s="155" t="s">
-        <v>341</v>
+    <row r="4" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="D4" s="104" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" s="105"/>
+      <c r="F4" s="158" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="AH6">
-        <f>COLUMN()</f>
-        <v>34</v>
-      </c>
+    <row r="6" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AK6">
         <f>COLUMN()</f>
         <v>37</v>
       </c>
+      <c r="AL6">
+        <f>COLUMN()</f>
+        <v>38</v>
+      </c>
+      <c r="AM6">
+        <f>COLUMN()</f>
+        <v>39</v>
+      </c>
+      <c r="AN6">
+        <f>COLUMN()</f>
+        <v>40</v>
+      </c>
+      <c r="AO6">
+        <f>COLUMN()</f>
+        <v>41</v>
+      </c>
+      <c r="AP6">
+        <f>COLUMN()</f>
+        <v>42</v>
+      </c>
     </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="C8" s="118" t="s">
+    <row r="8" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="C8" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118" t="s">
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="123" t="s">
+        <v>346</v>
+      </c>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118" t="s">
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124" t="s">
         <v>185</v>
       </c>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118" t="s">
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118" t="s">
+      <c r="P8" s="124"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118" t="s">
+      <c r="S8" s="124"/>
+      <c r="T8" s="124"/>
+      <c r="U8" s="124" t="s">
         <v>173</v>
       </c>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-      <c r="U8" s="118" t="s">
+      <c r="V8" s="124"/>
+      <c r="W8" s="124"/>
+      <c r="X8" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="V8" s="118"/>
-      <c r="W8" s="118"/>
-      <c r="X8" s="118" t="s">
+      <c r="Y8" s="124"/>
+      <c r="Z8" s="124"/>
+      <c r="AA8" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="Y8" s="118"/>
-      <c r="Z8" s="118"/>
-      <c r="AA8" s="118" t="s">
+      <c r="AB8" s="124"/>
+      <c r="AC8" s="124"/>
+      <c r="AD8" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="AB8" s="118"/>
-      <c r="AC8" s="118"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="59" t="s">
+      <c r="AE8" s="124"/>
+      <c r="AF8" s="124"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="AG8" s="156" t="s">
-        <v>340</v>
-      </c>
-      <c r="AH8" s="59" t="s">
+      <c r="AJ8" s="106" t="s">
+        <v>338</v>
+      </c>
+      <c r="AK8" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="AI8" s="59" t="s">
+      <c r="AL8" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="AJ8" s="59" t="s">
+      <c r="AM8" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="AK8" s="59" t="s">
+      <c r="AN8" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="AL8" s="103"/>
+      <c r="AO8" s="103"/>
+      <c r="AP8" s="108"/>
     </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:43" x14ac:dyDescent="0.25">
       <c r="C9" s="52" t="s">
         <v>171</v>
       </c>
@@ -14221,17 +14944,27 @@
       <c r="AC9" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="156"/>
-      <c r="AH9" s="59"/>
+      <c r="AD9" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE9" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF9" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="57"/>
       <c r="AI9" s="59"/>
-      <c r="AJ9" s="59"/>
+      <c r="AJ9" s="106"/>
       <c r="AK9" s="59"/>
-      <c r="AL9" s="103"/>
+      <c r="AL9" s="59"/>
+      <c r="AM9" s="59"/>
+      <c r="AN9" s="59"/>
+      <c r="AO9" s="103"/>
+      <c r="AP9" s="108"/>
     </row>
-    <row r="10" spans="2:39" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:43" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
@@ -14262,17 +14995,21 @@
       <c r="AA10" s="52"/>
       <c r="AB10" s="53"/>
       <c r="AC10" s="54"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="156"/>
-      <c r="AH10" s="59"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
       <c r="AI10" s="59"/>
-      <c r="AJ10" s="59"/>
+      <c r="AJ10" s="106"/>
       <c r="AK10" s="59"/>
-      <c r="AL10" s="103"/>
+      <c r="AL10" s="59"/>
+      <c r="AM10" s="59"/>
+      <c r="AN10" s="59"/>
+      <c r="AO10" s="103"/>
+      <c r="AP10" s="108"/>
     </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>167</v>
       </c>
@@ -14282,89 +15019,99 @@
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
       <c r="F11" s="55" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="G11" s="53"/>
       <c r="H11" s="54"/>
       <c r="I11" s="55" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="J11" s="53"/>
       <c r="K11" s="54"/>
       <c r="L11" s="55" t="s">
-        <v>174</v>
+        <v>345</v>
       </c>
       <c r="M11" s="53"/>
       <c r="N11" s="54"/>
       <c r="O11" s="55" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="P11" s="53"/>
       <c r="Q11" s="54"/>
       <c r="R11" s="55" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="S11" s="53"/>
       <c r="T11" s="54"/>
       <c r="U11" s="55" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="V11" s="53"/>
       <c r="W11" s="54"/>
       <c r="X11" s="55" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Y11" s="53"/>
       <c r="Z11" s="54"/>
       <c r="AA11" s="55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB11" s="53"/>
       <c r="AC11" s="54"/>
-      <c r="AD11" s="58"/>
-      <c r="AE11" s="58"/>
-      <c r="AF11" s="59">
+      <c r="AD11" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="58"/>
+      <c r="AI11" s="59">
         <v>1</v>
       </c>
-      <c r="AG11" s="156" t="str">
+      <c r="AJ11" s="106" t="str">
         <f>$F$4</f>
-        <v>ЩР</v>
-      </c>
-      <c r="AH11" s="59">
-        <f>IF(AG11=G11,IF(J10&lt;&gt;J11,1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AI11" s="59">
-        <f>SUMIFS($AF$11:$AF$700000,$P$11:$P$700000,P11,$J$11:$J$700000,J11)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="59">
-        <f>IF(SUMIFS($AF$11:AF11,$P$11:P11,P11,$J$11:J11,J11)=1,1,0)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="AK11" s="59">
-        <f>IF(AJ11=1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AL11" s="103">
+        <f>IF(AJ11=J11,IF(M10&lt;&gt;M11,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="59">
+        <f>SUMIFS($AI$11:$AI$700000,$S$11:$S$700000,S11,$M$11:$M$700000,M11)</f>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="59">
+        <f>IF(SUMIFS($AI$11:AI11,$S$11:S11,S11,$M$11:M11,M11)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="59">
+        <f>IF(AM11=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="103">
         <v>1</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AP11" s="108">
+        <f>IF(AJ11=D11,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>168</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="X8:Z8"/>
     <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
-    <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
     <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
     <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14415,10 +15162,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5903E6AF-14E2-4CDD-BE66-209E502F0B4C}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14431,8 +15178,8 @@
         <v>178</v>
       </c>
       <c r="B1" t="str">
-        <f>"&lt;zsetvaluetocell toSheet=[zalldevEXPORT]  toCell=[F4] value=[&lt;zlight&gt;]"</f>
-        <v>&lt;zsetvaluetocell toSheet=[zalldevEXPORT]  toCell=[F4] value=[&lt;zlight&gt;]</v>
+        <f>"&lt;zsetvaluetocell toSheet=[zalldevEXPORT]  toCell=[F4] value=[&lt;zlight&gt;] calc=[after]"</f>
+        <v>&lt;zsetvaluetocell toSheet=[zalldevEXPORT]  toCell=[F4] value=[&lt;zlight&gt;] calc=[after]</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -14440,14 +15187,22 @@
         <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>179</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>335</v>
       </c>
     </row>

--- a/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHOD.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHOD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A935C1F6-72BF-4082-9A88-DCFE2163D288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09B2187-FF2A-4836-9D9D-38AEC63F3093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17760" yWindow="4965" windowWidth="25725" windowHeight="15630" firstSheet="6" activeTab="12" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="8040" yWindow="1680" windowWidth="34605" windowHeight="15780" firstSheet="6" activeTab="15" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="4" r:id="rId1"/>
@@ -20,14 +20,17 @@
     <sheet name="&lt;zalldev&gt;SET" sheetId="15" r:id="rId5"/>
     <sheet name="&lt;zalldev&gt;TEMPLATEKZ" sheetId="17" r:id="rId6"/>
     <sheet name="&lt;zalldev&gt;EXPORT" sheetId="11" r:id="rId7"/>
-    <sheet name="&lt;zallcab&gt;SET" sheetId="23" r:id="rId8"/>
-    <sheet name="&lt;zallcab&gt;EXPORT" sheetId="14" r:id="rId9"/>
-    <sheet name="&lt;zlight&gt;SET" sheetId="18" r:id="rId10"/>
-    <sheet name="&lt;zlight&gt;TEMP" sheetId="21" r:id="rId11"/>
-    <sheet name="&lt;zlight&gt;TEMPGU" sheetId="22" r:id="rId12"/>
-    <sheet name="&lt;zlight&gt;" sheetId="20" r:id="rId13"/>
+    <sheet name="BDzallcab" sheetId="26" r:id="rId8"/>
+    <sheet name="&lt;zallcab&gt;SET" sheetId="23" r:id="rId9"/>
+    <sheet name="&lt;zallcab&gt;EXPORT" sheetId="14" r:id="rId10"/>
+    <sheet name="&lt;zallcab&gt;CALC" sheetId="24" r:id="rId11"/>
+    <sheet name="&lt;zallcab&gt;CabZhurnal" sheetId="25" r:id="rId12"/>
+    <sheet name="&lt;zlight&gt;SET" sheetId="18" r:id="rId13"/>
+    <sheet name="&lt;zlight&gt;TEMP" sheetId="21" r:id="rId14"/>
+    <sheet name="&lt;zlight&gt;TEMPGU" sheetId="22" r:id="rId15"/>
+    <sheet name="&lt;zlight&gt;" sheetId="20" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -560,7 +563,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="401">
   <si>
     <t>&lt;zlight&gt;</t>
   </si>
@@ -1633,9 +1636,6 @@
     <t>Длина</t>
   </si>
   <si>
-    <t>Суммарная длина</t>
-  </si>
-  <si>
     <t>устройство вначале если прочерк значет нет устройства</t>
   </si>
   <si>
@@ -1655,6 +1655,126 @@
   </si>
   <si>
     <t>&lt;zallcab&gt;</t>
+  </si>
+  <si>
+    <t>ЕСЛИ(AK24="";"";СУММЕСЛИМН('&lt;zallcab&gt;EXPORT'!$M$6:$M$700000;'&lt;zallcab&gt;EXPORT'!$E$6:$E$700000;AK24))</t>
+  </si>
+  <si>
+    <t>Метод монтажа</t>
+  </si>
+  <si>
+    <t>Системная</t>
+  </si>
+  <si>
+    <t>&lt;zcabsettings name=[CABLE_MountingMethod] type=[string]&gt;</t>
+  </si>
+  <si>
+    <t>&lt;zallcab&gt;CALC</t>
+  </si>
+  <si>
+    <t>&lt;zallcab&gt;CabZhurnal</t>
+  </si>
+  <si>
+    <t>просто для подсчетов номера стркои</t>
+  </si>
+  <si>
+    <t>Нормальное имя прокладки</t>
+  </si>
+  <si>
+    <t>Подсчет количество одинкаовых шлейфов с учетом метода монтажа</t>
+  </si>
+  <si>
+    <t>Ищим позицию совпадения группы старшей</t>
+  </si>
+  <si>
+    <t>Получаем сколько у данной группы значений</t>
+  </si>
+  <si>
+    <t>Переносим конечное устройство в начало</t>
+  </si>
+  <si>
+    <t>Добовляем для первого вхождения конечное устройство</t>
+  </si>
+  <si>
+    <t>Суммированя длина по методам монтажа</t>
+  </si>
+  <si>
+    <t>Указываем что строчку данных имя группы и прочее добавили</t>
+  </si>
+  <si>
+    <t>Находим место где их показываем</t>
+  </si>
+  <si>
+    <t>Обработанная имя группы</t>
+  </si>
+  <si>
+    <t>Обработанная имя ГУ</t>
+  </si>
+  <si>
+    <t>Конечное устройство</t>
+  </si>
+  <si>
+    <t>количество кабеля</t>
+  </si>
+  <si>
+    <t>Hidden~inPipe</t>
+  </si>
+  <si>
+    <t>Скрыто в метал.тр.</t>
+  </si>
+  <si>
+    <t>Hidden~underPlaster</t>
+  </si>
+  <si>
+    <t>Скрыто под штукатур</t>
+  </si>
+  <si>
+    <t>open~inMetalTray</t>
+  </si>
+  <si>
+    <t>в метал.лотке</t>
+  </si>
+  <si>
+    <t>open~inCableChannel</t>
+  </si>
+  <si>
+    <t>в каб.канал</t>
+  </si>
+  <si>
+    <t>open~inPipePVC</t>
+  </si>
+  <si>
+    <t>в ПВХ тр.</t>
+  </si>
+  <si>
+    <t>open~inPip</t>
+  </si>
+  <si>
+    <t>откр. в мет.тр.</t>
+  </si>
+  <si>
+    <t>Имя кабеля</t>
+  </si>
+  <si>
+    <t>Имя устр</t>
+  </si>
+  <si>
+    <t>2 х ВВГнг(А)-LS-5х120мм²</t>
+  </si>
+  <si>
+    <t>&lt;zcalculate&gt;</t>
+  </si>
+  <si>
+    <t>&lt;zcopyrow targetsheet=[&lt;zallcab&gt;CALC] targetcodename=[zzzimport] keynumcol=[16]&gt;</t>
+  </si>
+  <si>
+    <t>&lt;zcopyrow targetsheet=[&lt;zallcab&gt;EXPORT] targetcodename=[zallcabimport] keynumcol=[17]&gt;</t>
+  </si>
+  <si>
+    <t>Сумма длинн кабелей по группам</t>
+  </si>
+  <si>
+    <t>ЕСЛИ(AK24="";"";ИНДЕКС('&lt;zallcab&gt;CALC'!$X$7:$X$700000;ПОИСКПОЗ(AK24;'&lt;zallcab&gt;CALC'!$D$7:$D$700000;0)))</t>
   </si>
 </sst>
 </file>
@@ -1807,7 +1927,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1955,6 +2075,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFAAAA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2671,7 +2815,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3005,17 +3149,46 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3064,6 +3237,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3181,25 +3360,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4295,84 +4462,84 @@
   <sheetData>
     <row r="2" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:76" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="F3" s="113" t="s">
+      <c r="B3" s="122"/>
+      <c r="C3" s="123"/>
+      <c r="F3" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="114"/>
-      <c r="H3" s="115"/>
-      <c r="K3" s="118" t="s">
+      <c r="G3" s="125"/>
+      <c r="H3" s="126"/>
+      <c r="K3" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="119"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="119"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="119"/>
-      <c r="AE3" s="119"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="119"/>
-      <c r="AI3" s="119"/>
-      <c r="AJ3" s="119"/>
-      <c r="AK3" s="119"/>
-      <c r="AL3" s="119"/>
-      <c r="AM3" s="119"/>
-      <c r="AN3" s="119"/>
-      <c r="AO3" s="119"/>
-      <c r="AP3" s="119"/>
-      <c r="AQ3" s="119"/>
-      <c r="AR3" s="119"/>
-      <c r="AS3" s="119"/>
-      <c r="AT3" s="119"/>
-      <c r="AU3" s="119"/>
-      <c r="AV3" s="119"/>
-      <c r="AW3" s="119"/>
-      <c r="AX3" s="119"/>
-      <c r="AY3" s="119"/>
-      <c r="AZ3" s="119"/>
-      <c r="BA3" s="119"/>
-      <c r="BB3" s="119"/>
-      <c r="BC3" s="119"/>
-      <c r="BD3" s="119"/>
-      <c r="BE3" s="119"/>
-      <c r="BF3" s="119"/>
-      <c r="BG3" s="119"/>
-      <c r="BH3" s="119"/>
-      <c r="BI3" s="119"/>
-      <c r="BJ3" s="119"/>
-      <c r="BK3" s="119"/>
-      <c r="BL3" s="119"/>
-      <c r="BM3" s="119"/>
-      <c r="BN3" s="119"/>
-      <c r="BO3" s="119"/>
-      <c r="BP3" s="119"/>
-      <c r="BQ3" s="119"/>
-      <c r="BR3" s="119"/>
-      <c r="BS3" s="119"/>
-      <c r="BT3" s="119"/>
-      <c r="BU3" s="119"/>
-      <c r="BV3" s="119"/>
-      <c r="BW3" s="119"/>
-      <c r="BX3" s="119"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="130"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="130"/>
+      <c r="W3" s="130"/>
+      <c r="X3" s="130"/>
+      <c r="Y3" s="130"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="130"/>
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="130"/>
+      <c r="AE3" s="130"/>
+      <c r="AF3" s="130"/>
+      <c r="AG3" s="130"/>
+      <c r="AH3" s="130"/>
+      <c r="AI3" s="130"/>
+      <c r="AJ3" s="130"/>
+      <c r="AK3" s="130"/>
+      <c r="AL3" s="130"/>
+      <c r="AM3" s="130"/>
+      <c r="AN3" s="130"/>
+      <c r="AO3" s="130"/>
+      <c r="AP3" s="130"/>
+      <c r="AQ3" s="130"/>
+      <c r="AR3" s="130"/>
+      <c r="AS3" s="130"/>
+      <c r="AT3" s="130"/>
+      <c r="AU3" s="130"/>
+      <c r="AV3" s="130"/>
+      <c r="AW3" s="130"/>
+      <c r="AX3" s="130"/>
+      <c r="AY3" s="130"/>
+      <c r="AZ3" s="130"/>
+      <c r="BA3" s="130"/>
+      <c r="BB3" s="130"/>
+      <c r="BC3" s="130"/>
+      <c r="BD3" s="130"/>
+      <c r="BE3" s="130"/>
+      <c r="BF3" s="130"/>
+      <c r="BG3" s="130"/>
+      <c r="BH3" s="130"/>
+      <c r="BI3" s="130"/>
+      <c r="BJ3" s="130"/>
+      <c r="BK3" s="130"/>
+      <c r="BL3" s="130"/>
+      <c r="BM3" s="130"/>
+      <c r="BN3" s="130"/>
+      <c r="BO3" s="130"/>
+      <c r="BP3" s="130"/>
+      <c r="BQ3" s="130"/>
+      <c r="BR3" s="130"/>
+      <c r="BS3" s="130"/>
+      <c r="BT3" s="130"/>
+      <c r="BU3" s="130"/>
+      <c r="BV3" s="130"/>
+      <c r="BW3" s="130"/>
+      <c r="BX3" s="130"/>
     </row>
     <row r="4" spans="1:76" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -5443,10 +5610,10 @@
       <c r="BX8" s="2"/>
     </row>
     <row r="9" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="117"/>
+      <c r="B9" s="128"/>
       <c r="F9" s="27">
         <v>2500</v>
       </c>
@@ -10461,11 +10628,11 @@
     </row>
     <row r="41" spans="6:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="6:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="113" t="s">
+      <c r="F42" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="114"/>
-      <c r="H42" s="115"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="126"/>
     </row>
     <row r="43" spans="6:76" ht="31.5" x14ac:dyDescent="0.25">
       <c r="F43" s="36" t="s">
@@ -10694,11 +10861,622 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE1986-1CF6-4370-AEB3-1DC97E00D4E1}">
+  <dimension ref="A2:S6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" customWidth="1"/>
+    <col min="13" max="18" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <f t="shared" ref="C2:R2" si="0">B2+1</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P2" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q2" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R2" s="119">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="C3" s="96"/>
+      <c r="D3" s="137" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137" t="s">
+        <v>351</v>
+      </c>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="110" t="s">
+        <v>354</v>
+      </c>
+      <c r="K3" s="110" t="s">
+        <v>352</v>
+      </c>
+      <c r="L3" s="137" t="s">
+        <v>353</v>
+      </c>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="120" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C4" s="96"/>
+      <c r="D4" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="L4" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="O4" s="113" t="s">
+        <v>167</v>
+      </c>
+      <c r="P4" s="114" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" s="115" t="s">
+        <v>166</v>
+      </c>
+      <c r="R4" s="120"/>
+    </row>
+    <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="C5" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="120"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C6" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="52" t="s">
+        <v>355</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>359</v>
+      </c>
+      <c r="M6" s="52"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="120">
+        <v>1</v>
+      </c>
+      <c r="S6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="O3:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A3016B-46A2-49B9-9A52-E38B657C2400}">
+  <dimension ref="A4:Y7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <f>A4+1</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:X4" si="0">B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q4" s="119">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="W4" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="X4" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+      <c r="D5" s="112" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" s="112" t="s">
+        <v>351</v>
+      </c>
+      <c r="F5" s="112" t="s">
+        <v>352</v>
+      </c>
+      <c r="G5" s="112" t="s">
+        <v>362</v>
+      </c>
+      <c r="H5" s="112" t="s">
+        <v>353</v>
+      </c>
+      <c r="I5" s="112" t="s">
+        <v>367</v>
+      </c>
+      <c r="J5" s="112" t="s">
+        <v>368</v>
+      </c>
+      <c r="K5" s="112" t="s">
+        <v>369</v>
+      </c>
+      <c r="L5" s="112" t="s">
+        <v>370</v>
+      </c>
+      <c r="M5" s="112" t="s">
+        <v>371</v>
+      </c>
+      <c r="N5" s="112" t="s">
+        <v>372</v>
+      </c>
+      <c r="O5" s="112" t="s">
+        <v>373</v>
+      </c>
+      <c r="P5" s="112" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q5" s="118" t="s">
+        <v>375</v>
+      </c>
+      <c r="R5" s="112" t="s">
+        <v>376</v>
+      </c>
+      <c r="S5" s="112" t="s">
+        <v>377</v>
+      </c>
+      <c r="T5" s="112" t="s">
+        <v>378</v>
+      </c>
+      <c r="U5" s="112" t="s">
+        <v>379</v>
+      </c>
+      <c r="V5" s="112" t="s">
+        <v>362</v>
+      </c>
+      <c r="W5" s="112" t="s">
+        <v>380</v>
+      </c>
+      <c r="X5" s="172" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="116"/>
+      <c r="Q6" s="117"/>
+      <c r="X6" s="173"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C7" t="str">
+        <f>IF(COUNTIF($B$7:B7,B7)=1,"&lt;zzzimport&gt;",1)</f>
+        <v>&lt;zzzimport&gt;</v>
+      </c>
+      <c r="D7" s="1">
+        <f>'&lt;zallcab&gt;EXPORT'!E6</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <f>'&lt;zallcab&gt;EXPORT'!H6</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f>'&lt;zallcab&gt;EXPORT'!K6</f>
+        <v>&lt;zcabdevfinish&gt;</v>
+      </c>
+      <c r="G7" s="1">
+        <f>'&lt;zallcab&gt;EXPORT'!P6</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>'&lt;zallcab&gt;EXPORT'!M6</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="e">
+        <f>INDEX(BDzallcab!$C$4:$C$9,MATCH(G7,BDzallcab!$B$4:$B$9))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K7" s="1">
+        <f>SUMIFS(I7:$I$700000,D7:$D$700000,D7,G7:$G$700000,G7)</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MATCH(D7,$D$7:D7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <f>SUMIFS(I7:$I$700000,D7:$D$700000,D7)</f>
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="str">
+        <f>INDEX($F$7:$F$700000,L7+M7-1)</f>
+        <v>&lt;zcabdevfinish&gt;</v>
+      </c>
+      <c r="O7" s="1" t="str">
+        <f>INDEX($N$7:$N$700000,MATCH(D7,$D$7:D7,0))</f>
+        <v>&lt;zcabdevfinish&gt;</v>
+      </c>
+      <c r="P7" s="1">
+        <f>SUMIFS($H$7:H7,$D$7:D7,D7,$G$7:G7,G7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="119">
+        <f t="shared" ref="Q7" si="1">IF(K7=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <f>IF(SUMIFS($Q$7:Q7,$D$7:D7,D7)=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" ref="S7" si="2">IF(R7=1,D7," ")</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" ref="T7" si="3">IF(R7=1,E7," ")</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="1" t="str">
+        <f t="shared" ref="U7" si="4">IF(R7=1,O7," ")</f>
+        <v>&lt;zcabdevfinish&gt;</v>
+      </c>
+      <c r="V7" s="1">
+        <f>IF(Q7=1,G7," ")</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" ref="W7" si="5">IF(Q7=1,P7," ")</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="174">
+        <f>SUMIFS($H$7:$H$700000,$D$7:$D$700000,D7)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C98D85-B1DF-4F27-9824-4A9CEE766B5F}">
+  <dimension ref="B4:S5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C5" s="1">
+        <f>'&lt;zallcab&gt;CALC'!S7</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f>'&lt;zallcab&gt;CALC'!T7</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>'&lt;zallcab&gt;CALC'!U7</f>
+        <v>&lt;zcabdevfinish&gt;</v>
+      </c>
+      <c r="F5" s="1" t="e">
+        <f>'&lt;zallcab&gt;CALC'!J7</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H5" s="1">
+        <f>'&lt;zallcab&gt;CALC'!W7</f>
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>194</v>
+      </c>
+      <c r="K5" t="s">
+        <v>214</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M5" s="1">
+        <v>60</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5903E6AF-14E2-4CDD-BE66-209E502F0B4C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10744,7 +11522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E733FA54-8601-4F98-A939-D35DC81D32C1}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -10809,7 +11587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD83D9D-2229-4BC6-AB0E-E63357D0D337}">
   <dimension ref="B1:M1"/>
   <sheetViews>
@@ -10863,12 +11641,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B9844E-F661-46DB-A8DF-606C0C725DFB}">
   <dimension ref="A1:FH24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AR13" sqref="AR13"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AH28" sqref="AH28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10910,33 +11688,33 @@
       </c>
     </row>
     <row r="4" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D4" s="158" t="s">
+      <c r="D4" s="171" t="s">
         <v>328</v>
       </c>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
       <c r="I4" s="98" t="s">
         <v>327</v>
       </c>
       <c r="P4" s="98"/>
-      <c r="Q4" s="158" t="s">
+      <c r="Q4" s="171" t="s">
         <v>326</v>
       </c>
-      <c r="R4" s="158"/>
-      <c r="S4" s="158"/>
-      <c r="T4" s="158"/>
-      <c r="U4" s="158"/>
-      <c r="V4" s="158"/>
+      <c r="R4" s="171"/>
+      <c r="S4" s="171"/>
+      <c r="T4" s="171"/>
+      <c r="U4" s="171"/>
+      <c r="V4" s="171"/>
     </row>
     <row r="5" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D5" s="142" t="s">
+      <c r="D5" s="155" t="s">
         <v>325</v>
       </c>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
       <c r="H5" s="97">
         <f>'&lt;zlight&gt;'!F18</f>
         <v>0</v>
@@ -10947,25 +11725,25 @@
       <c r="P5" s="96" t="s">
         <v>323</v>
       </c>
-      <c r="Q5" s="154" t="s">
+      <c r="Q5" s="167" t="s">
         <v>322</v>
       </c>
-      <c r="R5" s="154"/>
-      <c r="S5" s="154"/>
-      <c r="T5" s="154"/>
-      <c r="U5" s="154">
+      <c r="R5" s="167"/>
+      <c r="S5" s="167"/>
+      <c r="T5" s="167"/>
+      <c r="U5" s="167">
         <f ca="1">SUM($AD$22:$AD$11997)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="154"/>
+      <c r="V5" s="167"/>
     </row>
     <row r="6" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D6" s="142" t="s">
+      <c r="D6" s="155" t="s">
         <v>321</v>
       </c>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
       <c r="H6" s="93" t="s">
         <v>320</v>
       </c>
@@ -10975,25 +11753,25 @@
       <c r="P6" s="96">
         <v>63</v>
       </c>
-      <c r="Q6" s="154" t="s">
+      <c r="Q6" s="167" t="s">
         <v>318</v>
       </c>
-      <c r="R6" s="154"/>
-      <c r="S6" s="154"/>
-      <c r="T6" s="154"/>
-      <c r="U6" s="154">
+      <c r="R6" s="167"/>
+      <c r="S6" s="167"/>
+      <c r="T6" s="167"/>
+      <c r="U6" s="167">
         <f ca="1">U5*U11</f>
         <v>0</v>
       </c>
-      <c r="V6" s="154"/>
+      <c r="V6" s="167"/>
     </row>
     <row r="7" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D7" s="142" t="s">
+      <c r="D7" s="155" t="s">
         <v>317</v>
       </c>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
       <c r="H7" s="93">
         <v>45399</v>
       </c>
@@ -11003,29 +11781,29 @@
       <c r="P7" s="96">
         <v>32</v>
       </c>
-      <c r="Q7" s="154" t="s">
+      <c r="Q7" s="167" t="s">
         <v>315</v>
       </c>
-      <c r="R7" s="154"/>
-      <c r="S7" s="154"/>
-      <c r="T7" s="154"/>
-      <c r="U7" s="154">
+      <c r="R7" s="167"/>
+      <c r="S7" s="167"/>
+      <c r="T7" s="167"/>
+      <c r="U7" s="167">
         <f ca="1">ROUNDUP((U6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*U8),2)</f>
         <v>0</v>
       </c>
-      <c r="V7" s="154"/>
+      <c r="V7" s="167"/>
       <c r="AN7">
         <f>780/2</f>
         <v>390</v>
       </c>
     </row>
     <row r="8" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D8" s="142" t="s">
+      <c r="D8" s="155" t="s">
         <v>314</v>
       </c>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
       <c r="H8" s="93" t="s">
         <v>313</v>
       </c>
@@ -11035,28 +11813,28 @@
       <c r="P8" s="96">
         <v>6</v>
       </c>
-      <c r="Q8" s="155" t="s">
+      <c r="Q8" s="168" t="s">
         <v>311</v>
       </c>
-      <c r="R8" s="156"/>
-      <c r="S8" s="156"/>
-      <c r="T8" s="157"/>
-      <c r="U8" s="150">
+      <c r="R8" s="169"/>
+      <c r="S8" s="169"/>
+      <c r="T8" s="170"/>
+      <c r="U8" s="163">
         <v>0.92</v>
       </c>
-      <c r="V8" s="150"/>
+      <c r="V8" s="163"/>
       <c r="AN8">
         <f>290/2</f>
         <v>145</v>
       </c>
     </row>
     <row r="9" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D9" s="142" t="s">
+      <c r="D9" s="155" t="s">
         <v>310</v>
       </c>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
       <c r="H9" s="93" t="s">
         <v>309</v>
       </c>
@@ -11066,45 +11844,45 @@
       <c r="P9" s="96" t="s">
         <v>307</v>
       </c>
-      <c r="Q9" s="149" t="s">
+      <c r="Q9" s="162" t="s">
         <v>306</v>
       </c>
-      <c r="R9" s="149"/>
-      <c r="S9" s="149"/>
-      <c r="T9" s="149"/>
-      <c r="U9" s="150"/>
-      <c r="V9" s="150"/>
+      <c r="R9" s="162"/>
+      <c r="S9" s="162"/>
+      <c r="T9" s="162"/>
+      <c r="U9" s="163"/>
+      <c r="V9" s="163"/>
       <c r="AN9">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D10" s="142" t="s">
+      <c r="D10" s="155" t="s">
         <v>305</v>
       </c>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
       <c r="I10" s="96" t="s">
         <v>304</v>
       </c>
       <c r="P10" s="96">
         <v>4</v>
       </c>
-      <c r="Q10" s="149"/>
-      <c r="R10" s="149"/>
-      <c r="S10" s="149"/>
-      <c r="T10" s="149"/>
-      <c r="U10" s="150"/>
-      <c r="V10" s="150"/>
+      <c r="Q10" s="162"/>
+      <c r="R10" s="162"/>
+      <c r="S10" s="162"/>
+      <c r="T10" s="162"/>
+      <c r="U10" s="163"/>
+      <c r="V10" s="163"/>
     </row>
     <row r="11" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D11" s="142" t="s">
+      <c r="D11" s="155" t="s">
         <v>303</v>
       </c>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
       <c r="H11" s="93">
         <v>380</v>
       </c>
@@ -11114,24 +11892,24 @@
       <c r="P11" s="96" t="s">
         <v>301</v>
       </c>
-      <c r="Q11" s="151" t="s">
+      <c r="Q11" s="164" t="s">
         <v>300</v>
       </c>
-      <c r="R11" s="152"/>
-      <c r="S11" s="152"/>
-      <c r="T11" s="153"/>
-      <c r="U11" s="151">
+      <c r="R11" s="165"/>
+      <c r="S11" s="165"/>
+      <c r="T11" s="166"/>
+      <c r="U11" s="164">
         <v>0.65</v>
       </c>
-      <c r="V11" s="153"/>
+      <c r="V11" s="166"/>
     </row>
     <row r="12" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D12" s="142" t="s">
+      <c r="D12" s="155" t="s">
         <v>299</v>
       </c>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
       <c r="H12" s="93" t="s">
         <v>298</v>
       </c>
@@ -11141,86 +11919,86 @@
       <c r="P12" s="96" t="s">
         <v>297</v>
       </c>
-      <c r="Q12" s="143" t="s">
+      <c r="Q12" s="156" t="s">
         <v>296</v>
       </c>
-      <c r="R12" s="143"/>
-      <c r="S12" s="143"/>
-      <c r="T12" s="143"/>
-      <c r="U12" s="143">
+      <c r="R12" s="156"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="156">
         <v>44.5</v>
       </c>
-      <c r="V12" s="143"/>
+      <c r="V12" s="156"/>
     </row>
     <row r="13" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D13" s="142" t="s">
+      <c r="D13" s="155" t="s">
         <v>295</v>
       </c>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
       <c r="H13" s="93" t="s">
         <v>294</v>
       </c>
       <c r="I13" s="94"/>
       <c r="P13" s="94"/>
-      <c r="Q13" s="143" t="s">
+      <c r="Q13" s="156" t="s">
         <v>293</v>
       </c>
-      <c r="R13" s="143"/>
-      <c r="S13" s="143"/>
-      <c r="T13" s="143"/>
-      <c r="U13" s="143">
+      <c r="R13" s="156"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="156"/>
+      <c r="U13" s="156">
         <v>44.5</v>
       </c>
-      <c r="V13" s="143"/>
+      <c r="V13" s="156"/>
     </row>
     <row r="14" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D14" s="142" t="s">
+      <c r="D14" s="155" t="s">
         <v>292</v>
       </c>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
       <c r="H14" s="95" t="str">
         <f>'&lt;zlight&gt;'!G18&amp;"."&amp;'&lt;zlight&gt;'!H18</f>
         <v>.</v>
       </c>
       <c r="I14" s="94"/>
       <c r="P14" s="94"/>
-      <c r="Q14" s="143" t="s">
+      <c r="Q14" s="156" t="s">
         <v>291</v>
       </c>
-      <c r="R14" s="143"/>
-      <c r="S14" s="143"/>
-      <c r="T14" s="143"/>
-      <c r="U14" s="143">
+      <c r="R14" s="156"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="156"/>
+      <c r="U14" s="156">
         <v>44.5</v>
       </c>
-      <c r="V14" s="143"/>
+      <c r="V14" s="156"/>
     </row>
     <row r="15" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D15" s="142" t="s">
+      <c r="D15" s="155" t="s">
         <v>290</v>
       </c>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
       <c r="H15" s="93">
         <v>77</v>
       </c>
       <c r="P15" s="94"/>
-      <c r="Q15" s="144" t="s">
+      <c r="Q15" s="157" t="s">
         <v>289</v>
       </c>
-      <c r="R15" s="144"/>
-      <c r="S15" s="144"/>
-      <c r="T15" s="144"/>
-      <c r="U15" s="144">
+      <c r="R15" s="157"/>
+      <c r="S15" s="157"/>
+      <c r="T15" s="157"/>
+      <c r="U15" s="157">
         <f ca="1">ROUNDUP((U6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*U8),2)</f>
         <v>0</v>
       </c>
-      <c r="V15" s="144"/>
+      <c r="V15" s="157"/>
     </row>
     <row r="17" spans="1:164" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
@@ -11240,6 +12018,9 @@
       </c>
       <c r="J17" t="s">
         <v>194</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:164" x14ac:dyDescent="0.25">
@@ -11896,117 +12677,121 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:164" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:164" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM21" t="s">
+        <v>361</v>
+      </c>
+    </row>
     <row r="22" spans="1:164" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="145" t="s">
+      <c r="D22" s="158" t="s">
         <v>288</v>
       </c>
-      <c r="E22" s="147" t="s">
+      <c r="E22" s="160" t="s">
         <v>234</v>
       </c>
-      <c r="F22" s="140" t="s">
+      <c r="F22" s="153" t="s">
         <v>233</v>
       </c>
-      <c r="G22" s="147" t="s">
+      <c r="G22" s="160" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="140" t="s">
+      <c r="H22" s="153" t="s">
         <v>286</v>
       </c>
-      <c r="I22" s="140" t="s">
+      <c r="I22" s="153" t="s">
         <v>285</v>
       </c>
-      <c r="J22" s="132" t="s">
+      <c r="J22" s="145" t="s">
         <v>284</v>
       </c>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="133" t="s">
+      <c r="K22" s="145"/>
+      <c r="L22" s="145"/>
+      <c r="M22" s="146" t="s">
         <v>283</v>
       </c>
-      <c r="P22" s="135" t="s">
+      <c r="P22" s="148" t="s">
         <v>282</v>
       </c>
-      <c r="Q22" s="136"/>
-      <c r="R22" s="136"/>
-      <c r="S22" s="136"/>
-      <c r="T22" s="136"/>
-      <c r="U22" s="136"/>
-      <c r="V22" s="136"/>
-      <c r="W22" s="136"/>
-      <c r="X22" s="136"/>
-      <c r="Y22" s="136"/>
-      <c r="Z22" s="136"/>
-      <c r="AA22" s="136"/>
-      <c r="AB22" s="137" t="s">
+      <c r="Q22" s="149"/>
+      <c r="R22" s="149"/>
+      <c r="S22" s="149"/>
+      <c r="T22" s="149"/>
+      <c r="U22" s="149"/>
+      <c r="V22" s="149"/>
+      <c r="W22" s="149"/>
+      <c r="X22" s="149"/>
+      <c r="Y22" s="149"/>
+      <c r="Z22" s="149"/>
+      <c r="AA22" s="149"/>
+      <c r="AB22" s="150" t="s">
         <v>281</v>
       </c>
-      <c r="AC22" s="138"/>
-      <c r="AD22" s="138"/>
-      <c r="AE22" s="138"/>
-      <c r="AF22" s="138"/>
-      <c r="AG22" s="138"/>
-      <c r="AH22" s="138"/>
-      <c r="AI22" s="138"/>
-      <c r="AJ22" s="139"/>
-      <c r="AK22" s="137" t="s">
+      <c r="AC22" s="151"/>
+      <c r="AD22" s="151"/>
+      <c r="AE22" s="151"/>
+      <c r="AF22" s="151"/>
+      <c r="AG22" s="151"/>
+      <c r="AH22" s="151"/>
+      <c r="AI22" s="151"/>
+      <c r="AJ22" s="152"/>
+      <c r="AK22" s="150" t="s">
         <v>280</v>
       </c>
-      <c r="AL22" s="138"/>
-      <c r="AM22" s="138"/>
-      <c r="AN22" s="138"/>
-      <c r="AO22" s="138"/>
-      <c r="AP22" s="138"/>
-      <c r="AQ22" s="138"/>
-      <c r="AR22" s="138"/>
-      <c r="AS22" s="138"/>
-      <c r="AT22" s="138"/>
-      <c r="AU22" s="138"/>
-      <c r="AV22" s="138"/>
-      <c r="AW22" s="138"/>
-      <c r="AX22" s="139"/>
-      <c r="AY22" s="137" t="s">
+      <c r="AL22" s="151"/>
+      <c r="AM22" s="151"/>
+      <c r="AN22" s="151"/>
+      <c r="AO22" s="151"/>
+      <c r="AP22" s="151"/>
+      <c r="AQ22" s="151"/>
+      <c r="AR22" s="151"/>
+      <c r="AS22" s="151"/>
+      <c r="AT22" s="151"/>
+      <c r="AU22" s="151"/>
+      <c r="AV22" s="151"/>
+      <c r="AW22" s="151"/>
+      <c r="AX22" s="152"/>
+      <c r="AY22" s="150" t="s">
         <v>279</v>
       </c>
-      <c r="AZ22" s="138"/>
-      <c r="BA22" s="138"/>
-      <c r="BB22" s="138"/>
-      <c r="BC22" s="138"/>
-      <c r="BD22" s="138"/>
-      <c r="BE22" s="138"/>
-      <c r="BF22" s="138"/>
-      <c r="BG22" s="138"/>
-      <c r="BH22" s="138"/>
-      <c r="BI22" s="138"/>
-      <c r="BJ22" s="138"/>
-      <c r="BK22" s="138"/>
-      <c r="BL22" s="138"/>
-      <c r="BM22" s="138"/>
-      <c r="BN22" s="138"/>
-      <c r="BO22" s="139"/>
-      <c r="BP22" s="126" t="s">
+      <c r="AZ22" s="151"/>
+      <c r="BA22" s="151"/>
+      <c r="BB22" s="151"/>
+      <c r="BC22" s="151"/>
+      <c r="BD22" s="151"/>
+      <c r="BE22" s="151"/>
+      <c r="BF22" s="151"/>
+      <c r="BG22" s="151"/>
+      <c r="BH22" s="151"/>
+      <c r="BI22" s="151"/>
+      <c r="BJ22" s="151"/>
+      <c r="BK22" s="151"/>
+      <c r="BL22" s="151"/>
+      <c r="BM22" s="151"/>
+      <c r="BN22" s="151"/>
+      <c r="BO22" s="152"/>
+      <c r="BP22" s="139" t="s">
         <v>278</v>
       </c>
-      <c r="BQ22" s="127"/>
-      <c r="BR22" s="127"/>
-      <c r="BS22" s="127"/>
-      <c r="BT22" s="127"/>
-      <c r="BU22" s="127"/>
-      <c r="BV22" s="128"/>
-      <c r="BW22" s="129" t="s">
+      <c r="BQ22" s="140"/>
+      <c r="BR22" s="140"/>
+      <c r="BS22" s="140"/>
+      <c r="BT22" s="140"/>
+      <c r="BU22" s="140"/>
+      <c r="BV22" s="141"/>
+      <c r="BW22" s="142" t="s">
         <v>277</v>
       </c>
-      <c r="BX22" s="130"/>
-      <c r="BY22" s="130"/>
-      <c r="BZ22" s="130"/>
-      <c r="CA22" s="130"/>
-      <c r="CB22" s="130"/>
-      <c r="CC22" s="130"/>
-      <c r="CD22" s="130"/>
-      <c r="CE22" s="130"/>
-      <c r="CF22" s="130"/>
-      <c r="CG22" s="130"/>
-      <c r="CH22" s="130"/>
+      <c r="BX22" s="143"/>
+      <c r="BY22" s="143"/>
+      <c r="BZ22" s="143"/>
+      <c r="CA22" s="143"/>
+      <c r="CB22" s="143"/>
+      <c r="CC22" s="143"/>
+      <c r="CD22" s="143"/>
+      <c r="CE22" s="143"/>
+      <c r="CF22" s="143"/>
+      <c r="CG22" s="143"/>
+      <c r="CH22" s="143"/>
       <c r="CI22" s="76"/>
       <c r="CJ22" s="76"/>
       <c r="CK22" s="76"/>
@@ -12084,12 +12869,12 @@
       </c>
     </row>
     <row r="23" spans="1:164" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="146"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
       <c r="J23" s="92" t="s">
         <v>268</v>
       </c>
@@ -12099,7 +12884,7 @@
       <c r="L23" s="92" t="s">
         <v>266</v>
       </c>
-      <c r="M23" s="134"/>
+      <c r="M23" s="147"/>
       <c r="P23" s="91" t="s">
         <v>348</v>
       </c>
@@ -12277,18 +13062,18 @@
       <c r="BV23" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="BW23" s="129"/>
-      <c r="BX23" s="130"/>
-      <c r="BY23" s="130"/>
-      <c r="BZ23" s="130"/>
-      <c r="CA23" s="130"/>
-      <c r="CB23" s="130"/>
-      <c r="CC23" s="130"/>
-      <c r="CD23" s="130"/>
-      <c r="CE23" s="130"/>
-      <c r="CF23" s="130"/>
-      <c r="CG23" s="130"/>
-      <c r="CH23" s="130"/>
+      <c r="BW23" s="142"/>
+      <c r="BX23" s="143"/>
+      <c r="BY23" s="143"/>
+      <c r="BZ23" s="143"/>
+      <c r="CA23" s="143"/>
+      <c r="CB23" s="143"/>
+      <c r="CC23" s="143"/>
+      <c r="CD23" s="143"/>
+      <c r="CE23" s="143"/>
+      <c r="CF23" s="143"/>
+      <c r="CG23" s="143"/>
+      <c r="CH23" s="143"/>
       <c r="CI23" s="76"/>
       <c r="CJ23" s="76"/>
       <c r="CK23" s="76"/>
@@ -12297,28 +13082,28 @@
       <c r="CP23" s="1">
         <v>35</v>
       </c>
-      <c r="EC23" s="131" t="s">
+      <c r="EC23" s="144" t="s">
         <v>216</v>
       </c>
-      <c r="ED23" s="131"/>
-      <c r="EE23" s="131"/>
-      <c r="EF23" s="131"/>
-      <c r="EG23" s="131"/>
-      <c r="EH23" s="131"/>
-      <c r="EI23" s="131"/>
-      <c r="EJ23" s="131"/>
-      <c r="EK23" s="131"/>
-      <c r="EL23" s="131" t="s">
+      <c r="ED23" s="144"/>
+      <c r="EE23" s="144"/>
+      <c r="EF23" s="144"/>
+      <c r="EG23" s="144"/>
+      <c r="EH23" s="144"/>
+      <c r="EI23" s="144"/>
+      <c r="EJ23" s="144"/>
+      <c r="EK23" s="144"/>
+      <c r="EL23" s="144" t="s">
         <v>215</v>
       </c>
-      <c r="EM23" s="131"/>
-      <c r="EN23" s="131"/>
-      <c r="EO23" s="131"/>
-      <c r="EP23" s="131"/>
-      <c r="EQ23" s="131"/>
-      <c r="ER23" s="131"/>
-      <c r="ES23" s="131"/>
-      <c r="ET23" s="131"/>
+      <c r="EM23" s="144"/>
+      <c r="EN23" s="144"/>
+      <c r="EO23" s="144"/>
+      <c r="EP23" s="144"/>
+      <c r="EQ23" s="144"/>
+      <c r="ER23" s="144"/>
+      <c r="ES23" s="144"/>
+      <c r="ET23" s="144"/>
     </row>
     <row r="24" spans="1:164" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
@@ -12454,9 +13239,9 @@
         <f ca="1">IF(AK24="","",AS24&amp;"-"&amp;AQ24&amp;"х"&amp;AR24&amp;"мм²")</f>
         <v>#N/A</v>
       </c>
-      <c r="AM24" s="1">
-        <f>IF(AK24="","",SUMIFS('&lt;zallcab&gt;EXPORT'!$M$6:$M$700000,'&lt;zallcab&gt;EXPORT'!$E$6:$E$700000,AK24))</f>
-        <v>0</v>
+      <c r="AM24" s="1" t="e">
+        <f>IF(AK24="","",INDEX('&lt;zallcab&gt;CALC'!$X$7:$X$700000,MATCH(AK24,'&lt;zallcab&gt;CALC'!$D$7:$D$700000,0)))</f>
+        <v>#N/A</v>
       </c>
       <c r="AN24" s="66" t="str">
         <f>IF(AK24="","","М")</f>
@@ -12782,9 +13567,9 @@
         <f>"VSCHEMACable22"</f>
         <v>VSCHEMACable22</v>
       </c>
-      <c r="EA24" s="56" t="str">
+      <c r="EA24" s="56" t="e">
         <f>IF(AM24&lt;&gt;"","L="&amp;AM24&amp;"м"," ")</f>
-        <v>L=0м</v>
+        <v>#N/A</v>
       </c>
       <c r="EB24" t="s">
         <v>196</v>
@@ -13205,41 +13990,41 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="119"/>
-      <c r="AD2" s="119"/>
-      <c r="AE2" s="119"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="119"/>
-      <c r="AH2" s="120"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="130"/>
+      <c r="AD2" s="130"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="130"/>
+      <c r="AG2" s="130"/>
+      <c r="AH2" s="131"/>
     </row>
     <row r="3" spans="2:34" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
@@ -14180,49 +14965,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="123"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="134"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -14746,7 +15531,7 @@
         <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -14854,7 +15639,7 @@
   <dimension ref="A3:AU11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14886,11 +15671,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="135" t="s">
         <v>331</v>
       </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="D4" s="100" t="s">
@@ -15080,64 +15865,64 @@
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B8" s="165"/>
-      <c r="C8" s="125" t="s">
+      <c r="B8" s="111"/>
+      <c r="C8" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="124" t="s">
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="135" t="s">
         <v>339</v>
       </c>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="125" t="s">
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="136" t="s">
         <v>168</v>
       </c>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125" t="s">
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136" t="s">
         <v>181</v>
       </c>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125" t="s">
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125" t="s">
+      <c r="P8" s="136"/>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="136" t="s">
         <v>182</v>
       </c>
-      <c r="S8" s="125"/>
-      <c r="T8" s="125"/>
-      <c r="U8" s="125" t="s">
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136" t="s">
         <v>169</v>
       </c>
-      <c r="V8" s="125"/>
-      <c r="W8" s="125"/>
-      <c r="X8" s="125" t="s">
+      <c r="V8" s="136"/>
+      <c r="W8" s="136"/>
+      <c r="X8" s="136" t="s">
         <v>184</v>
       </c>
-      <c r="Y8" s="125"/>
-      <c r="Z8" s="125"/>
-      <c r="AA8" s="125" t="s">
+      <c r="Y8" s="136"/>
+      <c r="Z8" s="136"/>
+      <c r="AA8" s="136" t="s">
         <v>185</v>
       </c>
-      <c r="AB8" s="125"/>
-      <c r="AC8" s="125"/>
-      <c r="AD8" s="125" t="s">
+      <c r="AB8" s="136"/>
+      <c r="AC8" s="136"/>
+      <c r="AD8" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="AE8" s="125"/>
-      <c r="AF8" s="125"/>
-      <c r="AG8" s="109" t="s">
+      <c r="AE8" s="136"/>
+      <c r="AF8" s="136"/>
+      <c r="AG8" s="108" t="s">
         <v>341</v>
       </c>
-      <c r="AH8" s="109" t="s">
+      <c r="AH8" s="108" t="s">
         <v>342</v>
       </c>
-      <c r="AI8" s="109" t="s">
+      <c r="AI8" s="108" t="s">
         <v>343</v>
       </c>
       <c r="AJ8" s="55" t="s">
@@ -15256,9 +16041,9 @@
       <c r="AF9" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="AG9" s="107"/>
-      <c r="AH9" s="107"/>
-      <c r="AI9" s="107"/>
+      <c r="AG9" s="106"/>
+      <c r="AH9" s="106"/>
+      <c r="AI9" s="106"/>
       <c r="AJ9" s="55"/>
       <c r="AK9" s="102"/>
       <c r="AL9" s="55"/>
@@ -15305,9 +16090,9 @@
       <c r="AD10" s="51"/>
       <c r="AE10" s="52"/>
       <c r="AF10" s="53"/>
-      <c r="AG10" s="108"/>
-      <c r="AH10" s="108"/>
-      <c r="AI10" s="108"/>
+      <c r="AG10" s="107"/>
+      <c r="AH10" s="107"/>
+      <c r="AI10" s="107"/>
       <c r="AJ10" s="55"/>
       <c r="AK10" s="102"/>
       <c r="AL10" s="55"/>
@@ -15374,15 +16159,15 @@
       </c>
       <c r="AE11" s="52"/>
       <c r="AF11" s="53"/>
-      <c r="AG11" s="107" t="str">
+      <c r="AG11" s="106" t="str">
         <f>J11&amp;"-"&amp;M11&amp;"-"&amp;S11</f>
         <v>--</v>
       </c>
-      <c r="AH11" s="107">
+      <c r="AH11" s="106">
         <f>IF(COUNT($AJ$11:AJ11)=MATCH(AG11,$AG$11:AG11,0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AI11" s="107">
+      <c r="AI11" s="106">
         <f>SUMIFS($AJ$11:$AJ$700000,$AG$11:$AG$700000,AG11)</f>
         <v>1</v>
       </c>
@@ -15448,11 +16233,78 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C18C41F-A7A1-44A1-BCA8-2DEB7768025B}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2D47E1-1980-42FF-8A31-CE7BAFCD7F98}">
+  <dimension ref="B4:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C18C41F-A7A1-44A1-BCA8-2DEB7768025B}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15468,155 +16320,39 @@
         <v>349</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" t="s">
+        <v>366</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE1986-1CF6-4370-AEB3-1DC97E00D4E1}">
-  <dimension ref="C3:Q6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
-    <col min="8" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="3.7109375" customWidth="1"/>
-    <col min="13" max="16" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="C3" s="96"/>
-      <c r="D3" s="160" t="s">
-        <v>350</v>
-      </c>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160" t="s">
-        <v>351</v>
-      </c>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="164" t="s">
-        <v>355</v>
-      </c>
-      <c r="K3" s="164" t="s">
-        <v>352</v>
-      </c>
-      <c r="L3" s="160" t="s">
-        <v>353</v>
-      </c>
-      <c r="M3" s="160"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C4" s="96"/>
-      <c r="D4" s="161" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" s="162" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="163" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="161" t="s">
-        <v>167</v>
-      </c>
-      <c r="H4" s="162" t="s">
-        <v>165</v>
-      </c>
-      <c r="I4" s="163" t="s">
-        <v>166</v>
-      </c>
-      <c r="J4" s="162" t="s">
-        <v>165</v>
-      </c>
-      <c r="K4" s="162" t="s">
-        <v>165</v>
-      </c>
-      <c r="L4" s="161" t="s">
-        <v>167</v>
-      </c>
-      <c r="M4" s="162" t="s">
-        <v>165</v>
-      </c>
-      <c r="N4" s="163" t="s">
-        <v>166</v>
-      </c>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-    </row>
-    <row r="5" spans="3:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="C5" s="106" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="53"/>
-    </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C6" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>358</v>
-      </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54" t="s">
-        <v>359</v>
-      </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="52" t="s">
-        <v>356</v>
-      </c>
-      <c r="K6" s="52" t="s">
-        <v>357</v>
-      </c>
-      <c r="L6" s="54" t="s">
-        <v>360</v>
-      </c>
-      <c r="M6" s="52"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="1">
-        <f>IF(COUNTIF($D$6:$D$949997,#REF!)&gt;1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="P6" s="1">
-        <f>SUMIFS($L$6:$L$949997,$D$6:$D$949997,#REF!)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="G3:I3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHOD.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHOD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09B2187-FF2A-4836-9D9D-38AEC63F3093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0828DFF-3455-41E5-B369-7029AA9ADC08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="1680" windowWidth="34605" windowHeight="15780" firstSheet="6" activeTab="15" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" firstSheet="5" activeTab="15" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="4" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="BDKc" sheetId="12" r:id="rId3"/>
     <sheet name="&lt;workbook&gt;SET" sheetId="7" r:id="rId4"/>
     <sheet name="&lt;zalldev&gt;SET" sheetId="15" r:id="rId5"/>
-    <sheet name="&lt;zalldev&gt;TEMPLATEKZ" sheetId="17" r:id="rId6"/>
-    <sheet name="&lt;zalldev&gt;EXPORT" sheetId="11" r:id="rId7"/>
+    <sheet name="&lt;zalldev&gt;EXPORT" sheetId="11" r:id="rId6"/>
+    <sheet name="&lt;zalldev&gt;TEMPLATEKZ" sheetId="17" r:id="rId7"/>
     <sheet name="BDzallcab" sheetId="26" r:id="rId8"/>
     <sheet name="&lt;zallcab&gt;SET" sheetId="23" r:id="rId9"/>
     <sheet name="&lt;zallcab&gt;EXPORT" sheetId="14" r:id="rId10"/>
@@ -49,6 +49,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>BobrovV</author>
+    <author/>
     <author>SNARK</author>
   </authors>
   <commentList>
@@ -160,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{B401FA04-A795-46D4-8763-84CF0A906686}">
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{B401FA04-A795-46D4-8763-84CF0A906686}">
       <text>
         <r>
           <rPr>
@@ -180,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{4074DB5B-64A7-4F5B-882D-5A34B6DB8EDE}">
+    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{4074DB5B-64A7-4F5B-882D-5A34B6DB8EDE}">
       <text>
         <r>
           <rPr>
@@ -207,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{03FFD99F-C905-42BA-87A4-2CA1634FC2FA}">
+    <comment ref="G26" authorId="0" shapeId="0" xr:uid="{03FFD99F-C905-42BA-87A4-2CA1634FC2FA}">
       <text>
         <r>
           <rPr>
@@ -230,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{11CFE061-86EE-4701-8F3A-743D05CA9B46}">
+    <comment ref="H26" authorId="0" shapeId="0" xr:uid="{11CFE061-86EE-4701-8F3A-743D05CA9B46}">
       <text>
         <r>
           <rPr>
@@ -245,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{D99C9A81-29E1-495F-91F0-AC38AC34A854}">
+    <comment ref="I26" authorId="0" shapeId="0" xr:uid="{D99C9A81-29E1-495F-91F0-AC38AC34A854}">
       <text>
         <r>
           <rPr>
@@ -260,7 +261,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{19C71313-9868-4587-BC88-C9A1BC4ADDEC}">
+    <comment ref="K26" authorId="1" shapeId="0" xr:uid="{37392862-89E1-44B7-9CBD-B3DC7D6997B2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Имя или позиция устройства</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q27" authorId="0" shapeId="0" xr:uid="{1292265B-DE71-48A5-86CE-AA13798E1C7A}">
       <text>
         <r>
           <rPr>
@@ -275,22 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P23" authorId="0" shapeId="0" xr:uid="{1292265B-DE71-48A5-86CE-AA13798E1C7A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Имя или позиция устройства</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S23" authorId="0" shapeId="0" xr:uid="{918E955D-57D1-4F96-B04B-3F4534753A5B}">
+    <comment ref="T27" authorId="0" shapeId="0" xr:uid="{918E955D-57D1-4F96-B04B-3F4534753A5B}">
       <text>
         <r>
           <rPr>
@@ -305,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W23" authorId="0" shapeId="0" xr:uid="{F3BE14A9-D47F-4466-AE34-7B36617DA817}">
+    <comment ref="X27" authorId="0" shapeId="0" xr:uid="{F3BE14A9-D47F-4466-AE34-7B36617DA817}">
       <text>
         <r>
           <rPr>
@@ -320,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X23" authorId="0" shapeId="0" xr:uid="{457C414C-2F0C-43F1-B51D-B08C6B507AA6}">
+    <comment ref="Y27" authorId="0" shapeId="0" xr:uid="{457C414C-2F0C-43F1-B51D-B08C6B507AA6}">
       <text>
         <r>
           <rPr>
@@ -335,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y23" authorId="0" shapeId="0" xr:uid="{1620A121-CF3A-429A-8549-362904C031BD}">
+    <comment ref="Z27" authorId="0" shapeId="0" xr:uid="{1620A121-CF3A-429A-8549-362904C031BD}">
       <text>
         <r>
           <rPr>
@@ -351,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z23" authorId="0" shapeId="0" xr:uid="{420CECB1-4FEA-4A95-B35B-C8B4A7F91C8E}">
+    <comment ref="AA27" authorId="0" shapeId="0" xr:uid="{420CECB1-4FEA-4A95-B35B-C8B4A7F91C8E}">
       <text>
         <r>
           <rPr>
@@ -368,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA23" authorId="1" shapeId="0" xr:uid="{F374FA2A-E6E1-488F-97B5-2608581BB697}">
+    <comment ref="AB27" authorId="2" shapeId="0" xr:uid="{F374FA2A-E6E1-488F-97B5-2608581BB697}">
       <text>
         <r>
           <rPr>
@@ -384,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB23" authorId="0" shapeId="0" xr:uid="{D2A0D3CC-286C-42C4-A68B-F066A863CB8A}">
+    <comment ref="AC27" authorId="0" shapeId="0" xr:uid="{D2A0D3CC-286C-42C4-A68B-F066A863CB8A}">
       <text>
         <r>
           <rPr>
@@ -399,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI23" authorId="0" shapeId="0" xr:uid="{825A68CB-9CE5-4EF4-90F6-5701746346BC}">
+    <comment ref="AM27" authorId="0" shapeId="0" xr:uid="{825A68CB-9CE5-4EF4-90F6-5701746346BC}">
       <text>
         <r>
           <rPr>
@@ -414,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN23" authorId="0" shapeId="0" xr:uid="{2090420F-571C-4D0F-8669-44233AE0EB9D}">
+    <comment ref="AR27" authorId="0" shapeId="0" xr:uid="{2090420F-571C-4D0F-8669-44233AE0EB9D}">
       <text>
         <r>
           <rPr>
@@ -431,7 +430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO23" authorId="0" shapeId="0" xr:uid="{59364D46-FEAD-4FBA-A7CC-D0D1DAAEAA70}">
+    <comment ref="AS27" authorId="0" shapeId="0" xr:uid="{59364D46-FEAD-4FBA-A7CC-D0D1DAAEAA70}">
       <text>
         <r>
           <rPr>
@@ -448,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP23" authorId="0" shapeId="0" xr:uid="{03E1B027-710B-4D77-93C1-A92BB534A913}">
+    <comment ref="AT27" authorId="0" shapeId="0" xr:uid="{03E1B027-710B-4D77-93C1-A92BB534A913}">
       <text>
         <r>
           <rPr>
@@ -465,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR23" authorId="0" shapeId="0" xr:uid="{F39BFA58-8E74-40A7-B3FE-A15C54A41208}">
+    <comment ref="AV27" authorId="0" shapeId="0" xr:uid="{F39BFA58-8E74-40A7-B3FE-A15C54A41208}">
       <text>
         <r>
           <rPr>
@@ -480,7 +479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY23" authorId="0" shapeId="0" xr:uid="{42617EC5-9B5A-426C-B5EC-04AC02124BEF}">
+    <comment ref="BC27" authorId="0" shapeId="0" xr:uid="{42617EC5-9B5A-426C-B5EC-04AC02124BEF}">
       <text>
         <r>
           <rPr>
@@ -500,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ23" authorId="0" shapeId="0" xr:uid="{4D5D5AC1-F4E1-46CC-A860-4D58A7B3B0D8}">
+    <comment ref="BD27" authorId="0" shapeId="0" xr:uid="{4D5D5AC1-F4E1-46CC-A860-4D58A7B3B0D8}">
       <text>
         <r>
           <rPr>
@@ -527,7 +526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB23" authorId="0" shapeId="0" xr:uid="{83C47805-63A7-4CEF-AAD5-9EABC0E7440B}">
+    <comment ref="BF27" authorId="0" shapeId="0" xr:uid="{83C47805-63A7-4CEF-AAD5-9EABC0E7440B}">
       <text>
         <r>
           <rPr>
@@ -542,7 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD23" authorId="0" shapeId="0" xr:uid="{56D7776F-1E9D-4BF7-9264-B560352B344A}">
+    <comment ref="BH27" authorId="0" shapeId="0" xr:uid="{56D7776F-1E9D-4BF7-9264-B560352B344A}">
       <text>
         <r>
           <rPr>
@@ -558,12 +557,72 @@
         </r>
       </text>
     </comment>
+    <comment ref="CA27" authorId="0" shapeId="0" xr:uid="{A94572D5-C9AC-4CFD-A244-2D099BEEEAC2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Группа в ГУ, для устройств которые имеют свои группы но не вынесены на отдельный лист</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CB27" authorId="0" shapeId="0" xr:uid="{69ECEA8B-05BE-464E-9B74-BA45CBFC6AB3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Используется для определения текучщей строки и получения предыдущего значения строки.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CC27" authorId="0" shapeId="0" xr:uid="{3863E70B-D5F9-455C-B6C9-2E603AF06E69}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Если ошибка значит это не ГУ.
+Если ошибки нет, значит существует ГУ с таким именем и данные будут браться от туда
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CD27" authorId="0" shapeId="0" xr:uid="{D9BF2E25-38AA-4177-B50C-259BC4C29CCB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Данная группа относится к щитам управления входящим в ГУ. 1 относится, 0 нет</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="433">
   <si>
     <t>&lt;zlight&gt;</t>
   </si>
@@ -1133,9 +1192,6 @@
   </si>
   <si>
     <t>Ед устр</t>
-  </si>
-  <si>
-    <t>Момент изменения группы</t>
   </si>
   <si>
     <t>Cумма устройств если совпадает базовое имя и номер группы</t>
@@ -1327,13 +1383,6 @@
     <t>ΔU, %</t>
   </si>
   <si>
-    <t>Pр, 
-kW</t>
-  </si>
-  <si>
-    <t>Cosφ гр.</t>
-  </si>
-  <si>
     <t>Кс гр.</t>
   </si>
   <si>
@@ -1426,9 +1475,6 @@
     <t>Имя прокладываемого кабеля</t>
   </si>
   <si>
-    <t>Ур подключения</t>
-  </si>
-  <si>
     <t xml:space="preserve">ПОЛУЧЕНО.2-й уровень схемы </t>
   </si>
   <si>
@@ -1534,9 +1580,6 @@
     <t>Номинальный ток, А</t>
   </si>
   <si>
-    <t>ЩРН-12</t>
-  </si>
-  <si>
     <t>Марка оболочки щита</t>
   </si>
   <si>
@@ -1573,9 +1616,6 @@
     <t>Заполняемый щит</t>
   </si>
   <si>
-    <t>&lt;zlight&gt;GU</t>
-  </si>
-  <si>
     <t>&lt;zGUGUGUGU&gt;</t>
   </si>
   <si>
@@ -1606,15 +1646,6 @@
     <t>Сумма одинаковых позиций</t>
   </si>
   <si>
-    <t>&lt;zcopyrow targetsheet=[&lt;zalldev&gt;EXPORT] targetcodename=[zalldevimport] keynumcol=[37]&gt;</t>
-  </si>
-  <si>
-    <t>&lt;zcopyrow targetsheet=[&lt;zalldev&gt;EXPORT] targetcodename=[zalldevimport] keynumcol=[42]&gt;</t>
-  </si>
-  <si>
-    <t>&lt;zcopyrow targetsheet=[&lt;zlight&gt;GUTEMP] targetcodename=[zGUGUGUGU] keynumcol=[8]&gt;</t>
-  </si>
-  <si>
     <t>TEMP</t>
   </si>
   <si>
@@ -1775,6 +1806,134 @@
   </si>
   <si>
     <t>ЕСЛИ(AK24="";"";ИНДЕКС('&lt;zallcab&gt;CALC'!$X$7:$X$700000;ПОИСКПОЗ(AK24;'&lt;zallcab&gt;CALC'!$D$7:$D$700000;0)))</t>
+  </si>
+  <si>
+    <t>&lt;zdevsettings name=[ANALYSISEM_icanbeheadunit] type=[boolean]&gt;</t>
+  </si>
+  <si>
+    <t>Я могу быть ГУ</t>
+  </si>
+  <si>
+    <t>Истинная группа с учетом подключенных ЩУ</t>
+  </si>
+  <si>
+    <t>Счетчик строк</t>
+  </si>
+  <si>
+    <t>Истинная группа</t>
+  </si>
+  <si>
+    <t>Проверка на ГУ</t>
+  </si>
+  <si>
+    <t>К кому подключен может быть ГУ. 1- да, 0 нет, -1 нет подключения</t>
+  </si>
+  <si>
+    <t>Получаю истинный имя ГУ к которому все подключены устройства</t>
+  </si>
+  <si>
+    <t>Получаю истинный номер группы в ГУ к которму мы все подключены</t>
+  </si>
+  <si>
+    <t>Данная группа относится к щитам управления входящим в ГУ. 1 относится, 0 нет</t>
+  </si>
+  <si>
+    <t>Устр. подключ к ШУ</t>
+  </si>
+  <si>
+    <t>&lt;zcopyrow targetsheet=[&lt;zalldev&gt;EXPORT] targetcodename=[zalldevimport] keynumcol=[44]&gt;</t>
+  </si>
+  <si>
+    <t>Инфо по группе (P,кВт; U,B;  Ir, А; cosf )</t>
+  </si>
+  <si>
+    <t>Ур подкл.</t>
+  </si>
+  <si>
+    <t>Ко мне кто нибудь подключен</t>
+  </si>
+  <si>
+    <t>Глобальный уровень подключения</t>
+  </si>
+  <si>
+    <t>Момент изменения группы для генерации подключенных устройств</t>
+  </si>
+  <si>
+    <t>Момент изменения группы для генерации головных устройств</t>
+  </si>
+  <si>
+    <t>&lt;zcopyrow targetsheet=[&lt;zalldev&gt;EXPORT] targetcodename=[zalldevimport] keynumcol=[45]&gt;</t>
+  </si>
+  <si>
+    <t>&lt;zlight&gt;TEMPGU</t>
+  </si>
+  <si>
+    <t>Уровень подключения</t>
+  </si>
+  <si>
+    <t>Кол-во подкл устройств</t>
+  </si>
+  <si>
+    <t>Копируем все</t>
+  </si>
+  <si>
+    <t>&lt;zcopyrow targetsheet=[&lt;zlight&gt;TEMPGU] targetcodename=[zGUGUGUGU] keynumcol=[10]&gt;</t>
+  </si>
+  <si>
+    <t>Ур.подкл</t>
+  </si>
+  <si>
+    <t>Груп. в ГУ</t>
+  </si>
+  <si>
+    <t>Имя устр.</t>
+  </si>
+  <si>
+    <t>№ подкл.</t>
+  </si>
+  <si>
+    <t>Кол-во подкл устр.</t>
+  </si>
+  <si>
+    <t>Глобальный уровень</t>
+  </si>
+  <si>
+    <t>Реал.имя</t>
+  </si>
+  <si>
+    <t>я имею подключения</t>
+  </si>
+  <si>
+    <t>Ур.0
+Pр, kW</t>
+  </si>
+  <si>
+    <t>Ур.1
+Pр, kW</t>
+  </si>
+  <si>
+    <t>Ур.2
+Pр, kW</t>
+  </si>
+  <si>
+    <t>Групп
+Pр, kW</t>
+  </si>
+  <si>
+    <t>Групп
+cosφ</t>
+  </si>
+  <si>
+    <t>Ур.подкл. внутри щита</t>
+  </si>
+  <si>
+    <t>К кому устр. я подкл.</t>
+  </si>
+  <si>
+    <t>К какой групп устр. я подкл.</t>
+  </si>
+  <si>
+    <t>Кол-во подкл устр</t>
   </si>
 </sst>
 </file>
@@ -1785,7 +1944,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1926,8 +2085,71 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="30">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2102,8 +2324,56 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF548236"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCD6EF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0D0D0D"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="55">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -2637,15 +2907,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2809,13 +3070,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2988,24 +3290,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3040,37 +3324,30 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -3078,47 +3355,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3128,20 +3397,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3154,9 +3417,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3190,6 +3450,82 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3232,10 +3568,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3248,58 +3584,69 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -3307,64 +3654,99 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4462,84 +4844,84 @@
   <sheetData>
     <row r="2" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:76" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="123"/>
-      <c r="F3" s="124" t="s">
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
+      <c r="F3" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="125"/>
-      <c r="H3" s="126"/>
-      <c r="K3" s="129" t="s">
+      <c r="G3" s="138"/>
+      <c r="H3" s="139"/>
+      <c r="K3" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="130"/>
-      <c r="V3" s="130"/>
-      <c r="W3" s="130"/>
-      <c r="X3" s="130"/>
-      <c r="Y3" s="130"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="130"/>
-      <c r="AC3" s="130"/>
-      <c r="AD3" s="130"/>
-      <c r="AE3" s="130"/>
-      <c r="AF3" s="130"/>
-      <c r="AG3" s="130"/>
-      <c r="AH3" s="130"/>
-      <c r="AI3" s="130"/>
-      <c r="AJ3" s="130"/>
-      <c r="AK3" s="130"/>
-      <c r="AL3" s="130"/>
-      <c r="AM3" s="130"/>
-      <c r="AN3" s="130"/>
-      <c r="AO3" s="130"/>
-      <c r="AP3" s="130"/>
-      <c r="AQ3" s="130"/>
-      <c r="AR3" s="130"/>
-      <c r="AS3" s="130"/>
-      <c r="AT3" s="130"/>
-      <c r="AU3" s="130"/>
-      <c r="AV3" s="130"/>
-      <c r="AW3" s="130"/>
-      <c r="AX3" s="130"/>
-      <c r="AY3" s="130"/>
-      <c r="AZ3" s="130"/>
-      <c r="BA3" s="130"/>
-      <c r="BB3" s="130"/>
-      <c r="BC3" s="130"/>
-      <c r="BD3" s="130"/>
-      <c r="BE3" s="130"/>
-      <c r="BF3" s="130"/>
-      <c r="BG3" s="130"/>
-      <c r="BH3" s="130"/>
-      <c r="BI3" s="130"/>
-      <c r="BJ3" s="130"/>
-      <c r="BK3" s="130"/>
-      <c r="BL3" s="130"/>
-      <c r="BM3" s="130"/>
-      <c r="BN3" s="130"/>
-      <c r="BO3" s="130"/>
-      <c r="BP3" s="130"/>
-      <c r="BQ3" s="130"/>
-      <c r="BR3" s="130"/>
-      <c r="BS3" s="130"/>
-      <c r="BT3" s="130"/>
-      <c r="BU3" s="130"/>
-      <c r="BV3" s="130"/>
-      <c r="BW3" s="130"/>
-      <c r="BX3" s="130"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
+      <c r="U3" s="143"/>
+      <c r="V3" s="143"/>
+      <c r="W3" s="143"/>
+      <c r="X3" s="143"/>
+      <c r="Y3" s="143"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="143"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="143"/>
+      <c r="AG3" s="143"/>
+      <c r="AH3" s="143"/>
+      <c r="AI3" s="143"/>
+      <c r="AJ3" s="143"/>
+      <c r="AK3" s="143"/>
+      <c r="AL3" s="143"/>
+      <c r="AM3" s="143"/>
+      <c r="AN3" s="143"/>
+      <c r="AO3" s="143"/>
+      <c r="AP3" s="143"/>
+      <c r="AQ3" s="143"/>
+      <c r="AR3" s="143"/>
+      <c r="AS3" s="143"/>
+      <c r="AT3" s="143"/>
+      <c r="AU3" s="143"/>
+      <c r="AV3" s="143"/>
+      <c r="AW3" s="143"/>
+      <c r="AX3" s="143"/>
+      <c r="AY3" s="143"/>
+      <c r="AZ3" s="143"/>
+      <c r="BA3" s="143"/>
+      <c r="BB3" s="143"/>
+      <c r="BC3" s="143"/>
+      <c r="BD3" s="143"/>
+      <c r="BE3" s="143"/>
+      <c r="BF3" s="143"/>
+      <c r="BG3" s="143"/>
+      <c r="BH3" s="143"/>
+      <c r="BI3" s="143"/>
+      <c r="BJ3" s="143"/>
+      <c r="BK3" s="143"/>
+      <c r="BL3" s="143"/>
+      <c r="BM3" s="143"/>
+      <c r="BN3" s="143"/>
+      <c r="BO3" s="143"/>
+      <c r="BP3" s="143"/>
+      <c r="BQ3" s="143"/>
+      <c r="BR3" s="143"/>
+      <c r="BS3" s="143"/>
+      <c r="BT3" s="143"/>
+      <c r="BU3" s="143"/>
+      <c r="BV3" s="143"/>
+      <c r="BW3" s="143"/>
+      <c r="BX3" s="143"/>
     </row>
     <row r="4" spans="1:76" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -5610,10 +5992,10 @@
       <c r="BX8" s="2"/>
     </row>
     <row r="9" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="128"/>
+      <c r="B9" s="141"/>
       <c r="F9" s="27">
         <v>2500</v>
       </c>
@@ -10628,11 +11010,11 @@
     </row>
     <row r="41" spans="6:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="6:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="124" t="s">
+      <c r="F42" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="125"/>
-      <c r="H42" s="126"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="139"/>
     </row>
     <row r="43" spans="6:76" ht="31.5" x14ac:dyDescent="0.25">
       <c r="F43" s="36" t="s">
@@ -10947,45 +11329,45 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="R2" s="119">
+      <c r="R2" s="106">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="C3" s="96"/>
-      <c r="D3" s="137" t="s">
-        <v>350</v>
-      </c>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137" t="s">
-        <v>351</v>
-      </c>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="110" t="s">
+      <c r="C3" s="86"/>
+      <c r="D3" s="150" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150" t="s">
+        <v>342</v>
+      </c>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="97" t="s">
+        <v>345</v>
+      </c>
+      <c r="K3" s="97" t="s">
+        <v>343</v>
+      </c>
+      <c r="L3" s="150" t="s">
+        <v>344</v>
+      </c>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="151" t="s">
+        <v>353</v>
+      </c>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="107" t="s">
         <v>354</v>
-      </c>
-      <c r="K3" s="110" t="s">
-        <v>352</v>
-      </c>
-      <c r="L3" s="137" t="s">
-        <v>353</v>
-      </c>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="138" t="s">
-        <v>362</v>
-      </c>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="120" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C4" s="96"/>
+      <c r="C4" s="86"/>
       <c r="D4" s="51" t="s">
         <v>167</v>
       </c>
@@ -11019,19 +11401,19 @@
       <c r="N4" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="O4" s="113" t="s">
+      <c r="O4" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="P4" s="114" t="s">
+      <c r="P4" s="101" t="s">
         <v>165</v>
       </c>
-      <c r="Q4" s="115" t="s">
+      <c r="Q4" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="R4" s="120"/>
+      <c r="R4" s="107"/>
     </row>
     <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="96" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="51"/>
@@ -11045,42 +11427,42 @@
       <c r="L5" s="51"/>
       <c r="M5" s="52"/>
       <c r="N5" s="53"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="120"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="107"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="83" t="s">
         <v>145</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E6" s="52"/>
       <c r="F6" s="53"/>
       <c r="G6" s="54" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="H6" s="52"/>
       <c r="I6" s="53"/>
       <c r="J6" s="52" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="K6" s="52" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="L6" s="54" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="M6" s="52"/>
       <c r="N6" s="53"/>
       <c r="O6" s="54" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="P6" s="52"/>
       <c r="Q6" s="53"/>
-      <c r="R6" s="120">
+      <c r="R6" s="107">
         <v>1</v>
       </c>
       <c r="S6" t="s">
@@ -11177,7 +11559,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Q4" s="119">
+      <c r="Q4" s="106">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -11211,81 +11593,81 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="150" x14ac:dyDescent="0.25">
-      <c r="D5" s="112" t="s">
-        <v>350</v>
-      </c>
-      <c r="E5" s="112" t="s">
-        <v>351</v>
-      </c>
-      <c r="F5" s="112" t="s">
-        <v>352</v>
-      </c>
-      <c r="G5" s="112" t="s">
+      <c r="D5" s="99" t="s">
+        <v>341</v>
+      </c>
+      <c r="E5" s="99" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>343</v>
+      </c>
+      <c r="G5" s="99" t="s">
+        <v>353</v>
+      </c>
+      <c r="H5" s="99" t="s">
+        <v>344</v>
+      </c>
+      <c r="I5" s="99" t="s">
+        <v>358</v>
+      </c>
+      <c r="J5" s="99" t="s">
+        <v>359</v>
+      </c>
+      <c r="K5" s="99" t="s">
+        <v>360</v>
+      </c>
+      <c r="L5" s="99" t="s">
+        <v>361</v>
+      </c>
+      <c r="M5" s="99" t="s">
         <v>362</v>
       </c>
-      <c r="H5" s="112" t="s">
+      <c r="N5" s="99" t="s">
+        <v>363</v>
+      </c>
+      <c r="O5" s="99" t="s">
+        <v>364</v>
+      </c>
+      <c r="P5" s="99" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q5" s="105" t="s">
+        <v>366</v>
+      </c>
+      <c r="R5" s="99" t="s">
+        <v>367</v>
+      </c>
+      <c r="S5" s="99" t="s">
+        <v>368</v>
+      </c>
+      <c r="T5" s="99" t="s">
+        <v>369</v>
+      </c>
+      <c r="U5" s="99" t="s">
+        <v>370</v>
+      </c>
+      <c r="V5" s="99" t="s">
         <v>353</v>
       </c>
-      <c r="I5" s="112" t="s">
-        <v>367</v>
-      </c>
-      <c r="J5" s="112" t="s">
-        <v>368</v>
-      </c>
-      <c r="K5" s="112" t="s">
-        <v>369</v>
-      </c>
-      <c r="L5" s="112" t="s">
-        <v>370</v>
-      </c>
-      <c r="M5" s="112" t="s">
+      <c r="W5" s="99" t="s">
         <v>371</v>
       </c>
-      <c r="N5" s="112" t="s">
-        <v>372</v>
-      </c>
-      <c r="O5" s="112" t="s">
-        <v>373</v>
-      </c>
-      <c r="P5" s="112" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q5" s="118" t="s">
-        <v>375</v>
-      </c>
-      <c r="R5" s="112" t="s">
-        <v>376</v>
-      </c>
-      <c r="S5" s="112" t="s">
-        <v>377</v>
-      </c>
-      <c r="T5" s="112" t="s">
-        <v>378</v>
-      </c>
-      <c r="U5" s="112" t="s">
-        <v>379</v>
-      </c>
-      <c r="V5" s="112" t="s">
-        <v>362</v>
-      </c>
-      <c r="W5" s="112" t="s">
-        <v>380</v>
-      </c>
-      <c r="X5" s="172" t="s">
-        <v>399</v>
+      <c r="X5" s="108" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="Q6" s="117"/>
-      <c r="X6" s="173"/>
+      <c r="C6" s="103"/>
+      <c r="Q6" s="104"/>
+      <c r="X6" s="109"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C7" t="str">
         <f>IF(COUNTIF($B$7:B7,B7)=1,"&lt;zzzimport&gt;",1)</f>
@@ -11342,7 +11724,7 @@
         <f>SUMIFS($H$7:H7,$D$7:D7,D7,$G$7:G7,G7)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="119">
+      <c r="Q7" s="106">
         <f t="shared" ref="Q7" si="1">IF(K7=1,1,0)</f>
         <v>1</v>
       </c>
@@ -11370,12 +11752,12 @@
         <f t="shared" ref="W7" si="5">IF(Q7=1,P7," ")</f>
         <v>0</v>
       </c>
-      <c r="X7" s="174">
+      <c r="X7" s="110">
         <f>SUMIFS($H$7:$H$700000,$D$7:$D$700000,D7)</f>
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -11398,25 +11780,25 @@
   <sheetData>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>168</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C5" s="1">
         <f>'&lt;zallcab&gt;CALC'!S7</f>
@@ -11435,20 +11817,20 @@
         <v>#N/A</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="H5" s="1">
         <f>'&lt;zallcab&gt;CALC'!W7</f>
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M5" s="1">
         <v>60</v>
@@ -11463,7 +11845,7 @@
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -11476,7 +11858,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11498,7 +11880,7 @@
         <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11514,7 +11896,7 @@
         <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -11554,7 +11936,7 @@
         <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11579,7 +11961,7 @@
         <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -11589,51 +11971,162 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD83D9D-2229-4BC6-AB0E-E63357D0D337}">
-  <dimension ref="B1:M1"/>
+  <dimension ref="A3:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D1">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>COLUMN(A1)-1</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" ref="B4:M4" si="0">COLUMN(B1)-1</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N4" s="1">
+        <f>COLUMN(N1)-1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="97" t="s">
+        <v>333</v>
+      </c>
+      <c r="F5" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="97" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="97" t="s">
+        <v>412</v>
+      </c>
+      <c r="J5" s="97" t="s">
+        <v>413</v>
+      </c>
+      <c r="K5" s="97" t="s">
+        <v>414</v>
+      </c>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" s="52">
         <f>'&lt;zalldev&gt;EXPORT'!D11</f>
         <v>0</v>
       </c>
-      <c r="E1">
+      <c r="E6" s="52">
         <f>'&lt;zalldev&gt;EXPORT'!G11</f>
         <v>0</v>
       </c>
-      <c r="F1">
+      <c r="F6" s="52">
+        <f>'&lt;zalldev&gt;EXPORT'!J11</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="52">
         <f>'&lt;zalldev&gt;EXPORT'!M11</f>
         <v>0</v>
       </c>
-      <c r="G1">
+      <c r="H6" s="52">
         <f>'&lt;zalldev&gt;EXPORT'!P11</f>
         <v>0</v>
       </c>
-      <c r="H1">
+      <c r="I6" s="52" t="str">
+        <f>'&lt;zalldev&gt;EXPORT'!AV11</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="52">
+        <f>'&lt;zalldev&gt;EXPORT'!AU11</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="52">
         <v>1</v>
       </c>
-      <c r="I1">
-        <v>1</v>
-      </c>
-      <c r="J1">
-        <v>1</v>
-      </c>
-      <c r="L1" t="s">
-        <v>335</v>
-      </c>
-      <c r="M1" t="s">
-        <v>194</v>
+      <c r="L6" t="s">
+        <v>329</v>
+      </c>
+      <c r="M6" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -11643,10 +12136,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B9844E-F661-46DB-A8DF-606C0C725DFB}">
-  <dimension ref="A1:FH24"/>
+  <dimension ref="A1:FR28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AH28" sqref="AH28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11654,28 +12147,31 @@
     <col min="1" max="2" width="2.7109375" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" customWidth="1"/>
-    <col min="10" max="12" width="4.7109375" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" customWidth="1"/>
-    <col min="17" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="5.7109375" customWidth="1"/>
-    <col min="62" max="65" width="6.7109375" customWidth="1"/>
-    <col min="66" max="66" width="12.7109375" customWidth="1"/>
-    <col min="67" max="67" width="11.7109375" customWidth="1"/>
-    <col min="76" max="76" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="29.42578125" customWidth="1"/>
+    <col min="11" max="13" width="3.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" customWidth="1"/>
+    <col min="18" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="5.7109375" customWidth="1"/>
+    <col min="44" max="46" width="5.7109375" customWidth="1"/>
+    <col min="66" max="69" width="6.7109375" customWidth="1"/>
+    <col min="70" max="70" width="12.7109375" customWidth="1"/>
+    <col min="71" max="71" width="11.7109375" customWidth="1"/>
+    <col min="81" max="81" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="82" max="86" width="10.28515625" customWidth="1"/>
+    <col min="119" max="119" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:56" x14ac:dyDescent="0.25">
       <c r="D1" s="1">
-        <f>'&lt;zlight&gt;'!F18</f>
-        <v>0</v>
-      </c>
-      <c r="E1" s="1">
-        <f ca="1">U6</f>
-        <v>0</v>
+        <f>'&lt;zlight&gt;'!F20</f>
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="e">
+        <f ca="1">V6</f>
+        <v>#N/A</v>
       </c>
       <c r="F1" s="1">
-        <f>U8</f>
+        <f>V8</f>
         <v>0.92</v>
       </c>
       <c r="G1" s="1">
@@ -11687,2056 +12183,2210 @@
         <v>АВС</v>
       </c>
     </row>
-    <row r="4" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D4" s="171" t="s">
-        <v>328</v>
-      </c>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="98" t="s">
-        <v>327</v>
-      </c>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="171" t="s">
-        <v>326</v>
-      </c>
-      <c r="R4" s="171"/>
-      <c r="S4" s="171"/>
-      <c r="T4" s="171"/>
-      <c r="U4" s="171"/>
-      <c r="V4" s="171"/>
+    <row r="4" spans="4:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="181" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="88" t="s">
+        <v>322</v>
+      </c>
+      <c r="J4" s="182"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="181" t="s">
+        <v>321</v>
+      </c>
+      <c r="S4" s="181"/>
+      <c r="T4" s="181"/>
+      <c r="U4" s="181"/>
+      <c r="V4" s="181"/>
+      <c r="W4" s="181"/>
+      <c r="AV4" s="193" t="s">
+        <v>418</v>
+      </c>
+      <c r="AW4" s="193" t="s">
+        <v>419</v>
+      </c>
+      <c r="AX4" s="193" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY4" s="193" t="s">
+        <v>417</v>
+      </c>
+      <c r="AZ4" s="193" t="s">
+        <v>422</v>
+      </c>
+      <c r="BA4" s="193" t="s">
+        <v>416</v>
+      </c>
+      <c r="BB4" s="193" t="s">
+        <v>420</v>
+      </c>
+      <c r="BC4" s="193" t="s">
+        <v>423</v>
+      </c>
     </row>
-    <row r="5" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D5" s="155" t="s">
-        <v>325</v>
-      </c>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="97">
-        <f>'&lt;zlight&gt;'!F18</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="96" t="s">
-        <v>324</v>
-      </c>
-      <c r="P5" s="96" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q5" s="167" t="s">
-        <v>322</v>
-      </c>
-      <c r="R5" s="167"/>
-      <c r="S5" s="167"/>
-      <c r="T5" s="167"/>
-      <c r="U5" s="167">
-        <f ca="1">SUM($AD$22:$AD$11997)</f>
-        <v>0</v>
-      </c>
-      <c r="V5" s="167"/>
+    <row r="5" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="D5" s="165" t="s">
+        <v>320</v>
+      </c>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="87">
+        <f>'&lt;zlight&gt;'!F20</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="86" t="s">
+        <v>319</v>
+      </c>
+      <c r="J5" s="183"/>
+      <c r="Q5" s="86" t="s">
+        <v>318</v>
+      </c>
+      <c r="R5" s="177" t="s">
+        <v>317</v>
+      </c>
+      <c r="S5" s="177"/>
+      <c r="T5" s="177"/>
+      <c r="U5" s="177"/>
+      <c r="V5" s="177" t="e">
+        <f ca="1">SUM($AE$26:$AE$12001)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W5" s="177"/>
+      <c r="AU5" t="s">
+        <v>415</v>
+      </c>
+      <c r="AV5" s="52">
+        <f>'&lt;zlight&gt;TEMPGU'!D6</f>
+        <v>0</v>
+      </c>
+      <c r="AW5" s="52">
+        <f>'&lt;zlight&gt;TEMPGU'!E6</f>
+        <v>0</v>
+      </c>
+      <c r="AX5" s="52">
+        <f>'&lt;zlight&gt;TEMPGU'!F6</f>
+        <v>0</v>
+      </c>
+      <c r="AY5" s="52">
+        <f>'&lt;zlight&gt;TEMPGU'!G6</f>
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="52">
+        <f>'&lt;zlight&gt;TEMPGU'!H6</f>
+        <v>0</v>
+      </c>
+      <c r="BA5" s="52" t="str">
+        <f>'&lt;zlight&gt;TEMPGU'!I6</f>
+        <v>0</v>
+      </c>
+      <c r="BB5" s="52">
+        <f>'&lt;zlight&gt;TEMPGU'!J6</f>
+        <v>0</v>
+      </c>
+      <c r="BC5" s="195">
+        <f>IF(BB5=0,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="6" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D6" s="155" t="s">
-        <v>321</v>
-      </c>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="93" t="s">
-        <v>320</v>
-      </c>
-      <c r="I6" s="96" t="s">
-        <v>319</v>
-      </c>
-      <c r="P6" s="96">
+    <row r="6" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="D6" s="202" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="192">
+        <f>AV5</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="86" t="s">
+        <v>315</v>
+      </c>
+      <c r="J6" s="183"/>
+      <c r="Q6" s="86">
         <v>63</v>
       </c>
-      <c r="Q6" s="167" t="s">
-        <v>318</v>
-      </c>
-      <c r="R6" s="167"/>
-      <c r="S6" s="167"/>
-      <c r="T6" s="167"/>
-      <c r="U6" s="167">
-        <f ca="1">U5*U11</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="167"/>
+      <c r="R6" s="177" t="s">
+        <v>314</v>
+      </c>
+      <c r="S6" s="177"/>
+      <c r="T6" s="177"/>
+      <c r="U6" s="177"/>
+      <c r="V6" s="177" t="e">
+        <f ca="1">V5*V11</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W6" s="177"/>
     </row>
-    <row r="7" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D7" s="155" t="s">
-        <v>317</v>
-      </c>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="93">
+    <row r="7" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="D7" s="165" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="83">
         <v>45399</v>
       </c>
-      <c r="I7" s="96" t="s">
-        <v>316</v>
-      </c>
-      <c r="P7" s="96">
+      <c r="I7" s="86" t="s">
+        <v>312</v>
+      </c>
+      <c r="J7" s="183"/>
+      <c r="Q7" s="86">
         <v>32</v>
       </c>
-      <c r="Q7" s="167" t="s">
-        <v>315</v>
-      </c>
-      <c r="R7" s="167"/>
-      <c r="S7" s="167"/>
-      <c r="T7" s="167"/>
-      <c r="U7" s="167">
-        <f ca="1">ROUNDUP((U6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*U8),2)</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="167"/>
-      <c r="AN7">
-        <f>780/2</f>
-        <v>390</v>
-      </c>
+      <c r="R7" s="177" t="s">
+        <v>311</v>
+      </c>
+      <c r="S7" s="177"/>
+      <c r="T7" s="177"/>
+      <c r="U7" s="177"/>
+      <c r="V7" s="177" t="e">
+        <f ca="1">ROUNDUP((V6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*V8),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W7" s="177"/>
     </row>
-    <row r="8" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D8" s="155" t="s">
-        <v>314</v>
-      </c>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="93" t="s">
-        <v>313</v>
-      </c>
-      <c r="I8" s="96" t="s">
-        <v>312</v>
-      </c>
-      <c r="P8" s="96">
+    <row r="8" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="D8" s="165" t="s">
+        <v>310</v>
+      </c>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="83" t="s">
+        <v>309</v>
+      </c>
+      <c r="I8" s="86" t="s">
+        <v>308</v>
+      </c>
+      <c r="J8" s="183"/>
+      <c r="Q8" s="86">
         <v>6</v>
       </c>
-      <c r="Q8" s="168" t="s">
-        <v>311</v>
-      </c>
-      <c r="R8" s="169"/>
-      <c r="S8" s="169"/>
-      <c r="T8" s="170"/>
-      <c r="U8" s="163">
+      <c r="R8" s="178" t="s">
+        <v>307</v>
+      </c>
+      <c r="S8" s="179"/>
+      <c r="T8" s="179"/>
+      <c r="U8" s="180"/>
+      <c r="V8" s="173">
         <v>0.92</v>
       </c>
-      <c r="V8" s="163"/>
-      <c r="AN8">
-        <f>290/2</f>
-        <v>145</v>
-      </c>
+      <c r="W8" s="173"/>
     </row>
-    <row r="9" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D9" s="155" t="s">
-        <v>310</v>
-      </c>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="93" t="s">
-        <v>309</v>
-      </c>
-      <c r="I9" s="96" t="s">
-        <v>308</v>
-      </c>
-      <c r="P9" s="96" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q9" s="162" t="s">
+    <row r="9" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="D9" s="165" t="s">
         <v>306</v>
       </c>
-      <c r="R9" s="162"/>
-      <c r="S9" s="162"/>
-      <c r="T9" s="162"/>
-      <c r="U9" s="163"/>
-      <c r="V9" s="163"/>
-      <c r="AN9">
-        <v>80</v>
-      </c>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="I9" s="86" t="s">
+        <v>304</v>
+      </c>
+      <c r="J9" s="183"/>
+      <c r="Q9" s="86" t="s">
+        <v>303</v>
+      </c>
+      <c r="R9" s="172" t="s">
+        <v>302</v>
+      </c>
+      <c r="S9" s="172"/>
+      <c r="T9" s="172"/>
+      <c r="U9" s="172"/>
+      <c r="V9" s="173"/>
+      <c r="W9" s="173"/>
     </row>
-    <row r="10" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D10" s="155" t="s">
-        <v>305</v>
-      </c>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="I10" s="96" t="s">
-        <v>304</v>
-      </c>
-      <c r="P10" s="96">
+    <row r="10" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="D10" s="165" t="s">
+        <v>301</v>
+      </c>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="I10" s="86" t="s">
+        <v>300</v>
+      </c>
+      <c r="J10" s="183"/>
+      <c r="Q10" s="86">
         <v>4</v>
       </c>
-      <c r="Q10" s="162"/>
-      <c r="R10" s="162"/>
-      <c r="S10" s="162"/>
-      <c r="T10" s="162"/>
-      <c r="U10" s="163"/>
-      <c r="V10" s="163"/>
+      <c r="R10" s="172"/>
+      <c r="S10" s="172"/>
+      <c r="T10" s="172"/>
+      <c r="U10" s="172"/>
+      <c r="V10" s="173"/>
+      <c r="W10" s="173"/>
     </row>
-    <row r="11" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D11" s="155" t="s">
-        <v>303</v>
-      </c>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="93">
+    <row r="11" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="D11" s="165" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="83">
         <v>380</v>
       </c>
-      <c r="I11" s="96" t="s">
-        <v>302</v>
-      </c>
-      <c r="P11" s="96" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q11" s="164" t="s">
-        <v>300</v>
-      </c>
-      <c r="R11" s="165"/>
-      <c r="S11" s="165"/>
-      <c r="T11" s="166"/>
-      <c r="U11" s="164">
+      <c r="I11" s="86" t="s">
+        <v>298</v>
+      </c>
+      <c r="J11" s="183"/>
+      <c r="Q11" s="86" t="s">
+        <v>297</v>
+      </c>
+      <c r="R11" s="174" t="s">
+        <v>296</v>
+      </c>
+      <c r="S11" s="175"/>
+      <c r="T11" s="175"/>
+      <c r="U11" s="176"/>
+      <c r="V11" s="174">
         <v>0.65</v>
       </c>
-      <c r="V11" s="166"/>
+      <c r="W11" s="176"/>
     </row>
-    <row r="12" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D12" s="155" t="s">
-        <v>299</v>
-      </c>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="93" t="s">
-        <v>298</v>
-      </c>
-      <c r="I12" s="96" t="s">
-        <v>219</v>
-      </c>
-      <c r="P12" s="96" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q12" s="156" t="s">
-        <v>296</v>
-      </c>
-      <c r="R12" s="156"/>
-      <c r="S12" s="156"/>
-      <c r="T12" s="156"/>
-      <c r="U12" s="156">
+    <row r="12" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="D12" s="165" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="83" t="s">
+        <v>294</v>
+      </c>
+      <c r="I12" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="J12" s="183"/>
+      <c r="Q12" s="86" t="s">
+        <v>293</v>
+      </c>
+      <c r="R12" s="166" t="s">
+        <v>292</v>
+      </c>
+      <c r="S12" s="166"/>
+      <c r="T12" s="166"/>
+      <c r="U12" s="166"/>
+      <c r="V12" s="166">
         <v>44.5</v>
       </c>
-      <c r="V12" s="156"/>
+      <c r="W12" s="166"/>
     </row>
-    <row r="13" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D13" s="155" t="s">
-        <v>295</v>
-      </c>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="93" t="s">
-        <v>294</v>
-      </c>
-      <c r="I13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="156" t="s">
-        <v>293</v>
-      </c>
-      <c r="R13" s="156"/>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="156">
+    <row r="13" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="D13" s="165" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="83" t="s">
+        <v>290</v>
+      </c>
+      <c r="I13" s="84"/>
+      <c r="J13" s="184"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="166" t="s">
+        <v>289</v>
+      </c>
+      <c r="S13" s="166"/>
+      <c r="T13" s="166"/>
+      <c r="U13" s="166"/>
+      <c r="V13" s="166">
         <v>44.5</v>
       </c>
-      <c r="V13" s="156"/>
+      <c r="W13" s="166"/>
     </row>
-    <row r="14" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D14" s="155" t="s">
-        <v>292</v>
-      </c>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="95" t="str">
-        <f>'&lt;zlight&gt;'!G18&amp;"."&amp;'&lt;zlight&gt;'!H18</f>
+    <row r="14" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="D14" s="165" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="85" t="str">
+        <f>'&lt;zlight&gt;'!G20&amp;"."&amp;'&lt;zlight&gt;'!H20</f>
         <v>.</v>
       </c>
-      <c r="I14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="156" t="s">
-        <v>291</v>
-      </c>
-      <c r="R14" s="156"/>
-      <c r="S14" s="156"/>
-      <c r="T14" s="156"/>
-      <c r="U14" s="156">
+      <c r="I14" s="84"/>
+      <c r="J14" s="184"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="166" t="s">
+        <v>287</v>
+      </c>
+      <c r="S14" s="166"/>
+      <c r="T14" s="166"/>
+      <c r="U14" s="166"/>
+      <c r="V14" s="166">
         <v>44.5</v>
       </c>
-      <c r="V14" s="156"/>
+      <c r="W14" s="166"/>
     </row>
-    <row r="15" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="D15" s="155" t="s">
-        <v>290</v>
-      </c>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="93">
+    <row r="15" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="D15" s="165" t="s">
+        <v>286</v>
+      </c>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="83">
         <v>77</v>
       </c>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="157" t="s">
-        <v>289</v>
-      </c>
-      <c r="R15" s="157"/>
-      <c r="S15" s="157"/>
-      <c r="T15" s="157"/>
-      <c r="U15" s="157">
-        <f ca="1">ROUNDUP((U6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*U8),2)</f>
-        <v>0</v>
-      </c>
-      <c r="V15" s="157"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="167" t="s">
+        <v>285</v>
+      </c>
+      <c r="S15" s="167"/>
+      <c r="T15" s="167"/>
+      <c r="U15" s="167"/>
+      <c r="V15" s="167" t="e">
+        <f ca="1">ROUNDUP((V6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*V8),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W15" s="167"/>
     </row>
-    <row r="17" spans="1:164" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>346</v>
-      </c>
-      <c r="D17">
-        <f>'&lt;zlight&gt;TEMPGU'!D1</f>
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f>'&lt;zlight&gt;TEMPGU'!E1</f>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f>'&lt;zlight&gt;TEMPGU'!H1</f>
+    <row r="16" spans="4:56" x14ac:dyDescent="0.25">
+      <c r="R16" s="194" t="s">
+        <v>421</v>
+      </c>
+      <c r="S16" s="194"/>
+      <c r="T16" s="194"/>
+      <c r="U16" s="194"/>
+      <c r="V16" s="194" t="e">
+        <f>INDEX(BA5:BA9,MATCH(1,BC5:BC9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W16" s="194"/>
+    </row>
+    <row r="19" spans="1:174" x14ac:dyDescent="0.25">
+      <c r="AQ19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:174" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="111">
+        <f>COLUMN(A24)</f>
         <v>1</v>
       </c>
-      <c r="J17" t="s">
-        <v>194</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:164" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f>COLUMN(A20)</f>
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <f t="shared" ref="B20:BN20" si="0">COLUMN(B20)</f>
+      <c r="B24" s="111">
+        <f t="shared" ref="B24:BR24" si="0">COLUMN(B24)</f>
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="C24" s="111">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D20">
+      <c r="D24" s="111">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E20">
+      <c r="E24" s="111">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F20">
+      <c r="F24" s="111">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G20">
+      <c r="G24" s="111">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H20">
+      <c r="H24" s="111">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I20">
+      <c r="I24" s="111">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K20">
+      <c r="J24" s="111"/>
+      <c r="K24" s="111">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="L20">
+      <c r="L24" s="111">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M20">
+      <c r="M24" s="111">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="N20">
+      <c r="N24" s="111">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P20">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="Q20">
+      <c r="O24" s="111">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="R20">
+      <c r="R24" s="111">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="S20">
+      <c r="S24" s="111">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="T20">
+      <c r="T24" s="111">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="U20">
+      <c r="U24" s="111">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="V20">
+      <c r="V24" s="111">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="W20">
+      <c r="W24" s="111">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="X20">
+      <c r="X24" s="111">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="Y20">
+      <c r="Y24" s="111">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="Z20">
+      <c r="Z24" s="111">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AA20">
+      <c r="AA24" s="111">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AB20">
+      <c r="AB24" s="111">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AC20">
+      <c r="AC24" s="111">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AD20">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="AE20">
+      <c r="AD24" s="111"/>
+      <c r="AE24" s="111">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AF20">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="AG20">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="AH20">
+      <c r="AF24" s="111"/>
+      <c r="AG24" s="111"/>
+      <c r="AH24" s="111">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AI20">
+      <c r="AI24" s="111">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AJ20">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="AK20">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="AL20">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="AM20">
+      <c r="AJ24" s="111"/>
+      <c r="AK24" s="111"/>
+      <c r="AL24" s="111"/>
+      <c r="AM24" s="111">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="AN20">
+      <c r="AN24" s="111">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="AO20">
+      <c r="AO24" s="111">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AP20">
+      <c r="AP24" s="111">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="AQ20">
+      <c r="AQ24" s="111">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="AR20">
+      <c r="AR24" s="111">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="AS20">
+      <c r="AS24" s="111">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="AT20">
+      <c r="AT24" s="111">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AU20">
+      <c r="AU24" s="111">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="AV20">
+      <c r="AV24" s="111">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AW20">
+      <c r="AW24" s="111">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="AX20">
+      <c r="AX24" s="111">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="AY20">
+      <c r="AY24" s="111">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="AZ20">
+      <c r="AZ24" s="111">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="BA20">
+      <c r="BA24" s="111">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="BB20">
+      <c r="BB24" s="111">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="BC20">
+      <c r="BC24" s="111">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="BD20">
+      <c r="BD24" s="111">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="BE20">
+      <c r="BE24" s="111">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="BF20">
+      <c r="BF24" s="111">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="BG20">
+      <c r="BG24" s="111">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="BH20">
+      <c r="BH24" s="111">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="BI20">
+      <c r="BI24" s="111">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="BJ20">
+      <c r="BJ24" s="111">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="BK20">
+      <c r="BK24" s="111">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="BL20">
+      <c r="BL24" s="111">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="BM20">
+      <c r="BM24" s="111">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="BN20">
+      <c r="BN24" s="111">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="BO20">
-        <f t="shared" ref="BO20:DZ20" si="1">COLUMN(BO20)</f>
+      <c r="BO24" s="111">
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="BP20">
-        <f t="shared" si="1"/>
+      <c r="BP24" s="111">
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="BQ20">
-        <f t="shared" si="1"/>
+      <c r="BQ24" s="111">
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="BR20">
-        <f t="shared" si="1"/>
+      <c r="BR24" s="111">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="BS20">
-        <f t="shared" si="1"/>
+      <c r="BS24" s="111">
+        <f t="shared" ref="BS24:EJ24" si="1">COLUMN(BS24)</f>
         <v>71</v>
       </c>
-      <c r="BT20">
+      <c r="BT24" s="111">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="BU20">
+      <c r="BU24" s="111">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="BV20">
+      <c r="BV24" s="111">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="BW20">
+      <c r="BW24" s="111">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="BX20">
+      <c r="BX24" s="111">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="BY20">
+      <c r="BY24" s="111">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="BZ20">
+      <c r="BZ24" s="111">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="CA20">
+      <c r="CA24" s="111">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="CB20">
+      <c r="CB24" s="111">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="CC20">
+      <c r="CC24" s="111">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="CD20">
+      <c r="CD24" s="111">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="CE20">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="CF20">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="CG20">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="CH20">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="CI20">
+      <c r="CE24" s="111"/>
+      <c r="CF24" s="111"/>
+      <c r="CG24" s="111"/>
+      <c r="CH24" s="111"/>
+      <c r="CI24" s="111">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="CJ20">
+      <c r="CJ24" s="111">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="CK20">
+      <c r="CK24" s="111">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="CL20">
+      <c r="CL24" s="111">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="CM20">
+      <c r="CM24" s="111">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="CN20">
+      <c r="CN24" s="111">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="CO20">
+      <c r="CO24" s="111">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="CP20">
+      <c r="CP24" s="111">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="CQ20">
+      <c r="CQ24" s="111">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="CR20">
+      <c r="CR24" s="111">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="CS20">
+      <c r="CS24" s="111">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="CT20">
+      <c r="CT24" s="111">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="CU20">
+      <c r="CU24" s="111">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="CV20">
+      <c r="CV24" s="111">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="CW20">
+      <c r="CW24" s="111">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="CX20">
+      <c r="CX24" s="111">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="CY20">
+      <c r="CY24" s="111">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="CZ20">
+      <c r="CZ24" s="111">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="DA20">
+      <c r="DA24" s="111">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="DB20">
+      <c r="DB24" s="111">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="DC20">
+      <c r="DC24" s="111">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="DD20">
+      <c r="DD24" s="111">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="DE20">
+      <c r="DE24" s="111">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="DF20">
+      <c r="DF24" s="111">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="DG20">
+      <c r="DG24" s="111">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="DH20">
+      <c r="DH24" s="111">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="DI20">
+      <c r="DI24" s="111">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="DJ20">
+      <c r="DJ24" s="111">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="DK20">
+      <c r="DK24" s="111">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="DL20">
+      <c r="DL24" s="111">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="DM20">
+      <c r="DM24" s="111">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="DN20">
+      <c r="DN24" s="111">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="DO20">
+      <c r="DO24" s="111">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="DP20">
+      <c r="DP24" s="111">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="DQ20">
+      <c r="DQ24" s="111">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="DR20">
+      <c r="DR24" s="111">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="DS20">
+      <c r="DS24" s="111">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="DT20">
+      <c r="DT24" s="111">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="DU20">
+      <c r="DU24" s="111">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="DV20">
+      <c r="DV24" s="111">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="DW20">
+      <c r="DW24" s="111">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="DX20">
+      <c r="DX24" s="111">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="DY20">
+      <c r="DY24" s="111">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="DZ20">
+      <c r="DZ24" s="111">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="EA20">
-        <f t="shared" ref="EA20:EK20" si="2">COLUMN(EA20)</f>
+      <c r="EA24" s="1">
+        <f t="shared" si="1"/>
         <v>131</v>
       </c>
-      <c r="EB20">
+      <c r="EB24" s="1">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="EC24" s="1">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="ED24" s="1">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="EE24" s="1">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="EF24" s="1">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="EG24" s="1">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="EH24" s="1">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="EI24" s="1">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+      <c r="EJ24" s="1">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="EK24" s="1">
+        <f t="shared" ref="EK24:EU24" si="2">COLUMN(EK24)</f>
+        <v>141</v>
+      </c>
+      <c r="EL24" s="1">
         <f t="shared" si="2"/>
-        <v>132</v>
-      </c>
-      <c r="EC20">
+        <v>142</v>
+      </c>
+      <c r="EM24" s="1">
         <f t="shared" si="2"/>
-        <v>133</v>
-      </c>
-      <c r="ED20">
+        <v>143</v>
+      </c>
+      <c r="EN24" s="1">
         <f t="shared" si="2"/>
-        <v>134</v>
-      </c>
-      <c r="EE20">
+        <v>144</v>
+      </c>
+      <c r="EO24" s="1">
         <f t="shared" si="2"/>
-        <v>135</v>
-      </c>
-      <c r="EF20">
+        <v>145</v>
+      </c>
+      <c r="EP24" s="1">
         <f t="shared" si="2"/>
-        <v>136</v>
-      </c>
-      <c r="EG20">
+        <v>146</v>
+      </c>
+      <c r="EQ24" s="1">
         <f t="shared" si="2"/>
-        <v>137</v>
-      </c>
-      <c r="EH20">
+        <v>147</v>
+      </c>
+      <c r="ER24" s="1">
         <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
-      <c r="EI20">
+        <v>148</v>
+      </c>
+      <c r="ES24" s="1">
         <f t="shared" si="2"/>
-        <v>139</v>
-      </c>
-      <c r="EJ20">
+        <v>149</v>
+      </c>
+      <c r="ET24" s="1">
         <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="EK20">
+        <v>150</v>
+      </c>
+      <c r="EU24" s="1">
         <f t="shared" si="2"/>
-        <v>141</v>
-      </c>
-      <c r="EL20">
-        <f>COLUMN(EL20)</f>
-        <v>142</v>
-      </c>
-      <c r="EM20">
-        <f t="shared" ref="EM20:FH20" si="3">COLUMN(EM20)</f>
-        <v>143</v>
-      </c>
-      <c r="EN20">
-        <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-      <c r="EO20">
-        <f t="shared" si="3"/>
-        <v>145</v>
-      </c>
-      <c r="EP20">
-        <f t="shared" si="3"/>
-        <v>146</v>
-      </c>
-      <c r="EQ20">
-        <f t="shared" si="3"/>
-        <v>147</v>
-      </c>
-      <c r="ER20">
-        <f t="shared" si="3"/>
-        <v>148</v>
-      </c>
-      <c r="ES20">
-        <f t="shared" si="3"/>
-        <v>149</v>
-      </c>
-      <c r="ET20">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="EU20">
-        <f t="shared" si="3"/>
         <v>151</v>
       </c>
-      <c r="EV20">
-        <f t="shared" si="3"/>
+      <c r="EV24" s="1">
+        <f>COLUMN(EV24)</f>
         <v>152</v>
       </c>
-      <c r="EW20">
-        <f t="shared" si="3"/>
+      <c r="EW24" s="1">
+        <f t="shared" ref="EW24:FR24" si="3">COLUMN(EW24)</f>
         <v>153</v>
       </c>
-      <c r="EX20">
+      <c r="EX24" s="1">
         <f t="shared" si="3"/>
         <v>154</v>
       </c>
-      <c r="EY20">
+      <c r="EY24" s="1">
         <f t="shared" si="3"/>
         <v>155</v>
       </c>
-      <c r="EZ20">
+      <c r="EZ24" s="1">
         <f t="shared" si="3"/>
         <v>156</v>
       </c>
-      <c r="FA20">
+      <c r="FA24" s="1">
         <f t="shared" si="3"/>
         <v>157</v>
       </c>
-      <c r="FB20">
+      <c r="FB24" s="1">
         <f t="shared" si="3"/>
         <v>158</v>
       </c>
-      <c r="FC20">
+      <c r="FC24" s="1">
         <f t="shared" si="3"/>
         <v>159</v>
       </c>
-      <c r="FD20">
+      <c r="FD24" s="1">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="FE20">
+      <c r="FE24" s="1">
         <f t="shared" si="3"/>
         <v>161</v>
       </c>
-      <c r="FF20">
+      <c r="FF24" s="1">
         <f t="shared" si="3"/>
         <v>162</v>
       </c>
-      <c r="FG20">
+      <c r="FG24" s="1">
         <f t="shared" si="3"/>
         <v>163</v>
       </c>
-      <c r="FH20">
+      <c r="FH24" s="1">
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
+      <c r="FI24" s="1">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
+      <c r="FJ24" s="1">
+        <f t="shared" si="3"/>
+        <v>166</v>
+      </c>
+      <c r="FK24" s="1">
+        <f t="shared" si="3"/>
+        <v>167</v>
+      </c>
+      <c r="FL24" s="1">
+        <f t="shared" si="3"/>
+        <v>168</v>
+      </c>
+      <c r="FM24" s="1">
+        <f t="shared" si="3"/>
+        <v>169</v>
+      </c>
+      <c r="FN24" s="1">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="FO24" s="1">
+        <f t="shared" si="3"/>
+        <v>171</v>
+      </c>
+      <c r="FP24" s="1">
+        <f t="shared" si="3"/>
+        <v>172</v>
+      </c>
+      <c r="FQ24" s="1">
+        <f t="shared" si="3"/>
+        <v>173</v>
+      </c>
+      <c r="FR24" s="1">
+        <f t="shared" si="3"/>
+        <v>174</v>
+      </c>
     </row>
-    <row r="21" spans="1:164" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM21" t="s">
-        <v>361</v>
+    <row r="25" spans="1:174" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ25" t="s">
+        <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:164" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="158" t="s">
-        <v>288</v>
-      </c>
-      <c r="E22" s="160" t="s">
+    <row r="26" spans="1:174" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="168" t="s">
+        <v>284</v>
+      </c>
+      <c r="E26" s="170" t="s">
+        <v>233</v>
+      </c>
+      <c r="F26" s="163" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" s="170" t="s">
+        <v>283</v>
+      </c>
+      <c r="H26" s="163" t="s">
+        <v>282</v>
+      </c>
+      <c r="I26" s="163" t="s">
+        <v>281</v>
+      </c>
+      <c r="J26" s="186" t="s">
+        <v>404</v>
+      </c>
+      <c r="K26" s="188" t="s">
+        <v>405</v>
+      </c>
+      <c r="L26" s="188"/>
+      <c r="M26" s="188"/>
+      <c r="N26" s="155" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q26" s="157" t="s">
+        <v>279</v>
+      </c>
+      <c r="R26" s="158"/>
+      <c r="S26" s="158"/>
+      <c r="T26" s="158"/>
+      <c r="U26" s="158"/>
+      <c r="V26" s="158"/>
+      <c r="W26" s="158"/>
+      <c r="X26" s="158"/>
+      <c r="Y26" s="158"/>
+      <c r="Z26" s="158"/>
+      <c r="AA26" s="158"/>
+      <c r="AB26" s="158"/>
+      <c r="AC26" s="159" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD26" s="160"/>
+      <c r="AE26" s="160"/>
+      <c r="AF26" s="160"/>
+      <c r="AG26" s="160"/>
+      <c r="AH26" s="160"/>
+      <c r="AI26" s="160"/>
+      <c r="AJ26" s="160"/>
+      <c r="AK26" s="160"/>
+      <c r="AL26" s="160"/>
+      <c r="AM26" s="160"/>
+      <c r="AN26" s="161"/>
+      <c r="AO26" s="159" t="s">
+        <v>277</v>
+      </c>
+      <c r="AP26" s="160"/>
+      <c r="AQ26" s="160"/>
+      <c r="AR26" s="160"/>
+      <c r="AS26" s="160"/>
+      <c r="AT26" s="160"/>
+      <c r="AU26" s="160"/>
+      <c r="AV26" s="160"/>
+      <c r="AW26" s="160"/>
+      <c r="AX26" s="160"/>
+      <c r="AY26" s="160"/>
+      <c r="AZ26" s="160"/>
+      <c r="BA26" s="160"/>
+      <c r="BB26" s="161"/>
+      <c r="BC26" s="159" t="s">
+        <v>276</v>
+      </c>
+      <c r="BD26" s="160"/>
+      <c r="BE26" s="160"/>
+      <c r="BF26" s="160"/>
+      <c r="BG26" s="160"/>
+      <c r="BH26" s="160"/>
+      <c r="BI26" s="160"/>
+      <c r="BJ26" s="160"/>
+      <c r="BK26" s="160"/>
+      <c r="BL26" s="160"/>
+      <c r="BM26" s="160"/>
+      <c r="BN26" s="160"/>
+      <c r="BO26" s="160"/>
+      <c r="BP26" s="160"/>
+      <c r="BQ26" s="160"/>
+      <c r="BR26" s="160"/>
+      <c r="BS26" s="161"/>
+      <c r="BT26" s="152" t="s">
+        <v>275</v>
+      </c>
+      <c r="BU26" s="153"/>
+      <c r="BV26" s="153"/>
+      <c r="BW26" s="153"/>
+      <c r="BX26" s="153"/>
+      <c r="BY26" s="153"/>
+      <c r="BZ26" s="153"/>
+      <c r="CA26" s="162" t="s">
+        <v>274</v>
+      </c>
+      <c r="CB26" s="162"/>
+      <c r="CC26" s="162"/>
+      <c r="CD26" s="162"/>
+      <c r="CE26" s="162"/>
+      <c r="CF26" s="162"/>
+      <c r="CG26" s="162"/>
+      <c r="CH26" s="162"/>
+      <c r="CI26" s="162"/>
+      <c r="CJ26" s="162"/>
+      <c r="CK26" s="162"/>
+      <c r="CL26" s="162"/>
+      <c r="CM26" s="162"/>
+      <c r="CN26" s="162"/>
+      <c r="CO26" s="162"/>
+      <c r="CP26" s="162"/>
+      <c r="CQ26" s="162"/>
+      <c r="CR26" s="162"/>
+      <c r="CS26" s="162"/>
+      <c r="CT26" s="162"/>
+      <c r="CU26" s="162"/>
+      <c r="CV26" s="162"/>
+      <c r="CW26" s="162"/>
+      <c r="CX26" t="s">
+        <v>213</v>
+      </c>
+      <c r="CY26" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="CZ26" s="1">
+        <v>60</v>
+      </c>
+      <c r="DA26" s="1">
+        <v>0</v>
+      </c>
+      <c r="DB26" s="1">
+        <v>1</v>
+      </c>
+      <c r="DC26" s="1">
+        <v>1</v>
+      </c>
+      <c r="DD26" t="s">
+        <v>272</v>
+      </c>
+      <c r="DE26">
+        <f>H5</f>
+        <v>0</v>
+      </c>
+      <c r="DF26" t="s">
+        <v>271</v>
+      </c>
+      <c r="DG26">
+        <f>H6</f>
+        <v>0</v>
+      </c>
+      <c r="DH26" t="s">
+        <v>270</v>
+      </c>
+      <c r="DI26" t="e">
+        <f ca="1">"Установленная полная мощность, Ру = "&amp;V5&amp;"кВт"</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DJ26" t="s">
+        <v>269</v>
+      </c>
+      <c r="DK26" t="str">
+        <f>"Коэффициент спроса, Кс = "&amp;V11</f>
+        <v>Коэффициент спроса, Кс = 0,65</v>
+      </c>
+      <c r="DL26" t="s">
+        <v>268</v>
+      </c>
+      <c r="DM26" t="e">
+        <f ca="1">"Расчетная мощность, Рр = "&amp;V6</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DN26" t="s">
+        <v>267</v>
+      </c>
+      <c r="DO26" t="str">
+        <f>"Коэффициент мощности, cosf = "&amp;V8</f>
+        <v>Коэффициент мощности, cosf = 0,92</v>
+      </c>
+      <c r="DP26" t="s">
+        <v>266</v>
+      </c>
+      <c r="DQ26" t="e">
+        <f ca="1">"Расчетный ток, Iр = "&amp;V15&amp;"А"</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EL26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:174" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="169"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="187"/>
+      <c r="K27" s="189" t="s">
+        <v>265</v>
+      </c>
+      <c r="L27" s="189" t="s">
+        <v>264</v>
+      </c>
+      <c r="M27" s="199" t="s">
+        <v>263</v>
+      </c>
+      <c r="N27" s="156"/>
+      <c r="Q27" s="82" t="s">
+        <v>339</v>
+      </c>
+      <c r="R27" s="82" t="s">
+        <v>262</v>
+      </c>
+      <c r="S27" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="U27" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="V27" s="81" t="s">
+        <v>259</v>
+      </c>
+      <c r="W27" s="80" t="s">
+        <v>258</v>
+      </c>
+      <c r="X27" s="80" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y27" s="79" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z27" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA27" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB27" s="76" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC27" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD27" s="72" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE27" s="72" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF27" s="72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AG27" s="72" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH27" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI27" s="72" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ27" s="72" t="s">
+        <v>424</v>
+      </c>
+      <c r="AK27" s="72" t="s">
+        <v>425</v>
+      </c>
+      <c r="AL27" s="72" t="s">
+        <v>426</v>
+      </c>
+      <c r="AM27" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN27" s="70" t="s">
+        <v>247</v>
+      </c>
+      <c r="AO27" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP27" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ27" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="AR27" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS27" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="AT27" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU27" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="AV27" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW27" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="AX27" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="AY27" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="AZ27" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="BA27" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB27" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="F22" s="153" t="s">
+      <c r="BC27" s="75" t="s">
         <v>233</v>
       </c>
-      <c r="G22" s="160" t="s">
-        <v>287</v>
-      </c>
-      <c r="H22" s="153" t="s">
-        <v>286</v>
-      </c>
-      <c r="I22" s="153" t="s">
-        <v>285</v>
-      </c>
-      <c r="J22" s="145" t="s">
-        <v>284</v>
-      </c>
-      <c r="K22" s="145"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="146" t="s">
-        <v>283</v>
-      </c>
-      <c r="P22" s="148" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q22" s="149"/>
-      <c r="R22" s="149"/>
-      <c r="S22" s="149"/>
-      <c r="T22" s="149"/>
-      <c r="U22" s="149"/>
-      <c r="V22" s="149"/>
-      <c r="W22" s="149"/>
-      <c r="X22" s="149"/>
-      <c r="Y22" s="149"/>
-      <c r="Z22" s="149"/>
-      <c r="AA22" s="149"/>
-      <c r="AB22" s="150" t="s">
-        <v>281</v>
-      </c>
-      <c r="AC22" s="151"/>
-      <c r="AD22" s="151"/>
-      <c r="AE22" s="151"/>
-      <c r="AF22" s="151"/>
-      <c r="AG22" s="151"/>
-      <c r="AH22" s="151"/>
-      <c r="AI22" s="151"/>
-      <c r="AJ22" s="152"/>
-      <c r="AK22" s="150" t="s">
-        <v>280</v>
-      </c>
-      <c r="AL22" s="151"/>
-      <c r="AM22" s="151"/>
-      <c r="AN22" s="151"/>
-      <c r="AO22" s="151"/>
-      <c r="AP22" s="151"/>
-      <c r="AQ22" s="151"/>
-      <c r="AR22" s="151"/>
-      <c r="AS22" s="151"/>
-      <c r="AT22" s="151"/>
-      <c r="AU22" s="151"/>
-      <c r="AV22" s="151"/>
-      <c r="AW22" s="151"/>
-      <c r="AX22" s="152"/>
-      <c r="AY22" s="150" t="s">
-        <v>279</v>
-      </c>
-      <c r="AZ22" s="151"/>
-      <c r="BA22" s="151"/>
-      <c r="BB22" s="151"/>
-      <c r="BC22" s="151"/>
-      <c r="BD22" s="151"/>
-      <c r="BE22" s="151"/>
-      <c r="BF22" s="151"/>
-      <c r="BG22" s="151"/>
-      <c r="BH22" s="151"/>
-      <c r="BI22" s="151"/>
-      <c r="BJ22" s="151"/>
-      <c r="BK22" s="151"/>
-      <c r="BL22" s="151"/>
-      <c r="BM22" s="151"/>
-      <c r="BN22" s="151"/>
-      <c r="BO22" s="152"/>
-      <c r="BP22" s="139" t="s">
-        <v>278</v>
-      </c>
-      <c r="BQ22" s="140"/>
-      <c r="BR22" s="140"/>
-      <c r="BS22" s="140"/>
-      <c r="BT22" s="140"/>
-      <c r="BU22" s="140"/>
-      <c r="BV22" s="141"/>
-      <c r="BW22" s="142" t="s">
-        <v>277</v>
-      </c>
-      <c r="BX22" s="143"/>
-      <c r="BY22" s="143"/>
-      <c r="BZ22" s="143"/>
-      <c r="CA22" s="143"/>
-      <c r="CB22" s="143"/>
-      <c r="CC22" s="143"/>
-      <c r="CD22" s="143"/>
-      <c r="CE22" s="143"/>
-      <c r="CF22" s="143"/>
-      <c r="CG22" s="143"/>
-      <c r="CH22" s="143"/>
-      <c r="CI22" s="76"/>
-      <c r="CJ22" s="76"/>
-      <c r="CK22" s="76"/>
-      <c r="CL22" s="76"/>
-      <c r="CM22" s="76"/>
-      <c r="CN22" t="s">
+      <c r="BD27" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="BE27" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="BF27" s="72" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG27" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="BH27" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="BI27" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="BJ27" s="71" t="s">
+        <v>226</v>
+      </c>
+      <c r="BK27" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="BL27" s="71" t="s">
+        <v>224</v>
+      </c>
+      <c r="BM27" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="BN27" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="BO27" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="BP27" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="BQ27" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="BR27" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="BS27" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="BT27" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="BU27" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="BV27" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="BW27" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="BX27" s="69" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY27" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="BZ27" s="117" t="s">
+        <v>216</v>
+      </c>
+      <c r="CA27" s="118" t="s">
+        <v>396</v>
+      </c>
+      <c r="CB27" s="118" t="s">
+        <v>395</v>
+      </c>
+      <c r="CC27" s="118" t="s">
+        <v>397</v>
+      </c>
+      <c r="CD27" s="130" t="s">
+        <v>402</v>
+      </c>
+      <c r="CE27" s="196" t="s">
+        <v>429</v>
+      </c>
+      <c r="CF27" s="196" t="s">
+        <v>430</v>
+      </c>
+      <c r="CG27" s="196" t="s">
+        <v>431</v>
+      </c>
+      <c r="CH27" s="196" t="s">
+        <v>432</v>
+      </c>
+      <c r="CI27" s="119"/>
+      <c r="CJ27" s="119"/>
+      <c r="CK27" s="119"/>
+      <c r="CL27" s="119"/>
+      <c r="CM27" s="119"/>
+      <c r="CN27" s="119"/>
+      <c r="CO27" s="119"/>
+      <c r="CP27" s="119"/>
+      <c r="CQ27" s="119"/>
+      <c r="CR27" s="119"/>
+      <c r="CS27" s="118"/>
+      <c r="CT27" s="118"/>
+      <c r="CU27" s="118"/>
+      <c r="CV27" s="118"/>
+      <c r="CW27" s="118"/>
+      <c r="CZ27" s="1">
+        <v>35</v>
+      </c>
+      <c r="EM27" s="154" t="s">
+        <v>215</v>
+      </c>
+      <c r="EN27" s="154"/>
+      <c r="EO27" s="154"/>
+      <c r="EP27" s="154"/>
+      <c r="EQ27" s="154"/>
+      <c r="ER27" s="154"/>
+      <c r="ES27" s="154"/>
+      <c r="ET27" s="154"/>
+      <c r="EU27" s="154"/>
+      <c r="EV27" s="154" t="s">
         <v>214</v>
       </c>
-      <c r="CO22" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="CP22" s="1">
+      <c r="EW27" s="154"/>
+      <c r="EX27" s="154"/>
+      <c r="EY27" s="154"/>
+      <c r="EZ27" s="154"/>
+      <c r="FA27" s="154"/>
+      <c r="FB27" s="154"/>
+      <c r="FC27" s="154"/>
+      <c r="FD27" s="154"/>
+    </row>
+    <row r="28" spans="1:174" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>403</v>
+      </c>
+      <c r="D28" s="68">
+        <f>IF(COUNT($CB$28:CB28)=MATCH(CA28,$CA$28:CA28,0),CA28,"")</f>
+        <v>-1</v>
+      </c>
+      <c r="E28" s="64" t="str">
+        <f>IF(D28="","","АВ")</f>
+        <v>АВ</v>
+      </c>
+      <c r="F28" s="64">
+        <f>IF(D28="","",1)</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="64" t="str">
+        <f>IF(D28="","","АВ")</f>
+        <v>АВ</v>
+      </c>
+      <c r="H28" s="68" t="e">
+        <f ca="1">IF(E28="","",IF(F28="",BQ28&amp;", "&amp;BR28&amp;", "&amp;BS28,IF(MATCH(F28,$F$28:F28,0)=MATCH(F28,$F$28:F28,1),BQ28&amp;", "&amp;BR28&amp;", "&amp;BS28,"")))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I28" s="68" t="e">
+        <f ca="1">IF(G28="","",BX28&amp;", "&amp;BY28&amp;", "&amp;BZ28)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J28" s="185" t="e">
+        <f ca="1">AD28&amp;"кВт; "&amp;R28&amp;"В; "&amp;AE28&amp;"A; "&amp;AF28</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K28" s="200" t="e">
+        <f>IF(CE28=0,"V","")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L28" s="200" t="e">
+        <f>IF(CE28=1,"V","")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M28" s="200" t="e">
+        <f>IF(CE28=2,"V","")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N28" s="198"/>
+      <c r="O28" t="str">
+        <f>"&lt;zsetformulatocell toSheet=[zalldevEXPORT]  toCell=["&amp;ADDRESS(ROW('&lt;zalldev&gt;EXPORT'!W11),COLUMN('&lt;zalldev&gt;EXPORT'!W11))&amp;"] formula=[fromSheet!"&amp;ADDRESS(ROW(X28),COLUMN(X28))&amp;"]"</f>
+        <v>&lt;zsetformulatocell toSheet=[zalldevEXPORT]  toCell=[$W$11] formula=[fromSheet!$X$28]</v>
+      </c>
+      <c r="Q28" s="53">
+        <f>'&lt;zalldev&gt;EXPORT'!D11</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="67" t="e">
+        <f ca="1">IF(IFERROR(CC28,1)=1,INDEX(BD!$B$4:$B$5,MATCH('&lt;zalldev&gt;EXPORT'!AB11,BD!$A$4:$A$5,0)),INDIRECT("'"&amp;Q28&amp;"'!"&amp;"G1"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S28" s="67" t="e">
+        <f ca="1">IF(IFERROR(CC28,1)=1,INDEX(BD!$B$10:$B$13,MATCH('&lt;zalldev&gt;EXPORT'!AE11,BD!$A$10:$A$13,0)),INDIRECT("'"&amp;Q28&amp;"'!"&amp;"H1"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T28" s="67">
+        <f ca="1">IF(IFERROR(CC28,1)=1,Y28*X28,INDIRECT("'"&amp;Q28&amp;"'!"&amp;"E1"))</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="67">
+        <f ca="1">IF(IFERROR(CC28,1)=1,'&lt;zalldev&gt;EXPORT'!Y11,INDIRECT("'"&amp;Q28&amp;"'!"&amp;"F1"))</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="52" t="e">
+        <f ca="1">ROUNDUP((T28*1000)/(INDEX(BD!$C$4:$C$5,MATCH(R28,BD!$B$4:$B$5,0))*U28),2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W28" s="53">
+        <f ca="1">ROUNDUP(T28*ROUNDUP(TAN(ACOS(U28)),2),2)</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="53">
+        <f>'&lt;zalldev&gt;EXPORT'!V11</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="53">
+        <f>'&lt;zalldev&gt;EXPORT'!AP11</f>
+        <v>1</v>
+      </c>
+      <c r="Z28" s="53">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AB28" s="53">
+        <f>'&lt;zalldev&gt;EXPORT'!P11</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="61">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="61">
+        <f ca="1">IF(D28="","",AC28*SUMIFS($T$28:$T$700000,$CA$28:$CA$700000,CA28))</f>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="61" t="e">
+        <f ca="1">IF(D28="","",ROUNDUP((AD28*1000)/(INDEX(BD!$C$4:$C$5,MATCH(R28,BD!$B$4:$B$5,0))*AF28),2))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF28" s="61" t="e">
+        <f ca="1">IF(D28="","",ROUNDUP(COS(ATAN(ROUNDUP(AG28/AD28,2))),2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG28" s="61">
+        <f ca="1">IF(D28="","",AC28*SUMIFS($W$28:$W$12004,$CA$28:$CA$12004,CA28))</f>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="61">
+        <f ca="1">IF(D28="","",ROUNDUP(SQRT(AD28*AD28+AG28*AG28),2))</f>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="61" t="e">
+        <f ca="1">IF(D28="","",ROUNDUP((1/1000)*(100/R28)*IF(R28&lt;380,2,SQRT(3))*AE28*AQ28*(INDEX(INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$C$4:$AH$4,1,MATCH(AR28&amp;AS28&amp;AT28&amp;"R",BDКаб!$C$3:$AH$3,0))),MATCH(AV28,BDКаб!$B$5:$B$12,0))*AF28 + INDEX(INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$C$4:$AH$4,1,MATCH(AR28&amp;AS28&amp;AT28&amp;"X",BDКаб!$C$3:$AH$3,0))),MATCH(AV28,BDКаб!$B$5:$B$12,0))*SQRT(1-AF28*AF28)),2))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AJ28" s="201" t="e">
+        <f>IF(CE28=0,IF(CH28=0,T28,T28+SUMIF(CF28:$CF$700000,Q28,AK28:$AK$700000)),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AK28" s="201" t="e">
+        <f>IF(CE28=1,IF(CH28=0,T28,T28+SUMIF(CF28:$CF$700000,Q28,AL28:$AL$700000)),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AL28" s="201" t="e">
+        <f>IF(CE28=2,T28,"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AM28" s="60">
+        <f>IF(D28="","",1.3)</f>
+        <v>1.3</v>
+      </c>
+      <c r="AN28" s="60">
+        <f>IF(AO28="","",3)</f>
+        <v>3</v>
+      </c>
+      <c r="AO28" s="61" t="str">
+        <f>IF(CD28="0",IF(D28="","",'&lt;zalldev&gt;EXPORT'!J11&amp;"."&amp;'&lt;zalldev&gt;EXPORT'!M11),'&lt;zalldev&gt;EXPORT'!J11&amp;"."&amp;'&lt;zalldev&gt;EXPORT'!M11)</f>
+        <v>.</v>
+      </c>
+      <c r="AP28" s="61" t="e">
+        <f ca="1">IF(AO28="","",AW28&amp;"-"&amp;AU28&amp;"х"&amp;AV28&amp;"мм²")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AQ28" s="131" t="e">
+        <f>IF(AO28="","",INDEX('&lt;zallcab&gt;CALC'!$X$7:$X$700000,MATCH(AO28,'&lt;zallcab&gt;CALC'!$D$7:$D$700000,0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AR28" s="60" t="str">
+        <f>IF(AO28="","","М")</f>
+        <v>М</v>
+      </c>
+      <c r="AS28" s="60" t="str">
+        <f>IF(AO28="","","М")</f>
+        <v>М</v>
+      </c>
+      <c r="AT28" s="60" t="str">
+        <f>IF(AO28="","","В")</f>
+        <v>В</v>
+      </c>
+      <c r="AU28" s="66" t="e">
+        <f ca="1">IF(AO28="","",IF(R28=380,5,3))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AV28" s="66" t="e">
+        <f ca="1">IF(AO28="","",IF(AY28&gt;IF(BA28&gt;BB28,BA28,BB28),AY28,IF(BA28&gt;BB28,BA28,BB28)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AW28" s="66" t="str">
+        <f>IF(AO28="","","ВВГнг(А)-LS")</f>
+        <v>ВВГнг(А)-LS</v>
+      </c>
+      <c r="AX28" s="66" t="e">
+        <f ca="1">IF(AO28="","",(AN28*380*1000)/(SQRT(3)*IF(AO28="","",IF(D28="",V28,AE28))*AQ28*100))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY28" s="60"/>
+      <c r="AZ28" s="60"/>
+      <c r="BA28" t="e">
+        <f ca="1">IF(AO28="","",INDEX(BDКаб!$B$5:$B$12,MATCH(AX28,INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$B$4:$AH$4,MATCH(AR28&amp;AS28&amp;AT28&amp;"Z",BDКаб!$B$3:$AH$3,0))),-1)+1))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BB28" t="e">
+        <f ca="1">IF(AO28="","",INDEX(BDКаб!$B$5:$B$12,MATCH(IF(AO28="","",IF(E28="",V28,AE28)),INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$B$4:$AH$4,MATCH(AR28&amp;AS28&amp;AT28&amp;"I",BDКаб!$B$3:$AH$3,0))),1)+1))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC28" s="65" t="str">
+        <f>IF(E28="","",E28)</f>
+        <v>АВ</v>
+      </c>
+      <c r="BD28" s="65">
+        <f>IF(F28="","",F28)</f>
+        <v>1</v>
+      </c>
+      <c r="BE28" s="65" t="e">
+        <f ca="1">IF(AE28="","",AE28)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BF28" s="62" t="e">
+        <f ca="1">IF(BC28="","",IF(BD28="",BE28,SUMIFS($BE$28:$BE$500004,$BD$28:$BD$500004,BD28)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BG28" s="65" t="e">
+        <f ca="1">IF(BC28="","",IF(R28&lt;380,1,3))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BH28" s="63">
+        <f>IF(BC28="","",1.3)</f>
+        <v>1.3</v>
+      </c>
+      <c r="BI28" s="62" t="e">
+        <f ca="1">IF(BC28="","",IF(BH28="",BF28*1.3,BH28*BF28))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BJ28" s="62" t="e">
+        <f ca="1">IF(BC28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(BC28&amp;"I",BD!$K$4:$BY$4,0))),MATCH(BI28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(BC28&amp;"I",BD!$K$4:$BY$4,0))),-1)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BK28" s="64">
+        <f>IF(BC28="","",10)</f>
+        <v>10</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>325</v>
+      </c>
+      <c r="BM28" s="62" t="str">
+        <f>IF(BC28="","",IF(BL28="",IF(BJ28&gt;=BK28,BJ28,BK28),BL28))</f>
+        <v>пусто</v>
+      </c>
+      <c r="BN28" s="60" t="str">
+        <f>IF(E28="","","C")</f>
+        <v>C</v>
+      </c>
+      <c r="BO28" s="59" t="e">
+        <f ca="1">IF(E28="","",IF(R28=380,3,1))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BP28" s="59" t="str">
+        <f>IF(E28="","","30")</f>
+        <v>30</v>
+      </c>
+      <c r="BQ28" s="59" t="e">
+        <f ca="1">IF(E28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"О",BD!$K$4:$BY$4,0))),MATCH(BJ28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"I",BD!$K$4:$BY$4,0))),0))&amp;D28)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BR28" s="58" t="e">
+        <f ca="1">IF(E28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"М",BD!$K$4:$BY$4,0))),MATCH(BJ28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BS28" t="e">
+        <f ca="1">IF(E28="","",BO28&amp;"P,"&amp;BJ28&amp;"А,"&amp;BN28&amp;IF(BP28="","",","&amp;BP28&amp;"мА"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BT28" s="61" t="e">
+        <f ca="1">IF(G28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"I",BD!$K$4:$CB$4,0))),MATCH(AM28*AE28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"I",BD!$K$4:$CB$4,0))),-1)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BU28" s="60" t="str">
+        <f>IF(G28="","","C")</f>
+        <v>C</v>
+      </c>
+      <c r="BV28" s="59" t="str">
+        <f>IF(G28="","","3")</f>
+        <v>3</v>
+      </c>
+      <c r="BW28" s="59" t="str">
+        <f>IF(G28="","","30")</f>
+        <v>30</v>
+      </c>
+      <c r="BX28" s="59" t="e">
+        <f ca="1">IF(G28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"О",BD!$K$4:$CB$4,0))),MATCH(BT28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"I",BD!$K$4:$CB$4,0))),0))&amp;D28)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BY28" s="58" t="e">
+        <f ca="1">IF(G28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"М",BD!$K$4:$CB$4,0))),MATCH(BT28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BZ28" t="e">
+        <f ca="1">IF(G28="","",BV28&amp;"P,"&amp;BT28&amp;"А,"&amp;BU28&amp;IF(BW28="","",","&amp;BW28&amp;"мА"))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CA28" s="120">
+        <f>'&lt;zalldev&gt;EXPORT'!AM11</f>
+        <v>-1</v>
+      </c>
+      <c r="CB28" s="120">
+        <f>COUNT($CA$28:CA28)</f>
+        <v>1</v>
+      </c>
+      <c r="CC28" s="120" t="e">
+        <f ca="1">INDIRECT("'"&amp;Q28&amp;"'!"&amp;"X14")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="CD28" s="120" t="str">
+        <f>'&lt;zalldev&gt;EXPORT'!AN11</f>
+        <v>-1</v>
+      </c>
+      <c r="CE28" s="197" t="e">
+        <f>'&lt;zalldev&gt;EXPORT'!AV11-$V$16-1</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CF28" s="197">
+        <f>'&lt;zalldev&gt;EXPORT'!J11</f>
+        <v>0</v>
+      </c>
+      <c r="CG28" s="197">
+        <f>'&lt;zalldev&gt;EXPORT'!M11</f>
+        <v>0</v>
+      </c>
+      <c r="CH28" s="197">
+        <f>'&lt;zalldev&gt;EXPORT'!AU11</f>
+        <v>0</v>
+      </c>
+      <c r="CI28" s="122">
+        <f>COUNT($CA$28:CA28)</f>
+        <v>1</v>
+      </c>
+      <c r="CJ28" s="122">
+        <f>IF('&lt;zalldev&gt;EXPORT'!W11=0,'&lt;zalldev&gt;EXPORT'!W11,1)</f>
+        <v>0</v>
+      </c>
+      <c r="CK28" s="122"/>
+      <c r="CL28" s="122"/>
+      <c r="CM28" s="123">
+        <f>IF(MATCH(CA28,$CA$28:CA28,0)=COUNT($CA$28:CA28),COUNTIFS(F28:$F$120004,F28),0)</f>
+        <v>1</v>
+      </c>
+      <c r="CN28" s="121">
+        <f>IF(INDEX($CM$28:CM28,MATCH(CA28,$CA$28:CA28,0))&gt;1,IF(CM28=0,2,1),IF(CM28=1,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="CO28" s="123">
+        <f>INDEX($CJ$28:CJ28,COUNT($CA$28:CA28)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="CP28" s="123">
+        <f>IF(INDEX($CJ$28:$CJ$120004,COUNT($CA$28:CA28))=1,IF(INDEX($CJ$28:$CJ$120004,COUNT($CA$28:CA28)+1)=1,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CQ28" s="124">
+        <f>IF(COUNT($CA$28:CA28)=1,1,IF(INDEX($CA$28:CA28,COUNT($CA$28:CA28)-1)=INDEX($CA$28:CA28,COUNT($CA$28:CA28)),0,COUNT($CA$28:CA28)))</f>
+        <v>1</v>
+      </c>
+      <c r="CR28" s="124">
+        <f>IF(CQ28&gt;0,ROW(CR28),"-")</f>
+        <v>28</v>
+      </c>
+      <c r="CS28" s="124">
+        <f>IF(CK28=0,0,SUMIFS(CJ28:$CJ$120004,CK28:$CK$120004,CK28))</f>
+        <v>0</v>
+      </c>
+      <c r="CT28" s="124">
+        <f ca="1">IF(COUNTIF(INDIRECT(ADDRESS(ROW(CT28),COLUMN(CK28))&amp;":"&amp;ADDRESS(MIN(CR28:$CR$120004),COLUMN(CK28))),0)&gt;1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="CU28" s="123">
+        <f>IF(CI28=1,0,IF(INDEX($CA$28:CA28,CI28-1)=CA28,IF(INDEX($CK$28:CK28,CI28-1)=CK28,IF(INDEX($CL$28:CL28,CI28-1)=CL28,1,0),0),0))</f>
+        <v>0</v>
+      </c>
+      <c r="CV28" s="125" t="e">
+        <f>MATCH(1,K28:M28,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="CW28" s="124">
+        <f>IF(CI28&lt;&gt;1,INDEX($CW$28:CW28,CI28-1)+25 - IF(CJ28=0,IF(CO28=1,IF(CS28&lt;2,25,0),0),0),60)</f>
         <v>60</v>
       </c>
-      <c r="CQ22" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR22" s="1">
+      <c r="CX28" t="s">
+        <v>213</v>
+      </c>
+      <c r="CY28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="CZ28" s="1">
+        <f>CW28</f>
+        <v>60</v>
+      </c>
+      <c r="DA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="DB28" s="1">
         <v>1</v>
       </c>
-      <c r="CS22" s="1">
+      <c r="DC28" s="1">
         <v>1</v>
       </c>
-      <c r="CT22" t="s">
-        <v>275</v>
-      </c>
-      <c r="CU22">
-        <f>H5</f>
-        <v>0</v>
-      </c>
-      <c r="CV22" t="s">
-        <v>274</v>
-      </c>
-      <c r="CW22" t="str">
-        <f>H6</f>
-        <v>ЩРН-12</v>
-      </c>
-      <c r="CX22" t="s">
-        <v>273</v>
-      </c>
-      <c r="CY22" t="str">
-        <f ca="1">"Установленная полная мощность, Ру = "&amp;U5&amp;"кВт"</f>
-        <v>Установленная полная мощность, Ру = 0кВт</v>
-      </c>
-      <c r="CZ22" t="s">
-        <v>272</v>
-      </c>
-      <c r="DA22" t="str">
-        <f>"Коэффициент спроса, Кс = "&amp;U11</f>
-        <v>Коэффициент спроса, Кс = 0,65</v>
-      </c>
-      <c r="DB22" t="s">
-        <v>271</v>
-      </c>
-      <c r="DC22" t="str">
-        <f ca="1">"Расчетная мощность, Рр = "&amp;U6</f>
-        <v>Расчетная мощность, Рр = 0</v>
-      </c>
-      <c r="DD22" t="s">
-        <v>270</v>
-      </c>
-      <c r="DE22" t="str">
-        <f>"Коэффициент мощности, cosf = "&amp;U8</f>
-        <v>Коэффициент мощности, cosf = 0,92</v>
-      </c>
-      <c r="DF22" t="s">
-        <v>269</v>
-      </c>
-      <c r="DG22" t="str">
-        <f ca="1">"Расчетный ток, Iр = "&amp;U15&amp;"А"</f>
-        <v>Расчетный ток, Iр = 0А</v>
-      </c>
-      <c r="EB22" t="s">
+      <c r="DD28" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="DE28" s="1" t="e">
+        <f ca="1">IF(S28="ABC","BOOLEAN_1","BOOLEAN_0")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DF28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="DG28" s="1" t="e">
+        <f ca="1">IF(H28&lt;&gt;"","INTEGER_0",IF(CM28=0,IF(CN28=0,"INTEGER_3","INTEGER_"&amp;CN28),"INTEGER_"&amp;CN28))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DH28" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="DI28" t="s">
+        <v>325</v>
+      </c>
+      <c r="DJ28" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="DK28" s="1" t="str">
+        <f t="shared" ref="DK28" si="4">"INTEGER_0"</f>
+        <v>INTEGER_0</v>
+      </c>
+      <c r="DL28" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="DM28" t="s">
+        <v>325</v>
+      </c>
+      <c r="DN28" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="DO28" s="133" t="str">
+        <f ca="1">IFERROR(_xlfn.IFS(CU28="INTEGER_0","INTEGER_0",CU28="INTEGER_1","INTEGER_0",IF(BY28=1,IF(CJ28=1,1,0),0),"INTEGER_1",IF(BT28=1,IF(BY28=1,1,0),0),"INTEGER_2",IF(BT28=0,IF(BY28=1,1,0),0),"INTEGER_0",IF(BY28=1,IF(CJ28=2,IF(BU28=0,IF(CD28=0,1,0),0),0),0),"INTEGER_2",IF(BY28=1,IF(CJ28=2,IF(BU28=0,IF(CD28&lt;&gt;0,1,0),0),0),0),"INTEGER_4",IF(BY28=1,IF(CJ28=2,IF(BU28&lt;&gt;0,1,0),0),0),"INTEGER_3",IF(BY28=0,IF(BT28=1,IF(CI28=1,1,0),0),0),"INTEGER_5"),"INTEGER_0")</f>
+        <v>INTEGER_0</v>
+      </c>
+      <c r="DP28" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="DQ28" s="1" t="str">
+        <f t="shared" ref="DQ28" si="5">IF(CP28=0,"INTEGER_0","INTEGER_0")</f>
+        <v>INTEGER_0</v>
+      </c>
+      <c r="DR28" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="DS28" t="s">
+        <v>325</v>
+      </c>
+      <c r="DT28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="DU28" s="1">
+        <f>IF(Y28&gt;1,Q28&amp;"("&amp;Y28&amp;"шт.)",Q28)</f>
+        <v>0</v>
+      </c>
+      <c r="DV28" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="DW28" s="1">
+        <f ca="1">T28</f>
+        <v>0</v>
+      </c>
+      <c r="DX28" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="DY28" s="1" t="e">
+        <f ca="1">V28</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DZ28" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="EA28" s="1" t="e">
+        <f ca="1">AB28&amp;"\P~"&amp;R28&amp;"V"</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EB28" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="EC28" s="56" t="str">
+        <f>AO28</f>
+        <v>.</v>
+      </c>
+      <c r="ED28" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="EE28" t="s">
+        <v>325</v>
+      </c>
+      <c r="EF28" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="EG28" t="s">
+        <v>325</v>
+      </c>
+      <c r="EH28" s="56" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="23" spans="1:164" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="159"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="92" t="s">
-        <v>268</v>
-      </c>
-      <c r="K23" s="92" t="s">
-        <v>267</v>
-      </c>
-      <c r="L23" s="92" t="s">
-        <v>266</v>
-      </c>
-      <c r="M23" s="147"/>
-      <c r="P23" s="91" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q23" s="91" t="s">
-        <v>265</v>
-      </c>
-      <c r="R23" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="S23" s="90" t="s">
-        <v>264</v>
-      </c>
-      <c r="T23" s="88" t="s">
-        <v>263</v>
-      </c>
-      <c r="U23" s="90" t="s">
-        <v>262</v>
-      </c>
-      <c r="V23" s="89" t="s">
-        <v>261</v>
-      </c>
-      <c r="W23" s="89" t="s">
-        <v>260</v>
-      </c>
-      <c r="X23" s="88" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y23" s="87" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z23" s="86" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA23" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB23" s="80" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC23" s="84" t="s">
-        <v>254</v>
-      </c>
-      <c r="AD23" s="80" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE23" s="80" t="s">
-        <v>252</v>
-      </c>
-      <c r="AF23" s="80" t="s">
-        <v>251</v>
-      </c>
-      <c r="AG23" s="80" t="s">
-        <v>250</v>
-      </c>
-      <c r="AH23" s="80" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI23" s="79" t="s">
-        <v>229</v>
-      </c>
-      <c r="AJ23" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="AK23" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="AL23" s="80" t="s">
-        <v>246</v>
-      </c>
-      <c r="AM23" s="80" t="s">
-        <v>245</v>
-      </c>
-      <c r="AN23" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="AO23" s="80" t="s">
-        <v>243</v>
-      </c>
-      <c r="AP23" s="80" t="s">
-        <v>242</v>
-      </c>
-      <c r="AQ23" s="80" t="s">
-        <v>241</v>
-      </c>
-      <c r="AR23" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS23" s="80" t="s">
-        <v>240</v>
-      </c>
-      <c r="AT23" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU23" s="80" t="s">
-        <v>238</v>
-      </c>
-      <c r="AV23" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="AW23" s="80" t="s">
-        <v>236</v>
-      </c>
-      <c r="AX23" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="AY23" s="83" t="s">
-        <v>234</v>
-      </c>
-      <c r="AZ23" s="83" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA23" s="82" t="s">
-        <v>232</v>
-      </c>
-      <c r="BB23" s="80" t="s">
-        <v>231</v>
-      </c>
-      <c r="BC23" s="82" t="s">
-        <v>230</v>
-      </c>
-      <c r="BD23" s="81" t="s">
-        <v>229</v>
-      </c>
-      <c r="BE23" s="79" t="s">
-        <v>228</v>
-      </c>
-      <c r="BF23" s="79" t="s">
-        <v>227</v>
-      </c>
-      <c r="BG23" s="79" t="s">
-        <v>226</v>
-      </c>
-      <c r="BH23" s="79" t="s">
-        <v>225</v>
-      </c>
-      <c r="BI23" s="80" t="s">
-        <v>224</v>
-      </c>
-      <c r="BJ23" s="79" t="s">
-        <v>222</v>
-      </c>
-      <c r="BK23" s="79" t="s">
-        <v>221</v>
-      </c>
-      <c r="BL23" s="79" t="s">
-        <v>220</v>
-      </c>
-      <c r="BM23" s="80" t="s">
-        <v>219</v>
-      </c>
-      <c r="BN23" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="BO23" s="78" t="s">
-        <v>217</v>
-      </c>
-      <c r="BP23" s="77" t="s">
-        <v>223</v>
-      </c>
-      <c r="BQ23" s="77" t="s">
-        <v>222</v>
-      </c>
-      <c r="BR23" s="77" t="s">
-        <v>221</v>
-      </c>
-      <c r="BS23" s="77" t="s">
-        <v>220</v>
-      </c>
-      <c r="BT23" s="77" t="s">
-        <v>219</v>
-      </c>
-      <c r="BU23" s="77" t="s">
-        <v>218</v>
-      </c>
-      <c r="BV23" s="77" t="s">
-        <v>217</v>
-      </c>
-      <c r="BW23" s="142"/>
-      <c r="BX23" s="143"/>
-      <c r="BY23" s="143"/>
-      <c r="BZ23" s="143"/>
-      <c r="CA23" s="143"/>
-      <c r="CB23" s="143"/>
-      <c r="CC23" s="143"/>
-      <c r="CD23" s="143"/>
-      <c r="CE23" s="143"/>
-      <c r="CF23" s="143"/>
-      <c r="CG23" s="143"/>
-      <c r="CH23" s="143"/>
-      <c r="CI23" s="76"/>
-      <c r="CJ23" s="76"/>
-      <c r="CK23" s="76"/>
-      <c r="CL23" s="76"/>
-      <c r="CM23" s="76"/>
-      <c r="CP23" s="1">
-        <v>35</v>
-      </c>
-      <c r="EC23" s="144" t="s">
-        <v>216</v>
-      </c>
-      <c r="ED23" s="144"/>
-      <c r="EE23" s="144"/>
-      <c r="EF23" s="144"/>
-      <c r="EG23" s="144"/>
-      <c r="EH23" s="144"/>
-      <c r="EI23" s="144"/>
-      <c r="EJ23" s="144"/>
-      <c r="EK23" s="144"/>
-      <c r="EL23" s="144" t="s">
-        <v>215</v>
-      </c>
-      <c r="EM23" s="144"/>
-      <c r="EN23" s="144"/>
-      <c r="EO23" s="144"/>
-      <c r="EP23" s="144"/>
-      <c r="EQ23" s="144"/>
-      <c r="ER23" s="144"/>
-      <c r="ES23" s="144"/>
-      <c r="ET23" s="144"/>
-    </row>
-    <row r="24" spans="1:164" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>344</v>
-      </c>
-      <c r="D24" s="75">
-        <f>'&lt;zalldev&gt;EXPORT'!M11</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="70" t="str">
-        <f>IF(D24="","","АВ")</f>
-        <v>АВ</v>
-      </c>
-      <c r="F24" s="70">
-        <f>IF(D24="","",1)</f>
-        <v>1</v>
-      </c>
-      <c r="G24" s="70" t="str">
-        <f>IF(D24="","","АВ")</f>
-        <v>АВ</v>
-      </c>
-      <c r="H24" s="75" t="e">
-        <f ca="1">IF(E24="","",IF(F24="",BM24&amp;", "&amp;BN24&amp;", "&amp;BO24,IF(MATCH(F24,$F$24:F24,0)=MATCH(F24,$F$24:F24,1),BM24&amp;", "&amp;BN24&amp;", "&amp;BO24,"")))</f>
+      <c r="EI28" s="56" t="e">
+        <f ca="1">AP28</f>
         <v>#N/A</v>
       </c>
-      <c r="I24" s="75" t="e">
-        <f ca="1">IF(G24="","",BT24&amp;", "&amp;BU24&amp;", "&amp;BV24)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J24" s="103" t="str">
-        <f>IF(CA24=0,"*","")</f>
-        <v>*</v>
-      </c>
-      <c r="K24" s="103">
-        <f>IF(CA24=0,0,IF(L24=0,IF(MATCH(CA24,$P$24:P24,0)=0,0,"*"),0))</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="103">
-        <f>IF(CA24=0,0,IF(INDEX($CA$24:CA24,MATCH(CA24,$P$24:P24,0))=0,0,"*"))</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="74"/>
-      <c r="N24" t="str">
-        <f>"&lt;zsetformulatocell toSheet=[zalldevEXPORT]  toCell=["&amp;ADDRESS(ROW('&lt;zalldev&gt;EXPORT'!W11),COLUMN('&lt;zalldev&gt;EXPORT'!W11))&amp;"] formula=[fromSheet!"&amp;ADDRESS(ROW(W24),COLUMN(W24))&amp;"]"</f>
-        <v>&lt;zsetformulatocell toSheet=[zalldevEXPORT]  toCell=[$W$11] formula=[fromSheet!$W$24]</v>
-      </c>
-      <c r="P24" s="53">
-        <f>'&lt;zalldev&gt;EXPORT'!D11</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="73" t="e">
-        <f ca="1">IF(IFERROR(BX24,1)=1,INDEX(BD!$B$4:$B$5,MATCH('&lt;zalldev&gt;EXPORT'!AB11,BD!$A$4:$A$5,0)),INDIRECT("'"&amp;P24&amp;"'!"&amp;"G1"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R24" s="73" t="e">
-        <f ca="1">IF(IFERROR(BX24,1)=1,INDEX(BD!$B$10:$B$13,MATCH('&lt;zalldev&gt;EXPORT'!AE11,BD!$A$10:$A$13,0)),INDIRECT("'"&amp;P24&amp;"'!"&amp;"H1"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S24" s="73">
-        <f ca="1">IF(IFERROR(BX24,1)=1,X24*W24,INDIRECT("'"&amp;P24&amp;"'!"&amp;"E1"))</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="73">
-        <f ca="1">IF(IFERROR(BX24,1)=1,'&lt;zalldev&gt;EXPORT'!Y11,INDIRECT("'"&amp;P24&amp;"'!"&amp;"F1"))</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="52" t="e">
-        <f ca="1">ROUNDUP((S24*1000)/(INDEX(BD!$C$4:$C$5,MATCH(Q24,BD!$B$4:$B$5,0))*T24),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="V24" s="53">
-        <f ca="1">ROUNDUP(S24*ROUNDUP(TAN(ACOS(T24)),2),2)</f>
-        <v>0</v>
-      </c>
-      <c r="W24" s="53">
-        <f>'&lt;zalldev&gt;EXPORT'!V11</f>
-        <v>0</v>
-      </c>
-      <c r="X24" s="53">
-        <f>'&lt;zalldev&gt;EXPORT'!AI11</f>
-        <v>1</v>
-      </c>
-      <c r="Y24" s="53">
-        <v>1</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>330</v>
-      </c>
-      <c r="AA24" s="53">
-        <f>'&lt;zalldev&gt;EXPORT'!P11</f>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="67">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="67" t="e">
-        <f ca="1">IF(D24="","",ROUNDUP(COS(ATAN(ROUNDUP(AG24/AD24,2))),2))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD24" s="67">
-        <f ca="1">IF(D24="","",AB24*SUMIFS($S$24:$S$12000,$BW$24:$BW$12000,BW24))</f>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="67" t="e">
-        <f ca="1">IF(D24="","",ROUNDUP((1/1000)*(100/Q24)*IF(Q24&lt;380,2,SQRT(3))*AF24*AM24*(INDEX(INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$C$4:$AH$4,1,MATCH(AN24&amp;AO24&amp;AP24&amp;"R",BDКаб!$C$3:$AH$3,0))),MATCH(AR24,BDКаб!$B$5:$B$12,0))*AC24 + INDEX(INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$C$4:$AH$4,1,MATCH(AN24&amp;AO24&amp;AP24&amp;"X",BDКаб!$C$3:$AH$3,0))),MATCH(AR24,BDКаб!$B$5:$B$12,0))*SQRT(1-AC24*AC24)),2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF24" s="67" t="e">
-        <f ca="1">IF(D24="","",ROUNDUP((AD24*1000)/(INDEX(BD!$C$4:$C$5,MATCH(Q24,BD!$B$4:$B$5,0))*AC24),2))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG24" s="67">
-        <f ca="1">IF(D24="","",AB24*SUMIFS($V$24:$V$12000,$BW$24:$BW$12000,BW24))</f>
-        <v>0</v>
-      </c>
-      <c r="AH24" s="67">
-        <f ca="1">IF(D24="","",ROUNDUP(SQRT(AD24*AD24+AG24*AG24),2))</f>
-        <v>0</v>
-      </c>
-      <c r="AI24" s="66">
-        <f>IF(D24="","",1.3)</f>
-        <v>1.3</v>
-      </c>
-      <c r="AJ24" s="66">
-        <f>IF(AK24="","",3)</f>
-        <v>3</v>
-      </c>
-      <c r="AK24" s="67" t="str">
-        <f>IF(D24="",IF(CA24=0,"",IF(CA24=P24,"",CA24&amp;"."&amp;CB24)),'&lt;zalldev&gt;EXPORT'!J11&amp;"."&amp;'&lt;zalldev&gt;EXPORT'!M11)</f>
-        <v>.</v>
-      </c>
-      <c r="AL24" s="67" t="e">
-        <f ca="1">IF(AK24="","",AS24&amp;"-"&amp;AQ24&amp;"х"&amp;AR24&amp;"мм²")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AM24" s="1" t="e">
-        <f>IF(AK24="","",INDEX('&lt;zallcab&gt;CALC'!$X$7:$X$700000,MATCH(AK24,'&lt;zallcab&gt;CALC'!$D$7:$D$700000,0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN24" s="66" t="str">
-        <f>IF(AK24="","","М")</f>
-        <v>М</v>
-      </c>
-      <c r="AO24" s="66" t="str">
-        <f>IF(AK24="","","М")</f>
-        <v>М</v>
-      </c>
-      <c r="AP24" s="66" t="str">
-        <f>IF(AK24="","","В")</f>
-        <v>В</v>
-      </c>
-      <c r="AQ24" s="72" t="e">
-        <f ca="1">IF(AK24="","",IF(Q24=380,5,3))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AR24" s="72" t="e">
-        <f ca="1">IF(AK24="","",IF(AU24&gt;IF(AW24&gt;AX24,AW24,AX24),AU24,IF(AW24&gt;AX24,AW24,AX24)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AS24" s="72" t="str">
-        <f>IF(AK24="","","ВВГнг(А)-LS")</f>
-        <v>ВВГнг(А)-LS</v>
-      </c>
-      <c r="AT24" s="72" t="e">
-        <f ca="1">IF(AK24="","",(AJ24*380*1000)/(SQRT(3)*IF(AK24="","",IF(D24="",U24,AF24))*AM24*100))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AU24" s="66"/>
-      <c r="AV24" s="66"/>
-      <c r="AW24" t="e">
-        <f ca="1">IF(AK24="","",INDEX(BDКаб!$B$5:$B$12,MATCH(AT24,INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$B$4:$AH$4,MATCH(AN24&amp;AO24&amp;AP24&amp;"Z",BDКаб!$B$3:$AH$3,0))),-1)+1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AX24" t="e">
-        <f ca="1">IF(AK24="","",INDEX(BDКаб!$B$5:$B$12,MATCH(IF(AK24="","",IF(E24="",U24,AF24)),INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$B$4:$AH$4,MATCH(AN24&amp;AO24&amp;AP24&amp;"I",BDКаб!$B$3:$AH$3,0))),1)+1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AY24" s="71" t="str">
-        <f>IF(E24="","",E24)</f>
-        <v>АВ</v>
-      </c>
-      <c r="AZ24" s="71">
-        <f>IF(F24="","",F24)</f>
-        <v>1</v>
-      </c>
-      <c r="BA24" s="71" t="e">
-        <f ca="1">IF(AF24="","",AF24)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BB24" s="68" t="e">
-        <f ca="1">IF(AY24="","",IF(AZ24="",BA24,SUMIFS($BA$24:$BA$500000,$AZ$24:$AZ$500000,AZ24)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BC24" s="71" t="e">
-        <f ca="1">IF(AY24="","",IF(Q24&lt;380,1,3))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BD24" s="69">
-        <f>IF(AY24="","",1.3)</f>
-        <v>1.3</v>
-      </c>
-      <c r="BE24" s="68" t="e">
-        <f ca="1">IF(AY24="","",IF(BD24="",BB24*1.3,BD24*BB24))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BF24" s="68" t="e">
-        <f ca="1">IF(AY24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(AY24&amp;"I",BD!$K$4:$BY$4,0))),MATCH(BE24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(AY24&amp;"I",BD!$K$4:$BY$4,0))),-1)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BG24" s="70">
-        <f>IF(AY24="","",10)</f>
-        <v>10</v>
-      </c>
-      <c r="BH24" t="s">
-        <v>330</v>
-      </c>
-      <c r="BI24" s="68" t="str">
-        <f>IF(AY24="","",IF(BH24="",IF(BF24&gt;=BG24,BF24,BG24),BH24))</f>
-        <v>пусто</v>
-      </c>
-      <c r="BJ24" s="66" t="str">
-        <f>IF(E24="","","C")</f>
-        <v>C</v>
-      </c>
-      <c r="BK24" s="65" t="e">
-        <f ca="1">IF(E24="","",IF(Q24=380,3,1))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BL24" s="65" t="str">
-        <f>IF(E24="","","30")</f>
-        <v>30</v>
-      </c>
-      <c r="BM24" s="65" t="e">
-        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"О",BD!$K$4:$BY$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0))&amp;D24)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BN24" s="64" t="e">
-        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"М",BD!$K$4:$BY$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BO24" t="e">
-        <f ca="1">IF(E24="","",BK24&amp;"P,"&amp;BF24&amp;"А,"&amp;BJ24&amp;IF(BL24="","",","&amp;BL24&amp;"мА"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BP24" s="67" t="e">
-        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),MATCH(AI24*AF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),-1)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BQ24" s="66" t="str">
-        <f>IF(G24="","","C")</f>
-        <v>C</v>
-      </c>
-      <c r="BR24" s="65" t="str">
-        <f>IF(G24="","","3")</f>
-        <v>3</v>
-      </c>
-      <c r="BS24" s="65" t="str">
-        <f>IF(G24="","","30")</f>
-        <v>30</v>
-      </c>
-      <c r="BT24" s="65" t="e">
-        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"О",BD!$K$4:$CB$4,0))),MATCH(BP24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0))&amp;D24)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BU24" s="64" t="e">
-        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"М",BD!$K$4:$CB$4,0))),MATCH(BP24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BV24" t="e">
-        <f ca="1">IF(G24="","",BR24&amp;"P,"&amp;BP24&amp;"А,"&amp;BQ24&amp;IF(BS24="","",","&amp;BS24&amp;"мА"))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BW24" s="62">
-        <f>'&lt;zalldev&gt;EXPORT'!Y11</f>
-        <v>0</v>
-      </c>
-      <c r="BX24" s="62" t="e">
-        <f ca="1">INDIRECT("'"&amp;P24&amp;"'!"&amp;"X14")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="BY24" s="63">
-        <f>COUNT($BW$24:BW24)</f>
-        <v>1</v>
-      </c>
-      <c r="BZ24" s="63">
-        <f>IF('&lt;zalldev&gt;EXPORT'!W11=0,'&lt;zalldev&gt;EXPORT'!W11,1)</f>
-        <v>0</v>
-      </c>
-      <c r="CA24" s="63"/>
-      <c r="CB24" s="63"/>
-      <c r="CC24" s="60">
-        <f>IF(MATCH(BW24,$BW$24:BW24,0)=COUNT($BW$24:BW24),COUNTIFS(F24:$F$120000,F24),0)</f>
-        <v>1</v>
-      </c>
-      <c r="CD24" s="62">
-        <f>IF(INDEX($CC$24:CC24,MATCH(BW24,$BW$24:BW24,0))&gt;1,IF(CC24=0,2,1),IF(CC24=1,1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="CE24" s="60">
-        <f>INDEX($BZ$24:BZ24,COUNT($BW$24:BW24)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="CF24" s="60">
-        <f>IF(INDEX($BZ$24:$BZ$120000,COUNT($BW$24:BW24))=1,IF(INDEX($BZ$24:$BZ$120000,COUNT($BW$24:BW24)+1)=1,1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CG24" s="61">
-        <f>IF(COUNT($BW$24:BW24)=1,1,IF(INDEX($BW$24:BW24,COUNT($BW$24:BW24)-1)=INDEX($BW$24:BW24,COUNT($BW$24:BW24)),0,COUNT($BW$24:BW24)))</f>
-        <v>1</v>
-      </c>
-      <c r="CH24" s="61">
-        <f>IF(CG24&gt;0,ROW(CH24),"-")</f>
-        <v>24</v>
-      </c>
-      <c r="CI24" s="61">
-        <f>IF(CA24=0,0,SUMIFS(BZ24:$BZ$120000,CA24:$CA$120000,CA24))</f>
-        <v>0</v>
-      </c>
-      <c r="CJ24" s="61">
-        <f ca="1">IF(COUNTIF(INDIRECT(ADDRESS(ROW(CJ24),COLUMN(CA24))&amp;":"&amp;ADDRESS(MIN(CH24:$CH$120000),COLUMN(CA24))),0)&gt;1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CK24" s="60">
-        <f>IF(BY24=1,0,IF(INDEX($BW$24:BW24,BY24-1)=BW24,IF(INDEX($CA$24:CA24,BY24-1)=CA24,IF(INDEX($CB$24:CB24,BY24-1)=CB24,1,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="CL24" s="59" t="e">
-        <f>MATCH(1,J24:L24,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CM24" s="58">
-        <f>IF(BY24&lt;&gt;1,INDEX($CM$24:CM24,BY24-1)+25 - IF(BZ24=0,IF(CE24=1,IF(CI24&lt;2,25,0),0),0),60)</f>
-        <v>60</v>
-      </c>
-      <c r="CN24" t="s">
-        <v>214</v>
-      </c>
-      <c r="CO24" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CP24" s="1">
-        <f>CM24</f>
-        <v>60</v>
-      </c>
-      <c r="CQ24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CS24" s="1">
-        <v>1</v>
-      </c>
-      <c r="CT24" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="CU24" s="1" t="e">
-        <f ca="1">IF(R24="ABC","BOOLEAN_1","BOOLEAN_0")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CV24" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="CW24" s="1" t="e">
-        <f ca="1">IF(H24&lt;&gt;"","INTEGER_0",IF(CC24=0,IF(CD24=0,"INTEGER_3","INTEGER_"&amp;CD24),"INTEGER_"&amp;CD24))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CX24" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="CY24" t="s">
-        <v>330</v>
-      </c>
-      <c r="CZ24" s="57" t="s">
-        <v>209</v>
-      </c>
-      <c r="DA24" s="1" t="str">
-        <f t="shared" ref="DA24" si="4">"INTEGER_0"</f>
-        <v>INTEGER_0</v>
-      </c>
-      <c r="DB24" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="DC24" t="s">
-        <v>330</v>
-      </c>
-      <c r="DD24" s="57" t="s">
-        <v>207</v>
-      </c>
-      <c r="DE24" t="s">
-        <v>330</v>
-      </c>
-      <c r="DF24" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="DG24" s="1" t="str">
-        <f t="shared" ref="DG24" si="5">IF(CF24=0,"INTEGER_0","INTEGER_0")</f>
-        <v>INTEGER_0</v>
-      </c>
-      <c r="DH24" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="DI24" t="s">
-        <v>330</v>
-      </c>
-      <c r="DJ24" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="DK24" s="1">
-        <f>IF(X24&gt;1,P24&amp;"("&amp;X24&amp;"шт.)",P24)</f>
-        <v>0</v>
-      </c>
-      <c r="DL24" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="DM24" s="1">
-        <f ca="1">S24</f>
-        <v>0</v>
-      </c>
-      <c r="DN24" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="DO24" s="1" t="e">
-        <f ca="1">U24</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DP24" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="DQ24" s="1" t="e">
-        <f ca="1">AA24&amp;"\P~"&amp;Q24&amp;"V"</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DR24" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="DS24" s="56" t="str">
-        <f>AK24</f>
-        <v>.</v>
-      </c>
-      <c r="DT24" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="DU24" t="s">
-        <v>330</v>
-      </c>
-      <c r="DV24" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="DW24" t="s">
-        <v>330</v>
-      </c>
-      <c r="DX24" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="DY24" s="56" t="e">
-        <f ca="1">AL24</f>
-        <v>#N/A</v>
-      </c>
-      <c r="DZ24" s="56" t="str">
+      <c r="EJ28" s="56" t="str">
         <f>"VSCHEMACable22"</f>
         <v>VSCHEMACable22</v>
       </c>
-      <c r="EA24" s="56" t="e">
-        <f>IF(AM24&lt;&gt;"","L="&amp;AM24&amp;"м"," ")</f>
+      <c r="EK28" s="56" t="e">
+        <f>IF(AQ28&lt;&gt;"","L="&amp;AQ28&amp;"м"," ")</f>
         <v>#N/A</v>
       </c>
-      <c r="EB24" t="s">
-        <v>196</v>
-      </c>
-      <c r="EC24" t="e">
-        <f ca="1">IF(H24&lt;&gt;"","&lt;zinsertblock&gt;","")</f>
+      <c r="EL28" t="s">
+        <v>195</v>
+      </c>
+      <c r="EM28" t="e">
+        <f ca="1">IF(H28&lt;&gt;"","&lt;zinsertblock&gt;","")</f>
         <v>#N/A</v>
       </c>
-      <c r="ED24" s="1" t="e">
-        <f ca="1">IF(EC24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"UGO",BD!$K$4:$BY$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
+      <c r="EN28" s="1" t="e">
+        <f ca="1">IF(EM28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"UGO",BD!$K$4:$BY$4,0))),MATCH(BJ28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="EE24" s="1" t="e">
-        <f ca="1">IF(EC24="","",CP24+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"MOVEX",BD!$K$4:$BY$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
+      <c r="EO28" s="1" t="e">
+        <f ca="1">IF(EM28="","",CZ28+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"MOVEX",BD!$K$4:$BY$4,0))),MATCH(BJ28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="EF24" s="1" t="e">
-        <f ca="1">IF(EC24="","",CQ24+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"MOVEY",BD!$K$4:$BY$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
+      <c r="EP28" s="1" t="e">
+        <f ca="1">IF(EM28="","",DA28+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"MOVEY",BD!$K$4:$BY$4,0))),MATCH(BJ28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="EG24" s="1">
+      <c r="EQ28" s="1">
         <v>1</v>
       </c>
-      <c r="EH24" s="1">
+      <c r="ER28" s="1">
         <v>1</v>
       </c>
-      <c r="EI24" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="EJ24" s="1" t="e">
-        <f ca="1">BM24&amp;"\P"&amp;BN24&amp;"\P"&amp;BO24</f>
+      <c r="ES28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="ET28" s="1" t="e">
+        <f ca="1">BQ28&amp;"\P"&amp;BR28&amp;"\P"&amp;BS28</f>
         <v>#N/A</v>
       </c>
-      <c r="EK24" t="e">
-        <f ca="1">IF(EC24="","","&lt;/zinsertblock&gt;")</f>
+      <c r="EU28" t="e">
+        <f ca="1">IF(EM28="","","&lt;/zinsertblock&gt;")</f>
         <v>#N/A</v>
       </c>
-      <c r="EL24" t="e">
-        <f ca="1">IF(I24&lt;&gt;"","&lt;zinsertblock&gt;","")</f>
+      <c r="EV28" t="e">
+        <f ca="1">IF(I28&lt;&gt;"","&lt;zinsertblock&gt;","")</f>
         <v>#N/A</v>
       </c>
-      <c r="EM24" s="1" t="e">
-        <f ca="1">IF(EL24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"UGO",BD!$K$4:$CB$4,0))),MATCH(BP24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
+      <c r="EW28" s="1" t="e">
+        <f ca="1">IF(EV28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"UGO",BD!$K$4:$CB$4,0))),MATCH(BT28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="EN24" s="1" t="e">
-        <f ca="1">IF(EL24="","",CP24+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"MOVEX",BD!$K$4:$CB$4,0))),MATCH(BP24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
+      <c r="EX28" s="1" t="e">
+        <f ca="1">IF(EV28="","",CZ28+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"MOVEX",BD!$K$4:$CB$4,0))),MATCH(BT28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="EO24" s="1" t="e">
-        <f ca="1">IF(EL24="","",CQ24-20+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"MOVEY",BD!$K$4:$CB$4,0))),MATCH(BP24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
+      <c r="EY28" s="1" t="e">
+        <f ca="1">IF(EV28="","",DA28-20+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"MOVEY",BD!$K$4:$CB$4,0))),MATCH(BT28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="EP24" s="1">
+      <c r="EZ28" s="1">
         <v>1</v>
       </c>
-      <c r="EQ24" s="1">
+      <c r="FA28" s="1">
         <v>1</v>
       </c>
-      <c r="ER24" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="ES24" s="1" t="e">
-        <f ca="1">BT24&amp;"\P"&amp;BU24&amp;"\P"&amp;BV24</f>
+      <c r="FB28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="FC28" s="1" t="e">
+        <f ca="1">BX28&amp;"\P"&amp;BY28&amp;"\P"&amp;BZ28</f>
         <v>#N/A</v>
       </c>
-      <c r="ET24" t="e">
-        <f ca="1">IF(EL24="","","&lt;/zinsertblock&gt;")</f>
+      <c r="FD28" t="e">
+        <f ca="1">IF(EV28="","","&lt;/zinsertblock&gt;")</f>
         <v>#N/A</v>
       </c>
-      <c r="EU24" t="s">
-        <v>194</v>
+      <c r="FE28" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="52">
     <mergeCell ref="D6:G6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="V6:W6"/>
     <mergeCell ref="D4:H4"/>
-    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="R4:W4"/>
     <mergeCell ref="D5:G5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="V5:W5"/>
     <mergeCell ref="D7:G7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="V7:W7"/>
     <mergeCell ref="D8:G8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="Q9:T10"/>
-    <mergeCell ref="U9:V10"/>
+    <mergeCell ref="R9:U10"/>
+    <mergeCell ref="V9:W10"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="D11:G11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="V11:W11"/>
     <mergeCell ref="D12:G12"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:W12"/>
     <mergeCell ref="D13:G13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="I26:I27"/>
     <mergeCell ref="D14:G14"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="V14:W14"/>
     <mergeCell ref="D15:G15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="BP22:BV22"/>
-    <mergeCell ref="BW22:CH23"/>
-    <mergeCell ref="EC23:EK23"/>
-    <mergeCell ref="EL23:ET23"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="P22:AA22"/>
-    <mergeCell ref="AB22:AJ22"/>
-    <mergeCell ref="AK22:AX22"/>
-    <mergeCell ref="AY22:BO22"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="BT26:BZ26"/>
+    <mergeCell ref="EM27:EU27"/>
+    <mergeCell ref="EV27:FD27"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="Q26:AB26"/>
+    <mergeCell ref="AC26:AN26"/>
+    <mergeCell ref="AO26:BB26"/>
+    <mergeCell ref="BC26:BS26"/>
+    <mergeCell ref="CA26:CW26"/>
   </mergeCells>
-  <conditionalFormatting sqref="Q24">
+  <conditionalFormatting sqref="R28">
     <cfRule type="expression" dxfId="72" priority="103">
-      <formula>NOT(_xlfn.ISFORMULA(Q24))</formula>
+      <formula>NOT(_xlfn.ISFORMULA(R28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R24">
+  <conditionalFormatting sqref="S28">
     <cfRule type="expression" dxfId="71" priority="102">
-      <formula>NOT(_xlfn.ISFORMULA(R24))</formula>
+      <formula>NOT(_xlfn.ISFORMULA(S28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S24">
+  <conditionalFormatting sqref="T28">
     <cfRule type="expression" dxfId="70" priority="101">
-      <formula>NOT(_xlfn.ISFORMULA(S24))</formula>
+      <formula>NOT(_xlfn.ISFORMULA(T28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T24">
+  <conditionalFormatting sqref="U28">
     <cfRule type="expression" dxfId="69" priority="100">
-      <formula>NOT(_xlfn.ISFORMULA(T24))</formula>
+      <formula>NOT(_xlfn.ISFORMULA(U28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ24">
+  <conditionalFormatting sqref="AU28">
     <cfRule type="expression" dxfId="68" priority="98">
-      <formula>NOT(_xlfn.ISFORMULA(AQ24))</formula>
+      <formula>NOT(_xlfn.ISFORMULA(AU28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT24">
+  <conditionalFormatting sqref="AX28">
     <cfRule type="expression" dxfId="67" priority="97">
-      <formula>NOT(_xlfn.ISFORMULA(AT24))</formula>
+      <formula>NOT(_xlfn.ISFORMULA(AX28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR24">
+  <conditionalFormatting sqref="AV28">
     <cfRule type="expression" dxfId="66" priority="95">
-      <formula>NOT(_xlfn.ISFORMULA(AR24))</formula>
+      <formula>NOT(_xlfn.ISFORMULA(AV28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CW24">
+  <conditionalFormatting sqref="DG28">
     <cfRule type="cellIs" dxfId="65" priority="90" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CW24">
+  <conditionalFormatting sqref="DG28">
     <cfRule type="cellIs" dxfId="64" priority="85" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -13753,12 +14403,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CX24">
+  <conditionalFormatting sqref="DH28">
     <cfRule type="cellIs" dxfId="59" priority="84" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CX24">
+  <conditionalFormatting sqref="DH28">
     <cfRule type="cellIs" dxfId="58" priority="79" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -13775,12 +14425,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CZ24">
+  <conditionalFormatting sqref="DJ28">
     <cfRule type="cellIs" dxfId="53" priority="72" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CZ24">
+  <conditionalFormatting sqref="DJ28">
     <cfRule type="cellIs" dxfId="52" priority="67" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -13797,12 +14447,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DA24">
+  <conditionalFormatting sqref="DK28">
     <cfRule type="cellIs" dxfId="47" priority="66" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DA24">
+  <conditionalFormatting sqref="DK28">
     <cfRule type="cellIs" dxfId="46" priority="61" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -13819,12 +14469,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DB24">
+  <conditionalFormatting sqref="DL28">
     <cfRule type="cellIs" dxfId="41" priority="60" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DB24">
+  <conditionalFormatting sqref="DL28">
     <cfRule type="cellIs" dxfId="40" priority="55" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -13841,12 +14491,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DD24">
+  <conditionalFormatting sqref="DN28">
     <cfRule type="cellIs" dxfId="35" priority="48" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DD24">
+  <conditionalFormatting sqref="DN28">
     <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -13863,12 +14513,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DF24">
+  <conditionalFormatting sqref="DP28">
     <cfRule type="cellIs" dxfId="29" priority="42" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DF24">
+  <conditionalFormatting sqref="DP28">
     <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -13885,12 +14535,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DG24">
+  <conditionalFormatting sqref="DQ28">
     <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DG24">
+  <conditionalFormatting sqref="DQ28">
     <cfRule type="cellIs" dxfId="22" priority="31" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -13907,12 +14557,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DH24">
+  <conditionalFormatting sqref="DR28">
     <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DH24">
+  <conditionalFormatting sqref="DR28">
     <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -13929,12 +14579,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DJ24">
+  <conditionalFormatting sqref="DT28">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DJ24">
+  <conditionalFormatting sqref="DT28">
     <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -13951,12 +14601,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DK24:DT24 DV24 DX24:EA24">
+  <conditionalFormatting sqref="DU28:ED28 EF28 EH28:EK28">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DK24:DT24 DV24 DX24:EA24">
+  <conditionalFormatting sqref="DU28:ED28 EF28 EH28:EK28">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -13974,7 +14624,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13990,41 +14641,41 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="130"/>
-      <c r="AG2" s="130"/>
-      <c r="AH2" s="131"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="143"/>
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="143"/>
+      <c r="AG2" s="143"/>
+      <c r="AH2" s="144"/>
     </row>
     <row r="3" spans="2:34" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
@@ -14965,49 +15616,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="145"/>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="134"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="147"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -15531,7 +16182,7 @@
         <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -15539,7 +16190,7 @@
         <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -15591,55 +16242,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019AE8B5-0D80-438F-9CBA-ADEC7CDF9F04}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5946069B-84EF-483E-B2A7-62FC8EF81A67}">
+  <dimension ref="A3:BE11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" t="str">
-        <f>"&lt;zsetformulatocell toSheet=[BD]  toCell=[A2] formula=[SUM(B4:B5)]"</f>
-        <v>&lt;zsetformulatocell toSheet=[BD]  toCell=[A2] formula=[SUM(B4:B5)]</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5946069B-84EF-483E-B2A7-62FC8EF81A67}">
-  <dimension ref="A3:AU11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11"/>
+    <sheetView topLeftCell="Q4" workbookViewId="0">
+      <selection activeCell="AV11" sqref="AV11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15665,34 +16272,36 @@
     <col min="28" max="29" width="12.7109375" customWidth="1"/>
     <col min="30" max="30" width="3.7109375" customWidth="1"/>
     <col min="31" max="32" width="12.7109375" customWidth="1"/>
-    <col min="33" max="33" width="14.140625" customWidth="1"/>
-    <col min="34" max="35" width="16" customWidth="1"/>
-    <col min="36" max="46" width="12.7109375" customWidth="1"/>
+    <col min="33" max="33" width="3.7109375" customWidth="1"/>
+    <col min="34" max="35" width="12.7109375" customWidth="1"/>
+    <col min="36" max="40" width="14.140625" customWidth="1"/>
+    <col min="41" max="42" width="16" customWidth="1"/>
+    <col min="43" max="56" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="D3" s="135" t="s">
-        <v>331</v>
-      </c>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="D3" s="149" t="s">
+        <v>326</v>
+      </c>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="D4" s="100" t="s">
-        <v>332</v>
-      </c>
-      <c r="E4" s="101"/>
-      <c r="F4" s="105" t="s">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="D4" s="89" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" s="90"/>
+      <c r="F4" s="93" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>COLUMN(A7)-1</f>
         <v>0</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:AU7" si="0">COLUMN(B7)-1</f>
+        <f t="shared" ref="B7:BE7" si="0">COLUMN(B7)-1</f>
         <v>1</v>
       </c>
       <c r="C7">
@@ -15859,97 +16468,157 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="AU7">
+      <c r="AR7">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="AS7" s="113">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="AT7" s="113">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="AU7" s="113">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
+      <c r="AV7" s="113">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="BE7">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B8" s="111"/>
-      <c r="C8" s="136" t="s">
+    <row r="8" spans="1:57" ht="135" x14ac:dyDescent="0.25">
+      <c r="B8" s="98"/>
+      <c r="C8" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="135" t="s">
-        <v>339</v>
-      </c>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="136" t="s">
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="149" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="148" t="s">
         <v>168</v>
       </c>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136" t="s">
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148" t="s">
         <v>181</v>
       </c>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="136" t="s">
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="136"/>
-      <c r="Q8" s="136"/>
-      <c r="R8" s="136" t="s">
+      <c r="P8" s="148"/>
+      <c r="Q8" s="148"/>
+      <c r="R8" s="148" t="s">
         <v>182</v>
       </c>
-      <c r="S8" s="136"/>
-      <c r="T8" s="136"/>
-      <c r="U8" s="136" t="s">
+      <c r="S8" s="148"/>
+      <c r="T8" s="148"/>
+      <c r="U8" s="148" t="s">
         <v>169</v>
       </c>
-      <c r="V8" s="136"/>
-      <c r="W8" s="136"/>
-      <c r="X8" s="136" t="s">
+      <c r="V8" s="148"/>
+      <c r="W8" s="148"/>
+      <c r="X8" s="148" t="s">
         <v>184</v>
       </c>
-      <c r="Y8" s="136"/>
-      <c r="Z8" s="136"/>
-      <c r="AA8" s="136" t="s">
+      <c r="Y8" s="148"/>
+      <c r="Z8" s="148"/>
+      <c r="AA8" s="148" t="s">
         <v>185</v>
       </c>
-      <c r="AB8" s="136"/>
-      <c r="AC8" s="136"/>
-      <c r="AD8" s="136" t="s">
+      <c r="AB8" s="148"/>
+      <c r="AC8" s="148"/>
+      <c r="AD8" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="AE8" s="136"/>
-      <c r="AF8" s="136"/>
-      <c r="AG8" s="108" t="s">
-        <v>341</v>
-      </c>
-      <c r="AH8" s="108" t="s">
-        <v>342</v>
-      </c>
-      <c r="AI8" s="108" t="s">
-        <v>343</v>
-      </c>
-      <c r="AJ8" s="55" t="s">
+      <c r="AE8" s="148"/>
+      <c r="AF8" s="148"/>
+      <c r="AG8" s="148" t="s">
+        <v>393</v>
+      </c>
+      <c r="AH8" s="148"/>
+      <c r="AI8" s="148"/>
+      <c r="AJ8" s="116" t="s">
+        <v>335</v>
+      </c>
+      <c r="AK8" s="126" t="s">
+        <v>398</v>
+      </c>
+      <c r="AL8" s="126" t="s">
+        <v>399</v>
+      </c>
+      <c r="AM8" s="126" t="s">
+        <v>400</v>
+      </c>
+      <c r="AN8" s="129" t="s">
+        <v>401</v>
+      </c>
+      <c r="AO8" s="116" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP8" s="116" t="s">
+        <v>337</v>
+      </c>
+      <c r="AQ8" s="114" t="s">
         <v>189</v>
       </c>
-      <c r="AK8" s="102" t="s">
-        <v>332</v>
-      </c>
-      <c r="AL8" s="55" t="s">
+      <c r="AR8" s="115" t="s">
+        <v>327</v>
+      </c>
+      <c r="AS8" s="191" t="s">
+        <v>408</v>
+      </c>
+      <c r="AT8" s="191" t="s">
+        <v>409</v>
+      </c>
+      <c r="AU8" s="129" t="s">
+        <v>406</v>
+      </c>
+      <c r="AV8" s="190" t="s">
+        <v>407</v>
+      </c>
+      <c r="AW8" s="114" t="s">
         <v>190</v>
       </c>
-      <c r="AM8" s="55" t="s">
+      <c r="AX8" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="AN8" s="55" t="s">
+      <c r="AY8" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="AO8" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="AP8" s="99"/>
-      <c r="AQ8" s="104"/>
-      <c r="AR8" s="104"/>
-      <c r="AS8" s="104"/>
-      <c r="AT8" s="104"/>
+      <c r="AZ8" s="114" t="s">
+        <v>394</v>
+      </c>
+      <c r="BA8" s="92"/>
+      <c r="BB8" s="92"/>
+      <c r="BC8" s="92"/>
+      <c r="BD8" s="92"/>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>167</v>
@@ -15957,7 +16626,7 @@
       <c r="D9" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="132" t="s">
         <v>166</v>
       </c>
       <c r="F9" s="51" t="s">
@@ -15975,7 +16644,7 @@
       <c r="J9" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="K9" s="53" t="s">
+      <c r="K9" s="132" t="s">
         <v>166</v>
       </c>
       <c r="L9" s="51" t="s">
@@ -15984,7 +16653,7 @@
       <c r="M9" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="N9" s="53" t="s">
+      <c r="N9" s="132" t="s">
         <v>166</v>
       </c>
       <c r="O9" s="51" t="s">
@@ -16002,7 +16671,7 @@
       <c r="S9" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="T9" s="53" t="s">
+      <c r="T9" s="132" t="s">
         <v>166</v>
       </c>
       <c r="U9" s="51" t="s">
@@ -16041,43 +16710,59 @@
       <c r="AF9" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="AG9" s="106"/>
-      <c r="AH9" s="106"/>
-      <c r="AI9" s="106"/>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="102"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="55"/>
-      <c r="AO9" s="55"/>
-      <c r="AP9" s="99"/>
-      <c r="AQ9" s="104"/>
-      <c r="AR9" s="104"/>
-      <c r="AS9" s="104"/>
-      <c r="AT9" s="104"/>
+      <c r="AG9" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH9" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI9" s="132" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ9" s="94"/>
+      <c r="AK9" s="127"/>
+      <c r="AL9" s="127"/>
+      <c r="AM9" s="127"/>
+      <c r="AN9" s="127"/>
+      <c r="AO9" s="94"/>
+      <c r="AP9" s="94"/>
+      <c r="AQ9" s="55"/>
+      <c r="AR9" s="91"/>
+      <c r="AS9" s="112"/>
+      <c r="AT9" s="112"/>
+      <c r="AU9" s="127"/>
+      <c r="AV9" s="127"/>
+      <c r="AW9" s="55"/>
+      <c r="AX9" s="55"/>
+      <c r="AY9" s="55"/>
+      <c r="AZ9" s="55"/>
+      <c r="BA9" s="92"/>
+      <c r="BB9" s="92"/>
+      <c r="BC9" s="92"/>
+      <c r="BD9" s="92"/>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B10" s="51" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
+      <c r="E10" s="132"/>
       <c r="F10" s="51"/>
       <c r="G10" s="52"/>
       <c r="H10" s="53"/>
       <c r="I10" s="51"/>
       <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
+      <c r="K10" s="132"/>
       <c r="L10" s="51"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="53"/>
+      <c r="N10" s="132"/>
       <c r="O10" s="51"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="51"/>
       <c r="S10" s="52"/>
-      <c r="T10" s="53"/>
+      <c r="T10" s="132"/>
       <c r="U10" s="51"/>
       <c r="V10" s="52"/>
       <c r="W10" s="53"/>
@@ -16090,22 +16775,32 @@
       <c r="AD10" s="51"/>
       <c r="AE10" s="52"/>
       <c r="AF10" s="53"/>
-      <c r="AG10" s="107"/>
-      <c r="AH10" s="107"/>
-      <c r="AI10" s="107"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="102"/>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="55"/>
-      <c r="AN10" s="55"/>
-      <c r="AO10" s="55"/>
-      <c r="AP10" s="99"/>
-      <c r="AQ10" s="104"/>
-      <c r="AR10" s="104"/>
-      <c r="AS10" s="104"/>
-      <c r="AT10" s="104"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="52"/>
+      <c r="AI10" s="132"/>
+      <c r="AJ10" s="95"/>
+      <c r="AK10" s="128"/>
+      <c r="AL10" s="128"/>
+      <c r="AM10" s="128"/>
+      <c r="AN10" s="128"/>
+      <c r="AO10" s="95"/>
+      <c r="AP10" s="95"/>
+      <c r="AQ10" s="55"/>
+      <c r="AR10" s="91"/>
+      <c r="AS10" s="112"/>
+      <c r="AT10" s="112"/>
+      <c r="AU10" s="128"/>
+      <c r="AV10" s="128"/>
+      <c r="AW10" s="55"/>
+      <c r="AX10" s="55"/>
+      <c r="AY10" s="55"/>
+      <c r="AZ10" s="55"/>
+      <c r="BA10" s="92"/>
+      <c r="BB10" s="92"/>
+      <c r="BC10" s="92"/>
+      <c r="BD10" s="92"/>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B11" s="51" t="s">
         <v>163</v>
       </c>
@@ -16113,32 +16808,32 @@
         <v>171</v>
       </c>
       <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
+      <c r="E11" s="132"/>
       <c r="F11" s="54" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G11" s="52"/>
       <c r="H11" s="53"/>
       <c r="I11" s="54" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
+      <c r="K11" s="132"/>
       <c r="L11" s="54" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M11" s="52"/>
-      <c r="N11" s="53"/>
+      <c r="N11" s="132"/>
       <c r="O11" s="54" t="s">
         <v>170</v>
       </c>
       <c r="P11" s="52"/>
       <c r="Q11" s="53"/>
       <c r="R11" s="54" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="S11" s="52"/>
-      <c r="T11" s="53"/>
+      <c r="T11" s="132"/>
       <c r="U11" s="54" t="s">
         <v>172</v>
       </c>
@@ -16159,63 +16854,89 @@
       </c>
       <c r="AE11" s="52"/>
       <c r="AF11" s="53"/>
-      <c r="AG11" s="106" t="str">
+      <c r="AG11" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="132"/>
+      <c r="AJ11" s="94" t="str">
         <f>J11&amp;"-"&amp;M11&amp;"-"&amp;S11</f>
         <v>--</v>
       </c>
-      <c r="AH11" s="106">
-        <f>IF(COUNT($AJ$11:AJ11)=MATCH(AG11,$AG$11:AG11,0),1,0)</f>
+      <c r="AK11" s="127">
+        <f>IFERROR(IF(INDEX($AH$11:AH11,MATCH(J11,$D$11:D11,0))="True",1,0),-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AL11" s="127" t="str">
+        <f>IF(AK11=-1,"-1",IF(AK11=1,J11,INDEX($AL$11:AL11,COUNT($AQ$11:AQ11)-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="AM11" s="127">
+        <f>IF(AK11=-1,-1,IF(AK11=1,M11,INDEX($AM$11:AM11,COUNT($AQ$11:AQ11)-1)))</f>
+        <v>-1</v>
+      </c>
+      <c r="AN11" s="127" t="str">
+        <f>IF(AL11="-1","-1",IF(AL11&lt;&gt;J11,1,0))</f>
+        <v>-1</v>
+      </c>
+      <c r="AO11" s="94">
+        <f>IF(COUNT($AQ$11:AQ11)=MATCH(AJ11,$AJ$11:AJ11,0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AI11" s="106">
-        <f>SUMIFS($AJ$11:$AJ$700000,$AG$11:$AG$700000,AG11)</f>
+      <c r="AP11" s="94">
+        <f>SUMIFS($AQ$11:$AQ$700000,$AJ$11:$AJ$700000,AJ11)</f>
         <v>1</v>
       </c>
-      <c r="AJ11" s="55">
+      <c r="AQ11" s="55">
         <v>1</v>
       </c>
-      <c r="AK11" s="102" t="str">
+      <c r="AR11" s="91" t="str">
         <f>$F$4</f>
         <v>-</v>
       </c>
-      <c r="AL11" s="55">
-        <f>IF(AK11=J11,IF(AH11=1,1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AM11" s="55">
-        <f>SUMIFS($AJ$11:$AJ$700000,$S$11:$S$700000,S11,$M$11:$M$700000,M11)</f>
-        <v>0</v>
-      </c>
-      <c r="AN11" s="55">
-        <f>IF(SUMIFS($AJ$11:AJ11,$S$11:S11,S11,$M$11:M11,M11)=1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AO11" s="55">
-        <f>IF(AN11=1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AP11" s="99">
-        <v>1</v>
-      </c>
-      <c r="AQ11" s="104">
-        <f>IF(AK11=D11,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AR11" s="104">
-        <f>COUNT($AJ$11:AJ11)</f>
-        <v>1</v>
-      </c>
-      <c r="AS11" s="104">
-        <f>MATCH(AG11,$AG$11:AG11,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AT11" s="104"/>
-      <c r="AU11" t="s">
+      <c r="AS11" s="112">
+        <f>IF(AR11=AL11,IF(AO11=1,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AT11" s="112">
+        <f>IF(AR11=D11,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AU11" s="127">
+        <f>SUMIF(J11:$J$700000,D11,AQ11:$AQ$700000)</f>
+        <v>0</v>
+      </c>
+      <c r="AV11" s="127" t="str">
+        <f>IF(AK11=-1,"0",1+INDEX($AV$11:$AV$700000,MATCH(J11,$D$11:$D$700000,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="AW11" s="55">
+        <f>SUMIFS($AQ$11:$AQ$700000,$S$11:$S$700000,S11,$M$11:$M$700000,M11)</f>
+        <v>0</v>
+      </c>
+      <c r="AX11" s="55">
+        <f>IF(SUMIFS($AQ$11:AQ11,$S$11:S11,S11,$M$11:M11,M11)=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AY11" s="55">
+        <f>IF(AX11=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="55">
+        <f>M11</f>
+        <v>0</v>
+      </c>
+      <c r="BA11" s="92"/>
+      <c r="BB11" s="92"/>
+      <c r="BC11" s="92"/>
+      <c r="BD11" s="92"/>
+      <c r="BE11" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="AG8:AI8"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="AA8:AC8"/>
     <mergeCell ref="AD8:AF8"/>
@@ -16228,6 +16949,50 @@
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="I8:K8"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019AE8B5-0D80-438F-9CBA-ADEC7CDF9F04}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" t="str">
+        <f>"&lt;zsetformulatocell toSheet=[BD]  toCell=[A2] formula=[SUM(B4:B5)]"</f>
+        <v>&lt;zsetformulatocell toSheet=[BD]  toCell=[A2] formula=[SUM(B4:B5)]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16248,50 +17013,50 @@
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -16317,7 +17082,7 @@
         <v>173</v>
       </c>
       <c r="B1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -16325,7 +17090,7 @@
         <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -16333,7 +17098,7 @@
         <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -16341,7 +17106,7 @@
         <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -16349,7 +17114,7 @@
         <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHOD.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHOD.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0828DFF-3455-41E5-B369-7029AA9ADC08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A71B34-5B61-4E74-8177-2D385D551430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" firstSheet="5" activeTab="15" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="17055" yWindow="1665" windowWidth="29655" windowHeight="15735" firstSheet="9" activeTab="16" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="4" r:id="rId1"/>
     <sheet name="BDКаб" sheetId="13" r:id="rId2"/>
     <sheet name="BDKc" sheetId="12" r:id="rId3"/>
-    <sheet name="&lt;workbook&gt;SET" sheetId="7" r:id="rId4"/>
-    <sheet name="&lt;zalldev&gt;SET" sheetId="15" r:id="rId5"/>
-    <sheet name="&lt;zalldev&gt;EXPORT" sheetId="11" r:id="rId6"/>
-    <sheet name="&lt;zalldev&gt;TEMPLATEKZ" sheetId="17" r:id="rId7"/>
-    <sheet name="BDzallcab" sheetId="26" r:id="rId8"/>
-    <sheet name="&lt;zallcab&gt;SET" sheetId="23" r:id="rId9"/>
-    <sheet name="&lt;zallcab&gt;EXPORT" sheetId="14" r:id="rId10"/>
-    <sheet name="&lt;zallcab&gt;CALC" sheetId="24" r:id="rId11"/>
-    <sheet name="&lt;zallcab&gt;CabZhurnal" sheetId="25" r:id="rId12"/>
-    <sheet name="&lt;zlight&gt;SET" sheetId="18" r:id="rId13"/>
-    <sheet name="&lt;zlight&gt;TEMP" sheetId="21" r:id="rId14"/>
-    <sheet name="&lt;zlight&gt;TEMPGU" sheetId="22" r:id="rId15"/>
-    <sheet name="&lt;zlight&gt;" sheetId="20" r:id="rId16"/>
+    <sheet name="BDUGO" sheetId="27" r:id="rId4"/>
+    <sheet name="BDzallcab" sheetId="26" r:id="rId5"/>
+    <sheet name="&lt;workbook&gt;SET" sheetId="7" r:id="rId6"/>
+    <sheet name="&lt;zalldev&gt;SET" sheetId="15" r:id="rId7"/>
+    <sheet name="&lt;zalldev&gt;EXPORT" sheetId="11" r:id="rId8"/>
+    <sheet name="&lt;zalldev&gt;TEMPLATEKZ" sheetId="17" r:id="rId9"/>
+    <sheet name="&lt;zallcab&gt;SET" sheetId="23" r:id="rId10"/>
+    <sheet name="&lt;zallcab&gt;EXPORT" sheetId="14" r:id="rId11"/>
+    <sheet name="&lt;zallcab&gt;CALC" sheetId="24" r:id="rId12"/>
+    <sheet name="&lt;zallcab&gt;CabZhurnal" sheetId="25" r:id="rId13"/>
+    <sheet name="&lt;zlight&gt;SET" sheetId="18" r:id="rId14"/>
+    <sheet name="&lt;zlight&gt;TEMP" sheetId="21" r:id="rId15"/>
+    <sheet name="&lt;zlight&gt;TEMPGU" sheetId="22" r:id="rId16"/>
+    <sheet name="&lt;zlight&gt;" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -617,12 +618,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="CI27" authorId="0" shapeId="0" xr:uid="{51FA7479-4FEB-4C4D-A17F-0159DB3FAC17}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Если неподключен то указывается номер истинной групы.
+Если подключен то 0
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CJ27" authorId="0" shapeId="0" xr:uid="{0D8FF019-79EE-4433-A2EA-B3FDE0D496AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Нужно для опредления внутреннего подключения, смещения по оси Х для следующих УГО.
+&gt;0 - значет внутри есть УУ
+=0 - тогда нет</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CV27" authorId="0" shapeId="0" xr:uid="{283AE732-E604-4415-8076-F2A8F5499270}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Если 1 значит этот столбец смещено на количество едениц</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="463">
   <si>
     <t>&lt;zlight&gt;</t>
   </si>
@@ -1841,9 +1890,6 @@
     <t>Устр. подключ к ШУ</t>
   </si>
   <si>
-    <t>&lt;zcopyrow targetsheet=[&lt;zalldev&gt;EXPORT] targetcodename=[zalldevimport] keynumcol=[44]&gt;</t>
-  </si>
-  <si>
     <t>Инфо по группе (P,кВт; U,B;  Ir, А; cosf )</t>
   </si>
   <si>
@@ -1934,6 +1980,99 @@
   </si>
   <si>
     <t>Кол-во подкл устр</t>
+  </si>
+  <si>
+    <t>Я подключен к той же группе что и предыдущий</t>
+  </si>
+  <si>
+    <t>Имя блока устройства</t>
+  </si>
+  <si>
+    <t>&lt;zcadnameblock&gt;</t>
+  </si>
+  <si>
+    <t>&lt;zcopyrow targetsheet=[&lt;zalldev&gt;EXPORT] targetcodename=[zalldevimport] keynumcol=[46]&gt;</t>
+  </si>
+  <si>
+    <t>Вставка УГО</t>
+  </si>
+  <si>
+    <t>Калибровка установки УГО</t>
+  </si>
+  <si>
+    <t>Калибровка размещения УГО на распределительной схеме</t>
+  </si>
+  <si>
+    <t>Имя блока</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>SCALE_X</t>
+  </si>
+  <si>
+    <t>SCALE_Y</t>
+  </si>
+  <si>
+    <t>ROTATION</t>
+  </si>
+  <si>
+    <t>VEL_POWER_SHR1</t>
+  </si>
+  <si>
+    <t>VEL_LIGHT_600x600</t>
+  </si>
+  <si>
+    <t>VEL_POWER_MOTOR</t>
+  </si>
+  <si>
+    <t>Я УУ 0ур подомной есть УУ 1ур</t>
+  </si>
+  <si>
+    <t>Сколько групп объеден. автомат. 1-го уровня</t>
+  </si>
+  <si>
+    <t>Указание для схемы какое значение принять</t>
+  </si>
+  <si>
+    <t>Смещение столбцов, после УУ</t>
+  </si>
+  <si>
+    <t>UUVEL_POWER_SHR1</t>
+  </si>
+  <si>
+    <t>UUVEL_LIGHT_600x600</t>
+  </si>
+  <si>
+    <t>UUVEL_POWER_MOTOR</t>
+  </si>
+  <si>
+    <t>МАСШТАБ ВЫВОДА</t>
+  </si>
+  <si>
+    <t>VEL_LIGHT_2x36</t>
+  </si>
+  <si>
+    <t>UUVEL_LIGHT_2x36</t>
+  </si>
+  <si>
+    <t>VEL_LIGHT_R3</t>
+  </si>
+  <si>
+    <t>UUVEL_LIGHT_R3</t>
+  </si>
+  <si>
+    <t>VEL_LIGHT_R4</t>
+  </si>
+  <si>
+    <t>UUVEL_LIGHT_R4</t>
+  </si>
+  <si>
+    <t>??????</t>
   </si>
 </sst>
 </file>
@@ -1944,7 +2083,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2148,8 +2287,30 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2372,8 +2533,56 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E1F3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="57">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -3111,13 +3320,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3287,9 +3524,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3391,9 +3625,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3488,9 +3719,6 @@
     <xf numFmtId="0" fontId="19" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3523,165 +3751,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3692,6 +3761,249 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="44" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="34" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -3700,53 +4012,73 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3755,133 +4087,7 @@
     <cellStyle name="Обычный 4" xfId="2" xr:uid="{48E5EE6E-1ABC-45BC-BBF9-DFA8FA4F7CCC}"/>
     <cellStyle name="Обычный_расчет нагрузки" xfId="1" xr:uid="{2A78680A-EF87-4AAC-8D9D-BEC6B0A95A74}"/>
   </cellStyles>
-  <dxfs count="98">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="80">
     <dxf>
       <fill>
         <patternFill>
@@ -4827,10 +5033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A712ECE2-33D4-468C-AC42-3438B4F27DC9}">
-  <dimension ref="A2:BX67"/>
+  <dimension ref="A2:BX56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4844,84 +5050,84 @@
   <sheetData>
     <row r="2" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:76" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
-      <c r="F3" s="137" t="s">
+      <c r="B3" s="178"/>
+      <c r="C3" s="179"/>
+      <c r="F3" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="138"/>
-      <c r="H3" s="139"/>
-      <c r="K3" s="142" t="s">
+      <c r="G3" s="175"/>
+      <c r="H3" s="176"/>
+      <c r="K3" s="182" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="143"/>
-      <c r="AF3" s="143"/>
-      <c r="AG3" s="143"/>
-      <c r="AH3" s="143"/>
-      <c r="AI3" s="143"/>
-      <c r="AJ3" s="143"/>
-      <c r="AK3" s="143"/>
-      <c r="AL3" s="143"/>
-      <c r="AM3" s="143"/>
-      <c r="AN3" s="143"/>
-      <c r="AO3" s="143"/>
-      <c r="AP3" s="143"/>
-      <c r="AQ3" s="143"/>
-      <c r="AR3" s="143"/>
-      <c r="AS3" s="143"/>
-      <c r="AT3" s="143"/>
-      <c r="AU3" s="143"/>
-      <c r="AV3" s="143"/>
-      <c r="AW3" s="143"/>
-      <c r="AX3" s="143"/>
-      <c r="AY3" s="143"/>
-      <c r="AZ3" s="143"/>
-      <c r="BA3" s="143"/>
-      <c r="BB3" s="143"/>
-      <c r="BC3" s="143"/>
-      <c r="BD3" s="143"/>
-      <c r="BE3" s="143"/>
-      <c r="BF3" s="143"/>
-      <c r="BG3" s="143"/>
-      <c r="BH3" s="143"/>
-      <c r="BI3" s="143"/>
-      <c r="BJ3" s="143"/>
-      <c r="BK3" s="143"/>
-      <c r="BL3" s="143"/>
-      <c r="BM3" s="143"/>
-      <c r="BN3" s="143"/>
-      <c r="BO3" s="143"/>
-      <c r="BP3" s="143"/>
-      <c r="BQ3" s="143"/>
-      <c r="BR3" s="143"/>
-      <c r="BS3" s="143"/>
-      <c r="BT3" s="143"/>
-      <c r="BU3" s="143"/>
-      <c r="BV3" s="143"/>
-      <c r="BW3" s="143"/>
-      <c r="BX3" s="143"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="183"/>
+      <c r="AD3" s="183"/>
+      <c r="AE3" s="183"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="183"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="183"/>
+      <c r="AJ3" s="183"/>
+      <c r="AK3" s="183"/>
+      <c r="AL3" s="183"/>
+      <c r="AM3" s="183"/>
+      <c r="AN3" s="183"/>
+      <c r="AO3" s="183"/>
+      <c r="AP3" s="183"/>
+      <c r="AQ3" s="183"/>
+      <c r="AR3" s="183"/>
+      <c r="AS3" s="183"/>
+      <c r="AT3" s="183"/>
+      <c r="AU3" s="183"/>
+      <c r="AV3" s="183"/>
+      <c r="AW3" s="183"/>
+      <c r="AX3" s="183"/>
+      <c r="AY3" s="183"/>
+      <c r="AZ3" s="183"/>
+      <c r="BA3" s="183"/>
+      <c r="BB3" s="183"/>
+      <c r="BC3" s="183"/>
+      <c r="BD3" s="183"/>
+      <c r="BE3" s="183"/>
+      <c r="BF3" s="183"/>
+      <c r="BG3" s="183"/>
+      <c r="BH3" s="183"/>
+      <c r="BI3" s="183"/>
+      <c r="BJ3" s="183"/>
+      <c r="BK3" s="183"/>
+      <c r="BL3" s="183"/>
+      <c r="BM3" s="183"/>
+      <c r="BN3" s="183"/>
+      <c r="BO3" s="183"/>
+      <c r="BP3" s="183"/>
+      <c r="BQ3" s="183"/>
+      <c r="BR3" s="183"/>
+      <c r="BS3" s="183"/>
+      <c r="BT3" s="183"/>
+      <c r="BU3" s="183"/>
+      <c r="BV3" s="183"/>
+      <c r="BW3" s="183"/>
+      <c r="BX3" s="183"/>
     </row>
     <row r="4" spans="1:76" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -5992,10 +6198,10 @@
       <c r="BX8" s="2"/>
     </row>
     <row r="9" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="141"/>
+      <c r="B9" s="181"/>
       <c r="F9" s="27">
         <v>2500</v>
       </c>
@@ -11010,11 +11216,11 @@
     </row>
     <row r="41" spans="6:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="6:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="137" t="s">
+      <c r="F42" s="174" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="138"/>
-      <c r="H42" s="139"/>
+      <c r="G42" s="175"/>
+      <c r="H42" s="176"/>
     </row>
     <row r="43" spans="6:76" ht="31.5" x14ac:dyDescent="0.25">
       <c r="F43" s="36" t="s">
@@ -11062,178 +11268,160 @@
       <c r="G48" s="28"/>
       <c r="H48" s="29"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F49" s="27">
         <v>25</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="29"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F50" s="27">
         <v>20</v>
       </c>
       <c r="G50" s="28"/>
       <c r="H50" s="29"/>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G61" t="s">
-        <v>47</v>
-      </c>
-      <c r="H61">
-        <f>INDEX(BD!$AF$7:$AF$11974,MATCH(BQ24,BD!$AF$7:$AF$11974,-1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="H63" t="e">
-        <f>MATCH(G61,K4:BX4,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G65" t="e">
-        <f>HLOOKUP(G61,K4:BX13,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G67" t="e">
-        <f ca="1">INDEX(#REF!,MATCH(#REF!,INDIRECT(G65),1)+1)</f>
-        <v>#REF!</v>
-      </c>
+    <row r="55" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="174" t="s">
+        <v>437</v>
+      </c>
+      <c r="D56" s="175"/>
+      <c r="E56" s="176"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="K3:BX3"/>
+    <mergeCell ref="C56:E56"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F42:H42"/>
-    <mergeCell ref="K3:BX3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="K6:M37 U13:Z37 U6:W12 Y6:AA6 Y7:Z12 AA7:AA37 BJ6:BR37 BU6:BX37 AW6:BG6 AO13:BH37 AO6:AU12 AV8:AV12 AW7:BH12 AE6:AG37">
-    <cfRule type="cellIs" dxfId="97" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:M38 U38:AG38 AO38:AP38">
-    <cfRule type="cellIs" dxfId="96" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ38:AW38">
-    <cfRule type="cellIs" dxfId="95" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX38:BR38 BU38:BX38">
-    <cfRule type="cellIs" dxfId="94" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:T37">
-    <cfRule type="cellIs" dxfId="93" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:T38">
-    <cfRule type="cellIs" dxfId="92" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH6:AI15">
-    <cfRule type="cellIs" dxfId="91" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ38:AN38">
-    <cfRule type="cellIs" dxfId="90" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH16:AH37">
-    <cfRule type="cellIs" dxfId="89" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH38">
-    <cfRule type="cellIs" dxfId="88" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI16:AI37">
-    <cfRule type="cellIs" dxfId="87" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI38">
-    <cfRule type="cellIs" dxfId="86" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ6:AK6 AJ7 AK7:AK15">
-    <cfRule type="cellIs" dxfId="85" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ8:AJ11">
-    <cfRule type="cellIs" dxfId="84" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ12:AJ14">
-    <cfRule type="cellIs" dxfId="83" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ16:AK36 AJ15">
-    <cfRule type="cellIs" dxfId="82" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ37:AK37">
-    <cfRule type="cellIs" dxfId="81" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS6:BS37">
-    <cfRule type="cellIs" dxfId="80" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS38">
-    <cfRule type="cellIs" dxfId="79" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT6:BT37">
-    <cfRule type="cellIs" dxfId="78" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT38">
-    <cfRule type="cellIs" dxfId="77" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X6:X12">
-    <cfRule type="cellIs" dxfId="76" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV6:AV7">
-    <cfRule type="cellIs" dxfId="75" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL6:AN37">
-    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6:AD37">
-    <cfRule type="cellIs" dxfId="73" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11243,6 +11431,64 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C18C41F-A7A1-44A1-BCA8-2DEB7768025B}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAE1986-1CF6-4370-AEB3-1DC97E00D4E1}">
   <dimension ref="A2:S6"/>
   <sheetViews>
@@ -11329,45 +11575,45 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="R2" s="106">
+      <c r="R2" s="104">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="C3" s="86"/>
-      <c r="D3" s="150" t="s">
+      <c r="C3" s="85"/>
+      <c r="D3" s="193" t="s">
         <v>341</v>
       </c>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150" t="s">
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193" t="s">
         <v>342</v>
       </c>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="97" t="s">
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="95" t="s">
         <v>345</v>
       </c>
-      <c r="K3" s="97" t="s">
+      <c r="K3" s="95" t="s">
         <v>343</v>
       </c>
-      <c r="L3" s="150" t="s">
+      <c r="L3" s="193" t="s">
         <v>344</v>
       </c>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="151" t="s">
+      <c r="M3" s="193"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="194" t="s">
         <v>353</v>
       </c>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="107" t="s">
+      <c r="P3" s="194"/>
+      <c r="Q3" s="194"/>
+      <c r="R3" s="105" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C4" s="86"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="51" t="s">
         <v>167</v>
       </c>
@@ -11401,19 +11647,19 @@
       <c r="N4" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="O4" s="100" t="s">
+      <c r="O4" s="98" t="s">
         <v>167</v>
       </c>
-      <c r="P4" s="101" t="s">
+      <c r="P4" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="Q4" s="102" t="s">
+      <c r="Q4" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="R4" s="107"/>
+      <c r="R4" s="105"/>
     </row>
     <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="94" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="51"/>
@@ -11427,13 +11673,13 @@
       <c r="L5" s="51"/>
       <c r="M5" s="52"/>
       <c r="N5" s="53"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="107"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="105"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="82" t="s">
         <v>145</v>
       </c>
       <c r="D6" s="54" t="s">
@@ -11462,7 +11708,7 @@
       </c>
       <c r="P6" s="52"/>
       <c r="Q6" s="53"/>
-      <c r="R6" s="107">
+      <c r="R6" s="105">
         <v>1</v>
       </c>
       <c r="S6" t="s">
@@ -11480,7 +11726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A3016B-46A2-49B9-9A52-E38B657C2400}">
   <dimension ref="A4:Y7"/>
   <sheetViews>
@@ -11559,7 +11805,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Q4" s="106">
+      <c r="Q4" s="104">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -11593,77 +11839,77 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="150" x14ac:dyDescent="0.25">
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="97" t="s">
         <v>341</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="97" t="s">
         <v>342</v>
       </c>
-      <c r="F5" s="99" t="s">
+      <c r="F5" s="97" t="s">
         <v>343</v>
       </c>
-      <c r="G5" s="99" t="s">
+      <c r="G5" s="97" t="s">
         <v>353</v>
       </c>
-      <c r="H5" s="99" t="s">
+      <c r="H5" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="I5" s="99" t="s">
+      <c r="I5" s="97" t="s">
         <v>358</v>
       </c>
-      <c r="J5" s="99" t="s">
+      <c r="J5" s="97" t="s">
         <v>359</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="97" t="s">
         <v>360</v>
       </c>
-      <c r="L5" s="99" t="s">
+      <c r="L5" s="97" t="s">
         <v>361</v>
       </c>
-      <c r="M5" s="99" t="s">
+      <c r="M5" s="97" t="s">
         <v>362</v>
       </c>
-      <c r="N5" s="99" t="s">
+      <c r="N5" s="97" t="s">
         <v>363</v>
       </c>
-      <c r="O5" s="99" t="s">
+      <c r="O5" s="97" t="s">
         <v>364</v>
       </c>
-      <c r="P5" s="99" t="s">
+      <c r="P5" s="97" t="s">
         <v>365</v>
       </c>
-      <c r="Q5" s="105" t="s">
+      <c r="Q5" s="103" t="s">
         <v>366</v>
       </c>
-      <c r="R5" s="99" t="s">
+      <c r="R5" s="97" t="s">
         <v>367</v>
       </c>
-      <c r="S5" s="99" t="s">
+      <c r="S5" s="97" t="s">
         <v>368</v>
       </c>
-      <c r="T5" s="99" t="s">
+      <c r="T5" s="97" t="s">
         <v>369</v>
       </c>
-      <c r="U5" s="99" t="s">
+      <c r="U5" s="97" t="s">
         <v>370</v>
       </c>
-      <c r="V5" s="99" t="s">
+      <c r="V5" s="97" t="s">
         <v>353</v>
       </c>
-      <c r="W5" s="99" t="s">
+      <c r="W5" s="97" t="s">
         <v>371</v>
       </c>
-      <c r="X5" s="108" t="s">
+      <c r="X5" s="106" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="Q6" s="104"/>
-      <c r="X6" s="109"/>
+      <c r="C6" s="101"/>
+      <c r="Q6" s="102"/>
+      <c r="X6" s="107"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -11724,7 +11970,7 @@
         <f>SUMIFS($H$7:H7,$D$7:D7,D7,$G$7:G7,G7)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="106">
+      <c r="Q7" s="104">
         <f t="shared" ref="Q7" si="1">IF(K7=1,1,0)</f>
         <v>1</v>
       </c>
@@ -11752,7 +11998,7 @@
         <f t="shared" ref="W7" si="5">IF(Q7=1,P7," ")</f>
         <v>0</v>
       </c>
-      <c r="X7" s="110">
+      <c r="X7" s="108">
         <f>SUMIFS($H$7:$H$700000,$D$7:$D$700000,D7)</f>
         <v>0</v>
       </c>
@@ -11765,7 +12011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C98D85-B1DF-4F27-9824-4A9CEE766B5F}">
   <dimension ref="B4:S5"/>
   <sheetViews>
@@ -11853,7 +12099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5903E6AF-14E2-4CDD-BE66-209E502F0B4C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -11880,7 +12126,7 @@
         <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -11904,7 +12150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E733FA54-8601-4F98-A939-D35DC81D32C1}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -11969,12 +12215,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD83D9D-2229-4BC6-AB0E-E63357D0D337}">
   <dimension ref="A3:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:N4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12057,36 +12303,36 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="95" t="s">
         <v>333</v>
       </c>
-      <c r="F5" s="97" t="s">
+      <c r="F5" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="G5" s="97" t="s">
+      <c r="G5" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="H5" s="97" t="s">
+      <c r="H5" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="97" t="s">
+      <c r="I5" s="95" t="s">
+        <v>411</v>
+      </c>
+      <c r="J5" s="95" t="s">
         <v>412</v>
       </c>
-      <c r="J5" s="97" t="s">
+      <c r="K5" s="95" t="s">
         <v>413</v>
       </c>
-      <c r="K5" s="97" t="s">
-        <v>414</v>
-      </c>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="C6" t="s">
         <v>328</v>
@@ -12112,11 +12358,11 @@
         <v>0</v>
       </c>
       <c r="I6" s="52" t="str">
+        <f>'&lt;zalldev&gt;EXPORT'!AW11</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="52">
         <f>'&lt;zalldev&gt;EXPORT'!AV11</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="52">
-        <f>'&lt;zalldev&gt;EXPORT'!AU11</f>
         <v>0</v>
       </c>
       <c r="K6" s="52">
@@ -12134,12 +12380,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B9844E-F661-46DB-A8DF-606C0C725DFB}">
-  <dimension ref="A1:FR28"/>
+  <dimension ref="A1:GB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12149,7 +12395,7 @@
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
     <col min="9" max="10" width="29.42578125" customWidth="1"/>
     <col min="11" max="13" width="3.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="25.7109375" customWidth="1"/>
     <col min="18" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="38" width="5.7109375" customWidth="1"/>
     <col min="44" max="46" width="5.7109375" customWidth="1"/>
@@ -12158,6 +12404,10 @@
     <col min="71" max="71" width="11.7109375" customWidth="1"/>
     <col min="81" max="81" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="82" max="86" width="10.28515625" customWidth="1"/>
+    <col min="87" max="88" width="12.7109375" customWidth="1"/>
+    <col min="90" max="90" width="12.85546875" customWidth="1"/>
+    <col min="91" max="91" width="11.28515625" customWidth="1"/>
+    <col min="100" max="100" width="9" customWidth="1"/>
     <col min="119" max="119" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12184,82 +12434,92 @@
       </c>
     </row>
     <row r="4" spans="4:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="181" t="s">
+      <c r="D4" s="197" t="s">
         <v>323</v>
       </c>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="88" t="s">
+      <c r="E4" s="197"/>
+      <c r="F4" s="197"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="86" t="s">
         <v>322</v>
       </c>
-      <c r="J4" s="182"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="181" t="s">
+      <c r="J4" s="130"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="197" t="s">
         <v>321</v>
       </c>
-      <c r="S4" s="181"/>
-      <c r="T4" s="181"/>
-      <c r="U4" s="181"/>
-      <c r="V4" s="181"/>
-      <c r="W4" s="181"/>
-      <c r="AV4" s="193" t="s">
+      <c r="S4" s="197"/>
+      <c r="T4" s="197"/>
+      <c r="U4" s="197"/>
+      <c r="V4" s="197"/>
+      <c r="W4" s="197"/>
+      <c r="AA4" s="237" t="s">
+        <v>455</v>
+      </c>
+      <c r="AB4" s="237"/>
+      <c r="AV4" s="137" t="s">
+        <v>417</v>
+      </c>
+      <c r="AW4" s="137" t="s">
         <v>418</v>
       </c>
-      <c r="AW4" s="193" t="s">
+      <c r="AX4" s="137" t="s">
+        <v>168</v>
+      </c>
+      <c r="AY4" s="137" t="s">
+        <v>416</v>
+      </c>
+      <c r="AZ4" s="137" t="s">
+        <v>421</v>
+      </c>
+      <c r="BA4" s="137" t="s">
+        <v>415</v>
+      </c>
+      <c r="BB4" s="137" t="s">
         <v>419</v>
       </c>
-      <c r="AX4" s="193" t="s">
-        <v>168</v>
-      </c>
-      <c r="AY4" s="193" t="s">
-        <v>417</v>
-      </c>
-      <c r="AZ4" s="193" t="s">
+      <c r="BC4" s="137" t="s">
         <v>422</v>
-      </c>
-      <c r="BA4" s="193" t="s">
-        <v>416</v>
-      </c>
-      <c r="BB4" s="193" t="s">
-        <v>420</v>
-      </c>
-      <c r="BC4" s="193" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="5" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D5" s="165" t="s">
+      <c r="D5" s="195" t="s">
         <v>320</v>
       </c>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="87">
-        <f>'&lt;zlight&gt;'!F20</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="86" t="s">
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="152">
+        <f>AV5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="85" t="s">
         <v>319</v>
       </c>
-      <c r="J5" s="183"/>
-      <c r="Q5" s="86" t="s">
+      <c r="J5" s="131"/>
+      <c r="Q5" s="85" t="s">
         <v>318</v>
       </c>
-      <c r="R5" s="177" t="s">
+      <c r="R5" s="196" t="s">
         <v>317</v>
       </c>
-      <c r="S5" s="177"/>
-      <c r="T5" s="177"/>
-      <c r="U5" s="177"/>
-      <c r="V5" s="177" t="e">
+      <c r="S5" s="196"/>
+      <c r="T5" s="196"/>
+      <c r="U5" s="196"/>
+      <c r="V5" s="196" t="e">
         <f ca="1">SUM($AE$26:$AE$12001)</f>
         <v>#N/A</v>
       </c>
-      <c r="W5" s="177"/>
+      <c r="W5" s="196"/>
+      <c r="AA5" s="148" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB5" s="148">
+        <v>100</v>
+      </c>
       <c r="AU5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AV5" s="52">
         <f>'&lt;zlight&gt;TEMPGU'!D6</f>
@@ -12289,7 +12549,7 @@
         <f>'&lt;zlight&gt;TEMPGU'!J6</f>
         <v>0</v>
       </c>
-      <c r="BC5" s="195">
+      <c r="BC5" s="138">
         <f>IF(BB5=0,0,1)</f>
         <v>0</v>
       </c>
@@ -12298,767 +12558,769 @@
       </c>
     </row>
     <row r="6" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D6" s="202" t="s">
+      <c r="D6" s="238" t="s">
         <v>316</v>
       </c>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="192">
-        <f>AV5</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="86" t="s">
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="129" t="s">
+        <v>462</v>
+      </c>
+      <c r="I6" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="J6" s="183"/>
-      <c r="Q6" s="86">
+      <c r="J6" s="131"/>
+      <c r="Q6" s="85">
         <v>63</v>
       </c>
-      <c r="R6" s="177" t="s">
+      <c r="R6" s="196" t="s">
         <v>314</v>
       </c>
-      <c r="S6" s="177"/>
-      <c r="T6" s="177"/>
-      <c r="U6" s="177"/>
-      <c r="V6" s="177" t="e">
+      <c r="S6" s="196"/>
+      <c r="T6" s="196"/>
+      <c r="U6" s="196"/>
+      <c r="V6" s="196" t="e">
         <f ca="1">V5*V11</f>
         <v>#N/A</v>
       </c>
-      <c r="W6" s="177"/>
+      <c r="W6" s="196"/>
+      <c r="AA6" s="148" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB6" s="148">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D7" s="165" t="s">
+      <c r="D7" s="198" t="s">
         <v>313</v>
       </c>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="83">
+      <c r="E7" s="198"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="198"/>
+      <c r="H7" s="82">
         <v>45399</v>
       </c>
-      <c r="I7" s="86" t="s">
+      <c r="I7" s="85" t="s">
         <v>312</v>
       </c>
-      <c r="J7" s="183"/>
-      <c r="Q7" s="86">
+      <c r="J7" s="131"/>
+      <c r="Q7" s="85">
         <v>32</v>
       </c>
-      <c r="R7" s="177" t="s">
+      <c r="R7" s="196" t="s">
         <v>311</v>
       </c>
-      <c r="S7" s="177"/>
-      <c r="T7" s="177"/>
-      <c r="U7" s="177"/>
-      <c r="V7" s="177" t="e">
+      <c r="S7" s="196"/>
+      <c r="T7" s="196"/>
+      <c r="U7" s="196"/>
+      <c r="V7" s="196" t="e">
         <f ca="1">ROUNDUP((V6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*V8),2)</f>
         <v>#N/A</v>
       </c>
-      <c r="W7" s="177"/>
+      <c r="W7" s="196"/>
     </row>
     <row r="8" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="198" t="s">
         <v>310</v>
       </c>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="83" t="s">
+      <c r="E8" s="198"/>
+      <c r="F8" s="198"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="I8" s="86" t="s">
+      <c r="I8" s="85" t="s">
         <v>308</v>
       </c>
-      <c r="J8" s="183"/>
-      <c r="Q8" s="86">
+      <c r="J8" s="131"/>
+      <c r="Q8" s="85">
         <v>6</v>
       </c>
-      <c r="R8" s="178" t="s">
+      <c r="R8" s="199" t="s">
         <v>307</v>
       </c>
-      <c r="S8" s="179"/>
-      <c r="T8" s="179"/>
-      <c r="U8" s="180"/>
-      <c r="V8" s="173">
+      <c r="S8" s="200"/>
+      <c r="T8" s="200"/>
+      <c r="U8" s="201"/>
+      <c r="V8" s="202">
         <v>0.92</v>
       </c>
-      <c r="W8" s="173"/>
+      <c r="W8" s="202"/>
     </row>
     <row r="9" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D9" s="165" t="s">
+      <c r="D9" s="198" t="s">
         <v>306</v>
       </c>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="83" t="s">
+      <c r="E9" s="198"/>
+      <c r="F9" s="198"/>
+      <c r="G9" s="198"/>
+      <c r="H9" s="82" t="s">
         <v>305</v>
       </c>
-      <c r="I9" s="86" t="s">
+      <c r="I9" s="85" t="s">
         <v>304</v>
       </c>
-      <c r="J9" s="183"/>
-      <c r="Q9" s="86" t="s">
+      <c r="J9" s="131"/>
+      <c r="Q9" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="R9" s="172" t="s">
+      <c r="R9" s="203" t="s">
         <v>302</v>
       </c>
-      <c r="S9" s="172"/>
-      <c r="T9" s="172"/>
-      <c r="U9" s="172"/>
-      <c r="V9" s="173"/>
-      <c r="W9" s="173"/>
+      <c r="S9" s="203"/>
+      <c r="T9" s="203"/>
+      <c r="U9" s="203"/>
+      <c r="V9" s="204"/>
+      <c r="W9" s="204"/>
     </row>
     <row r="10" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D10" s="165" t="s">
+      <c r="D10" s="198" t="s">
         <v>301</v>
       </c>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="I10" s="86" t="s">
+      <c r="E10" s="198"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="198"/>
+      <c r="I10" s="85" t="s">
         <v>300</v>
       </c>
-      <c r="J10" s="183"/>
-      <c r="Q10" s="86">
+      <c r="J10" s="131"/>
+      <c r="Q10" s="85">
         <v>4</v>
       </c>
-      <c r="R10" s="172"/>
-      <c r="S10" s="172"/>
-      <c r="T10" s="172"/>
-      <c r="U10" s="172"/>
-      <c r="V10" s="173"/>
-      <c r="W10" s="173"/>
+      <c r="R10" s="203"/>
+      <c r="S10" s="203"/>
+      <c r="T10" s="203"/>
+      <c r="U10" s="203"/>
+      <c r="V10" s="204"/>
+      <c r="W10" s="204"/>
     </row>
     <row r="11" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D11" s="165" t="s">
+      <c r="D11" s="198" t="s">
         <v>299</v>
       </c>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="83">
+      <c r="E11" s="198"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="148">
         <v>380</v>
       </c>
-      <c r="I11" s="86" t="s">
+      <c r="I11" s="85" t="s">
         <v>298</v>
       </c>
-      <c r="J11" s="183"/>
-      <c r="Q11" s="86" t="s">
+      <c r="J11" s="131"/>
+      <c r="Q11" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="R11" s="174" t="s">
+      <c r="R11" s="205" t="s">
         <v>296</v>
       </c>
-      <c r="S11" s="175"/>
-      <c r="T11" s="175"/>
-      <c r="U11" s="176"/>
-      <c r="V11" s="174">
-        <v>0.65</v>
-      </c>
-      <c r="W11" s="176"/>
+      <c r="S11" s="206"/>
+      <c r="T11" s="206"/>
+      <c r="U11" s="207"/>
+      <c r="V11" s="208">
+        <v>1</v>
+      </c>
+      <c r="W11" s="209"/>
     </row>
     <row r="12" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D12" s="165" t="s">
+      <c r="D12" s="198" t="s">
         <v>295</v>
       </c>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="83" t="s">
+      <c r="E12" s="198"/>
+      <c r="F12" s="198"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="82" t="s">
         <v>294</v>
       </c>
-      <c r="I12" s="86" t="s">
+      <c r="I12" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="J12" s="183"/>
-      <c r="Q12" s="86" t="s">
+      <c r="J12" s="131"/>
+      <c r="Q12" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="R12" s="166" t="s">
+      <c r="R12" s="210" t="s">
         <v>292</v>
       </c>
-      <c r="S12" s="166"/>
-      <c r="T12" s="166"/>
-      <c r="U12" s="166"/>
-      <c r="V12" s="166">
+      <c r="S12" s="210"/>
+      <c r="T12" s="210"/>
+      <c r="U12" s="210"/>
+      <c r="V12" s="210">
         <v>44.5</v>
       </c>
-      <c r="W12" s="166"/>
+      <c r="W12" s="210"/>
     </row>
     <row r="13" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D13" s="165" t="s">
+      <c r="D13" s="198" t="s">
         <v>291</v>
       </c>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="83" t="s">
+      <c r="E13" s="198"/>
+      <c r="F13" s="198"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="82" t="s">
         <v>290</v>
       </c>
-      <c r="I13" s="84"/>
-      <c r="J13" s="184"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="166" t="s">
+      <c r="I13" s="83"/>
+      <c r="J13" s="132"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="210" t="s">
         <v>289</v>
       </c>
-      <c r="S13" s="166"/>
-      <c r="T13" s="166"/>
-      <c r="U13" s="166"/>
-      <c r="V13" s="166">
+      <c r="S13" s="210"/>
+      <c r="T13" s="210"/>
+      <c r="U13" s="210"/>
+      <c r="V13" s="210">
         <v>44.5</v>
       </c>
-      <c r="W13" s="166"/>
+      <c r="W13" s="210"/>
     </row>
     <row r="14" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D14" s="165" t="s">
+      <c r="D14" s="198" t="s">
         <v>288</v>
       </c>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="85" t="str">
+      <c r="E14" s="198"/>
+      <c r="F14" s="198"/>
+      <c r="G14" s="198"/>
+      <c r="H14" s="84" t="str">
         <f>'&lt;zlight&gt;'!G20&amp;"."&amp;'&lt;zlight&gt;'!H20</f>
         <v>.</v>
       </c>
-      <c r="I14" s="84"/>
-      <c r="J14" s="184"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="166" t="s">
+      <c r="I14" s="83"/>
+      <c r="J14" s="132"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="210" t="s">
         <v>287</v>
       </c>
-      <c r="S14" s="166"/>
-      <c r="T14" s="166"/>
-      <c r="U14" s="166"/>
-      <c r="V14" s="166">
+      <c r="S14" s="210"/>
+      <c r="T14" s="210"/>
+      <c r="U14" s="210"/>
+      <c r="V14" s="210">
         <v>44.5</v>
       </c>
-      <c r="W14" s="166"/>
+      <c r="W14" s="210"/>
     </row>
     <row r="15" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D15" s="165" t="s">
+      <c r="D15" s="198" t="s">
         <v>286</v>
       </c>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="83">
+      <c r="E15" s="198"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="82">
         <v>77</v>
       </c>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="167" t="s">
+      <c r="Q15" s="83"/>
+      <c r="R15" s="213" t="s">
         <v>285</v>
       </c>
-      <c r="S15" s="167"/>
-      <c r="T15" s="167"/>
-      <c r="U15" s="167"/>
-      <c r="V15" s="167" t="e">
-        <f ca="1">ROUNDUP((V6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*V8),2)</f>
+      <c r="S15" s="213"/>
+      <c r="T15" s="213"/>
+      <c r="U15" s="213"/>
+      <c r="V15" s="202" t="e">
+        <f ca="1">ROUNDUP((V6*1000)/(INDEX(BD!$C$4:$C$5,MATCH(H11,BD!$B$4:$B$5,0))*V8),2)</f>
         <v>#N/A</v>
       </c>
-      <c r="W15" s="167"/>
+      <c r="W15" s="202"/>
     </row>
     <row r="16" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="R16" s="194" t="s">
-        <v>421</v>
-      </c>
-      <c r="S16" s="194"/>
-      <c r="T16" s="194"/>
-      <c r="U16" s="194"/>
-      <c r="V16" s="194" t="e">
+      <c r="R16" s="220" t="s">
+        <v>420</v>
+      </c>
+      <c r="S16" s="220"/>
+      <c r="T16" s="220"/>
+      <c r="U16" s="220"/>
+      <c r="V16" s="220" t="e">
         <f>INDEX(BA5:BA9,MATCH(1,BC5:BC9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="W16" s="194"/>
+      <c r="W16" s="220"/>
     </row>
-    <row r="19" spans="1:174" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:184" x14ac:dyDescent="0.25">
       <c r="AQ19" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="24" spans="1:174" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="111">
+    <row r="24" spans="1:184" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="109">
         <f>COLUMN(A24)</f>
         <v>1</v>
       </c>
-      <c r="B24" s="111">
+      <c r="B24" s="109">
         <f t="shared" ref="B24:BR24" si="0">COLUMN(B24)</f>
         <v>2</v>
       </c>
-      <c r="C24" s="111">
+      <c r="C24" s="109">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D24" s="111">
+      <c r="D24" s="109">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E24" s="111">
+      <c r="E24" s="109">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F24" s="111">
+      <c r="F24" s="109">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G24" s="111">
+      <c r="G24" s="109">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H24" s="111">
+      <c r="H24" s="109">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I24" s="111">
+      <c r="I24" s="109">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111">
+      <c r="J24" s="109"/>
+      <c r="K24" s="109">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="L24" s="111">
+      <c r="L24" s="109">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M24" s="111">
+      <c r="M24" s="109">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="N24" s="111">
+      <c r="N24" s="109">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="O24" s="111">
+      <c r="O24" s="109">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111">
+      <c r="P24" s="109"/>
+      <c r="Q24" s="109">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="R24" s="111">
+      <c r="R24" s="109">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="S24" s="111">
+      <c r="S24" s="109">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="T24" s="111">
+      <c r="T24" s="109">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="U24" s="111">
+      <c r="U24" s="109">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="V24" s="111">
+      <c r="V24" s="109">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="W24" s="111">
+      <c r="W24" s="109">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="X24" s="111">
+      <c r="X24" s="109">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="Y24" s="111">
+      <c r="Y24" s="109">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="Z24" s="111">
+      <c r="Z24" s="109">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AA24" s="111">
+      <c r="AA24" s="109">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AB24" s="111">
+      <c r="AB24" s="109">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AC24" s="111">
+      <c r="AC24" s="109">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AD24" s="111"/>
-      <c r="AE24" s="111">
+      <c r="AD24" s="109"/>
+      <c r="AE24" s="109">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AF24" s="111"/>
-      <c r="AG24" s="111"/>
-      <c r="AH24" s="111">
+      <c r="AF24" s="109"/>
+      <c r="AG24" s="109"/>
+      <c r="AH24" s="109">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AI24" s="111">
+      <c r="AI24" s="109">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AJ24" s="111"/>
-      <c r="AK24" s="111"/>
-      <c r="AL24" s="111"/>
-      <c r="AM24" s="111">
+      <c r="AJ24" s="109"/>
+      <c r="AK24" s="109"/>
+      <c r="AL24" s="109"/>
+      <c r="AM24" s="109">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="AN24" s="111">
+      <c r="AN24" s="109">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="AO24" s="111">
+      <c r="AO24" s="109">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AP24" s="111">
+      <c r="AP24" s="109">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="AQ24" s="111">
+      <c r="AQ24" s="109">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="AR24" s="111">
+      <c r="AR24" s="109">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="AS24" s="111">
+      <c r="AS24" s="109">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="AT24" s="111">
+      <c r="AT24" s="109">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AU24" s="111">
+      <c r="AU24" s="109">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="AV24" s="111">
+      <c r="AV24" s="109">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AW24" s="111">
+      <c r="AW24" s="109">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="AX24" s="111">
+      <c r="AX24" s="109">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="AY24" s="111">
+      <c r="AY24" s="109">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="AZ24" s="111">
+      <c r="AZ24" s="109">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="BA24" s="111">
+      <c r="BA24" s="109">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="BB24" s="111">
+      <c r="BB24" s="109">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="BC24" s="111">
+      <c r="BC24" s="109">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="BD24" s="111">
+      <c r="BD24" s="109">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="BE24" s="111">
+      <c r="BE24" s="109">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="BF24" s="111">
+      <c r="BF24" s="109">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="BG24" s="111">
+      <c r="BG24" s="109">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="BH24" s="111">
+      <c r="BH24" s="109">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="BI24" s="111">
+      <c r="BI24" s="109">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="BJ24" s="111">
+      <c r="BJ24" s="109">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="BK24" s="111">
+      <c r="BK24" s="109">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="BL24" s="111">
+      <c r="BL24" s="109">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="BM24" s="111">
+      <c r="BM24" s="109">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="BN24" s="111">
+      <c r="BN24" s="109">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="BO24" s="111">
+      <c r="BO24" s="109">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="BP24" s="111">
+      <c r="BP24" s="109">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="BQ24" s="111">
+      <c r="BQ24" s="109">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="BR24" s="111">
+      <c r="BR24" s="109">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="BS24" s="111">
+      <c r="BS24" s="109">
         <f t="shared" ref="BS24:EJ24" si="1">COLUMN(BS24)</f>
         <v>71</v>
       </c>
-      <c r="BT24" s="111">
+      <c r="BT24" s="109">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="BU24" s="111">
+      <c r="BU24" s="109">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="BV24" s="111">
+      <c r="BV24" s="109">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="BW24" s="111">
+      <c r="BW24" s="109">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="BX24" s="111">
+      <c r="BX24" s="109">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="BY24" s="111">
+      <c r="BY24" s="109">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="BZ24" s="111">
+      <c r="BZ24" s="109">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="CA24" s="111">
+      <c r="CA24" s="109">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="CB24" s="111">
+      <c r="CB24" s="109">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="CC24" s="111">
+      <c r="CC24" s="109">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="CD24" s="111">
+      <c r="CD24" s="109">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="CE24" s="111"/>
-      <c r="CF24" s="111"/>
-      <c r="CG24" s="111"/>
-      <c r="CH24" s="111"/>
-      <c r="CI24" s="111">
+      <c r="CE24" s="109"/>
+      <c r="CF24" s="109"/>
+      <c r="CG24" s="109"/>
+      <c r="CH24" s="109"/>
+      <c r="CI24" s="109">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="CJ24" s="111">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="CK24" s="111">
+      <c r="CJ24" s="145"/>
+      <c r="CK24" s="109">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="CL24" s="111">
+      <c r="CL24" s="109">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="CM24" s="111">
+      <c r="CM24" s="109">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="CN24" s="111">
+      <c r="CN24" s="109">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="CO24" s="111">
+      <c r="CO24" s="109">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="CP24" s="111">
+      <c r="CP24" s="109">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="CQ24" s="111">
+      <c r="CQ24" s="109">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="CR24" s="111">
+      <c r="CR24" s="109">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="CS24" s="111">
+      <c r="CS24" s="109">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="CT24" s="111">
+      <c r="CT24" s="109">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="CU24" s="111">
+      <c r="CU24" s="109">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="CV24" s="111">
+      <c r="CV24" s="109">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="CW24" s="111">
+      <c r="CW24" s="109">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="CX24" s="111">
+      <c r="CX24" s="109">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="CY24" s="111">
+      <c r="CY24" s="109">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="CZ24" s="111">
+      <c r="CZ24" s="109">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="DA24" s="111">
+      <c r="DA24" s="109">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="DB24" s="111">
+      <c r="DB24" s="109">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="DC24" s="111">
+      <c r="DC24" s="145">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="DD24" s="111">
+      <c r="DD24" s="109">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="DE24" s="111">
+      <c r="DE24" s="109">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="DF24" s="111">
+      <c r="DF24" s="109">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="DG24" s="111">
+      <c r="DG24" s="109">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="DH24" s="111">
+      <c r="DH24" s="109">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="DI24" s="111">
+      <c r="DI24" s="109">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="DJ24" s="111">
+      <c r="DJ24" s="109">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="DK24" s="111">
+      <c r="DK24" s="109">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="DL24" s="111">
+      <c r="DL24" s="109">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="DM24" s="111">
+      <c r="DM24" s="109">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="DN24" s="111">
+      <c r="DN24" s="109">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="DO24" s="111">
+      <c r="DO24" s="109">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="DP24" s="111">
+      <c r="DP24" s="109">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="DQ24" s="111">
+      <c r="DQ24" s="109">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="DR24" s="111">
+      <c r="DR24" s="109">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="DS24" s="111">
+      <c r="DS24" s="109">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="DT24" s="111">
+      <c r="DT24" s="109">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="DU24" s="111">
+      <c r="DU24" s="109">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="DV24" s="111">
+      <c r="DV24" s="109">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="DW24" s="111">
+      <c r="DW24" s="109">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="DX24" s="111">
+      <c r="DX24" s="109">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="DY24" s="111">
+      <c r="DY24" s="109">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="DZ24" s="111">
+      <c r="DZ24" s="109">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
@@ -13103,91 +13365,55 @@
         <v>140</v>
       </c>
       <c r="EK24" s="1">
-        <f t="shared" ref="EK24:EU24" si="2">COLUMN(EK24)</f>
+        <f t="shared" ref="EK24:FD24" si="2">COLUMN(EK24)</f>
         <v>141</v>
       </c>
       <c r="EL24" s="1">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="EM24" s="1">
-        <f t="shared" si="2"/>
-        <v>143</v>
-      </c>
-      <c r="EN24" s="1">
-        <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
-      <c r="EO24" s="1">
-        <f t="shared" si="2"/>
-        <v>145</v>
-      </c>
-      <c r="EP24" s="1">
-        <f t="shared" si="2"/>
-        <v>146</v>
-      </c>
-      <c r="EQ24" s="1">
-        <f t="shared" si="2"/>
-        <v>147</v>
-      </c>
-      <c r="ER24" s="1">
-        <f t="shared" si="2"/>
-        <v>148</v>
-      </c>
-      <c r="ES24" s="1">
-        <f t="shared" si="2"/>
-        <v>149</v>
-      </c>
-      <c r="ET24" s="1">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
       <c r="EU24" s="1">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="EV24" s="1">
-        <f>COLUMN(EV24)</f>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="EW24" s="1">
-        <f t="shared" ref="EW24:FR24" si="3">COLUMN(EW24)</f>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="EX24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="EY24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="EZ24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="FA24" s="1">
-        <f t="shared" si="3"/>
-        <v>157</v>
-      </c>
       <c r="FB24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="FC24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="FD24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="FE24" s="1">
-        <f t="shared" si="3"/>
+        <f>COLUMN(FE24)</f>
         <v>161</v>
       </c>
       <c r="FF24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="FF24:GB24" si="3">COLUMN(FF24)</f>
         <v>162</v>
       </c>
       <c r="FG24" s="1">
@@ -13206,10 +13432,6 @@
         <f t="shared" si="3"/>
         <v>166</v>
       </c>
-      <c r="FK24" s="1">
-        <f t="shared" si="3"/>
-        <v>167</v>
-      </c>
       <c r="FL24" s="1">
         <f t="shared" si="3"/>
         <v>168</v>
@@ -13238,156 +13460,202 @@
         <f t="shared" si="3"/>
         <v>174</v>
       </c>
+      <c r="FS24" s="1">
+        <f t="shared" si="3"/>
+        <v>175</v>
+      </c>
+      <c r="FT24" s="1">
+        <f t="shared" si="3"/>
+        <v>176</v>
+      </c>
+      <c r="FU24" s="1">
+        <f t="shared" si="3"/>
+        <v>177</v>
+      </c>
+      <c r="FV24" s="1">
+        <f t="shared" si="3"/>
+        <v>178</v>
+      </c>
+      <c r="FW24" s="1">
+        <f t="shared" si="3"/>
+        <v>179</v>
+      </c>
+      <c r="FX24" s="1">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="FY24" s="1">
+        <f t="shared" si="3"/>
+        <v>181</v>
+      </c>
+      <c r="FZ24" s="1">
+        <f t="shared" si="3"/>
+        <v>182</v>
+      </c>
+      <c r="GA24" s="1">
+        <f t="shared" si="3"/>
+        <v>183</v>
+      </c>
+      <c r="GB24" s="1">
+        <f t="shared" si="3"/>
+        <v>184</v>
+      </c>
     </row>
-    <row r="25" spans="1:174" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:184" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AQ25" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="26" spans="1:174" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="168" t="s">
+    <row r="26" spans="1:184" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="214" t="s">
         <v>284</v>
       </c>
-      <c r="E26" s="170" t="s">
+      <c r="E26" s="216" t="s">
         <v>233</v>
       </c>
-      <c r="F26" s="163" t="s">
+      <c r="F26" s="211" t="s">
         <v>232</v>
       </c>
-      <c r="G26" s="170" t="s">
+      <c r="G26" s="216" t="s">
         <v>283</v>
       </c>
-      <c r="H26" s="163" t="s">
+      <c r="H26" s="211" t="s">
         <v>282</v>
       </c>
-      <c r="I26" s="163" t="s">
+      <c r="I26" s="211" t="s">
         <v>281</v>
       </c>
-      <c r="J26" s="186" t="s">
+      <c r="J26" s="218" t="s">
+        <v>403</v>
+      </c>
+      <c r="K26" s="225" t="s">
         <v>404</v>
       </c>
-      <c r="K26" s="188" t="s">
-        <v>405</v>
-      </c>
-      <c r="L26" s="188"/>
-      <c r="M26" s="188"/>
-      <c r="N26" s="155" t="s">
+      <c r="L26" s="225"/>
+      <c r="M26" s="225"/>
+      <c r="N26" s="226" t="s">
         <v>280</v>
       </c>
-      <c r="Q26" s="157" t="s">
+      <c r="Q26" s="228" t="s">
         <v>279</v>
       </c>
-      <c r="R26" s="158"/>
-      <c r="S26" s="158"/>
-      <c r="T26" s="158"/>
-      <c r="U26" s="158"/>
-      <c r="V26" s="158"/>
-      <c r="W26" s="158"/>
-      <c r="X26" s="158"/>
-      <c r="Y26" s="158"/>
-      <c r="Z26" s="158"/>
-      <c r="AA26" s="158"/>
-      <c r="AB26" s="158"/>
-      <c r="AC26" s="159" t="s">
+      <c r="R26" s="229"/>
+      <c r="S26" s="229"/>
+      <c r="T26" s="229"/>
+      <c r="U26" s="229"/>
+      <c r="V26" s="229"/>
+      <c r="W26" s="229"/>
+      <c r="X26" s="229"/>
+      <c r="Y26" s="229"/>
+      <c r="Z26" s="229"/>
+      <c r="AA26" s="229"/>
+      <c r="AB26" s="229"/>
+      <c r="AC26" s="230" t="s">
         <v>278</v>
       </c>
-      <c r="AD26" s="160"/>
-      <c r="AE26" s="160"/>
-      <c r="AF26" s="160"/>
-      <c r="AG26" s="160"/>
-      <c r="AH26" s="160"/>
-      <c r="AI26" s="160"/>
-      <c r="AJ26" s="160"/>
-      <c r="AK26" s="160"/>
-      <c r="AL26" s="160"/>
-      <c r="AM26" s="160"/>
-      <c r="AN26" s="161"/>
-      <c r="AO26" s="159" t="s">
+      <c r="AD26" s="231"/>
+      <c r="AE26" s="231"/>
+      <c r="AF26" s="231"/>
+      <c r="AG26" s="231"/>
+      <c r="AH26" s="231"/>
+      <c r="AI26" s="231"/>
+      <c r="AJ26" s="231"/>
+      <c r="AK26" s="231"/>
+      <c r="AL26" s="231"/>
+      <c r="AM26" s="231"/>
+      <c r="AN26" s="232"/>
+      <c r="AO26" s="230" t="s">
         <v>277</v>
       </c>
-      <c r="AP26" s="160"/>
-      <c r="AQ26" s="160"/>
-      <c r="AR26" s="160"/>
-      <c r="AS26" s="160"/>
-      <c r="AT26" s="160"/>
-      <c r="AU26" s="160"/>
-      <c r="AV26" s="160"/>
-      <c r="AW26" s="160"/>
-      <c r="AX26" s="160"/>
-      <c r="AY26" s="160"/>
-      <c r="AZ26" s="160"/>
-      <c r="BA26" s="160"/>
-      <c r="BB26" s="161"/>
-      <c r="BC26" s="159" t="s">
+      <c r="AP26" s="231"/>
+      <c r="AQ26" s="231"/>
+      <c r="AR26" s="231"/>
+      <c r="AS26" s="231"/>
+      <c r="AT26" s="231"/>
+      <c r="AU26" s="231"/>
+      <c r="AV26" s="231"/>
+      <c r="AW26" s="231"/>
+      <c r="AX26" s="231"/>
+      <c r="AY26" s="231"/>
+      <c r="AZ26" s="231"/>
+      <c r="BA26" s="231"/>
+      <c r="BB26" s="232"/>
+      <c r="BC26" s="230" t="s">
         <v>276</v>
       </c>
-      <c r="BD26" s="160"/>
-      <c r="BE26" s="160"/>
-      <c r="BF26" s="160"/>
-      <c r="BG26" s="160"/>
-      <c r="BH26" s="160"/>
-      <c r="BI26" s="160"/>
-      <c r="BJ26" s="160"/>
-      <c r="BK26" s="160"/>
-      <c r="BL26" s="160"/>
-      <c r="BM26" s="160"/>
-      <c r="BN26" s="160"/>
-      <c r="BO26" s="160"/>
-      <c r="BP26" s="160"/>
-      <c r="BQ26" s="160"/>
-      <c r="BR26" s="160"/>
-      <c r="BS26" s="161"/>
-      <c r="BT26" s="152" t="s">
+      <c r="BD26" s="231"/>
+      <c r="BE26" s="231"/>
+      <c r="BF26" s="231"/>
+      <c r="BG26" s="231"/>
+      <c r="BH26" s="231"/>
+      <c r="BI26" s="231"/>
+      <c r="BJ26" s="231"/>
+      <c r="BK26" s="231"/>
+      <c r="BL26" s="231"/>
+      <c r="BM26" s="231"/>
+      <c r="BN26" s="231"/>
+      <c r="BO26" s="231"/>
+      <c r="BP26" s="231"/>
+      <c r="BQ26" s="231"/>
+      <c r="BR26" s="231"/>
+      <c r="BS26" s="232"/>
+      <c r="BT26" s="221" t="s">
         <v>275</v>
       </c>
-      <c r="BU26" s="153"/>
-      <c r="BV26" s="153"/>
-      <c r="BW26" s="153"/>
-      <c r="BX26" s="153"/>
-      <c r="BY26" s="153"/>
-      <c r="BZ26" s="153"/>
-      <c r="CA26" s="162" t="s">
+      <c r="BU26" s="222"/>
+      <c r="BV26" s="222"/>
+      <c r="BW26" s="222"/>
+      <c r="BX26" s="222"/>
+      <c r="BY26" s="222"/>
+      <c r="BZ26" s="222"/>
+      <c r="CA26" s="233" t="s">
         <v>274</v>
       </c>
-      <c r="CB26" s="162"/>
-      <c r="CC26" s="162"/>
-      <c r="CD26" s="162"/>
-      <c r="CE26" s="162"/>
-      <c r="CF26" s="162"/>
-      <c r="CG26" s="162"/>
-      <c r="CH26" s="162"/>
-      <c r="CI26" s="162"/>
-      <c r="CJ26" s="162"/>
-      <c r="CK26" s="162"/>
-      <c r="CL26" s="162"/>
-      <c r="CM26" s="162"/>
-      <c r="CN26" s="162"/>
-      <c r="CO26" s="162"/>
-      <c r="CP26" s="162"/>
-      <c r="CQ26" s="162"/>
-      <c r="CR26" s="162"/>
-      <c r="CS26" s="162"/>
-      <c r="CT26" s="162"/>
-      <c r="CU26" s="162"/>
-      <c r="CV26" s="162"/>
-      <c r="CW26" s="162"/>
-      <c r="CX26" t="s">
+      <c r="CB26" s="233"/>
+      <c r="CC26" s="233"/>
+      <c r="CD26" s="233"/>
+      <c r="CE26" s="233"/>
+      <c r="CF26" s="233"/>
+      <c r="CG26" s="233"/>
+      <c r="CH26" s="233"/>
+      <c r="CI26" s="233"/>
+      <c r="CJ26" s="233"/>
+      <c r="CK26" s="233"/>
+      <c r="CL26" s="233"/>
+      <c r="CM26" s="233"/>
+      <c r="CN26" s="233"/>
+      <c r="CO26" s="233"/>
+      <c r="CP26" s="233"/>
+      <c r="CQ26" s="233"/>
+      <c r="CR26" s="233"/>
+      <c r="CS26" s="233"/>
+      <c r="CT26" s="233"/>
+      <c r="CU26" s="233"/>
+      <c r="CV26" s="233"/>
+      <c r="CW26" t="s">
         <v>213</v>
       </c>
-      <c r="CY26" s="1" t="s">
+      <c r="CX26" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="CZ26" s="1">
-        <v>60</v>
-      </c>
-      <c r="DA26" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB26" s="1">
-        <v>1</v>
-      </c>
-      <c r="DC26" s="1">
-        <v>1</v>
+      <c r="CY26" s="168">
+        <f>60*$AB$5</f>
+        <v>6000</v>
+      </c>
+      <c r="CZ26" s="168">
+        <f>0*$AB$6</f>
+        <v>0</v>
+      </c>
+      <c r="DA26" s="163">
+        <f>$AB$5</f>
+        <v>100</v>
+      </c>
+      <c r="DB26" s="163">
+        <f>$AB$6</f>
+        <v>100</v>
+      </c>
+      <c r="DC26" s="170">
+        <v>0</v>
       </c>
       <c r="DD26" t="s">
         <v>272</v>
@@ -13399,9 +13667,9 @@
       <c r="DF26" t="s">
         <v>271</v>
       </c>
-      <c r="DG26">
+      <c r="DG26" t="str">
         <f>H6</f>
-        <v>0</v>
+        <v>??????</v>
       </c>
       <c r="DH26" t="s">
         <v>270</v>
@@ -13415,7 +13683,7 @@
       </c>
       <c r="DK26" t="str">
         <f>"Коэффициент спроса, Кс = "&amp;V11</f>
-        <v>Коэффициент спроса, Кс = 0,65</v>
+        <v>Коэффициент спроса, Кс = 1</v>
       </c>
       <c r="DL26" t="s">
         <v>268</v>
@@ -13442,320 +13710,366 @@
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:174" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="169"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="164"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="164"/>
-      <c r="I27" s="164"/>
-      <c r="J27" s="187"/>
-      <c r="K27" s="189" t="s">
+    <row r="27" spans="1:184" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="215"/>
+      <c r="E27" s="217"/>
+      <c r="F27" s="212"/>
+      <c r="G27" s="217"/>
+      <c r="H27" s="212"/>
+      <c r="I27" s="212"/>
+      <c r="J27" s="219"/>
+      <c r="K27" s="134" t="s">
         <v>265</v>
       </c>
-      <c r="L27" s="189" t="s">
+      <c r="L27" s="134" t="s">
         <v>264</v>
       </c>
-      <c r="M27" s="199" t="s">
+      <c r="M27" s="142" t="s">
         <v>263</v>
       </c>
-      <c r="N27" s="156"/>
-      <c r="Q27" s="82" t="s">
+      <c r="N27" s="227"/>
+      <c r="Q27" s="81" t="s">
         <v>339</v>
       </c>
-      <c r="R27" s="82" t="s">
+      <c r="R27" s="81" t="s">
         <v>262</v>
       </c>
-      <c r="S27" s="82" t="s">
+      <c r="S27" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="81" t="s">
+      <c r="T27" s="80" t="s">
         <v>261</v>
       </c>
-      <c r="U27" s="79" t="s">
+      <c r="U27" s="78" t="s">
         <v>260</v>
       </c>
-      <c r="V27" s="81" t="s">
+      <c r="V27" s="80" t="s">
         <v>259</v>
       </c>
-      <c r="W27" s="80" t="s">
+      <c r="W27" s="79" t="s">
         <v>258</v>
       </c>
-      <c r="X27" s="80" t="s">
+      <c r="X27" s="79" t="s">
         <v>257</v>
       </c>
-      <c r="Y27" s="79" t="s">
+      <c r="Y27" s="78" t="s">
         <v>256</v>
       </c>
-      <c r="Z27" s="78" t="s">
+      <c r="Z27" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="AA27" s="77" t="s">
+      <c r="AA27" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="AB27" s="76" t="s">
+      <c r="AB27" s="75" t="s">
         <v>253</v>
       </c>
-      <c r="AC27" s="72" t="s">
+      <c r="AC27" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="AD27" s="72" t="s">
+      <c r="AD27" s="71" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE27" s="71" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF27" s="71" t="s">
         <v>427</v>
       </c>
-      <c r="AE27" s="72" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF27" s="72" t="s">
+      <c r="AG27" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH27" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI27" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="AJ27" s="71" t="s">
+        <v>423</v>
+      </c>
+      <c r="AK27" s="71" t="s">
+        <v>424</v>
+      </c>
+      <c r="AL27" s="71" t="s">
+        <v>425</v>
+      </c>
+      <c r="AM27" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN27" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="AO27" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP27" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ27" s="71" t="s">
+        <v>244</v>
+      </c>
+      <c r="AR27" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS27" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="AT27" s="71" t="s">
+        <v>241</v>
+      </c>
+      <c r="AU27" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="AV27" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW27" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="AX27" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="AY27" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="AZ27" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="BA27" s="71" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB27" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC27" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="BD27" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="BE27" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="BF27" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG27" s="73" t="s">
+        <v>229</v>
+      </c>
+      <c r="BH27" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="BI27" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="BJ27" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="BK27" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="BL27" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="BM27" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="BN27" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="BO27" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="BP27" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="BQ27" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="BR27" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="BS27" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="BT27" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="BU27" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="BV27" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="BW27" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="BX27" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="BY27" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BZ27" s="115" t="s">
+        <v>216</v>
+      </c>
+      <c r="CA27" s="116" t="s">
+        <v>396</v>
+      </c>
+      <c r="CB27" s="116" t="s">
+        <v>395</v>
+      </c>
+      <c r="CC27" s="116" t="s">
+        <v>397</v>
+      </c>
+      <c r="CD27" s="127" t="s">
+        <v>402</v>
+      </c>
+      <c r="CE27" s="139" t="s">
         <v>428</v>
       </c>
-      <c r="AG27" s="72" t="s">
-        <v>249</v>
-      </c>
-      <c r="AH27" s="72" t="s">
-        <v>248</v>
-      </c>
-      <c r="AI27" s="72" t="s">
-        <v>251</v>
-      </c>
-      <c r="AJ27" s="72" t="s">
-        <v>424</v>
-      </c>
-      <c r="AK27" s="72" t="s">
-        <v>425</v>
-      </c>
-      <c r="AL27" s="72" t="s">
-        <v>426</v>
-      </c>
-      <c r="AM27" s="71" t="s">
-        <v>228</v>
-      </c>
-      <c r="AN27" s="70" t="s">
-        <v>247</v>
-      </c>
-      <c r="AO27" s="72" t="s">
-        <v>246</v>
-      </c>
-      <c r="AP27" s="72" t="s">
-        <v>245</v>
-      </c>
-      <c r="AQ27" s="72" t="s">
-        <v>244</v>
-      </c>
-      <c r="AR27" s="72" t="s">
-        <v>243</v>
-      </c>
-      <c r="AS27" s="72" t="s">
-        <v>242</v>
-      </c>
-      <c r="AT27" s="72" t="s">
-        <v>241</v>
-      </c>
-      <c r="AU27" s="72" t="s">
-        <v>240</v>
-      </c>
-      <c r="AV27" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="AW27" s="72" t="s">
-        <v>239</v>
-      </c>
-      <c r="AX27" s="72" t="s">
-        <v>238</v>
-      </c>
-      <c r="AY27" s="72" t="s">
-        <v>237</v>
-      </c>
-      <c r="AZ27" s="72" t="s">
-        <v>236</v>
-      </c>
-      <c r="BA27" s="72" t="s">
-        <v>235</v>
-      </c>
-      <c r="BB27" s="72" t="s">
-        <v>234</v>
-      </c>
-      <c r="BC27" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="BD27" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="BE27" s="74" t="s">
-        <v>231</v>
-      </c>
-      <c r="BF27" s="72" t="s">
-        <v>230</v>
-      </c>
-      <c r="BG27" s="74" t="s">
-        <v>229</v>
-      </c>
-      <c r="BH27" s="73" t="s">
-        <v>228</v>
-      </c>
-      <c r="BI27" s="71" t="s">
-        <v>227</v>
-      </c>
-      <c r="BJ27" s="71" t="s">
-        <v>226</v>
-      </c>
-      <c r="BK27" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="BL27" s="71" t="s">
-        <v>224</v>
-      </c>
-      <c r="BM27" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="BN27" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="BO27" s="71" t="s">
-        <v>220</v>
-      </c>
-      <c r="BP27" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="BQ27" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="BR27" s="71" t="s">
-        <v>217</v>
-      </c>
-      <c r="BS27" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="BT27" s="69" t="s">
-        <v>222</v>
-      </c>
-      <c r="BU27" s="69" t="s">
-        <v>221</v>
-      </c>
-      <c r="BV27" s="69" t="s">
-        <v>220</v>
-      </c>
-      <c r="BW27" s="69" t="s">
-        <v>219</v>
-      </c>
-      <c r="BX27" s="69" t="s">
-        <v>218</v>
-      </c>
-      <c r="BY27" s="69" t="s">
-        <v>217</v>
-      </c>
-      <c r="BZ27" s="117" t="s">
-        <v>216</v>
-      </c>
-      <c r="CA27" s="118" t="s">
-        <v>396</v>
-      </c>
-      <c r="CB27" s="118" t="s">
-        <v>395</v>
-      </c>
-      <c r="CC27" s="118" t="s">
-        <v>397</v>
-      </c>
-      <c r="CD27" s="130" t="s">
-        <v>402</v>
-      </c>
-      <c r="CE27" s="196" t="s">
+      <c r="CF27" s="139" t="s">
         <v>429</v>
       </c>
-      <c r="CF27" s="196" t="s">
+      <c r="CG27" s="139" t="s">
         <v>430</v>
       </c>
-      <c r="CG27" s="196" t="s">
+      <c r="CH27" s="139" t="s">
         <v>431</v>
       </c>
-      <c r="CH27" s="196" t="s">
+      <c r="CI27" s="150" t="s">
         <v>432</v>
       </c>
-      <c r="CI27" s="119"/>
-      <c r="CJ27" s="119"/>
-      <c r="CK27" s="119"/>
-      <c r="CL27" s="119"/>
-      <c r="CM27" s="119"/>
-      <c r="CN27" s="119"/>
-      <c r="CO27" s="119"/>
-      <c r="CP27" s="119"/>
-      <c r="CQ27" s="119"/>
-      <c r="CR27" s="119"/>
-      <c r="CS27" s="118"/>
-      <c r="CT27" s="118"/>
-      <c r="CU27" s="118"/>
-      <c r="CV27" s="118"/>
-      <c r="CW27" s="118"/>
-      <c r="CZ27" s="1">
-        <v>35</v>
-      </c>
-      <c r="EM27" s="154" t="s">
+      <c r="CJ27" s="150" t="s">
+        <v>448</v>
+      </c>
+      <c r="CK27" s="117"/>
+      <c r="CL27" s="172" t="s">
+        <v>449</v>
+      </c>
+      <c r="CM27" s="172" t="s">
+        <v>450</v>
+      </c>
+      <c r="CN27" s="117"/>
+      <c r="CO27" s="117"/>
+      <c r="CP27" s="117"/>
+      <c r="CQ27" s="117"/>
+      <c r="CR27" s="116"/>
+      <c r="CS27" s="116"/>
+      <c r="CT27" s="116"/>
+      <c r="CU27" s="116"/>
+      <c r="CV27" s="236" t="s">
+        <v>451</v>
+      </c>
+      <c r="CY27" s="235">
+        <f>35*$AB$5</f>
+        <v>3500</v>
+      </c>
+      <c r="CZ27" s="169">
+        <f>$AB$6</f>
+        <v>100</v>
+      </c>
+      <c r="DA27" s="164"/>
+      <c r="DB27" s="164"/>
+      <c r="DC27" s="171"/>
+      <c r="DF27" s="154"/>
+      <c r="DG27" s="154"/>
+      <c r="DH27" s="156"/>
+      <c r="DI27" s="157"/>
+      <c r="DJ27" s="156"/>
+      <c r="DK27" s="157"/>
+      <c r="DL27" s="156"/>
+      <c r="DM27" s="157"/>
+      <c r="DN27" s="160"/>
+      <c r="DO27" s="160"/>
+      <c r="DP27" s="160"/>
+      <c r="DQ27" s="160"/>
+      <c r="DR27" s="160"/>
+      <c r="DS27" s="160"/>
+      <c r="EM27" s="234" t="s">
+        <v>436</v>
+      </c>
+      <c r="EN27" s="234"/>
+      <c r="EO27" s="234"/>
+      <c r="EP27" s="234"/>
+      <c r="EQ27" s="234"/>
+      <c r="ER27" s="234"/>
+      <c r="ES27" s="234"/>
+      <c r="ET27" s="234"/>
+      <c r="EU27" s="223" t="s">
         <v>215</v>
       </c>
-      <c r="EN27" s="154"/>
-      <c r="EO27" s="154"/>
-      <c r="EP27" s="154"/>
-      <c r="EQ27" s="154"/>
-      <c r="ER27" s="154"/>
-      <c r="ES27" s="154"/>
-      <c r="ET27" s="154"/>
-      <c r="EU27" s="154"/>
-      <c r="EV27" s="154" t="s">
+      <c r="EV27" s="223"/>
+      <c r="EW27" s="223"/>
+      <c r="EX27" s="223"/>
+      <c r="EY27" s="223"/>
+      <c r="EZ27" s="223"/>
+      <c r="FA27" s="223"/>
+      <c r="FB27" s="223"/>
+      <c r="FC27" s="223"/>
+      <c r="FD27" s="223"/>
+      <c r="FE27" s="224" t="s">
         <v>214</v>
       </c>
-      <c r="EW27" s="154"/>
-      <c r="EX27" s="154"/>
-      <c r="EY27" s="154"/>
-      <c r="EZ27" s="154"/>
-      <c r="FA27" s="154"/>
-      <c r="FB27" s="154"/>
-      <c r="FC27" s="154"/>
-      <c r="FD27" s="154"/>
+      <c r="FF27" s="224"/>
+      <c r="FG27" s="224"/>
+      <c r="FH27" s="224"/>
+      <c r="FI27" s="224"/>
+      <c r="FJ27" s="224"/>
+      <c r="FK27" s="224"/>
+      <c r="FL27" s="224"/>
+      <c r="FM27" s="224"/>
+      <c r="FN27" s="224"/>
     </row>
-    <row r="28" spans="1:174" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:184" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>403</v>
-      </c>
-      <c r="D28" s="68">
+        <v>409</v>
+      </c>
+      <c r="D28" s="67">
         <f>IF(COUNT($CB$28:CB28)=MATCH(CA28,$CA$28:CA28,0),CA28,"")</f>
         <v>-1</v>
       </c>
-      <c r="E28" s="64" t="str">
+      <c r="E28" s="63" t="str">
         <f>IF(D28="","","АВ")</f>
         <v>АВ</v>
       </c>
-      <c r="F28" s="64">
+      <c r="F28" s="63">
         <f>IF(D28="","",1)</f>
         <v>1</v>
       </c>
-      <c r="G28" s="64" t="str">
+      <c r="G28" s="63" t="str">
         <f>IF(D28="","","АВ")</f>
         <v>АВ</v>
       </c>
-      <c r="H28" s="68" t="e">
+      <c r="H28" s="67" t="e">
         <f ca="1">IF(E28="","",IF(F28="",BQ28&amp;", "&amp;BR28&amp;", "&amp;BS28,IF(MATCH(F28,$F$28:F28,0)=MATCH(F28,$F$28:F28,1),BQ28&amp;", "&amp;BR28&amp;", "&amp;BS28,"")))</f>
         <v>#N/A</v>
       </c>
-      <c r="I28" s="68" t="e">
+      <c r="I28" s="67" t="e">
         <f ca="1">IF(G28="","",BX28&amp;", "&amp;BY28&amp;", "&amp;BZ28)</f>
         <v>#N/A</v>
       </c>
-      <c r="J28" s="185" t="e">
-        <f ca="1">AD28&amp;"кВт; "&amp;R28&amp;"В; "&amp;AE28&amp;"A; "&amp;AF28</f>
+      <c r="J28" s="133" t="e">
+        <f ca="1">IF(D28="","",AD28&amp;"кВт; "&amp;R28&amp;"В; "&amp;AE28&amp;"A; "&amp;AF28)</f>
         <v>#N/A</v>
       </c>
-      <c r="K28" s="200" t="e">
+      <c r="K28" s="143" t="e">
         <f>IF(CE28=0,"V","")</f>
         <v>#N/A</v>
       </c>
-      <c r="L28" s="200" t="e">
+      <c r="L28" s="143" t="e">
         <f>IF(CE28=1,"V","")</f>
         <v>#N/A</v>
       </c>
-      <c r="M28" s="200" t="e">
+      <c r="M28" s="143" t="e">
         <f>IF(CE28=2,"V","")</f>
         <v>#N/A</v>
       </c>
-      <c r="N28" s="198"/>
+      <c r="N28" s="141" t="e">
+        <f ca="1">AP28</f>
+        <v>#N/A</v>
+      </c>
       <c r="O28" t="str">
         <f>"&lt;zsetformulatocell toSheet=[zalldevEXPORT]  toCell=["&amp;ADDRESS(ROW('&lt;zalldev&gt;EXPORT'!W11),COLUMN('&lt;zalldev&gt;EXPORT'!W11))&amp;"] formula=[fromSheet!"&amp;ADDRESS(ROW(X28),COLUMN(X28))&amp;"]"</f>
         <v>&lt;zsetformulatocell toSheet=[zalldevEXPORT]  toCell=[$W$11] formula=[fromSheet!$X$28]</v>
@@ -13764,19 +14078,19 @@
         <f>'&lt;zalldev&gt;EXPORT'!D11</f>
         <v>0</v>
       </c>
-      <c r="R28" s="67" t="e">
+      <c r="R28" s="66" t="e">
         <f ca="1">IF(IFERROR(CC28,1)=1,INDEX(BD!$B$4:$B$5,MATCH('&lt;zalldev&gt;EXPORT'!AB11,BD!$A$4:$A$5,0)),INDIRECT("'"&amp;Q28&amp;"'!"&amp;"G1"))</f>
         <v>#N/A</v>
       </c>
-      <c r="S28" s="67" t="e">
+      <c r="S28" s="66" t="e">
         <f ca="1">IF(IFERROR(CC28,1)=1,INDEX(BD!$B$10:$B$13,MATCH('&lt;zalldev&gt;EXPORT'!AE11,BD!$A$10:$A$13,0)),INDIRECT("'"&amp;Q28&amp;"'!"&amp;"H1"))</f>
         <v>#N/A</v>
       </c>
-      <c r="T28" s="67">
+      <c r="T28" s="66">
         <f ca="1">IF(IFERROR(CC28,1)=1,Y28*X28,INDIRECT("'"&amp;Q28&amp;"'!"&amp;"E1"))</f>
         <v>0</v>
       </c>
-      <c r="U28" s="67">
+      <c r="U28" s="66">
         <f ca="1">IF(IFERROR(CC28,1)=1,'&lt;zalldev&gt;EXPORT'!Y11,INDIRECT("'"&amp;Q28&amp;"'!"&amp;"F1"))</f>
         <v>0</v>
       </c>
@@ -13793,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="53">
-        <f>'&lt;zalldev&gt;EXPORT'!AP11</f>
+        <f>'&lt;zalldev&gt;EXPORT'!AQ11</f>
         <v>1</v>
       </c>
       <c r="Z28" s="53">
@@ -13806,95 +14120,95 @@
         <f>'&lt;zalldev&gt;EXPORT'!P11</f>
         <v>0</v>
       </c>
-      <c r="AC28" s="61">
+      <c r="AC28" s="60">
         <v>1</v>
       </c>
-      <c r="AD28" s="61">
+      <c r="AD28" s="60">
         <f ca="1">IF(D28="","",AC28*SUMIFS($T$28:$T$700000,$CA$28:$CA$700000,CA28))</f>
         <v>0</v>
       </c>
-      <c r="AE28" s="61" t="e">
+      <c r="AE28" s="60" t="e">
         <f ca="1">IF(D28="","",ROUNDUP((AD28*1000)/(INDEX(BD!$C$4:$C$5,MATCH(R28,BD!$B$4:$B$5,0))*AF28),2))</f>
         <v>#N/A</v>
       </c>
-      <c r="AF28" s="61" t="e">
+      <c r="AF28" s="60" t="e">
         <f ca="1">IF(D28="","",ROUNDUP(COS(ATAN(ROUNDUP(AG28/AD28,2))),2))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG28" s="61">
+      <c r="AG28" s="60">
         <f ca="1">IF(D28="","",AC28*SUMIFS($W$28:$W$12004,$CA$28:$CA$12004,CA28))</f>
         <v>0</v>
       </c>
-      <c r="AH28" s="61">
+      <c r="AH28" s="60">
         <f ca="1">IF(D28="","",ROUNDUP(SQRT(AD28*AD28+AG28*AG28),2))</f>
         <v>0</v>
       </c>
-      <c r="AI28" s="61" t="e">
+      <c r="AI28" s="60" t="e">
         <f ca="1">IF(D28="","",ROUNDUP((1/1000)*(100/R28)*IF(R28&lt;380,2,SQRT(3))*AE28*AQ28*(INDEX(INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$C$4:$AH$4,1,MATCH(AR28&amp;AS28&amp;AT28&amp;"R",BDКаб!$C$3:$AH$3,0))),MATCH(AV28,BDКаб!$B$5:$B$12,0))*AF28 + INDEX(INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$C$4:$AH$4,1,MATCH(AR28&amp;AS28&amp;AT28&amp;"X",BDКаб!$C$3:$AH$3,0))),MATCH(AV28,BDКаб!$B$5:$B$12,0))*SQRT(1-AF28*AF28)),2))</f>
         <v>#N/A</v>
       </c>
-      <c r="AJ28" s="201" t="e">
+      <c r="AJ28" s="144" t="e">
         <f>IF(CE28=0,IF(CH28=0,T28,T28+SUMIF(CF28:$CF$700000,Q28,AK28:$AK$700000)),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="AK28" s="201" t="e">
+      <c r="AK28" s="144" t="e">
         <f>IF(CE28=1,IF(CH28=0,T28,T28+SUMIF(CF28:$CF$700000,Q28,AL28:$AL$700000)),"")</f>
         <v>#N/A</v>
       </c>
-      <c r="AL28" s="201" t="e">
+      <c r="AL28" s="144" t="e">
         <f>IF(CE28=2,T28,"")</f>
         <v>#N/A</v>
       </c>
-      <c r="AM28" s="60">
+      <c r="AM28" s="59">
         <f>IF(D28="","",1.3)</f>
         <v>1.3</v>
       </c>
-      <c r="AN28" s="60">
+      <c r="AN28" s="59">
         <f>IF(AO28="","",3)</f>
         <v>3</v>
       </c>
-      <c r="AO28" s="61" t="str">
-        <f>IF(CD28="0",IF(D28="","",'&lt;zalldev&gt;EXPORT'!J11&amp;"."&amp;'&lt;zalldev&gt;EXPORT'!M11),'&lt;zalldev&gt;EXPORT'!J11&amp;"."&amp;'&lt;zalldev&gt;EXPORT'!M11)</f>
+      <c r="AO28" s="60" t="str">
+        <f>IF(CD28=0,IF(D28="","",'&lt;zalldev&gt;EXPORT'!J11&amp;"."&amp;'&lt;zalldev&gt;EXPORT'!M11),'&lt;zalldev&gt;EXPORT'!J11&amp;"."&amp;'&lt;zalldev&gt;EXPORT'!M11)</f>
         <v>.</v>
       </c>
-      <c r="AP28" s="61" t="e">
+      <c r="AP28" s="60" t="e">
         <f ca="1">IF(AO28="","",AW28&amp;"-"&amp;AU28&amp;"х"&amp;AV28&amp;"мм²")</f>
         <v>#N/A</v>
       </c>
-      <c r="AQ28" s="131" t="e">
+      <c r="AQ28" s="128" t="e">
         <f>IF(AO28="","",INDEX('&lt;zallcab&gt;CALC'!$X$7:$X$700000,MATCH(AO28,'&lt;zallcab&gt;CALC'!$D$7:$D$700000,0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="AR28" s="60" t="str">
+      <c r="AR28" s="59" t="str">
         <f>IF(AO28="","","М")</f>
         <v>М</v>
       </c>
-      <c r="AS28" s="60" t="str">
+      <c r="AS28" s="59" t="str">
         <f>IF(AO28="","","М")</f>
         <v>М</v>
       </c>
-      <c r="AT28" s="60" t="str">
+      <c r="AT28" s="59" t="str">
         <f>IF(AO28="","","В")</f>
         <v>В</v>
       </c>
-      <c r="AU28" s="66" t="e">
+      <c r="AU28" s="65" t="e">
         <f ca="1">IF(AO28="","",IF(R28=380,5,3))</f>
         <v>#N/A</v>
       </c>
-      <c r="AV28" s="66" t="e">
+      <c r="AV28" s="65" t="e">
         <f ca="1">IF(AO28="","",IF(AY28&gt;IF(BA28&gt;BB28,BA28,BB28),AY28,IF(BA28&gt;BB28,BA28,BB28)))</f>
         <v>#N/A</v>
       </c>
-      <c r="AW28" s="66" t="str">
+      <c r="AW28" s="65" t="str">
         <f>IF(AO28="","","ВВГнг(А)-LS")</f>
         <v>ВВГнг(А)-LS</v>
       </c>
-      <c r="AX28" s="66" t="e">
-        <f ca="1">IF(AO28="","",(AN28*380*1000)/(SQRT(3)*IF(AO28="","",IF(D28="",V28,AE28))*AQ28*100))</f>
+      <c r="AX28" s="65" t="e">
+        <f ca="1">IF(AO28="","",(AN28*380*1000)/(SQRT(3)*IF(AO28="","",IF(D28="",ROUNDUP((SUM(AJ28:AL28)*1000)/(INDEX(BD!$C$4:$C$5,MATCH(R28,BD!$B$4:$B$5,0))*U28),2),AE28))*AQ28*100))</f>
         <v>#N/A</v>
       </c>
-      <c r="AY28" s="60"/>
-      <c r="AZ28" s="60"/>
+      <c r="AY28" s="59"/>
+      <c r="AZ28" s="59"/>
       <c r="BA28" t="e">
         <f ca="1">IF(AO28="","",INDEX(BDКаб!$B$5:$B$12,MATCH(AX28,INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$B$4:$AH$4,MATCH(AR28&amp;AS28&amp;AT28&amp;"Z",BDКаб!$B$3:$AH$3,0))),-1)+1))</f>
         <v>#N/A</v>
@@ -13903,94 +14217,92 @@
         <f ca="1">IF(AO28="","",INDEX(BDКаб!$B$5:$B$12,MATCH(IF(AO28="","",IF(E28="",V28,AE28)),INDIRECT("BDКаб!"&amp;INDEX(BDКаб!$B$4:$AH$4,MATCH(AR28&amp;AS28&amp;AT28&amp;"I",BDКаб!$B$3:$AH$3,0))),1)+1))</f>
         <v>#N/A</v>
       </c>
-      <c r="BC28" s="65" t="str">
+      <c r="BC28" s="64" t="str">
         <f>IF(E28="","",E28)</f>
         <v>АВ</v>
       </c>
-      <c r="BD28" s="65">
+      <c r="BD28" s="64">
         <f>IF(F28="","",F28)</f>
         <v>1</v>
       </c>
-      <c r="BE28" s="65" t="e">
+      <c r="BE28" s="64" t="e">
         <f ca="1">IF(AE28="","",AE28)</f>
         <v>#N/A</v>
       </c>
-      <c r="BF28" s="62" t="e">
+      <c r="BF28" s="61" t="e">
         <f ca="1">IF(BC28="","",IF(BD28="",BE28,SUMIFS($BE$28:$BE$500004,$BD$28:$BD$500004,BD28)))</f>
         <v>#N/A</v>
       </c>
-      <c r="BG28" s="65" t="e">
+      <c r="BG28" s="64" t="e">
         <f ca="1">IF(BC28="","",IF(R28&lt;380,1,3))</f>
         <v>#N/A</v>
       </c>
-      <c r="BH28" s="63">
+      <c r="BH28" s="62">
         <f>IF(BC28="","",1.3)</f>
         <v>1.3</v>
       </c>
-      <c r="BI28" s="62" t="e">
+      <c r="BI28" s="61" t="e">
         <f ca="1">IF(BC28="","",IF(BH28="",BF28*1.3,BH28*BF28))</f>
         <v>#N/A</v>
       </c>
-      <c r="BJ28" s="62" t="e">
+      <c r="BJ28" s="61" t="e">
         <f ca="1">IF(BC28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(BC28&amp;"I",BD!$K$4:$BY$4,0))),MATCH(BI28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(BC28&amp;"I",BD!$K$4:$BY$4,0))),-1)))</f>
         <v>#N/A</v>
       </c>
-      <c r="BK28" s="64">
+      <c r="BK28" s="63">
         <f>IF(BC28="","",10)</f>
         <v>10</v>
       </c>
-      <c r="BL28" t="s">
-        <v>325</v>
-      </c>
-      <c r="BM28" s="62" t="str">
-        <f>IF(BC28="","",IF(BL28="",IF(BJ28&gt;=BK28,BJ28,BK28),BL28))</f>
-        <v>пусто</v>
-      </c>
-      <c r="BN28" s="60" t="str">
+      <c r="BL28" s="146"/>
+      <c r="BM28" s="61" t="e">
+        <f ca="1">IF(BC28="","",IF(BL28="",IF(BJ28&gt;=BK28,BJ28,BK28),BL28))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BN28" s="59" t="str">
         <f>IF(E28="","","C")</f>
         <v>C</v>
       </c>
-      <c r="BO28" s="59" t="e">
+      <c r="BO28" s="58" t="e">
         <f ca="1">IF(E28="","",IF(R28=380,3,1))</f>
         <v>#N/A</v>
       </c>
-      <c r="BP28" s="59" t="str">
-        <f>IF(E28="","","30")</f>
-        <v>30</v>
-      </c>
-      <c r="BQ28" s="59" t="e">
+      <c r="BP28" s="58" t="str">
+        <f>IF(BC28="","",IF(BC28="АВДТ","30мА",IF(BC28="УЗО","30мА","")))</f>
+        <v/>
+      </c>
+      <c r="BQ28" s="58" t="e">
         <f ca="1">IF(E28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"О",BD!$K$4:$BY$4,0))),MATCH(BJ28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"I",BD!$K$4:$BY$4,0))),0))&amp;D28)</f>
         <v>#N/A</v>
       </c>
-      <c r="BR28" s="58" t="e">
+      <c r="BR28" s="57" t="e">
         <f ca="1">IF(E28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"М",BD!$K$4:$BY$4,0))),MATCH(BJ28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="BS28" t="e">
-        <f ca="1">IF(E28="","",BO28&amp;"P,"&amp;BJ28&amp;"А,"&amp;BN28&amp;IF(BP28="","",","&amp;BP28&amp;"мА"))</f>
+      <c r="BS28" s="147" t="e">
+        <f ca="1">IF(E28="","",BO28&amp;"P,"&amp;BM28&amp;"А,"&amp;BN28&amp;IF(BP28="","",","&amp;BP28))</f>
         <v>#N/A</v>
       </c>
-      <c r="BT28" s="61" t="e">
+      <c r="BT28" s="60" t="e">
         <f ca="1">IF(G28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"I",BD!$K$4:$CB$4,0))),MATCH(AM28*AE28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"I",BD!$K$4:$CB$4,0))),-1)))</f>
         <v>#N/A</v>
       </c>
-      <c r="BU28" s="60" t="str">
+      <c r="BU28" s="59" t="str">
         <f>IF(G28="","","C")</f>
         <v>C</v>
       </c>
-      <c r="BV28" s="59" t="str">
+      <c r="BV28" s="58" t="str">
         <f>IF(G28="","","3")</f>
         <v>3</v>
       </c>
-      <c r="BW28" s="59" t="str">
+      <c r="BW28" s="58" t="str">
         <f>IF(G28="","","30")</f>
         <v>30</v>
       </c>
-      <c r="BX28" s="59" t="e">
+      <c r="BX28" s="58" t="e">
         <f ca="1">IF(G28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"О",BD!$K$4:$CB$4,0))),MATCH(BT28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"I",BD!$K$4:$CB$4,0))),0))&amp;D28)</f>
         <v>#N/A</v>
       </c>
-      <c r="BY28" s="58" t="e">
+      <c r="BY28" s="57" t="e">
         <f ca="1">IF(G28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"М",BD!$K$4:$CB$4,0))),MATCH(BT28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
         <v>#N/A</v>
       </c>
@@ -13998,110 +14310,117 @@
         <f ca="1">IF(G28="","",BV28&amp;"P,"&amp;BT28&amp;"А,"&amp;BU28&amp;IF(BW28="","",","&amp;BW28&amp;"мА"))</f>
         <v>#N/A</v>
       </c>
-      <c r="CA28" s="120">
-        <f>'&lt;zalldev&gt;EXPORT'!AM11</f>
+      <c r="CA28" s="118">
+        <f>'&lt;zalldev&gt;EXPORT'!AN11</f>
         <v>-1</v>
       </c>
-      <c r="CB28" s="120">
+      <c r="CB28" s="118">
         <f>COUNT($CA$28:CA28)</f>
         <v>1</v>
       </c>
-      <c r="CC28" s="120" t="e">
+      <c r="CC28" s="118" t="e">
         <f ca="1">INDIRECT("'"&amp;Q28&amp;"'!"&amp;"X14")</f>
         <v>#REF!</v>
       </c>
-      <c r="CD28" s="120" t="str">
-        <f>'&lt;zalldev&gt;EXPORT'!AN11</f>
+      <c r="CD28" s="118" t="str">
+        <f>'&lt;zalldev&gt;EXPORT'!AO11</f>
         <v>-1</v>
       </c>
-      <c r="CE28" s="197" t="e">
-        <f>'&lt;zalldev&gt;EXPORT'!AV11-$V$16-1</f>
+      <c r="CE28" s="140" t="e">
+        <f>'&lt;zalldev&gt;EXPORT'!AW11-$V$16-1</f>
         <v>#N/A</v>
       </c>
-      <c r="CF28" s="197">
+      <c r="CF28" s="140">
         <f>'&lt;zalldev&gt;EXPORT'!J11</f>
         <v>0</v>
       </c>
-      <c r="CG28" s="197">
-        <f>'&lt;zalldev&gt;EXPORT'!M11</f>
-        <v>0</v>
-      </c>
-      <c r="CH28" s="197">
-        <f>'&lt;zalldev&gt;EXPORT'!AU11</f>
-        <v>0</v>
-      </c>
-      <c r="CI28" s="122">
-        <f>COUNT($CA$28:CA28)</f>
+      <c r="CG28" s="140">
+        <f>'&lt;zalldev&gt;EXPORT'!M11*1</f>
+        <v>0</v>
+      </c>
+      <c r="CH28" s="140">
+        <f>'&lt;zalldev&gt;EXPORT'!AV11*1</f>
+        <v>0</v>
+      </c>
+      <c r="CI28" s="151">
+        <f>IF(COUNT($CA$28:CA28)=1,1,IF(INDEX($CA$28:CA28,COUNT($CA$28:CA28)-1)=INDEX($CA$28:CA28,COUNT($CA$28:CA28)),0,COUNT($CA$28:CA28)))*1</f>
         <v>1</v>
       </c>
-      <c r="CJ28" s="122">
+      <c r="CJ28" s="151">
+        <f>IF(CH28&gt;0,IF(CE28=0,SUMIFS(CD28:$CD$700000,CA28:$CA$700000,CA28,CE28:$CE$700000,1),0),0)*1</f>
+        <v>0</v>
+      </c>
+      <c r="CK28" s="119">
         <f>IF('&lt;zalldev&gt;EXPORT'!W11=0,'&lt;zalldev&gt;EXPORT'!W11,1)</f>
         <v>0</v>
       </c>
-      <c r="CK28" s="122"/>
-      <c r="CL28" s="122"/>
-      <c r="CM28" s="123">
-        <f>IF(MATCH(CA28,$CA$28:CA28,0)=COUNT($CA$28:CA28),COUNTIFS(F28:$F$120004,F28),0)</f>
+      <c r="CL28" s="173">
+        <f>IF(MATCH(CA28,$CA$28:CA28,0)=COUNT($CA$28:CA28),COUNTIFS(F28:$F$120004,F28),0)*1</f>
         <v>1</v>
       </c>
-      <c r="CN28" s="121">
-        <f>IF(INDEX($CM$28:CM28,MATCH(CA28,$CA$28:CA28,0))&gt;1,IF(CM28=0,2,1),IF(CM28=1,1,0))</f>
+      <c r="CM28" s="151">
+        <f>IF(INDEX($CL$28:CL28,MATCH(CA28,$CA$28:CA28,0))&gt;1,IF(CL28=0,2,1),IF(CL28=1,1,0))*1</f>
         <v>1</v>
       </c>
-      <c r="CO28" s="123">
-        <f>INDEX($CJ$28:CJ28,COUNT($CA$28:CA28)-1)</f>
-        <v>0</v>
-      </c>
-      <c r="CP28" s="123">
-        <f>IF(INDEX($CJ$28:$CJ$120004,COUNT($CA$28:CA28))=1,IF(INDEX($CJ$28:$CJ$120004,COUNT($CA$28:CA28)+1)=1,1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="CQ28" s="124">
+      <c r="CN28" s="120">
+        <f>INDEX($CK$28:CK28,COUNT($CA$28:CA28)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="CO28" s="120">
+        <f>IF(INDEX($CK$28:$CK$120004,COUNT($CA$28:CA28))=1,IF(INDEX($CK$28:$CK$120004,COUNT($CA$28:CA28)+1)=1,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="CP28" s="121">
         <f>IF(COUNT($CA$28:CA28)=1,1,IF(INDEX($CA$28:CA28,COUNT($CA$28:CA28)-1)=INDEX($CA$28:CA28,COUNT($CA$28:CA28)),0,COUNT($CA$28:CA28)))</f>
         <v>1</v>
       </c>
-      <c r="CR28" s="124">
-        <f>IF(CQ28&gt;0,ROW(CR28),"-")</f>
+      <c r="CQ28" s="121">
+        <f>IF(CP28&gt;0,ROW(CQ28),"-")</f>
         <v>28</v>
       </c>
-      <c r="CS28" s="124">
-        <f>IF(CK28=0,0,SUMIFS(CJ28:$CJ$120004,CK28:$CK$120004,CK28))</f>
-        <v>0</v>
-      </c>
-      <c r="CT28" s="124">
-        <f ca="1">IF(COUNTIF(INDIRECT(ADDRESS(ROW(CT28),COLUMN(CK28))&amp;":"&amp;ADDRESS(MIN(CR28:$CR$120004),COLUMN(CK28))),0)&gt;1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="CU28" s="123">
-        <f>IF(CI28=1,0,IF(INDEX($CA$28:CA28,CI28-1)=CA28,IF(INDEX($CK$28:CK28,CI28-1)=CK28,IF(INDEX($CL$28:CL28,CI28-1)=CL28,1,0),0),0))</f>
-        <v>0</v>
-      </c>
-      <c r="CV28" s="125" t="e">
+      <c r="CR28" s="121" t="e">
+        <f>IF(#REF!=0,0,SUMIFS(CK28:$CK$120004,#REF!,#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="CS28" s="121" t="e">
+        <f ca="1">IF(COUNTIF(INDIRECT(ADDRESS(ROW(CS28),COLUMN(#REF!))&amp;":"&amp;ADDRESS(MIN(CQ28:$CQ$120004),COLUMN(#REF!))),0)&gt;1,1,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="CT28" s="120">
+        <f>IF(CI28=1,0,IF(INDEX($CA$28:CA28,CI28-1)=CA28,IF(INDEX(#REF!,CI28-1)=#REF!,IF(INDEX(#REF!,CI28-1)=#REF!,1,0),0),0))</f>
+        <v>0</v>
+      </c>
+      <c r="CU28" s="122" t="e">
         <f>MATCH(1,K28:M28,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="CW28" s="124">
-        <f>IF(CI28&lt;&gt;1,INDEX($CW$28:CW28,CI28-1)+25 - IF(CJ28=0,IF(CO28=1,IF(CS28&lt;2,25,0),0),0),60)</f>
-        <v>60</v>
-      </c>
-      <c r="CX28" t="s">
+      <c r="CV28" s="173">
+        <f>IF(CB28=1,0,IF(CH28=0,IF(INDEX($CH$28:$CH$700000,CB28-1)&gt;0,1,0),0))</f>
+        <v>0</v>
+      </c>
+      <c r="CW28" t="s">
         <v>213</v>
       </c>
-      <c r="CY28" s="1" t="s">
+      <c r="CX28" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="CZ28" s="1">
-        <f>CW28</f>
-        <v>60</v>
-      </c>
-      <c r="DA28" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB28" s="1">
-        <v>1</v>
-      </c>
-      <c r="DC28" s="1">
-        <v>1</v>
+      <c r="CY28" s="235">
+        <f>$CY$27+25*$AB$5*CB28-COUNTIF($CV$28:CV28,1)*25*$AB$5</f>
+        <v>6000</v>
+      </c>
+      <c r="CZ28" s="168">
+        <v>0</v>
+      </c>
+      <c r="DA28" s="163">
+        <f>$AB$5</f>
+        <v>100</v>
+      </c>
+      <c r="DB28" s="163">
+        <f>$AB$6</f>
+        <v>100</v>
+      </c>
+      <c r="DC28" s="170">
+        <v>0</v>
       </c>
       <c r="DD28" s="1" t="s">
         <v>211</v>
@@ -14110,78 +14429,81 @@
         <f ca="1">IF(S28="ABC","BOOLEAN_1","BOOLEAN_0")</f>
         <v>#N/A</v>
       </c>
-      <c r="DF28" s="1" t="s">
+      <c r="DF28" s="155" t="s">
         <v>210</v>
       </c>
-      <c r="DG28" s="1" t="e">
-        <f ca="1">IF(H28&lt;&gt;"","INTEGER_0",IF(CM28=0,IF(CN28=0,"INTEGER_3","INTEGER_"&amp;CN28),"INTEGER_"&amp;CN28))</f>
+      <c r="DG28" s="155" t="e">
+        <f ca="1">IF(H28&lt;&gt;"","INTEGER_0",IF(CL28=0,IF(CM28=0,"INTEGER_3","INTEGER_"&amp;CM28),"INTEGER_"&amp;CM28))</f>
         <v>#N/A</v>
       </c>
-      <c r="DH28" s="57" t="s">
+      <c r="DH28" s="158" t="s">
         <v>209</v>
       </c>
-      <c r="DI28" t="s">
-        <v>325</v>
-      </c>
-      <c r="DJ28" s="57" t="s">
+      <c r="DI28" s="159" t="str">
+        <f ca="1">IFERROR(_xlfn.IFS(DG28="INTEGER_0","INTEGER_0",INDEX($CJ$28:$CJ$700000,CB28-1)&gt;0,"INTEGER_2"),"INTEGER_0")</f>
+        <v>INTEGER_0</v>
+      </c>
+      <c r="DJ28" s="158" t="s">
         <v>208</v>
       </c>
-      <c r="DK28" s="1" t="str">
+      <c r="DK28" s="156" t="str">
         <f t="shared" ref="DK28" si="4">"INTEGER_0"</f>
         <v>INTEGER_0</v>
       </c>
-      <c r="DL28" s="57" t="s">
+      <c r="DL28" s="158" t="s">
         <v>207</v>
       </c>
-      <c r="DM28" t="s">
-        <v>325</v>
-      </c>
-      <c r="DN28" s="57" t="s">
+      <c r="DM28" s="149" t="str">
+        <f ca="1">IFERROR(_xlfn.IFS(DI28="INTEGER_2","INTEGER_2",DG28="INTEGER_3","INTEGER_0",DG28="INTEGER_2","INTEGER_0",DI28="INTEGER_0","INTEGER_4"),"INTEGER_0")</f>
+        <v>INTEGER_0</v>
+      </c>
+      <c r="DN28" s="161" t="s">
         <v>206</v>
       </c>
-      <c r="DO28" s="133" t="str">
-        <f ca="1">IFERROR(_xlfn.IFS(CU28="INTEGER_0","INTEGER_0",CU28="INTEGER_1","INTEGER_0",IF(BY28=1,IF(CJ28=1,1,0),0),"INTEGER_1",IF(BT28=1,IF(BY28=1,1,0),0),"INTEGER_2",IF(BT28=0,IF(BY28=1,1,0),0),"INTEGER_0",IF(BY28=1,IF(CJ28=2,IF(BU28=0,IF(CD28=0,1,0),0),0),0),"INTEGER_2",IF(BY28=1,IF(CJ28=2,IF(BU28=0,IF(CD28&lt;&gt;0,1,0),0),0),0),"INTEGER_4",IF(BY28=1,IF(CJ28=2,IF(BU28&lt;&gt;0,1,0),0),0),"INTEGER_3",IF(BY28=0,IF(BT28=1,IF(CI28=1,1,0),0),0),"INTEGER_5"),"INTEGER_0")</f>
+      <c r="DO28" s="149" t="str">
+        <f>IFERROR(_xlfn.IFS(IF(CJ28&gt;0,1,0),"INTEGER_0",INDEX($CJ$28:$CJ$700000,CB28-1)&gt;0,"INTEGER_0",IF(CI28=0,1,0),"INTEGER_3"),"INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
-      <c r="DP28" s="57" t="s">
+      <c r="DP28" s="161" t="s">
         <v>205</v>
       </c>
-      <c r="DQ28" s="1" t="str">
-        <f t="shared" ref="DQ28" si="5">IF(CP28=0,"INTEGER_0","INTEGER_0")</f>
+      <c r="DQ28" s="162" t="str">
+        <f t="shared" ref="DQ28" si="5">IF(CO28=0,"INTEGER_0","INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
-      <c r="DR28" s="57" t="s">
+      <c r="DR28" s="161" t="s">
         <v>204</v>
       </c>
-      <c r="DS28" t="s">
-        <v>325</v>
+      <c r="DS28" s="149" t="str">
+        <f ca="1">IFERROR(_xlfn.IFS(IF(CJ28&gt;0,1,0),"INTEGER_0",DO28="INTEGER_3","INTEGER_3",DI28="INTEGER_0","INTEGER_5"),"INTEGER_0")</f>
+        <v>INTEGER_5</v>
       </c>
       <c r="DT28" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="DU28" s="1">
-        <f>IF(Y28&gt;1,Q28&amp;"("&amp;Y28&amp;"шт.)",Q28)</f>
+      <c r="DU28" s="235">
+        <f>IF(CH28&gt;0,"",IF(Y28&gt;1,Q28&amp;"("&amp;Y28&amp;"шт.)",Q28))</f>
         <v>0</v>
       </c>
       <c r="DV28" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="DW28" s="1">
-        <f ca="1">T28</f>
+      <c r="DW28" s="235">
+        <f ca="1">IF(CH28&gt;0,"",T28)</f>
         <v>0</v>
       </c>
       <c r="DX28" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="DY28" s="1" t="e">
-        <f ca="1">V28</f>
+      <c r="DY28" s="235" t="e">
+        <f ca="1">IF(CH28&gt;0,"",V28)</f>
         <v>#N/A</v>
       </c>
       <c r="DZ28" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="EA28" s="1" t="e">
-        <f ca="1">AB28&amp;"\P~"&amp;R28&amp;"V"</f>
+      <c r="EA28" s="235" t="e">
+        <f ca="1">IF(CH28&gt;0,"",AB28&amp;"\P~"&amp;R28&amp;"V")</f>
         <v>#N/A</v>
       </c>
       <c r="EB28" s="56" t="s">
@@ -14194,132 +14516,159 @@
       <c r="ED28" s="56" t="s">
         <v>198</v>
       </c>
-      <c r="EE28" t="s">
-        <v>325</v>
+      <c r="EE28" s="149" t="str">
+        <f>IFERROR(_xlfn.IFS(IF(CJ28&gt;0,1,0),AP28,IF(CH28&gt;0,IF(INDEX($CJ$28:$CJ$700000,CB28-1)&gt;0,1,0),0),AP28,IF(CJ28=0,1,0),""),AP28)</f>
+        <v/>
       </c>
       <c r="EF28" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="EG28" t="s">
-        <v>325</v>
+      <c r="EG28" s="149" t="str">
+        <f>IFERROR(_xlfn.IFS(IF(CJ28&gt;0,1,0),IF(AQ28&lt;&gt;"","L="&amp;AQ28&amp;"м"," "),IF(CH28&gt;0,IF(INDEX($CJ$28:$CJ$700000,CB28-1)&gt;0,1,0),0),IF(AQ28&lt;&gt;"","L="&amp;AQ28&amp;"м"," "),IF(CJ28=0,1,0),""),IF(AQ28&lt;&gt;"","L="&amp;AQ28&amp;"м"," "))</f>
+        <v/>
       </c>
       <c r="EH28" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="EI28" s="56" t="e">
-        <f ca="1">AP28</f>
+      <c r="EI28" s="235" t="e">
+        <f ca="1">IF(EE28="",AP28,"")</f>
         <v>#N/A</v>
       </c>
       <c r="EJ28" s="56" t="str">
         <f>"VSCHEMACable22"</f>
         <v>VSCHEMACable22</v>
       </c>
-      <c r="EK28" s="56" t="e">
-        <f>IF(AQ28&lt;&gt;"","L="&amp;AQ28&amp;"м"," ")</f>
+      <c r="EK28" s="235" t="e">
+        <f>IF(EG28="",IF(AQ28&lt;&gt;"","L="&amp;AQ28&amp;"м"," "),"")</f>
         <v>#N/A</v>
       </c>
       <c r="EL28" t="s">
         <v>195</v>
       </c>
-      <c r="EM28" t="e">
+      <c r="EM28" s="164" t="s">
+        <v>213</v>
+      </c>
+      <c r="EN28" s="149" t="str">
+        <f>'&lt;zalldev&gt;EXPORT'!AJ11</f>
+        <v>&lt;zcadnameblock&gt;</v>
+      </c>
+      <c r="EO28" s="149" t="e">
+        <f>CY28+12.5*$AB$5+INDEX(BDUGO!$D$4:$D$15,MATCH(IF(CH28&gt;0,"UU","")&amp;EN28,BDUGO!$C$4:$C$15,0))*$AB$5</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EP28" s="149" t="e">
+        <f>CZ28+42.5*$AB$6+INDEX(BDUGO!$E$4:$E$15,MATCH(IF(CH28&gt;0,"UU","")&amp;EN28,BDUGO!$C$4:$C$15,0))*$AB$6</f>
+        <v>#N/A</v>
+      </c>
+      <c r="EQ28" s="149" t="e">
+        <f>IF(INDEX(BDUGO!$F$4:$F$15,MATCH(IF(CH28&gt;0,"UU","")&amp;EN28,BDUGO!$C$4:$C$15,0))=0,1,INDEX(BDUGO!$F$4:$F$15,MATCH(IF(CH28&gt;0,"UU","")&amp;EN28,BDUGO!$C$4:$C$15,0)))*$AB$5</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ER28" s="149" t="e">
+        <f>IF(INDEX(BDUGO!$G$4:$G$15,MATCH(IF(CH28&gt;0,"UU","")&amp;EN28,BDUGO!$C$4:$C$15,0))=0,1,INDEX(BDUGO!$G$4:$G$15,MATCH(IF(CH28&gt;0,"UU","")&amp;EN28,BDUGO!$C$4:$C$15,0)))*$AB$6</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ES28" s="149" t="e">
+        <f>INDEX(BDUGO!$H$4:$H$15,MATCH(IF(CH28&gt;0,"UU","")&amp;EN28,BDUGO!$C$4:$C$15,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="ET28" s="164" t="s">
+        <v>195</v>
+      </c>
+      <c r="EU28" t="e">
         <f ca="1">IF(H28&lt;&gt;"","&lt;zinsertblock&gt;","")</f>
         <v>#N/A</v>
       </c>
-      <c r="EN28" s="1" t="e">
-        <f ca="1">IF(EM28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"UGO",BD!$K$4:$BY$4,0))),MATCH(BJ28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
+      <c r="EV28" s="1" t="e">
+        <f ca="1">IF(EU28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"UGO",BD!$K$4:$BY$4,0))),MATCH(BJ28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="EO28" s="1" t="e">
-        <f ca="1">IF(EM28="","",CZ28+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"MOVEX",BD!$K$4:$BY$4,0))),MATCH(BJ28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
+      <c r="EW28" s="1" t="e">
+        <f ca="1">IF(EU28="","",CY28+$AB$5*INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"MOVEX",BD!$K$4:$BY$4,0))),MATCH(BJ28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="EP28" s="1" t="e">
-        <f ca="1">IF(EM28="","",DA28+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"MOVEY",BD!$K$4:$BY$4,0))),MATCH(BJ28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
+      <c r="EX28" s="1" t="e">
+        <f ca="1">IF(EU28="","",CZ28+$AB$6*INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"MOVEY",BD!$K$4:$BY$4,0))),MATCH(BJ28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E28&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="EQ28" s="1">
-        <v>1</v>
-      </c>
-      <c r="ER28" s="1">
-        <v>1</v>
-      </c>
-      <c r="ES28" s="1" t="s">
+      <c r="EY28" s="1">
+        <f>$AB$5</f>
+        <v>100</v>
+      </c>
+      <c r="EZ28" s="1">
+        <f>$AB$6</f>
+        <v>100</v>
+      </c>
+      <c r="FA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="FB28" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="ET28" s="1" t="e">
+      <c r="FC28" s="1" t="e">
         <f ca="1">BQ28&amp;"\P"&amp;BR28&amp;"\P"&amp;BS28</f>
         <v>#N/A</v>
       </c>
-      <c r="EU28" t="e">
-        <f ca="1">IF(EM28="","","&lt;/zinsertblock&gt;")</f>
+      <c r="FD28" t="e">
+        <f ca="1">IF(EU28="","","&lt;/zinsertblock&gt;")</f>
         <v>#N/A</v>
       </c>
-      <c r="EV28" t="e">
+      <c r="FE28" t="e">
         <f ca="1">IF(I28&lt;&gt;"","&lt;zinsertblock&gt;","")</f>
         <v>#N/A</v>
       </c>
-      <c r="EW28" s="1" t="e">
-        <f ca="1">IF(EV28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"UGO",BD!$K$4:$CB$4,0))),MATCH(BT28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
+      <c r="FF28" s="1" t="e">
+        <f ca="1">IF(FE28="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"UGO",BD!$K$4:$CB$4,0))),MATCH(BT28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="EX28" s="1" t="e">
-        <f ca="1">IF(EV28="","",CZ28+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"MOVEX",BD!$K$4:$CB$4,0))),MATCH(BT28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
+      <c r="FG28" s="1" t="e">
+        <f ca="1">IF(FE28="","",CY28+$AB$5*INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"MOVEX",BD!$K$4:$CB$4,0))),MATCH(BT28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="EY28" s="1" t="e">
-        <f ca="1">IF(EV28="","",DA28-20+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"MOVEY",BD!$K$4:$CB$4,0))),MATCH(BT28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
+      <c r="FH28" s="1" t="e">
+        <f ca="1">IF(FE28="","",CZ28-20*$AB$6+$AB$6*INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"MOVEY",BD!$K$4:$CB$4,0))),MATCH(BT28,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G28&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="EZ28" s="1">
-        <v>1</v>
-      </c>
-      <c r="FA28" s="1">
-        <v>1</v>
-      </c>
-      <c r="FB28" s="1" t="s">
+      <c r="FI28" s="1">
+        <f>$AB$5</f>
+        <v>100</v>
+      </c>
+      <c r="FJ28" s="1">
+        <f>$AB$6</f>
+        <v>100</v>
+      </c>
+      <c r="FK28" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL28" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="FC28" s="1" t="e">
+      <c r="FM28" s="1" t="e">
         <f ca="1">BX28&amp;"\P"&amp;BY28&amp;"\P"&amp;BZ28</f>
         <v>#N/A</v>
       </c>
-      <c r="FD28" t="e">
-        <f ca="1">IF(EV28="","","&lt;/zinsertblock&gt;")</f>
+      <c r="FN28" t="e">
+        <f ca="1">IF(FE28="","","&lt;/zinsertblock&gt;")</f>
         <v>#N/A</v>
       </c>
-      <c r="FE28" t="s">
+      <c r="FO28" t="s">
         <v>193</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="R4:W4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="R9:U10"/>
-    <mergeCell ref="V9:W10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V13:W13"/>
+  <mergeCells count="54">
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="BT26:BZ26"/>
+    <mergeCell ref="EU27:FD27"/>
+    <mergeCell ref="FE27:FN27"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="Q26:AB26"/>
+    <mergeCell ref="AC26:AN26"/>
+    <mergeCell ref="AO26:BB26"/>
+    <mergeCell ref="BC26:BS26"/>
+    <mergeCell ref="CA26:CV26"/>
+    <mergeCell ref="EM27:ET27"/>
     <mergeCell ref="I26:I27"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="R14:U14"/>
@@ -14335,159 +14684,110 @@
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="R16:U16"/>
     <mergeCell ref="V16:W16"/>
-    <mergeCell ref="BT26:BZ26"/>
-    <mergeCell ref="EM27:EU27"/>
-    <mergeCell ref="EV27:FD27"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="Q26:AB26"/>
-    <mergeCell ref="AC26:AN26"/>
-    <mergeCell ref="AO26:BB26"/>
-    <mergeCell ref="BC26:BS26"/>
-    <mergeCell ref="CA26:CW26"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="R9:U10"/>
+    <mergeCell ref="V9:W10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="V5:W5"/>
   </mergeCells>
   <conditionalFormatting sqref="R28">
-    <cfRule type="expression" dxfId="72" priority="103">
+    <cfRule type="expression" dxfId="54" priority="103">
       <formula>NOT(_xlfn.ISFORMULA(R28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28">
-    <cfRule type="expression" dxfId="71" priority="102">
+    <cfRule type="expression" dxfId="53" priority="102">
       <formula>NOT(_xlfn.ISFORMULA(S28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T28">
-    <cfRule type="expression" dxfId="70" priority="101">
+    <cfRule type="expression" dxfId="52" priority="101">
       <formula>NOT(_xlfn.ISFORMULA(T28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule type="expression" dxfId="69" priority="100">
+    <cfRule type="expression" dxfId="51" priority="100">
       <formula>NOT(_xlfn.ISFORMULA(U28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU28">
-    <cfRule type="expression" dxfId="68" priority="98">
+    <cfRule type="expression" dxfId="50" priority="98">
       <formula>NOT(_xlfn.ISFORMULA(AU28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX28">
-    <cfRule type="expression" dxfId="67" priority="97">
+    <cfRule type="expression" dxfId="49" priority="97">
       <formula>NOT(_xlfn.ISFORMULA(AX28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV28">
-    <cfRule type="expression" dxfId="66" priority="95">
+    <cfRule type="expression" dxfId="48" priority="95">
       <formula>NOT(_xlfn.ISFORMULA(AV28))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG28">
-    <cfRule type="cellIs" dxfId="65" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="90" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DG28">
-    <cfRule type="cellIs" dxfId="64" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="85" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="86" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="87" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="88" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="89" operator="equal">
-      <formula>"INTEGER_1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DH28">
-    <cfRule type="cellIs" dxfId="59" priority="84" operator="equal">
-      <formula>"INTEGER_0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DH28">
-    <cfRule type="cellIs" dxfId="58" priority="79" operator="equal">
-      <formula>"INTEGER_5"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="80" operator="equal">
-      <formula>"INTEGER_4"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="81" operator="equal">
-      <formula>"INTEGER_3"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="82" operator="equal">
-      <formula>"INTEGER_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="83" operator="equal">
-      <formula>"INTEGER_1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DJ28">
-    <cfRule type="cellIs" dxfId="53" priority="72" operator="equal">
-      <formula>"INTEGER_0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DJ28">
-    <cfRule type="cellIs" dxfId="52" priority="67" operator="equal">
-      <formula>"INTEGER_5"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="68" operator="equal">
-      <formula>"INTEGER_4"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="69" operator="equal">
-      <formula>"INTEGER_3"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="70" operator="equal">
-      <formula>"INTEGER_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="89" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DK28">
-    <cfRule type="cellIs" dxfId="47" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="66" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DK28">
-    <cfRule type="cellIs" dxfId="46" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="61" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="62" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="63" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="64" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="65" operator="equal">
-      <formula>"INTEGER_1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DL28">
-    <cfRule type="cellIs" dxfId="41" priority="60" operator="equal">
-      <formula>"INTEGER_0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DL28">
-    <cfRule type="cellIs" dxfId="40" priority="55" operator="equal">
-      <formula>"INTEGER_5"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="56" operator="equal">
-      <formula>"INTEGER_4"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="57" operator="equal">
-      <formula>"INTEGER_3"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="58" operator="equal">
-      <formula>"INTEGER_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="65" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14641,41 +14941,41 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="182" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="143"/>
-      <c r="AD2" s="143"/>
-      <c r="AE2" s="143"/>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="143"/>
-      <c r="AH2" s="144"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="183"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="183"/>
+      <c r="Z2" s="183"/>
+      <c r="AA2" s="183"/>
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="183"/>
+      <c r="AD2" s="183"/>
+      <c r="AE2" s="183"/>
+      <c r="AF2" s="183"/>
+      <c r="AG2" s="183"/>
+      <c r="AH2" s="184"/>
     </row>
     <row r="3" spans="2:34" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
@@ -15616,49 +15916,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="185"/>
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="185"/>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="146" t="s">
+      <c r="C2" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="147"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="187"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -16107,6 +16407,365 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AF4D7D-6E66-4BDD-B569-46F1C33B4B46}">
+  <dimension ref="C1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="8" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="188" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="190"/>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="165" t="s">
+        <v>439</v>
+      </c>
+      <c r="D3" s="165" t="s">
+        <v>440</v>
+      </c>
+      <c r="E3" s="165" t="s">
+        <v>441</v>
+      </c>
+      <c r="F3" s="165" t="s">
+        <v>442</v>
+      </c>
+      <c r="G3" s="165" t="s">
+        <v>443</v>
+      </c>
+      <c r="H3" s="165" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="166" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" s="167">
+        <v>0</v>
+      </c>
+      <c r="E4" s="167">
+        <v>0</v>
+      </c>
+      <c r="F4" s="167">
+        <v>1</v>
+      </c>
+      <c r="G4" s="167">
+        <v>1</v>
+      </c>
+      <c r="H4" s="167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="166" t="s">
+        <v>452</v>
+      </c>
+      <c r="D5" s="167">
+        <v>0</v>
+      </c>
+      <c r="E5" s="167">
+        <v>35</v>
+      </c>
+      <c r="F5" s="167">
+        <v>1</v>
+      </c>
+      <c r="G5" s="167">
+        <v>1</v>
+      </c>
+      <c r="H5" s="167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="166" t="s">
+        <v>446</v>
+      </c>
+      <c r="D6" s="167">
+        <v>0</v>
+      </c>
+      <c r="E6" s="167">
+        <v>0</v>
+      </c>
+      <c r="F6" s="167">
+        <v>0.67</v>
+      </c>
+      <c r="G6" s="167">
+        <v>0.67</v>
+      </c>
+      <c r="H6" s="167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="166" t="s">
+        <v>453</v>
+      </c>
+      <c r="D7" s="167">
+        <v>0</v>
+      </c>
+      <c r="E7" s="167">
+        <v>35</v>
+      </c>
+      <c r="F7" s="167">
+        <v>1</v>
+      </c>
+      <c r="G7" s="167">
+        <v>1</v>
+      </c>
+      <c r="H7" s="167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="166" t="s">
+        <v>454</v>
+      </c>
+      <c r="D8" s="167">
+        <v>0</v>
+      </c>
+      <c r="E8" s="167">
+        <v>35</v>
+      </c>
+      <c r="F8" s="167">
+        <v>1</v>
+      </c>
+      <c r="G8" s="167">
+        <v>1</v>
+      </c>
+      <c r="H8" s="167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="166" t="s">
+        <v>456</v>
+      </c>
+      <c r="D9" s="167">
+        <v>0</v>
+      </c>
+      <c r="E9" s="167">
+        <v>0</v>
+      </c>
+      <c r="F9" s="167">
+        <v>1</v>
+      </c>
+      <c r="G9" s="167">
+        <v>1</v>
+      </c>
+      <c r="H9" s="167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="166" t="s">
+        <v>457</v>
+      </c>
+      <c r="D10" s="167">
+        <v>0</v>
+      </c>
+      <c r="E10" s="167">
+        <v>35</v>
+      </c>
+      <c r="F10" s="167">
+        <v>1</v>
+      </c>
+      <c r="G10" s="167">
+        <v>1</v>
+      </c>
+      <c r="H10" s="167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="166" t="s">
+        <v>458</v>
+      </c>
+      <c r="D11" s="167">
+        <v>0</v>
+      </c>
+      <c r="E11" s="167">
+        <v>0</v>
+      </c>
+      <c r="F11" s="167">
+        <v>1</v>
+      </c>
+      <c r="G11" s="167">
+        <v>1</v>
+      </c>
+      <c r="H11" s="167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="166" t="s">
+        <v>459</v>
+      </c>
+      <c r="D12" s="167">
+        <v>0</v>
+      </c>
+      <c r="E12" s="167">
+        <v>35</v>
+      </c>
+      <c r="F12" s="167">
+        <v>1</v>
+      </c>
+      <c r="G12" s="167">
+        <v>1</v>
+      </c>
+      <c r="H12" s="167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="166" t="s">
+        <v>460</v>
+      </c>
+      <c r="D13" s="167">
+        <v>0</v>
+      </c>
+      <c r="E13" s="167">
+        <v>0</v>
+      </c>
+      <c r="F13" s="167">
+        <v>1</v>
+      </c>
+      <c r="G13" s="167">
+        <v>1</v>
+      </c>
+      <c r="H13" s="167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="166" t="s">
+        <v>461</v>
+      </c>
+      <c r="D14" s="167">
+        <v>0</v>
+      </c>
+      <c r="E14" s="167">
+        <v>35</v>
+      </c>
+      <c r="F14" s="167">
+        <v>1</v>
+      </c>
+      <c r="G14" s="167">
+        <v>1</v>
+      </c>
+      <c r="H14" s="167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="166" t="s">
+        <v>447</v>
+      </c>
+      <c r="D15" s="167">
+        <v>0</v>
+      </c>
+      <c r="E15" s="167">
+        <v>0</v>
+      </c>
+      <c r="F15" s="167">
+        <v>1</v>
+      </c>
+      <c r="G15" s="167">
+        <v>1</v>
+      </c>
+      <c r="H15" s="167">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2D47E1-1980-42FF-8A31-CE7BAFCD7F98}">
+  <dimension ref="B4:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9A3CA2-6484-4A78-8C46-2DFDF58AF4E8}">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -16198,7 +16857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A1BDDE-60BA-44D5-BCC5-6893FF63103C}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -16241,12 +16900,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5946069B-84EF-483E-B2A7-62FC8EF81A67}">
-  <dimension ref="A3:BE11"/>
+  <dimension ref="A3:BF11"/>
   <sheetViews>
-    <sheetView topLeftCell="Q4" workbookViewId="0">
-      <selection activeCell="AV11" sqref="AV11"/>
+    <sheetView topLeftCell="R4" workbookViewId="0">
+      <selection activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16273,35 +16932,35 @@
     <col min="30" max="30" width="3.7109375" customWidth="1"/>
     <col min="31" max="32" width="12.7109375" customWidth="1"/>
     <col min="33" max="33" width="3.7109375" customWidth="1"/>
-    <col min="34" max="35" width="12.7109375" customWidth="1"/>
-    <col min="36" max="40" width="14.140625" customWidth="1"/>
-    <col min="41" max="42" width="16" customWidth="1"/>
-    <col min="43" max="56" width="12.7109375" customWidth="1"/>
+    <col min="34" max="36" width="12.7109375" customWidth="1"/>
+    <col min="37" max="41" width="14.140625" customWidth="1"/>
+    <col min="42" max="43" width="16" customWidth="1"/>
+    <col min="44" max="57" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="D3" s="149" t="s">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="D3" s="192" t="s">
         <v>326</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="D4" s="89" t="s">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="D4" s="87" t="s">
         <v>327</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="93" t="s">
+      <c r="E4" s="88"/>
+      <c r="F4" s="91" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>COLUMN(A7)-1</f>
         <v>0</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:BE7" si="0">COLUMN(B7)-1</f>
+        <f t="shared" ref="B7:BF7" si="0">COLUMN(B7)-1</f>
         <v>1</v>
       </c>
       <c r="C7">
@@ -16436,10 +17095,6 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AJ7">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
       <c r="AK7">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -16472,23 +17127,23 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="AS7" s="113">
+      <c r="AS7">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="AT7" s="113">
+      <c r="AT7" s="111">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="AU7" s="113">
+      <c r="AU7" s="111">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AV7" s="113">
+      <c r="AV7" s="111">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" s="111">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
@@ -16500,125 +17155,132 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="BE7">
-        <f t="shared" si="0"/>
-        <v>56</v>
+      <c r="AZ7">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="BF7">
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:57" ht="135" x14ac:dyDescent="0.25">
-      <c r="B8" s="98"/>
-      <c r="C8" s="148" t="s">
+    <row r="8" spans="1:58" ht="135" x14ac:dyDescent="0.25">
+      <c r="B8" s="96"/>
+      <c r="C8" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="149" t="s">
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="192" t="s">
         <v>333</v>
       </c>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="148" t="s">
+      <c r="G8" s="192"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="191" t="s">
         <v>168</v>
       </c>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148" t="s">
+      <c r="J8" s="191"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="191" t="s">
         <v>181</v>
       </c>
-      <c r="M8" s="148"/>
-      <c r="N8" s="148"/>
-      <c r="O8" s="148" t="s">
+      <c r="M8" s="191"/>
+      <c r="N8" s="191"/>
+      <c r="O8" s="191" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="148" t="s">
+      <c r="P8" s="191"/>
+      <c r="Q8" s="191"/>
+      <c r="R8" s="191" t="s">
         <v>182</v>
       </c>
-      <c r="S8" s="148"/>
-      <c r="T8" s="148"/>
-      <c r="U8" s="148" t="s">
+      <c r="S8" s="191"/>
+      <c r="T8" s="191"/>
+      <c r="U8" s="191" t="s">
         <v>169</v>
       </c>
-      <c r="V8" s="148"/>
-      <c r="W8" s="148"/>
-      <c r="X8" s="148" t="s">
+      <c r="V8" s="191"/>
+      <c r="W8" s="191"/>
+      <c r="X8" s="191" t="s">
         <v>184</v>
       </c>
-      <c r="Y8" s="148"/>
-      <c r="Z8" s="148"/>
-      <c r="AA8" s="148" t="s">
+      <c r="Y8" s="191"/>
+      <c r="Z8" s="191"/>
+      <c r="AA8" s="191" t="s">
         <v>185</v>
       </c>
-      <c r="AB8" s="148"/>
-      <c r="AC8" s="148"/>
-      <c r="AD8" s="148" t="s">
+      <c r="AB8" s="191"/>
+      <c r="AC8" s="191"/>
+      <c r="AD8" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="AE8" s="148"/>
-      <c r="AF8" s="148"/>
-      <c r="AG8" s="148" t="s">
+      <c r="AE8" s="191"/>
+      <c r="AF8" s="191"/>
+      <c r="AG8" s="191" t="s">
         <v>393</v>
       </c>
-      <c r="AH8" s="148"/>
-      <c r="AI8" s="148"/>
-      <c r="AJ8" s="116" t="s">
+      <c r="AH8" s="191"/>
+      <c r="AI8" s="191"/>
+      <c r="AJ8" s="153" t="s">
+        <v>433</v>
+      </c>
+      <c r="AK8" s="114" t="s">
         <v>335</v>
       </c>
-      <c r="AK8" s="126" t="s">
+      <c r="AL8" s="123" t="s">
         <v>398</v>
       </c>
-      <c r="AL8" s="126" t="s">
+      <c r="AM8" s="123" t="s">
         <v>399</v>
       </c>
-      <c r="AM8" s="126" t="s">
+      <c r="AN8" s="123" t="s">
         <v>400</v>
       </c>
-      <c r="AN8" s="129" t="s">
+      <c r="AO8" s="126" t="s">
         <v>401</v>
       </c>
-      <c r="AO8" s="116" t="s">
+      <c r="AP8" s="114" t="s">
         <v>336</v>
       </c>
-      <c r="AP8" s="116" t="s">
+      <c r="AQ8" s="114" t="s">
         <v>337</v>
       </c>
-      <c r="AQ8" s="114" t="s">
+      <c r="AR8" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="AR8" s="115" t="s">
+      <c r="AS8" s="113" t="s">
         <v>327</v>
       </c>
-      <c r="AS8" s="191" t="s">
+      <c r="AT8" s="136" t="s">
+        <v>407</v>
+      </c>
+      <c r="AU8" s="136" t="s">
         <v>408</v>
       </c>
-      <c r="AT8" s="191" t="s">
-        <v>409</v>
-      </c>
-      <c r="AU8" s="129" t="s">
+      <c r="AV8" s="126" t="s">
+        <v>405</v>
+      </c>
+      <c r="AW8" s="135" t="s">
         <v>406</v>
       </c>
-      <c r="AV8" s="190" t="s">
-        <v>407</v>
-      </c>
-      <c r="AW8" s="114" t="s">
+      <c r="AX8" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="AX8" s="114" t="s">
+      <c r="AY8" s="112" t="s">
         <v>191</v>
       </c>
-      <c r="AY8" s="114" t="s">
+      <c r="AZ8" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="AZ8" s="114" t="s">
+      <c r="BA8" s="112" t="s">
         <v>394</v>
       </c>
-      <c r="BA8" s="92"/>
-      <c r="BB8" s="92"/>
-      <c r="BC8" s="92"/>
-      <c r="BD8" s="92"/>
+      <c r="BB8" s="90"/>
+      <c r="BC8" s="90"/>
+      <c r="BD8" s="90"/>
+      <c r="BE8" s="90"/>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>167</v>
@@ -16626,7 +17288,7 @@
       <c r="D9" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="132" t="s">
+      <c r="E9" s="129" t="s">
         <v>166</v>
       </c>
       <c r="F9" s="51" t="s">
@@ -16644,7 +17306,7 @@
       <c r="J9" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="K9" s="132" t="s">
+      <c r="K9" s="129" t="s">
         <v>166</v>
       </c>
       <c r="L9" s="51" t="s">
@@ -16653,7 +17315,7 @@
       <c r="M9" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="N9" s="132" t="s">
+      <c r="N9" s="129" t="s">
         <v>166</v>
       </c>
       <c r="O9" s="51" t="s">
@@ -16671,7 +17333,7 @@
       <c r="S9" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="T9" s="132" t="s">
+      <c r="T9" s="129" t="s">
         <v>166</v>
       </c>
       <c r="U9" s="51" t="s">
@@ -16716,53 +17378,56 @@
       <c r="AH9" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="AI9" s="132" t="s">
+      <c r="AI9" s="129" t="s">
         <v>166</v>
       </c>
-      <c r="AJ9" s="94"/>
-      <c r="AK9" s="127"/>
-      <c r="AL9" s="127"/>
-      <c r="AM9" s="127"/>
-      <c r="AN9" s="127"/>
-      <c r="AO9" s="94"/>
-      <c r="AP9" s="94"/>
-      <c r="AQ9" s="55"/>
-      <c r="AR9" s="91"/>
-      <c r="AS9" s="112"/>
-      <c r="AT9" s="112"/>
-      <c r="AU9" s="127"/>
-      <c r="AV9" s="127"/>
-      <c r="AW9" s="55"/>
+      <c r="AJ9" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="AK9" s="92"/>
+      <c r="AL9" s="124"/>
+      <c r="AM9" s="124"/>
+      <c r="AN9" s="124"/>
+      <c r="AO9" s="124"/>
+      <c r="AP9" s="92"/>
+      <c r="AQ9" s="92"/>
+      <c r="AR9" s="55"/>
+      <c r="AS9" s="89"/>
+      <c r="AT9" s="110"/>
+      <c r="AU9" s="110"/>
+      <c r="AV9" s="124"/>
+      <c r="AW9" s="124"/>
       <c r="AX9" s="55"/>
       <c r="AY9" s="55"/>
       <c r="AZ9" s="55"/>
-      <c r="BA9" s="92"/>
-      <c r="BB9" s="92"/>
-      <c r="BC9" s="92"/>
-      <c r="BD9" s="92"/>
+      <c r="BA9" s="55"/>
+      <c r="BB9" s="90"/>
+      <c r="BC9" s="90"/>
+      <c r="BD9" s="90"/>
+      <c r="BE9" s="90"/>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B10" s="51" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="52"/>
-      <c r="E10" s="132"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="51"/>
       <c r="G10" s="52"/>
       <c r="H10" s="53"/>
       <c r="I10" s="51"/>
       <c r="J10" s="52"/>
-      <c r="K10" s="132"/>
+      <c r="K10" s="129"/>
       <c r="L10" s="51"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="132"/>
+      <c r="N10" s="129"/>
       <c r="O10" s="51"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="51"/>
       <c r="S10" s="52"/>
-      <c r="T10" s="132"/>
+      <c r="T10" s="129"/>
       <c r="U10" s="51"/>
       <c r="V10" s="52"/>
       <c r="W10" s="53"/>
@@ -16777,30 +17442,31 @@
       <c r="AF10" s="53"/>
       <c r="AG10" s="51"/>
       <c r="AH10" s="52"/>
-      <c r="AI10" s="132"/>
-      <c r="AJ10" s="95"/>
-      <c r="AK10" s="128"/>
-      <c r="AL10" s="128"/>
-      <c r="AM10" s="128"/>
-      <c r="AN10" s="128"/>
-      <c r="AO10" s="95"/>
-      <c r="AP10" s="95"/>
-      <c r="AQ10" s="55"/>
-      <c r="AR10" s="91"/>
-      <c r="AS10" s="112"/>
-      <c r="AT10" s="112"/>
-      <c r="AU10" s="128"/>
-      <c r="AV10" s="128"/>
-      <c r="AW10" s="55"/>
+      <c r="AI10" s="129"/>
+      <c r="AJ10" s="52"/>
+      <c r="AK10" s="93"/>
+      <c r="AL10" s="125"/>
+      <c r="AM10" s="125"/>
+      <c r="AN10" s="125"/>
+      <c r="AO10" s="125"/>
+      <c r="AP10" s="93"/>
+      <c r="AQ10" s="93"/>
+      <c r="AR10" s="55"/>
+      <c r="AS10" s="89"/>
+      <c r="AT10" s="110"/>
+      <c r="AU10" s="110"/>
+      <c r="AV10" s="125"/>
+      <c r="AW10" s="125"/>
       <c r="AX10" s="55"/>
       <c r="AY10" s="55"/>
       <c r="AZ10" s="55"/>
-      <c r="BA10" s="92"/>
-      <c r="BB10" s="92"/>
-      <c r="BC10" s="92"/>
-      <c r="BD10" s="92"/>
+      <c r="BA10" s="55"/>
+      <c r="BB10" s="90"/>
+      <c r="BC10" s="90"/>
+      <c r="BD10" s="90"/>
+      <c r="BE10" s="90"/>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B11" s="51" t="s">
         <v>163</v>
       </c>
@@ -16808,7 +17474,7 @@
         <v>171</v>
       </c>
       <c r="D11" s="52"/>
-      <c r="E11" s="132"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="54" t="s">
         <v>330</v>
       </c>
@@ -16818,12 +17484,12 @@
         <v>331</v>
       </c>
       <c r="J11" s="52"/>
-      <c r="K11" s="132"/>
+      <c r="K11" s="129"/>
       <c r="L11" s="54" t="s">
         <v>332</v>
       </c>
       <c r="M11" s="52"/>
-      <c r="N11" s="132"/>
+      <c r="N11" s="129"/>
       <c r="O11" s="54" t="s">
         <v>170</v>
       </c>
@@ -16833,7 +17499,7 @@
         <v>334</v>
       </c>
       <c r="S11" s="52"/>
-      <c r="T11" s="132"/>
+      <c r="T11" s="129"/>
       <c r="U11" s="54" t="s">
         <v>172</v>
       </c>
@@ -16858,79 +17524,82 @@
         <v>392</v>
       </c>
       <c r="AH11" s="52"/>
-      <c r="AI11" s="132"/>
-      <c r="AJ11" s="94" t="str">
+      <c r="AI11" s="129"/>
+      <c r="AJ11" s="52" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK11" s="92" t="str">
         <f>J11&amp;"-"&amp;M11&amp;"-"&amp;S11</f>
         <v>--</v>
       </c>
-      <c r="AK11" s="127">
+      <c r="AL11" s="124">
         <f>IFERROR(IF(INDEX($AH$11:AH11,MATCH(J11,$D$11:D11,0))="True",1,0),-1)</f>
         <v>-1</v>
       </c>
-      <c r="AL11" s="127" t="str">
-        <f>IF(AK11=-1,"-1",IF(AK11=1,J11,INDEX($AL$11:AL11,COUNT($AQ$11:AQ11)-1)))</f>
+      <c r="AM11" s="124" t="str">
+        <f>IF(AL11=-1,"-1",IF(AL11=1,J11,INDEX($AM$11:AM11,COUNT($AR$11:AR11)-1)))</f>
         <v>-1</v>
       </c>
-      <c r="AM11" s="127">
-        <f>IF(AK11=-1,-1,IF(AK11=1,M11,INDEX($AM$11:AM11,COUNT($AQ$11:AQ11)-1)))</f>
+      <c r="AN11" s="124">
+        <f>IF(AL11=-1,-1,IF(AL11=1,M11,INDEX($AN$11:AN11,COUNT($AR$11:AR11)-1)))</f>
         <v>-1</v>
       </c>
-      <c r="AN11" s="127" t="str">
-        <f>IF(AL11="-1","-1",IF(AL11&lt;&gt;J11,1,0))</f>
+      <c r="AO11" s="124" t="str">
+        <f>IF(AM11="-1","-1",IF(AM11&lt;&gt;J11,1,0))</f>
         <v>-1</v>
       </c>
-      <c r="AO11" s="94">
-        <f>IF(COUNT($AQ$11:AQ11)=MATCH(AJ11,$AJ$11:AJ11,0),1,0)</f>
+      <c r="AP11" s="92">
+        <f>IF(COUNT($AR$11:AR11)=MATCH(AK11,$AK$11:AK11,0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="AP11" s="94">
-        <f>SUMIFS($AQ$11:$AQ$700000,$AJ$11:$AJ$700000,AJ11)</f>
+      <c r="AQ11" s="92">
+        <f>SUMIFS($AR$11:$AR$700000,$AK$11:$AK$700000,AK11)</f>
         <v>1</v>
       </c>
-      <c r="AQ11" s="55">
+      <c r="AR11" s="55">
         <v>1</v>
       </c>
-      <c r="AR11" s="91" t="str">
+      <c r="AS11" s="89" t="str">
         <f>$F$4</f>
         <v>-</v>
       </c>
-      <c r="AS11" s="112">
-        <f>IF(AR11=AL11,IF(AO11=1,1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="AT11" s="112">
-        <f>IF(AR11=D11,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AU11" s="127">
-        <f>SUMIF(J11:$J$700000,D11,AQ11:$AQ$700000)</f>
-        <v>0</v>
-      </c>
-      <c r="AV11" s="127" t="str">
-        <f>IF(AK11=-1,"0",1+INDEX($AV$11:$AV$700000,MATCH(J11,$D$11:$D$700000,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="AW11" s="55">
-        <f>SUMIFS($AQ$11:$AQ$700000,$S$11:$S$700000,S11,$M$11:$M$700000,M11)</f>
+      <c r="AT11" s="110">
+        <f>IF(AS11=AM11,IF(AP11=1,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AU11" s="110">
+        <f>IF(AS11=D11,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV11" s="124">
+        <f>SUMIF(J11:$J$700000,D11,AR11:$AR$700000)</f>
+        <v>0</v>
+      </c>
+      <c r="AW11" s="124" t="str">
+        <f>IF(AL11=-1,"0",1+INDEX($AW$11:$AW$700000,MATCH(J11,$D$11:$D$700000,0)))</f>
         <v>0</v>
       </c>
       <c r="AX11" s="55">
-        <f>IF(SUMIFS($AQ$11:AQ11,$S$11:S11,S11,$M$11:M11,M11)=1,1,0)</f>
+        <f>SUMIFS($AR$11:$AR$700000,$S$11:$S$700000,S11,$M$11:$M$700000,M11)</f>
         <v>0</v>
       </c>
       <c r="AY11" s="55">
-        <f>IF(AX11=1,1,0)</f>
+        <f>IF(SUMIFS($AR$11:AR11,$S$11:S11,S11,$M$11:M11,M11)=1,1,0)</f>
         <v>0</v>
       </c>
       <c r="AZ11" s="55">
+        <f>IF(AY11=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BA11" s="55">
         <f>M11</f>
         <v>0</v>
       </c>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="92"/>
-      <c r="BC11" s="92"/>
-      <c r="BD11" s="92"/>
-      <c r="BE11" t="s">
+      <c r="BB11" s="90"/>
+      <c r="BC11" s="90"/>
+      <c r="BD11" s="90"/>
+      <c r="BE11" s="90"/>
+      <c r="BF11" t="s">
         <v>164</v>
       </c>
     </row>
@@ -16953,7 +17622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019AE8B5-0D80-438F-9CBA-ADEC7CDF9F04}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -16995,129 +17664,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2D47E1-1980-42FF-8A31-CE7BAFCD7F98}">
-  <dimension ref="B4:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C18C41F-A7A1-44A1-BCA8-2DEB7768025B}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHOD.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/+++EMO_NEWMETHOD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A71B34-5B61-4E74-8177-2D385D551430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B34A3ED-BA14-4CA4-B620-C6C2E5A617C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17055" yWindow="1665" windowWidth="29655" windowHeight="15735" firstSheet="9" activeTab="16" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="12240" yWindow="2220" windowWidth="34245" windowHeight="18720" firstSheet="9" activeTab="16" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="4" r:id="rId1"/>
@@ -671,7 +671,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="464">
   <si>
     <t>&lt;zlight&gt;</t>
   </si>
@@ -2073,6 +2073,9 @@
   </si>
   <si>
     <t>??????</t>
+  </si>
+  <si>
+    <t>&lt;zsetformulatocell calc=[before] toSheet=[zallcabCALC]  toCell=[$Y$1] formula=[fromSheet!$AP$28]</t>
   </si>
 </sst>
 </file>
@@ -3868,6 +3871,19 @@
     <xf numFmtId="0" fontId="20" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3892,12 +3908,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3931,13 +3941,16 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4015,6 +4028,9 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -4066,19 +4082,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5050,84 +5053,84 @@
   <sheetData>
     <row r="2" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:76" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="179"/>
-      <c r="F3" s="174" t="s">
+      <c r="B3" s="182"/>
+      <c r="C3" s="183"/>
+      <c r="F3" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="175"/>
-      <c r="H3" s="176"/>
-      <c r="K3" s="182" t="s">
+      <c r="G3" s="179"/>
+      <c r="H3" s="180"/>
+      <c r="K3" s="176" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="183"/>
-      <c r="U3" s="183"/>
-      <c r="V3" s="183"/>
-      <c r="W3" s="183"/>
-      <c r="X3" s="183"/>
-      <c r="Y3" s="183"/>
-      <c r="Z3" s="183"/>
-      <c r="AA3" s="183"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="183"/>
-      <c r="AD3" s="183"/>
-      <c r="AE3" s="183"/>
-      <c r="AF3" s="183"/>
-      <c r="AG3" s="183"/>
-      <c r="AH3" s="183"/>
-      <c r="AI3" s="183"/>
-      <c r="AJ3" s="183"/>
-      <c r="AK3" s="183"/>
-      <c r="AL3" s="183"/>
-      <c r="AM3" s="183"/>
-      <c r="AN3" s="183"/>
-      <c r="AO3" s="183"/>
-      <c r="AP3" s="183"/>
-      <c r="AQ3" s="183"/>
-      <c r="AR3" s="183"/>
-      <c r="AS3" s="183"/>
-      <c r="AT3" s="183"/>
-      <c r="AU3" s="183"/>
-      <c r="AV3" s="183"/>
-      <c r="AW3" s="183"/>
-      <c r="AX3" s="183"/>
-      <c r="AY3" s="183"/>
-      <c r="AZ3" s="183"/>
-      <c r="BA3" s="183"/>
-      <c r="BB3" s="183"/>
-      <c r="BC3" s="183"/>
-      <c r="BD3" s="183"/>
-      <c r="BE3" s="183"/>
-      <c r="BF3" s="183"/>
-      <c r="BG3" s="183"/>
-      <c r="BH3" s="183"/>
-      <c r="BI3" s="183"/>
-      <c r="BJ3" s="183"/>
-      <c r="BK3" s="183"/>
-      <c r="BL3" s="183"/>
-      <c r="BM3" s="183"/>
-      <c r="BN3" s="183"/>
-      <c r="BO3" s="183"/>
-      <c r="BP3" s="183"/>
-      <c r="BQ3" s="183"/>
-      <c r="BR3" s="183"/>
-      <c r="BS3" s="183"/>
-      <c r="BT3" s="183"/>
-      <c r="BU3" s="183"/>
-      <c r="BV3" s="183"/>
-      <c r="BW3" s="183"/>
-      <c r="BX3" s="183"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="177"/>
+      <c r="U3" s="177"/>
+      <c r="V3" s="177"/>
+      <c r="W3" s="177"/>
+      <c r="X3" s="177"/>
+      <c r="Y3" s="177"/>
+      <c r="Z3" s="177"/>
+      <c r="AA3" s="177"/>
+      <c r="AB3" s="177"/>
+      <c r="AC3" s="177"/>
+      <c r="AD3" s="177"/>
+      <c r="AE3" s="177"/>
+      <c r="AF3" s="177"/>
+      <c r="AG3" s="177"/>
+      <c r="AH3" s="177"/>
+      <c r="AI3" s="177"/>
+      <c r="AJ3" s="177"/>
+      <c r="AK3" s="177"/>
+      <c r="AL3" s="177"/>
+      <c r="AM3" s="177"/>
+      <c r="AN3" s="177"/>
+      <c r="AO3" s="177"/>
+      <c r="AP3" s="177"/>
+      <c r="AQ3" s="177"/>
+      <c r="AR3" s="177"/>
+      <c r="AS3" s="177"/>
+      <c r="AT3" s="177"/>
+      <c r="AU3" s="177"/>
+      <c r="AV3" s="177"/>
+      <c r="AW3" s="177"/>
+      <c r="AX3" s="177"/>
+      <c r="AY3" s="177"/>
+      <c r="AZ3" s="177"/>
+      <c r="BA3" s="177"/>
+      <c r="BB3" s="177"/>
+      <c r="BC3" s="177"/>
+      <c r="BD3" s="177"/>
+      <c r="BE3" s="177"/>
+      <c r="BF3" s="177"/>
+      <c r="BG3" s="177"/>
+      <c r="BH3" s="177"/>
+      <c r="BI3" s="177"/>
+      <c r="BJ3" s="177"/>
+      <c r="BK3" s="177"/>
+      <c r="BL3" s="177"/>
+      <c r="BM3" s="177"/>
+      <c r="BN3" s="177"/>
+      <c r="BO3" s="177"/>
+      <c r="BP3" s="177"/>
+      <c r="BQ3" s="177"/>
+      <c r="BR3" s="177"/>
+      <c r="BS3" s="177"/>
+      <c r="BT3" s="177"/>
+      <c r="BU3" s="177"/>
+      <c r="BV3" s="177"/>
+      <c r="BW3" s="177"/>
+      <c r="BX3" s="177"/>
     </row>
     <row r="4" spans="1:76" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -6198,10 +6201,10 @@
       <c r="BX8" s="2"/>
     </row>
     <row r="9" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="181"/>
+      <c r="B9" s="185"/>
       <c r="F9" s="27">
         <v>2500</v>
       </c>
@@ -11216,11 +11219,11 @@
     </row>
     <row r="41" spans="6:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="6:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="174" t="s">
+      <c r="F42" s="178" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="175"/>
-      <c r="H42" s="176"/>
+      <c r="G42" s="179"/>
+      <c r="H42" s="180"/>
     </row>
     <row r="43" spans="6:76" ht="31.5" x14ac:dyDescent="0.25">
       <c r="F43" s="36" t="s">
@@ -11284,11 +11287,11 @@
     </row>
     <row r="55" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="174" t="s">
+      <c r="C56" s="178" t="s">
         <v>437</v>
       </c>
-      <c r="D56" s="175"/>
-      <c r="E56" s="176"/>
+      <c r="D56" s="179"/>
+      <c r="E56" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11582,32 +11585,32 @@
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="C3" s="85"/>
-      <c r="D3" s="193" t="s">
+      <c r="D3" s="195" t="s">
         <v>341</v>
       </c>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193" t="s">
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195" t="s">
         <v>342</v>
       </c>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
       <c r="J3" s="95" t="s">
         <v>345</v>
       </c>
       <c r="K3" s="95" t="s">
         <v>343</v>
       </c>
-      <c r="L3" s="193" t="s">
+      <c r="L3" s="195" t="s">
         <v>344</v>
       </c>
-      <c r="M3" s="193"/>
-      <c r="N3" s="193"/>
-      <c r="O3" s="194" t="s">
+      <c r="M3" s="195"/>
+      <c r="N3" s="195"/>
+      <c r="O3" s="196" t="s">
         <v>353</v>
       </c>
-      <c r="P3" s="194"/>
-      <c r="Q3" s="194"/>
+      <c r="P3" s="196"/>
+      <c r="Q3" s="196"/>
       <c r="R3" s="105" t="s">
         <v>354</v>
       </c>
@@ -12220,7 +12223,7 @@
   <dimension ref="A3:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12384,8 +12387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B9844E-F661-46DB-A8DF-606C0C725DFB}">
   <dimension ref="A1:GB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AX5" sqref="AX5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12416,9 +12419,9 @@
         <f>'&lt;zlight&gt;'!F20</f>
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="e">
+      <c r="E1" s="1">
         <f ca="1">V6</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1">
         <f>V8</f>
@@ -12434,30 +12437,30 @@
       </c>
     </row>
     <row r="4" spans="4:56" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="197" t="s">
+      <c r="D4" s="199" t="s">
         <v>323</v>
       </c>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="197"/>
-      <c r="H4" s="197"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="199"/>
       <c r="I4" s="86" t="s">
         <v>322</v>
       </c>
       <c r="J4" s="130"/>
       <c r="Q4" s="86"/>
-      <c r="R4" s="197" t="s">
+      <c r="R4" s="199" t="s">
         <v>321</v>
       </c>
-      <c r="S4" s="197"/>
-      <c r="T4" s="197"/>
-      <c r="U4" s="197"/>
-      <c r="V4" s="197"/>
-      <c r="W4" s="197"/>
-      <c r="AA4" s="237" t="s">
+      <c r="S4" s="199"/>
+      <c r="T4" s="199"/>
+      <c r="U4" s="199"/>
+      <c r="V4" s="199"/>
+      <c r="W4" s="199"/>
+      <c r="AA4" s="224" t="s">
         <v>455</v>
       </c>
-      <c r="AB4" s="237"/>
+      <c r="AB4" s="224"/>
       <c r="AV4" s="137" t="s">
         <v>417</v>
       </c>
@@ -12484,12 +12487,12 @@
       </c>
     </row>
     <row r="5" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D5" s="195" t="s">
+      <c r="D5" s="200" t="s">
         <v>320</v>
       </c>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="195"/>
+      <c r="E5" s="200"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
       <c r="H5" s="152">
         <f>AV5</f>
         <v>0</v>
@@ -12501,17 +12504,17 @@
       <c r="Q5" s="85" t="s">
         <v>318</v>
       </c>
-      <c r="R5" s="196" t="s">
+      <c r="R5" s="198" t="s">
         <v>317</v>
       </c>
-      <c r="S5" s="196"/>
-      <c r="T5" s="196"/>
-      <c r="U5" s="196"/>
-      <c r="V5" s="196" t="e">
-        <f ca="1">SUM($AE$26:$AE$12001)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W5" s="196"/>
+      <c r="S5" s="198"/>
+      <c r="T5" s="198"/>
+      <c r="U5" s="198"/>
+      <c r="V5" s="198">
+        <f ca="1">SUM($AD$26:$AD$900000)</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="198"/>
       <c r="AA5" s="148" t="s">
         <v>440</v>
       </c>
@@ -12558,12 +12561,12 @@
       </c>
     </row>
     <row r="6" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D6" s="238" t="s">
+      <c r="D6" s="197" t="s">
         <v>316</v>
       </c>
-      <c r="E6" s="238"/>
-      <c r="F6" s="238"/>
-      <c r="G6" s="238"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="197"/>
       <c r="H6" s="129" t="s">
         <v>462</v>
       </c>
@@ -12574,17 +12577,17 @@
       <c r="Q6" s="85">
         <v>63</v>
       </c>
-      <c r="R6" s="196" t="s">
+      <c r="R6" s="198" t="s">
         <v>314</v>
       </c>
-      <c r="S6" s="196"/>
-      <c r="T6" s="196"/>
-      <c r="U6" s="196"/>
-      <c r="V6" s="196" t="e">
+      <c r="S6" s="198"/>
+      <c r="T6" s="198"/>
+      <c r="U6" s="198"/>
+      <c r="V6" s="198">
         <f ca="1">V5*V11</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W6" s="196"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="198"/>
       <c r="AA6" s="148" t="s">
         <v>441</v>
       </c>
@@ -12593,12 +12596,12 @@
       </c>
     </row>
     <row r="7" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D7" s="198" t="s">
+      <c r="D7" s="201" t="s">
         <v>313</v>
       </c>
-      <c r="E7" s="198"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
+      <c r="E7" s="201"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="201"/>
       <c r="H7" s="82">
         <v>45399</v>
       </c>
@@ -12609,25 +12612,25 @@
       <c r="Q7" s="85">
         <v>32</v>
       </c>
-      <c r="R7" s="196" t="s">
+      <c r="R7" s="198" t="s">
         <v>311</v>
       </c>
-      <c r="S7" s="196"/>
-      <c r="T7" s="196"/>
-      <c r="U7" s="196"/>
-      <c r="V7" s="196" t="e">
+      <c r="S7" s="198"/>
+      <c r="T7" s="198"/>
+      <c r="U7" s="198"/>
+      <c r="V7" s="198">
         <f ca="1">ROUNDUP((V6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*V8),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W7" s="196"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="198"/>
     </row>
     <row r="8" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D8" s="198" t="s">
+      <c r="D8" s="201" t="s">
         <v>310</v>
       </c>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
+      <c r="E8" s="201"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="201"/>
       <c r="H8" s="82" t="s">
         <v>309</v>
       </c>
@@ -12638,24 +12641,24 @@
       <c r="Q8" s="85">
         <v>6</v>
       </c>
-      <c r="R8" s="199" t="s">
+      <c r="R8" s="202" t="s">
         <v>307</v>
       </c>
-      <c r="S8" s="200"/>
-      <c r="T8" s="200"/>
-      <c r="U8" s="201"/>
-      <c r="V8" s="202">
+      <c r="S8" s="203"/>
+      <c r="T8" s="203"/>
+      <c r="U8" s="204"/>
+      <c r="V8" s="205">
         <v>0.92</v>
       </c>
-      <c r="W8" s="202"/>
+      <c r="W8" s="205"/>
     </row>
     <row r="9" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D9" s="198" t="s">
+      <c r="D9" s="201" t="s">
         <v>306</v>
       </c>
-      <c r="E9" s="198"/>
-      <c r="F9" s="198"/>
-      <c r="G9" s="198"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="201"/>
       <c r="H9" s="82" t="s">
         <v>305</v>
       </c>
@@ -12666,22 +12669,25 @@
       <c r="Q9" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="R9" s="203" t="s">
+      <c r="R9" s="206" t="s">
         <v>302</v>
       </c>
-      <c r="S9" s="203"/>
-      <c r="T9" s="203"/>
-      <c r="U9" s="203"/>
-      <c r="V9" s="204"/>
-      <c r="W9" s="204"/>
+      <c r="S9" s="206"/>
+      <c r="T9" s="206"/>
+      <c r="U9" s="206"/>
+      <c r="V9" s="207"/>
+      <c r="W9" s="207"/>
+      <c r="Z9" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="10" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D10" s="198" t="s">
+      <c r="D10" s="201" t="s">
         <v>301</v>
       </c>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
       <c r="I10" s="85" t="s">
         <v>300</v>
       </c>
@@ -12689,20 +12695,24 @@
       <c r="Q10" s="85">
         <v>4</v>
       </c>
-      <c r="R10" s="203"/>
-      <c r="S10" s="203"/>
-      <c r="T10" s="203"/>
-      <c r="U10" s="203"/>
-      <c r="V10" s="204"/>
-      <c r="W10" s="204"/>
+      <c r="R10" s="206"/>
+      <c r="S10" s="206"/>
+      <c r="T10" s="206"/>
+      <c r="U10" s="206"/>
+      <c r="V10" s="207"/>
+      <c r="W10" s="207"/>
+      <c r="Z10" t="str">
+        <f>"&lt;zsetformulatocell calc=[after] toSheet=[zalldevEXPORT]  toCell=["&amp;ADDRESS(ROW('&lt;zalldev&gt;EXPORT'!W11),COLUMN('&lt;zalldev&gt;EXPORT'!W11))&amp;"] formula=[fromSheet!"&amp;ADDRESS(ROW(X28),COLUMN(X28))&amp;"]"</f>
+        <v>&lt;zsetformulatocell calc=[after] toSheet=[zalldevEXPORT]  toCell=[$W$11] formula=[fromSheet!$X$28]</v>
+      </c>
     </row>
     <row r="11" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D11" s="198" t="s">
+      <c r="D11" s="201" t="s">
         <v>299</v>
       </c>
-      <c r="E11" s="198"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
       <c r="H11" s="148">
         <v>380</v>
       </c>
@@ -12713,24 +12723,24 @@
       <c r="Q11" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="R11" s="205" t="s">
+      <c r="R11" s="208" t="s">
         <v>296</v>
       </c>
-      <c r="S11" s="206"/>
-      <c r="T11" s="206"/>
-      <c r="U11" s="207"/>
-      <c r="V11" s="208">
+      <c r="S11" s="209"/>
+      <c r="T11" s="209"/>
+      <c r="U11" s="210"/>
+      <c r="V11" s="211">
         <v>1</v>
       </c>
-      <c r="W11" s="209"/>
+      <c r="W11" s="212"/>
     </row>
     <row r="12" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D12" s="198" t="s">
+      <c r="D12" s="201" t="s">
         <v>295</v>
       </c>
-      <c r="E12" s="198"/>
-      <c r="F12" s="198"/>
-      <c r="G12" s="198"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="201"/>
+      <c r="G12" s="201"/>
       <c r="H12" s="82" t="s">
         <v>294</v>
       </c>
@@ -12741,48 +12751,48 @@
       <c r="Q12" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="R12" s="210" t="s">
+      <c r="R12" s="213" t="s">
         <v>292</v>
       </c>
-      <c r="S12" s="210"/>
-      <c r="T12" s="210"/>
-      <c r="U12" s="210"/>
-      <c r="V12" s="210">
+      <c r="S12" s="213"/>
+      <c r="T12" s="213"/>
+      <c r="U12" s="213"/>
+      <c r="V12" s="213">
         <v>44.5</v>
       </c>
-      <c r="W12" s="210"/>
+      <c r="W12" s="213"/>
     </row>
     <row r="13" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D13" s="198" t="s">
+      <c r="D13" s="201" t="s">
         <v>291</v>
       </c>
-      <c r="E13" s="198"/>
-      <c r="F13" s="198"/>
-      <c r="G13" s="198"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="201"/>
       <c r="H13" s="82" t="s">
         <v>290</v>
       </c>
       <c r="I13" s="83"/>
       <c r="J13" s="132"/>
       <c r="Q13" s="83"/>
-      <c r="R13" s="210" t="s">
+      <c r="R13" s="213" t="s">
         <v>289</v>
       </c>
-      <c r="S13" s="210"/>
-      <c r="T13" s="210"/>
-      <c r="U13" s="210"/>
-      <c r="V13" s="210">
+      <c r="S13" s="213"/>
+      <c r="T13" s="213"/>
+      <c r="U13" s="213"/>
+      <c r="V13" s="213">
         <v>44.5</v>
       </c>
-      <c r="W13" s="210"/>
+      <c r="W13" s="213"/>
     </row>
     <row r="14" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D14" s="198" t="s">
+      <c r="D14" s="201" t="s">
         <v>288</v>
       </c>
-      <c r="E14" s="198"/>
-      <c r="F14" s="198"/>
-      <c r="G14" s="198"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="201"/>
+      <c r="G14" s="201"/>
       <c r="H14" s="84" t="str">
         <f>'&lt;zlight&gt;'!G20&amp;"."&amp;'&lt;zlight&gt;'!H20</f>
         <v>.</v>
@@ -12790,52 +12800,52 @@
       <c r="I14" s="83"/>
       <c r="J14" s="132"/>
       <c r="Q14" s="83"/>
-      <c r="R14" s="210" t="s">
+      <c r="R14" s="213" t="s">
         <v>287</v>
       </c>
-      <c r="S14" s="210"/>
-      <c r="T14" s="210"/>
-      <c r="U14" s="210"/>
-      <c r="V14" s="210">
+      <c r="S14" s="213"/>
+      <c r="T14" s="213"/>
+      <c r="U14" s="213"/>
+      <c r="V14" s="213">
         <v>44.5</v>
       </c>
-      <c r="W14" s="210"/>
+      <c r="W14" s="213"/>
     </row>
     <row r="15" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="D15" s="198" t="s">
+      <c r="D15" s="201" t="s">
         <v>286</v>
       </c>
-      <c r="E15" s="198"/>
-      <c r="F15" s="198"/>
-      <c r="G15" s="198"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="201"/>
       <c r="H15" s="82">
         <v>77</v>
       </c>
       <c r="Q15" s="83"/>
-      <c r="R15" s="213" t="s">
+      <c r="R15" s="216" t="s">
         <v>285</v>
       </c>
-      <c r="S15" s="213"/>
-      <c r="T15" s="213"/>
-      <c r="U15" s="213"/>
-      <c r="V15" s="202" t="e">
+      <c r="S15" s="216"/>
+      <c r="T15" s="216"/>
+      <c r="U15" s="216"/>
+      <c r="V15" s="205">
         <f ca="1">ROUNDUP((V6*1000)/(INDEX(BD!$C$4:$C$5,MATCH(H11,BD!$B$4:$B$5,0))*V8),2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="W15" s="202"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="205"/>
     </row>
     <row r="16" spans="4:56" x14ac:dyDescent="0.25">
-      <c r="R16" s="220" t="s">
+      <c r="R16" s="223" t="s">
         <v>420</v>
       </c>
-      <c r="S16" s="220"/>
-      <c r="T16" s="220"/>
-      <c r="U16" s="220"/>
-      <c r="V16" s="220" t="e">
+      <c r="S16" s="223"/>
+      <c r="T16" s="223"/>
+      <c r="U16" s="223"/>
+      <c r="V16" s="223" t="e">
         <f>INDEX(BA5:BA9,MATCH(1,BC5:BC9,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="W16" s="220"/>
+      <c r="W16" s="223"/>
     </row>
     <row r="19" spans="1:184" x14ac:dyDescent="0.25">
       <c r="AQ19" t="s">
@@ -13507,131 +13517,131 @@
       </c>
     </row>
     <row r="26" spans="1:184" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="214" t="s">
+      <c r="D26" s="217" t="s">
         <v>284</v>
       </c>
-      <c r="E26" s="216" t="s">
+      <c r="E26" s="219" t="s">
         <v>233</v>
       </c>
-      <c r="F26" s="211" t="s">
+      <c r="F26" s="214" t="s">
         <v>232</v>
       </c>
-      <c r="G26" s="216" t="s">
+      <c r="G26" s="219" t="s">
         <v>283</v>
       </c>
-      <c r="H26" s="211" t="s">
+      <c r="H26" s="214" t="s">
         <v>282</v>
       </c>
-      <c r="I26" s="211" t="s">
+      <c r="I26" s="214" t="s">
         <v>281</v>
       </c>
-      <c r="J26" s="218" t="s">
+      <c r="J26" s="221" t="s">
         <v>403</v>
       </c>
-      <c r="K26" s="225" t="s">
+      <c r="K26" s="229" t="s">
         <v>404</v>
       </c>
-      <c r="L26" s="225"/>
-      <c r="M26" s="225"/>
-      <c r="N26" s="226" t="s">
+      <c r="L26" s="229"/>
+      <c r="M26" s="229"/>
+      <c r="N26" s="230" t="s">
         <v>280</v>
       </c>
-      <c r="Q26" s="228" t="s">
+      <c r="Q26" s="232" t="s">
         <v>279</v>
       </c>
-      <c r="R26" s="229"/>
-      <c r="S26" s="229"/>
-      <c r="T26" s="229"/>
-      <c r="U26" s="229"/>
-      <c r="V26" s="229"/>
-      <c r="W26" s="229"/>
-      <c r="X26" s="229"/>
-      <c r="Y26" s="229"/>
-      <c r="Z26" s="229"/>
-      <c r="AA26" s="229"/>
-      <c r="AB26" s="229"/>
-      <c r="AC26" s="230" t="s">
+      <c r="R26" s="233"/>
+      <c r="S26" s="233"/>
+      <c r="T26" s="233"/>
+      <c r="U26" s="233"/>
+      <c r="V26" s="233"/>
+      <c r="W26" s="233"/>
+      <c r="X26" s="233"/>
+      <c r="Y26" s="233"/>
+      <c r="Z26" s="233"/>
+      <c r="AA26" s="233"/>
+      <c r="AB26" s="233"/>
+      <c r="AC26" s="234" t="s">
         <v>278</v>
       </c>
-      <c r="AD26" s="231"/>
-      <c r="AE26" s="231"/>
-      <c r="AF26" s="231"/>
-      <c r="AG26" s="231"/>
-      <c r="AH26" s="231"/>
-      <c r="AI26" s="231"/>
-      <c r="AJ26" s="231"/>
-      <c r="AK26" s="231"/>
-      <c r="AL26" s="231"/>
-      <c r="AM26" s="231"/>
-      <c r="AN26" s="232"/>
-      <c r="AO26" s="230" t="s">
+      <c r="AD26" s="235"/>
+      <c r="AE26" s="235"/>
+      <c r="AF26" s="235"/>
+      <c r="AG26" s="235"/>
+      <c r="AH26" s="235"/>
+      <c r="AI26" s="235"/>
+      <c r="AJ26" s="235"/>
+      <c r="AK26" s="235"/>
+      <c r="AL26" s="235"/>
+      <c r="AM26" s="235"/>
+      <c r="AN26" s="236"/>
+      <c r="AO26" s="234" t="s">
         <v>277</v>
       </c>
-      <c r="AP26" s="231"/>
-      <c r="AQ26" s="231"/>
-      <c r="AR26" s="231"/>
-      <c r="AS26" s="231"/>
-      <c r="AT26" s="231"/>
-      <c r="AU26" s="231"/>
-      <c r="AV26" s="231"/>
-      <c r="AW26" s="231"/>
-      <c r="AX26" s="231"/>
-      <c r="AY26" s="231"/>
-      <c r="AZ26" s="231"/>
-      <c r="BA26" s="231"/>
-      <c r="BB26" s="232"/>
-      <c r="BC26" s="230" t="s">
+      <c r="AP26" s="235"/>
+      <c r="AQ26" s="235"/>
+      <c r="AR26" s="235"/>
+      <c r="AS26" s="235"/>
+      <c r="AT26" s="235"/>
+      <c r="AU26" s="235"/>
+      <c r="AV26" s="235"/>
+      <c r="AW26" s="235"/>
+      <c r="AX26" s="235"/>
+      <c r="AY26" s="235"/>
+      <c r="AZ26" s="235"/>
+      <c r="BA26" s="235"/>
+      <c r="BB26" s="236"/>
+      <c r="BC26" s="234" t="s">
         <v>276</v>
       </c>
-      <c r="BD26" s="231"/>
-      <c r="BE26" s="231"/>
-      <c r="BF26" s="231"/>
-      <c r="BG26" s="231"/>
-      <c r="BH26" s="231"/>
-      <c r="BI26" s="231"/>
-      <c r="BJ26" s="231"/>
-      <c r="BK26" s="231"/>
-      <c r="BL26" s="231"/>
-      <c r="BM26" s="231"/>
-      <c r="BN26" s="231"/>
-      <c r="BO26" s="231"/>
-      <c r="BP26" s="231"/>
-      <c r="BQ26" s="231"/>
-      <c r="BR26" s="231"/>
-      <c r="BS26" s="232"/>
-      <c r="BT26" s="221" t="s">
+      <c r="BD26" s="235"/>
+      <c r="BE26" s="235"/>
+      <c r="BF26" s="235"/>
+      <c r="BG26" s="235"/>
+      <c r="BH26" s="235"/>
+      <c r="BI26" s="235"/>
+      <c r="BJ26" s="235"/>
+      <c r="BK26" s="235"/>
+      <c r="BL26" s="235"/>
+      <c r="BM26" s="235"/>
+      <c r="BN26" s="235"/>
+      <c r="BO26" s="235"/>
+      <c r="BP26" s="235"/>
+      <c r="BQ26" s="235"/>
+      <c r="BR26" s="235"/>
+      <c r="BS26" s="236"/>
+      <c r="BT26" s="225" t="s">
         <v>275</v>
       </c>
-      <c r="BU26" s="222"/>
-      <c r="BV26" s="222"/>
-      <c r="BW26" s="222"/>
-      <c r="BX26" s="222"/>
-      <c r="BY26" s="222"/>
-      <c r="BZ26" s="222"/>
-      <c r="CA26" s="233" t="s">
+      <c r="BU26" s="226"/>
+      <c r="BV26" s="226"/>
+      <c r="BW26" s="226"/>
+      <c r="BX26" s="226"/>
+      <c r="BY26" s="226"/>
+      <c r="BZ26" s="226"/>
+      <c r="CA26" s="237" t="s">
         <v>274</v>
       </c>
-      <c r="CB26" s="233"/>
-      <c r="CC26" s="233"/>
-      <c r="CD26" s="233"/>
-      <c r="CE26" s="233"/>
-      <c r="CF26" s="233"/>
-      <c r="CG26" s="233"/>
-      <c r="CH26" s="233"/>
-      <c r="CI26" s="233"/>
-      <c r="CJ26" s="233"/>
-      <c r="CK26" s="233"/>
-      <c r="CL26" s="233"/>
-      <c r="CM26" s="233"/>
-      <c r="CN26" s="233"/>
-      <c r="CO26" s="233"/>
-      <c r="CP26" s="233"/>
-      <c r="CQ26" s="233"/>
-      <c r="CR26" s="233"/>
-      <c r="CS26" s="233"/>
-      <c r="CT26" s="233"/>
-      <c r="CU26" s="233"/>
-      <c r="CV26" s="233"/>
+      <c r="CB26" s="237"/>
+      <c r="CC26" s="237"/>
+      <c r="CD26" s="237"/>
+      <c r="CE26" s="237"/>
+      <c r="CF26" s="237"/>
+      <c r="CG26" s="237"/>
+      <c r="CH26" s="237"/>
+      <c r="CI26" s="237"/>
+      <c r="CJ26" s="237"/>
+      <c r="CK26" s="237"/>
+      <c r="CL26" s="237"/>
+      <c r="CM26" s="237"/>
+      <c r="CN26" s="237"/>
+      <c r="CO26" s="237"/>
+      <c r="CP26" s="237"/>
+      <c r="CQ26" s="237"/>
+      <c r="CR26" s="237"/>
+      <c r="CS26" s="237"/>
+      <c r="CT26" s="237"/>
+      <c r="CU26" s="237"/>
+      <c r="CV26" s="237"/>
       <c r="CW26" t="s">
         <v>213</v>
       </c>
@@ -13674,9 +13684,9 @@
       <c r="DH26" t="s">
         <v>270</v>
       </c>
-      <c r="DI26" t="e">
+      <c r="DI26" t="str">
         <f ca="1">"Установленная полная мощность, Ру = "&amp;V5&amp;"кВт"</f>
-        <v>#N/A</v>
+        <v>Установленная полная мощность, Ру = 0кВт</v>
       </c>
       <c r="DJ26" t="s">
         <v>269</v>
@@ -13688,9 +13698,9 @@
       <c r="DL26" t="s">
         <v>268</v>
       </c>
-      <c r="DM26" t="e">
+      <c r="DM26" t="str">
         <f ca="1">"Расчетная мощность, Рр = "&amp;V6</f>
-        <v>#N/A</v>
+        <v>Расчетная мощность, Рр = 0</v>
       </c>
       <c r="DN26" t="s">
         <v>267</v>
@@ -13702,22 +13712,22 @@
       <c r="DP26" t="s">
         <v>266</v>
       </c>
-      <c r="DQ26" t="e">
+      <c r="DQ26" t="str">
         <f ca="1">"Расчетный ток, Iр = "&amp;V15&amp;"А"</f>
-        <v>#N/A</v>
+        <v>Расчетный ток, Iр = 0А</v>
       </c>
       <c r="EL26" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:184" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="215"/>
-      <c r="E27" s="217"/>
-      <c r="F27" s="212"/>
-      <c r="G27" s="217"/>
-      <c r="H27" s="212"/>
-      <c r="I27" s="212"/>
-      <c r="J27" s="219"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="220"/>
+      <c r="F27" s="215"/>
+      <c r="G27" s="220"/>
+      <c r="H27" s="215"/>
+      <c r="I27" s="215"/>
+      <c r="J27" s="222"/>
       <c r="K27" s="134" t="s">
         <v>265</v>
       </c>
@@ -13727,7 +13737,7 @@
       <c r="M27" s="142" t="s">
         <v>263</v>
       </c>
-      <c r="N27" s="227"/>
+      <c r="N27" s="231"/>
       <c r="Q27" s="81" t="s">
         <v>339</v>
       </c>
@@ -13959,10 +13969,10 @@
       <c r="CS27" s="116"/>
       <c r="CT27" s="116"/>
       <c r="CU27" s="116"/>
-      <c r="CV27" s="236" t="s">
+      <c r="CV27" s="175" t="s">
         <v>451</v>
       </c>
-      <c r="CY27" s="235">
+      <c r="CY27" s="174">
         <f>35*$AB$5</f>
         <v>3500</v>
       </c>
@@ -13987,40 +13997,40 @@
       <c r="DQ27" s="160"/>
       <c r="DR27" s="160"/>
       <c r="DS27" s="160"/>
-      <c r="EM27" s="234" t="s">
+      <c r="EM27" s="238" t="s">
         <v>436</v>
       </c>
-      <c r="EN27" s="234"/>
-      <c r="EO27" s="234"/>
-      <c r="EP27" s="234"/>
-      <c r="EQ27" s="234"/>
-      <c r="ER27" s="234"/>
-      <c r="ES27" s="234"/>
-      <c r="ET27" s="234"/>
-      <c r="EU27" s="223" t="s">
+      <c r="EN27" s="238"/>
+      <c r="EO27" s="238"/>
+      <c r="EP27" s="238"/>
+      <c r="EQ27" s="238"/>
+      <c r="ER27" s="238"/>
+      <c r="ES27" s="238"/>
+      <c r="ET27" s="238"/>
+      <c r="EU27" s="227" t="s">
         <v>215</v>
       </c>
-      <c r="EV27" s="223"/>
-      <c r="EW27" s="223"/>
-      <c r="EX27" s="223"/>
-      <c r="EY27" s="223"/>
-      <c r="EZ27" s="223"/>
-      <c r="FA27" s="223"/>
-      <c r="FB27" s="223"/>
-      <c r="FC27" s="223"/>
-      <c r="FD27" s="223"/>
-      <c r="FE27" s="224" t="s">
+      <c r="EV27" s="227"/>
+      <c r="EW27" s="227"/>
+      <c r="EX27" s="227"/>
+      <c r="EY27" s="227"/>
+      <c r="EZ27" s="227"/>
+      <c r="FA27" s="227"/>
+      <c r="FB27" s="227"/>
+      <c r="FC27" s="227"/>
+      <c r="FD27" s="227"/>
+      <c r="FE27" s="228" t="s">
         <v>214</v>
       </c>
-      <c r="FF27" s="224"/>
-      <c r="FG27" s="224"/>
-      <c r="FH27" s="224"/>
-      <c r="FI27" s="224"/>
-      <c r="FJ27" s="224"/>
-      <c r="FK27" s="224"/>
-      <c r="FL27" s="224"/>
-      <c r="FM27" s="224"/>
-      <c r="FN27" s="224"/>
+      <c r="FF27" s="228"/>
+      <c r="FG27" s="228"/>
+      <c r="FH27" s="228"/>
+      <c r="FI27" s="228"/>
+      <c r="FJ27" s="228"/>
+      <c r="FK27" s="228"/>
+      <c r="FL27" s="228"/>
+      <c r="FM27" s="228"/>
+      <c r="FN27" s="228"/>
     </row>
     <row r="28" spans="1:184" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
@@ -14071,8 +14081,11 @@
         <v>#N/A</v>
       </c>
       <c r="O28" t="str">
-        <f>"&lt;zsetformulatocell toSheet=[zalldevEXPORT]  toCell=["&amp;ADDRESS(ROW('&lt;zalldev&gt;EXPORT'!W11),COLUMN('&lt;zalldev&gt;EXPORT'!W11))&amp;"] formula=[fromSheet!"&amp;ADDRESS(ROW(X28),COLUMN(X28))&amp;"]"</f>
-        <v>&lt;zsetformulatocell toSheet=[zalldevEXPORT]  toCell=[$W$11] formula=[fromSheet!$X$28]</v>
+        <f>"&lt;zsetformulatocell calc=[before] toSheet=[zallcabCALC]  toCell=["&amp;ADDRESS(1,COLUMN('&lt;zallcab&gt;CALC'!Y7)) &amp; "] formula=[fromSheet!"&amp;ADDRESS(ROW(AP28),COLUMN(AP28))&amp;"]"</f>
+        <v>&lt;zsetformulatocell calc=[before] toSheet=[zallcabCALC]  toCell=[$Y$1] formula=[fromSheet!$AP$28]</v>
+      </c>
+      <c r="P28" t="s">
+        <v>463</v>
       </c>
       <c r="Q28" s="53">
         <f>'&lt;zalldev&gt;EXPORT'!D11</f>
@@ -14404,7 +14417,7 @@
       <c r="CX28" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="CY28" s="235">
+      <c r="CY28" s="174">
         <f>$CY$27+25*$AB$5*CB28-COUNTIF($CV$28:CV28,1)*25*$AB$5</f>
         <v>6000</v>
       </c>
@@ -14481,28 +14494,28 @@
       <c r="DT28" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="DU28" s="235">
+      <c r="DU28" s="174">
         <f>IF(CH28&gt;0,"",IF(Y28&gt;1,Q28&amp;"("&amp;Y28&amp;"шт.)",Q28))</f>
         <v>0</v>
       </c>
       <c r="DV28" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="DW28" s="235">
+      <c r="DW28" s="174">
         <f ca="1">IF(CH28&gt;0,"",T28)</f>
         <v>0</v>
       </c>
       <c r="DX28" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="DY28" s="235" t="e">
+      <c r="DY28" s="174" t="e">
         <f ca="1">IF(CH28&gt;0,"",V28)</f>
         <v>#N/A</v>
       </c>
       <c r="DZ28" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="EA28" s="235" t="e">
+      <c r="EA28" s="174" t="e">
         <f ca="1">IF(CH28&gt;0,"",AB28&amp;"\P~"&amp;R28&amp;"V")</f>
         <v>#N/A</v>
       </c>
@@ -14530,7 +14543,7 @@
       <c r="EH28" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="EI28" s="235" t="e">
+      <c r="EI28" s="174" t="e">
         <f ca="1">IF(EE28="",AP28,"")</f>
         <v>#N/A</v>
       </c>
@@ -14538,7 +14551,7 @@
         <f>"VSCHEMACable22"</f>
         <v>VSCHEMACable22</v>
       </c>
-      <c r="EK28" s="235" t="e">
+      <c r="EK28" s="174" t="e">
         <f>IF(EG28="",IF(AQ28&lt;&gt;"","L="&amp;AQ28&amp;"м"," "),"")</f>
         <v>#N/A</v>
       </c>
@@ -14941,41 +14954,41 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="183"/>
-      <c r="AA2" s="183"/>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="183"/>
-      <c r="AD2" s="183"/>
-      <c r="AE2" s="183"/>
-      <c r="AF2" s="183"/>
-      <c r="AG2" s="183"/>
-      <c r="AH2" s="184"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="177"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="177"/>
+      <c r="AF2" s="177"/>
+      <c r="AG2" s="177"/>
+      <c r="AH2" s="186"/>
     </row>
     <row r="3" spans="2:34" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
@@ -15916,49 +15929,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="185"/>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="185"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="187"/>
+      <c r="P1" s="187"/>
+      <c r="Q1" s="187"/>
+      <c r="R1" s="187"/>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="187"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="189"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -16421,14 +16434,14 @@
   <sheetData>
     <row r="1" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="190" t="s">
         <v>438</v>
       </c>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="190"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="192"/>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" s="165" t="s">
@@ -16939,11 +16952,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="D3" s="192" t="s">
+      <c r="D3" s="194" t="s">
         <v>326</v>
       </c>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="D4" s="87" t="s">
@@ -17166,61 +17179,61 @@
     </row>
     <row r="8" spans="1:58" ht="135" x14ac:dyDescent="0.25">
       <c r="B8" s="96"/>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="191"/>
-      <c r="E8" s="191"/>
-      <c r="F8" s="192" t="s">
+      <c r="D8" s="193"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="194" t="s">
         <v>333</v>
       </c>
-      <c r="G8" s="192"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="191" t="s">
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="193" t="s">
         <v>168</v>
       </c>
-      <c r="J8" s="191"/>
-      <c r="K8" s="191"/>
-      <c r="L8" s="191" t="s">
+      <c r="J8" s="193"/>
+      <c r="K8" s="193"/>
+      <c r="L8" s="193" t="s">
         <v>181</v>
       </c>
-      <c r="M8" s="191"/>
-      <c r="N8" s="191"/>
-      <c r="O8" s="191" t="s">
+      <c r="M8" s="193"/>
+      <c r="N8" s="193"/>
+      <c r="O8" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="191"/>
-      <c r="Q8" s="191"/>
-      <c r="R8" s="191" t="s">
+      <c r="P8" s="193"/>
+      <c r="Q8" s="193"/>
+      <c r="R8" s="193" t="s">
         <v>182</v>
       </c>
-      <c r="S8" s="191"/>
-      <c r="T8" s="191"/>
-      <c r="U8" s="191" t="s">
+      <c r="S8" s="193"/>
+      <c r="T8" s="193"/>
+      <c r="U8" s="193" t="s">
         <v>169</v>
       </c>
-      <c r="V8" s="191"/>
-      <c r="W8" s="191"/>
-      <c r="X8" s="191" t="s">
+      <c r="V8" s="193"/>
+      <c r="W8" s="193"/>
+      <c r="X8" s="193" t="s">
         <v>184</v>
       </c>
-      <c r="Y8" s="191"/>
-      <c r="Z8" s="191"/>
-      <c r="AA8" s="191" t="s">
+      <c r="Y8" s="193"/>
+      <c r="Z8" s="193"/>
+      <c r="AA8" s="193" t="s">
         <v>185</v>
       </c>
-      <c r="AB8" s="191"/>
-      <c r="AC8" s="191"/>
-      <c r="AD8" s="191" t="s">
+      <c r="AB8" s="193"/>
+      <c r="AC8" s="193"/>
+      <c r="AD8" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="AE8" s="191"/>
-      <c r="AF8" s="191"/>
-      <c r="AG8" s="191" t="s">
+      <c r="AE8" s="193"/>
+      <c r="AF8" s="193"/>
+      <c r="AG8" s="193" t="s">
         <v>393</v>
       </c>
-      <c r="AH8" s="191"/>
-      <c r="AI8" s="191"/>
+      <c r="AH8" s="193"/>
+      <c r="AI8" s="193"/>
       <c r="AJ8" s="153" t="s">
         <v>433</v>
       </c>
